--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/DIAL/exchange-backend/utils/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA0EE6A0-D099-BB44-8603-C0BD41FEA550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DE02AB-581F-524B-AC75-9DD73D1D2074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8040" yWindow="880" windowWidth="27960" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6800" yWindow="2420" windowWidth="27960" windowHeight="17680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -529,9 +529,6 @@
     <t>Sophie ChatRobot Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">SophieBot </t>
-  </si>
-  <si>
     <t>SophieBot is an artificial intelligence persona to answer users' questions on sexual health. Think of her as "Siri for sexual health".We take great care to feed her with curated verified information from our partner/investor UNFPA Kenya.</t>
   </si>
   <si>
@@ -898,6 +895,9 @@
   </si>
   <si>
     <t>https://drive.google.com/uc?export=download&amp;id=1pEAL9VJC4W8wzRkxjrKj_5Xo19Ptv43B</t>
+  </si>
+  <si>
+    <t>SophieBot</t>
   </si>
 </sst>
 </file>
@@ -1636,7 +1636,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1676,7 +1676,7 @@
         <v>5</v>
       </c>
       <c r="G1" s="19" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H1" s="19" t="s">
         <v>6</v>
@@ -1817,7 +1817,7 @@
         <v>51</v>
       </c>
       <c r="BB1" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="BC1" s="19" t="s">
         <v>52</v>
@@ -1846,10 +1846,10 @@
         <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="2" t="s">
@@ -2400,25 +2400,25 @@
         <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>146</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K6" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>67</v>
@@ -2463,7 +2463,7 @@
         <v>63</v>
       </c>
       <c r="AD6" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AE6" s="2"/>
       <c r="AF6" s="2"/>
@@ -2471,10 +2471,10 @@
         <v>63</v>
       </c>
       <c r="AH6" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="AI6" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="AJ6" s="2" t="s">
         <v>63</v>
@@ -2483,16 +2483,16 @@
         <v>67</v>
       </c>
       <c r="AL6" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM6" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="AM6" s="2" t="s">
-        <v>155</v>
       </c>
       <c r="AN6" s="2" t="s">
         <v>116</v>
       </c>
       <c r="AO6" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AP6" s="2" t="s">
         <v>67</v>
@@ -2507,7 +2507,7 @@
       <c r="AX6" s="2"/>
       <c r="AY6" s="2"/>
       <c r="AZ6" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BA6" s="2"/>
       <c r="BB6" s="2"/>
@@ -2519,42 +2519,42 @@
         <v>45549.185348842591</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>161</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>162</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="9" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I7" s="8"/>
       <c r="J7" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K7" s="8" t="s">
+      <c r="L7" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="L7" s="8" t="s">
+      <c r="M7" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="M7" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="N7" s="8" t="s">
         <v>67</v>
       </c>
       <c r="O7" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="P7" s="8" t="s">
         <v>63</v>
@@ -2572,13 +2572,13 @@
         <v>63</v>
       </c>
       <c r="U7" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V7" s="8">
         <v>1</v>
       </c>
       <c r="W7" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="X7" s="8" t="s">
         <v>111</v>
@@ -2593,7 +2593,7 @@
         <v>63</v>
       </c>
       <c r="AB7" s="9" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AC7" s="8" t="s">
         <v>63</v>
@@ -2605,22 +2605,22 @@
         <v>63</v>
       </c>
       <c r="AH7" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="AI7" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="AI7" s="8" t="s">
+      <c r="AJ7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK7" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL7" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="AJ7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK7" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL7" s="8" t="s">
+      <c r="AM7" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="AM7" s="8" t="s">
-        <v>175</v>
       </c>
       <c r="AN7" s="8" t="s">
         <v>116</v>
@@ -2635,7 +2635,7 @@
       <c r="AR7" s="8"/>
       <c r="AS7" s="8"/>
       <c r="AT7" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AU7" s="8"/>
       <c r="AV7" s="8" t="s">
@@ -2644,7 +2644,7 @@
       <c r="AW7" s="8"/>
       <c r="AX7" s="8"/>
       <c r="AY7" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AZ7" s="8" t="s">
         <v>122</v>
@@ -2659,42 +2659,42 @@
         <v>45550.202852604169</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="22" t="s">
         <v>178</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="K8" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>184</v>
       </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="O8" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="P8" s="2" t="s">
         <v>67</v>
@@ -2712,10 +2712,10 @@
         <v>63</v>
       </c>
       <c r="U8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="W8" s="2">
         <v>18</v>
@@ -2727,7 +2727,7 @@
         <v>40000</v>
       </c>
       <c r="Z8" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA8" s="2" t="s">
         <v>67</v>
@@ -2743,22 +2743,22 @@
         <v>63</v>
       </c>
       <c r="AH8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AJ8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="AJ8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK8" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL8" s="2" t="s">
+      <c r="AM8" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="AM8" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="AN8" s="2" t="s">
         <v>116</v>
@@ -2770,7 +2770,7 @@
         <v>63</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AR8" s="2"/>
       <c r="AS8" s="2"/>
@@ -2778,14 +2778,14 @@
       <c r="AU8" s="2"/>
       <c r="AV8" s="2"/>
       <c r="AW8" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AX8" s="2"/>
       <c r="AY8" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AZ8" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="BA8" s="2"/>
       <c r="BB8" s="2"/>
@@ -2797,44 +2797,44 @@
         <v>45550.367459953704</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C9" s="23" t="s">
         <v>197</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="D9" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="E9" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="F9" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>201</v>
-      </c>
       <c r="G9" s="8" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H9" s="23" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I9" s="8"/>
       <c r="J9" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="K9" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="K9" s="8" t="s">
+      <c r="L9" s="8" t="s">
         <v>203</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="M9" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="M9" s="8" t="s">
-        <v>205</v>
-      </c>
       <c r="N9" s="8" t="s">
         <v>63</v>
       </c>
       <c r="O9" s="8" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P9" s="8" t="s">
         <v>63</v>
@@ -2852,19 +2852,19 @@
         <v>63</v>
       </c>
       <c r="U9" s="8" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="V9" s="8">
         <v>9</v>
       </c>
       <c r="W9" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="X9" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="X9" s="8" t="s">
+      <c r="Y9" s="8" t="s">
         <v>208</v>
-      </c>
-      <c r="Y9" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="Z9" s="11">
         <v>3000000</v>
@@ -2873,13 +2873,13 @@
         <v>63</v>
       </c>
       <c r="AB9" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="AC9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AD9" s="9" t="s">
         <v>210</v>
-      </c>
-      <c r="AC9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD9" s="9" t="s">
-        <v>211</v>
       </c>
       <c r="AE9" s="8"/>
       <c r="AF9" s="8"/>
@@ -2887,56 +2887,56 @@
         <v>63</v>
       </c>
       <c r="AH9" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="AI9" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="AI9" s="8" t="s">
+      <c r="AJ9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="AL9" s="8" t="s">
         <v>213</v>
       </c>
-      <c r="AJ9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AK9" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="AL9" s="8" t="s">
+      <c r="AM9" s="8" t="s">
         <v>214</v>
-      </c>
-      <c r="AM9" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="AN9" s="8" t="s">
         <v>68</v>
       </c>
       <c r="AO9" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AP9" s="8" t="s">
         <v>63</v>
       </c>
       <c r="AQ9" s="8" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AR9" s="8"/>
       <c r="AS9" s="8"/>
       <c r="AT9" s="8"/>
       <c r="AU9" s="8"/>
       <c r="AV9" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="AW9" s="8" t="s">
         <v>217</v>
-      </c>
-      <c r="AW9" s="8" t="s">
-        <v>218</v>
       </c>
       <c r="AX9" s="8" t="s">
         <v>120</v>
       </c>
       <c r="AY9" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="AZ9" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="AZ9" s="8" t="s">
+      <c r="BA9" s="8" t="s">
         <v>220</v>
-      </c>
-      <c r="BA9" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="BB9" s="8"/>
       <c r="BC9" s="8"/>
@@ -2947,44 +2947,44 @@
         <v>45551.295963229168</v>
       </c>
       <c r="B10" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="C10" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="D10" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="E10" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="F10" s="14" t="s">
         <v>224</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>225</v>
-      </c>
       <c r="G10" s="14" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H10" s="24" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I10" s="14"/>
       <c r="J10" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="K10" s="14" t="s">
         <v>226</v>
       </c>
-      <c r="K10" s="14" t="s">
+      <c r="L10" s="14" t="s">
         <v>227</v>
       </c>
-      <c r="L10" s="14" t="s">
+      <c r="M10" s="14" t="s">
         <v>228</v>
       </c>
-      <c r="M10" s="14" t="s">
+      <c r="N10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="O10" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="N10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="14" t="s">
-        <v>230</v>
       </c>
       <c r="P10" s="14" t="s">
         <v>63</v>
@@ -3002,28 +3002,28 @@
         <v>63</v>
       </c>
       <c r="U10" s="14" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="V10" s="14">
         <v>5</v>
       </c>
       <c r="W10" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="X10" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="X10" s="14" t="s">
+      <c r="Y10" s="14" t="s">
         <v>233</v>
       </c>
-      <c r="Y10" s="14" t="s">
+      <c r="Z10" s="14" t="s">
         <v>234</v>
       </c>
-      <c r="Z10" s="14" t="s">
+      <c r="AA10" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB10" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="AA10" s="14" t="s">
-        <v>63</v>
-      </c>
-      <c r="AB10" s="14" t="s">
-        <v>236</v>
       </c>
       <c r="AC10" s="14" t="s">
         <v>67</v>
@@ -3035,10 +3035,10 @@
         <v>63</v>
       </c>
       <c r="AH10" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="AI10" s="15" t="s">
         <v>237</v>
-      </c>
-      <c r="AI10" s="15" t="s">
-        <v>238</v>
       </c>
       <c r="AJ10" s="14" t="s">
         <v>63</v>
@@ -3047,10 +3047,10 @@
         <v>67</v>
       </c>
       <c r="AL10" s="14" t="s">
+        <v>238</v>
+      </c>
+      <c r="AM10" s="14" t="s">
         <v>239</v>
-      </c>
-      <c r="AM10" s="14" t="s">
-        <v>240</v>
       </c>
       <c r="AN10" s="14" t="s">
         <v>116</v>
@@ -3062,27 +3062,27 @@
         <v>63</v>
       </c>
       <c r="AQ10" s="15" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="AR10" s="14"/>
       <c r="AS10" s="14"/>
       <c r="AT10" s="14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="AU10" s="14"/>
       <c r="AV10" s="14"/>
       <c r="AW10" s="14" t="s">
+        <v>242</v>
+      </c>
+      <c r="AX10" s="14" t="s">
         <v>243</v>
-      </c>
-      <c r="AX10" s="14" t="s">
-        <v>244</v>
       </c>
       <c r="AY10" s="14" t="s">
         <v>121</v>
       </c>
       <c r="AZ10" s="14"/>
       <c r="BA10" s="14" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="BB10" s="14"/>
       <c r="BC10" s="14"/>
@@ -3111,10 +3111,13 @@
     <hyperlink ref="AI10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="AQ10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="H9" r:id="rId21" xr:uid="{AE970523-A716-D741-9507-5F4E284CB487}"/>
+    <hyperlink ref="C8" r:id="rId22" xr:uid="{C62867EA-93D7-C849-A012-9CFE28D4A250}"/>
+    <hyperlink ref="C9" r:id="rId23" xr:uid="{9F75A5C9-EA34-B943-8820-0AC5DE257800}"/>
+    <hyperlink ref="C10" r:id="rId24" xr:uid="{B9CBE54E-F13F-3D43-97CD-00DFC561B172}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId22"/>
+    <tablePart r:id="rId25"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/DIAL/exchange-backend/utils/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69670FCA-2650-BA44-BC5F-1FC6E176B87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -530,9 +539,6 @@
     <t>Sophie ChatRobot Limited</t>
   </si>
   <si>
-    <t xml:space="preserve">SophieBot </t>
-  </si>
-  <si>
     <t>SophieBot is an artificial intelligence persona to answer users' questions on sexual health. Think of her as "Siri for sexual health".We take great care to feed her with curated verified information from our partner/investor UNFPA Kenya.</t>
   </si>
   <si>
@@ -1040,49 +1046,59 @@
   <si>
     <t>Customizable data collection forms</t>
   </si>
+  <si>
+    <t>SophieBot</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
@@ -1092,11 +1108,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="13">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -1110,6 +1132,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1124,6 +1147,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1138,6 +1162,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1152,6 +1177,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1166,6 +1192,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1180,6 +1207,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1194,6 +1222,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1208,6 +1237,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1222,6 +1252,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1236,6 +1267,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1250,6 +1282,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -1264,252 +1297,194 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="23">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD13" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BD13">
   <tableColumns count="56">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="Your name" id="2"/>
-    <tableColumn name="Your email address" id="3"/>
-    <tableColumn name="Organization Name" id="4"/>
-    <tableColumn name="Name of Digital Health Solution" id="5"/>
-    <tableColumn name="Description of Solution" id="6"/>
-    <tableColumn name="Please upload the solution or organization logo" id="7"/>
-    <tableColumn name="(Optional) Provide an email address that users of the Marketplace would be able to see in order to reach out for more information about your solution" id="8"/>
-    <tableColumn name="Solution Categories (may select multiple categories)" id="9"/>
-    <tableColumn name="This marketplace is focused on digital innovations that address African health use cases. Please provide detail on how this solution is designed to improve health outcomes in African health" id="10"/>
-    <tableColumn name="Please provide information about the market need that this solution fills, and what impact this health solution has made in the African health ecosystem" id="11"/>
-    <tableColumn name="Where is the headquarters of the organization developing/maintaining this solution? (Note: organizations headquartered outside of Africa may still be considered for inclusion)" id="12"/>
-    <tableColumn name="Has this solution been deployed in one or more African locations?" id="13"/>
-    <tableColumn name="If yes, please list African countries where the solution has been deployed" id="14"/>
-    <tableColumn name="Are the founders of the organization based in Africa? (Note that founders outside of Africa may still be considered for inclusion in the Marketplace)" id="15"/>
-    <tableColumn name="What percentage of the leadership team is based in Africa? (If the leadership team is based outside of Africa, the solution still may be listed in the Marketplace)" id="16"/>
-    <tableColumn name="What percentage of the software development work on this solution was done by African developers? (If the software development team is based outside of Africa, the solution still may be listed in the Marketplace)" id="17"/>
-    <tableColumn name="How would you categorize your solution?" id="18"/>
-    <tableColumn name="Is the solution currently live in production in one or more contexts?" id="19"/>
-    <tableColumn name="If yes, how many active production deployments? For a cloud services provider, how many unique customers?" id="20"/>
-    <tableColumn name="How many countries is the solution currently being used in (in a live production environment)" id="21"/>
-    <tableColumn name="How many daily active users of this solution?" id="22"/>
-    <tableColumn name="How many transactions per month are processed by the solution in all production environments?" id="23"/>
-    <tableColumn name="What is the current annual revenue of the organization building/maintaining the solution?" id="24"/>
-    <tableColumn name="How much external funding has been raised for development of the solution?" id="25"/>
-    <tableColumn name="Does this solution use FHIR or other applicable health standards (ICD10, etc)?" id="26"/>
-    <tableColumn name="If yes, please provide a link to relevant documentation showing use of these standards" id="27"/>
-    <tableColumn name="Does the solution have an API that other platforms can access?" id="28"/>
-    <tableColumn name="If yes, please provide link to API or API documentation" id="29"/>
-    <tableColumn name="Does the solution integrate with any national or regional health systems?" id="30"/>
-    <tableColumn name="If yes, please provide a link to documentation or information about these integrations" id="31"/>
-    <tableColumn name="Does the solution have a privacy policy?" id="32"/>
-    <tableColumn name="If yes, please provide a link to the privacy policy" id="33"/>
-    <tableColumn name="Please describe how the solution ensures the privacy and protection of Personal Health Information (PHI)" id="34"/>
-    <tableColumn name="Can the solution be deployed on cloud providers (AWS, Azure, GCP)? " id="35"/>
-    <tableColumn name="Does the solution use Docker, Kubernetes or similar technologies for deployment?" id="36"/>
-    <tableColumn name="Please describe mechanisms used for audit logging and error reporting" id="37"/>
-    <tableColumn name="Please describe the mechanisms used for authentication and authorization" id="38"/>
-    <tableColumn name="How many software developers are currently working on the solution?" id="39"/>
-    <tableColumn name="How many releases of the product in the past 12 months?" id="40"/>
-    <tableColumn name="Does the software provide offline support?" id="41"/>
-    <tableColumn name="If yes, please provide a link to documentation about offline support" id="42"/>
-    <tableColumn name="Does the solution offer multiple languages or ability to be translated?" id="43"/>
-    <tableColumn name="Does the solution offer customization of fields or forms for different users and use cases?" id="44"/>
-    <tableColumn name="Electronic Health Record_x000a_If the solution provides EHR/EMR capabilities, please select which features are offered" id="45"/>
-    <tableColumn name="Pharmacy_x000a_If the solution provides Pharmacy capabilities, please select which features are offered" id="46"/>
-    <tableColumn name="Laboratory and Diagnostics_x000a_If the solution provides Lab and Diagnostic capabilities, please select which features are offered" id="47"/>
-    <tableColumn name="Disease Surveillance_x000a_If the solution provides Disease Surveillance capabilities, please select which features are offered" id="48"/>
-    <tableColumn name="National and Community Health_x000a_If the solution provides capabilities related to National and Community Health, please select which features are offered" id="49"/>
-    <tableColumn name="Analytics and Data Aggregation_x000a_If the solution provides Analytics/Data Aggregation capabilities, please select which features are offered" id="50"/>
-    <tableColumn name="AI for Health_x000a_If the solution provides AI capabilities, please select which features are offered" id="51"/>
-    <tableColumn name="Virtual Health_x000a_If the solution provides Virtual Health capabilities, please select which features are offered" id="52"/>
-    <tableColumn name="Vaccination_x000a_If the solution provides capabilities related to Vaccination, please select which features are offered" id="53"/>
-    <tableColumn name="Please provide any comments or other features that your solution provides that are not listed above" id="54"/>
-    <tableColumn name="Solution website" id="55"/>
-    <tableColumn name="Front-line (CHW) tools_x000a_What functionalities does the solution provide for Community Health Workers" id="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Your name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Your email address"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name of Digital Health Solution"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description of Solution"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Please upload the solution or organization logo"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="(Optional) Provide an email address that users of the Marketplace would be able to see in order to reach out for more information about your solution"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solution Categories (may select multiple categories)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="This marketplace is focused on digital innovations that address African health use cases. Please provide detail on how this solution is designed to improve health outcomes in African health"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Please provide information about the market need that this solution fills, and what impact this health solution has made in the African health ecosystem"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Where is the headquarters of the organization developing/maintaining this solution? (Note: organizations headquartered outside of Africa may still be considered for inclusion)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Has this solution been deployed in one or more African locations?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="If yes, please list African countries where the solution has been deployed"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Are the founders of the organization based in Africa? (Note that founders outside of Africa may still be considered for inclusion in the Marketplace)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What percentage of the leadership team is based in Africa? (If the leadership team is based outside of Africa, the solution still may be listed in the Marketplace)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="What percentage of the software development work on this solution was done by African developers? (If the software development team is based outside of Africa, the solution still may be listed in the Marketplace)"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="How would you categorize your solution?"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Is the solution currently live in production in one or more contexts?"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="If yes, how many active production deployments? For a cloud services provider, how many unique customers?"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="How many countries is the solution currently being used in (in a live production environment)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="How many daily active users of this solution?"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="How many transactions per month are processed by the solution in all production environments?"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="What is the current annual revenue of the organization building/maintaining the solution?"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="How much external funding has been raised for development of the solution?"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Does this solution use FHIR or other applicable health standards (ICD10, etc)?"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="If yes, please provide a link to relevant documentation showing use of these standards"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Does the solution have an API that other platforms can access?"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="If yes, please provide link to API or API documentation"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Does the solution integrate with any national or regional health systems?"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="If yes, please provide a link to documentation or information about these integrations"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Does the solution have a privacy policy?"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="If yes, please provide a link to the privacy policy"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Please describe how the solution ensures the privacy and protection of Personal Health Information (PHI)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Can the solution be deployed on cloud providers (AWS, Azure, GCP)? "/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Does the solution use Docker, Kubernetes or similar technologies for deployment?"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Please describe mechanisms used for audit logging and error reporting"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Please describe the mechanisms used for authentication and authorization"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="How many software developers are currently working on the solution?"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="How many releases of the product in the past 12 months?"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Does the software provide offline support?"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="If yes, please provide a link to documentation about offline support"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Does the solution offer multiple languages or ability to be translated?"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Does the solution offer customization of fields or forms for different users and use cases?"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Electronic Health Record_x000a_If the solution provides EHR/EMR capabilities, please select which features are offered"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Pharmacy_x000a_If the solution provides Pharmacy capabilities, please select which features are offered"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Laboratory and Diagnostics_x000a_If the solution provides Lab and Diagnostic capabilities, please select which features are offered"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Disease Surveillance_x000a_If the solution provides Disease Surveillance capabilities, please select which features are offered"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="National and Community Health_x000a_If the solution provides capabilities related to National and Community Health, please select which features are offered"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Analytics and Data Aggregation_x000a_If the solution provides Analytics/Data Aggregation capabilities, please select which features are offered"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="AI for Health_x000a_If the solution provides AI capabilities, please select which features are offered"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Virtual Health_x000a_If the solution provides Virtual Health capabilities, please select which features are offered"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Vaccination_x000a_If the solution provides capabilities related to Vaccination, please select which features are offered"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Please provide any comments or other features that your solution provides that are not listed above"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Solution website"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Front-line (CHW) tools_x000a_What functionalities does the solution provide for Community Health Workers"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -1699,38 +1674,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BD13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="19.25"/>
-    <col customWidth="1" min="4" max="4" width="19.38"/>
-    <col customWidth="1" min="5" max="5" width="28.13"/>
-    <col customWidth="1" min="6" max="6" width="21.88"/>
-    <col customWidth="1" min="7" max="17" width="37.63"/>
-    <col customWidth="1" min="18" max="18" width="35.0"/>
-    <col customWidth="1" min="19" max="31" width="37.63"/>
-    <col customWidth="1" min="32" max="32" width="34.13"/>
-    <col customWidth="1" min="33" max="40" width="37.63"/>
-    <col customWidth="1" min="41" max="41" width="36.13"/>
-    <col customWidth="1" min="42" max="54" width="37.63"/>
-    <col customWidth="1" min="55" max="62" width="18.88"/>
+    <col min="1" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="17" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="35" customWidth="1"/>
+    <col min="19" max="31" width="37.6640625" customWidth="1"/>
+    <col min="32" max="32" width="34.1640625" customWidth="1"/>
+    <col min="33" max="40" width="37.6640625" customWidth="1"/>
+    <col min="41" max="41" width="36.1640625" customWidth="1"/>
+    <col min="42" max="54" width="37.6640625" customWidth="1"/>
+    <col min="55" max="62" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1893,1678 +1871,1678 @@
       <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>45548.1980730787</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>45548.198073078704</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="9">
+      <c r="O2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="7">
         <v>0.66</v>
       </c>
-      <c r="Q2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="S2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="5">
+        <v>4</v>
+      </c>
+      <c r="U2" s="5">
+        <v>3</v>
+      </c>
+      <c r="V2" s="5">
+        <v>70</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="10">
-        <v>150000.0</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>250000.0</v>
-      </c>
-      <c r="Z2" s="6" t="s">
+      <c r="X2" s="8">
+        <v>150000</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>250000</v>
+      </c>
+      <c r="Z2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="6" t="s">
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="6" t="s">
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="6" t="s">
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="6" t="s">
+      <c r="AO2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BA2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BB2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BC2" s="11"/>
-      <c r="BD2" s="12"/>
+      <c r="BC2" s="5"/>
+      <c r="BD2" s="9"/>
     </row>
-    <row r="3">
-      <c r="A3" s="13">
-        <v>45548.41711325232</v>
-      </c>
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>45548.417113252319</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="14" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M3" s="14" t="s">
+      <c r="M3" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" s="17">
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
         <v>0.8</v>
       </c>
-      <c r="R3" s="14" t="s">
+      <c r="R3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="U3" s="14">
-        <v>3.0</v>
-      </c>
-      <c r="V3" s="14">
-        <v>10.0</v>
-      </c>
-      <c r="W3" s="14">
-        <v>150.0</v>
-      </c>
-      <c r="X3" s="18">
-        <v>28800.0</v>
-      </c>
-      <c r="Y3" s="18">
-        <v>200000.0</v>
-      </c>
-      <c r="Z3" s="16"/>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="15" t="s">
+      <c r="S3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3</v>
+      </c>
+      <c r="U3" s="11">
+        <v>3</v>
+      </c>
+      <c r="V3" s="11">
+        <v>10</v>
+      </c>
+      <c r="W3" s="11">
+        <v>150</v>
+      </c>
+      <c r="X3" s="14">
+        <v>28800</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>200000</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="AD3" s="16"/>
-      <c r="AE3" s="16"/>
-      <c r="AF3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="16"/>
-      <c r="AH3" s="14" t="s">
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="AI3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" s="14" t="s">
+      <c r="AI3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AL3" s="16"/>
-      <c r="AM3" s="14" t="s">
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="14" t="s">
+      <c r="AN3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AO3" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" s="16"/>
-      <c r="AQ3" s="16"/>
-      <c r="AR3" s="16"/>
-      <c r="AS3" s="14" t="s">
+      <c r="AO3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AT3" s="16"/>
-      <c r="AU3" s="14" t="s">
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AV3" s="16"/>
-      <c r="AW3" s="16"/>
-      <c r="AX3" s="16"/>
-      <c r="AY3" s="16"/>
-      <c r="AZ3" s="14" t="s">
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="BA3" s="16"/>
-      <c r="BB3" s="16"/>
-      <c r="BC3" s="16"/>
-      <c r="BD3" s="19"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="15"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>45548.56660546296</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>45548.566605462962</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="T4" s="6" t="s">
+      <c r="T4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Z4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA4" s="6" t="s">
+      <c r="AA4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AB4" s="6" t="s">
+      <c r="AB4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AC4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AI4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
+      <c r="AI4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AK4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AL4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AM4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AN4" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AO4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AO4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="6" t="s">
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="6" t="s">
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AV4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AW4" s="6" t="s">
+      <c r="AW4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AX4" s="6" t="s">
+      <c r="AX4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AY4" s="6" t="s">
+      <c r="AY4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AZ4" s="6" t="s">
+      <c r="AZ4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="6" t="s">
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="BC4" s="11"/>
-      <c r="BD4" s="12"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="9"/>
     </row>
-    <row r="5">
-      <c r="A5" s="13">
-        <v>45548.72340398148</v>
-      </c>
-      <c r="B5" s="14" t="s">
+    <row r="5" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>45548.723403981479</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="14" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="K5" s="14" t="s">
+      <c r="K5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="14">
-        <v>100.0</v>
-      </c>
-      <c r="Q5" s="14">
-        <v>100.0</v>
-      </c>
-      <c r="R5" s="14" t="s">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>100</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="S5" s="14" t="s">
+      <c r="S5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="T5" s="16"/>
-      <c r="U5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="W5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="X5" s="14">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" s="14">
-        <v>10000.0</v>
-      </c>
-      <c r="Z5" s="14" t="s">
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="Z5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AA5" s="16"/>
-      <c r="AB5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="14" t="s">
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="AD5" s="16"/>
-      <c r="AE5" s="16"/>
-      <c r="AF5" s="14" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AG5" s="16"/>
-      <c r="AH5" s="14" t="s">
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AI5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK5" s="14" t="s">
+      <c r="AI5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="AL5" s="14" t="s">
+      <c r="AL5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AM5" s="14" t="s">
+      <c r="AM5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="AN5" s="14" t="s">
+      <c r="AN5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AO5" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP5" s="14" t="s">
+      <c r="AO5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AQ5" s="16"/>
-      <c r="AR5" s="16"/>
-      <c r="AS5" s="16"/>
-      <c r="AT5" s="16"/>
-      <c r="AU5" s="14" t="s">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AV5" s="16"/>
-      <c r="AW5" s="16"/>
-      <c r="AX5" s="16"/>
-      <c r="AY5" s="14" t="s">
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AZ5" s="16"/>
-      <c r="BA5" s="16"/>
-      <c r="BB5" s="14" t="s">
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="BC5" s="20"/>
-      <c r="BD5" s="21"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="15"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>45549.09881271991</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>45549.098812719909</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>400</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="8">
+        <v>35000</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="M6" s="6" t="s">
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG6" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH6" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="AI6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="AK6" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL6" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="AM6" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN6" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="5"/>
+      <c r="BD6" s="9"/>
+    </row>
+    <row r="7" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>45549.185348842591</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>168</v>
+      </c>
+      <c r="L7" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.67</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="U7" s="11">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y7" s="14">
+        <v>77000</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="12" t="s">
+        <v>174</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="AM7" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="AY7" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="15"/>
+    </row>
+    <row r="8" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>45550.202852604169</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>0.33</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="6">
-        <v>4000.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>400.0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="10">
-        <v>35000.0</v>
-      </c>
-      <c r="Z6" s="6" t="s">
+      <c r="S8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="U8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="V8" s="5">
+        <v>18</v>
+      </c>
+      <c r="W8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X8" s="8">
+        <v>40000</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC6" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG6" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="AH6" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="AI6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AK6" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH8" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL8" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM8" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN8" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP8" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY8" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="5"/>
+      <c r="BD8" s="9"/>
+    </row>
+    <row r="9" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
+        <v>45550.367459953704</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>201</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="U9" s="11">
+        <v>9</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y9" s="14">
+        <v>3000000</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA9" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG9" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN9" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AO9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX9" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY9" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ9" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="11"/>
+      <c r="BD9" s="15"/>
+    </row>
+    <row r="10" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>45551.295963229168</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="U10" s="5">
+        <v>5</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="X10" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="AB10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH10" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="AL10" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="AM10" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AN6" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO6" s="6" t="s">
+      <c r="AN10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP10" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="AW10" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="AX10" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="5"/>
+      <c r="BD10" s="9"/>
+    </row>
+    <row r="11" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>45562.111825856482</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>252</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>256</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>263</v>
+      </c>
+      <c r="O11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="11">
+        <v>200</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="11">
+        <v>42</v>
+      </c>
+      <c r="W11" s="11">
+        <v>501</v>
+      </c>
+      <c r="X11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="8"/>
-      <c r="BD6" s="22"/>
+      <c r="AD11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN11" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AT11" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="AW11" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="AZ11" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC11" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD11" s="15" t="s">
+        <v>267</v>
+      </c>
     </row>
-    <row r="7">
-      <c r="A7" s="13">
-        <v>45549.18534884259</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="G7" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="K7" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="L7" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="M7" s="14" t="s">
+    <row r="12" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
+        <v>45562.17261587963</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>272</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="M12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="N7" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="O7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0.67</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="R7" s="14" t="s">
+      <c r="O12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="14" t="s">
-        <v>172</v>
-      </c>
-      <c r="U7" s="14">
-        <v>1.0</v>
-      </c>
-      <c r="V7" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="W7" s="14" t="s">
+      <c r="S12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U12" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="V12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="W12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="X7" s="14" t="s">
+      <c r="X12" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="Y7" s="18">
-        <v>77000.0</v>
-      </c>
-      <c r="Z7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA7" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="AB7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="16"/>
-      <c r="AD7" s="16"/>
-      <c r="AE7" s="16"/>
-      <c r="AF7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG7" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="AH7" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="AI7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ7" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK7" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="AL7" s="14" t="s">
-        <v>178</v>
-      </c>
-      <c r="AM7" s="14" t="s">
+      <c r="Y12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AN7" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="AO7" s="14" t="s">
+      <c r="AN12" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO12" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="AP7" s="16"/>
-      <c r="AQ7" s="16"/>
-      <c r="AR7" s="16"/>
-      <c r="AS7" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="AT7" s="16"/>
-      <c r="AU7" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="AV7" s="16"/>
-      <c r="AW7" s="16"/>
-      <c r="AX7" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="AY7" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="AZ7" s="16"/>
-      <c r="BA7" s="16"/>
-      <c r="BB7" s="16"/>
-      <c r="BC7" s="16"/>
-      <c r="BD7" s="19"/>
+      <c r="AQ12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS12" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="AW12" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="AY12" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="AZ12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="BC12" s="17" t="s">
+        <v>281</v>
+      </c>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>45550.20285260417</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>185</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6" t="s">
-        <v>187</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>188</v>
-      </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6" t="s">
-        <v>189</v>
-      </c>
-      <c r="M8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>190</v>
-      </c>
-      <c r="O8" s="6" t="s">
+    <row r="13" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="18">
+        <v>45562.248555115744</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>282</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>285</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>286</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>287</v>
+      </c>
+      <c r="H13" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="J13" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="L13" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="M13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="O13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="21">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>1</v>
+      </c>
+      <c r="R13" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="S13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="19" t="s">
+        <v>293</v>
+      </c>
+      <c r="U13" s="19">
+        <v>1</v>
+      </c>
+      <c r="V13" s="19">
+        <v>400</v>
+      </c>
+      <c r="W13" s="19">
+        <v>2000</v>
+      </c>
+      <c r="Y13" s="19" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="AI13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM13" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="AN13" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="AO13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="P8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="Q8" s="9">
-        <v>0.33</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="V8" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>4000.0</v>
-      </c>
-      <c r="X8" s="10">
-        <v>40000.0</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>192</v>
-      </c>
-      <c r="Z8" s="6" t="s">
+      <c r="AQ13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG8" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>194</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY8" s="6" t="s">
-        <v>200</v>
-      </c>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="8"/>
-      <c r="BD8" s="22"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="13">
-        <v>45550.367459953704</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="E9" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="F9" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>208</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="L9" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="M9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="14" t="s">
-        <v>211</v>
-      </c>
-      <c r="O9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>1.0</v>
-      </c>
-      <c r="R9" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="S9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="U9" s="14">
-        <v>9.0</v>
-      </c>
-      <c r="V9" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="W9" s="14" t="s">
-        <v>214</v>
-      </c>
-      <c r="X9" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="Y9" s="18">
-        <v>3000000.0</v>
-      </c>
-      <c r="Z9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="AB9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" s="15" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD9" s="16"/>
-      <c r="AE9" s="16"/>
-      <c r="AF9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG9" s="15" t="s">
-        <v>218</v>
-      </c>
-      <c r="AH9" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="AI9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK9" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="AL9" s="14" t="s">
-        <v>221</v>
-      </c>
-      <c r="AM9" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN9" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO9" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP9" s="14" t="s">
-        <v>222</v>
-      </c>
-      <c r="AQ9" s="16"/>
-      <c r="AR9" s="16"/>
-      <c r="AS9" s="16"/>
-      <c r="AT9" s="16"/>
-      <c r="AU9" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV9" s="14" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW9" s="14" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX9" s="14" t="s">
-        <v>225</v>
-      </c>
-      <c r="AY9" s="14" t="s">
-        <v>226</v>
-      </c>
-      <c r="AZ9" s="14" t="s">
-        <v>227</v>
-      </c>
-      <c r="BA9" s="16"/>
-      <c r="BB9" s="16"/>
-      <c r="BC9" s="16"/>
-      <c r="BD9" s="19"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>45551.29596322917</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R10" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="U10" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="V10" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="W10" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="X10" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y10" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="AB10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG10" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="AH10" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK10" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL10" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM10" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN10" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP10" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="AW10" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="AX10" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="8"/>
-      <c r="BD10" s="22"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="23">
-        <v>45562.11182585648</v>
-      </c>
-      <c r="B11" s="24" t="s">
-        <v>253</v>
-      </c>
-      <c r="C11" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>255</v>
-      </c>
-      <c r="E11" s="24" t="s">
-        <v>256</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>257</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>258</v>
-      </c>
-      <c r="H11" s="24" t="s">
-        <v>259</v>
-      </c>
-      <c r="I11" s="24" t="s">
-        <v>260</v>
-      </c>
-      <c r="J11" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="L11" s="24" t="s">
-        <v>263</v>
-      </c>
-      <c r="M11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="24" t="s">
-        <v>264</v>
-      </c>
-      <c r="O11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="Q11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="R11" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="S11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="24">
-        <v>200.0</v>
-      </c>
-      <c r="U11" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="V11" s="24">
-        <v>42.0</v>
-      </c>
-      <c r="W11" s="24">
-        <v>501.0</v>
-      </c>
-      <c r="X11" s="27">
-        <v>1000.0</v>
-      </c>
-      <c r="Y11" s="27">
-        <v>0.0</v>
-      </c>
-      <c r="Z11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD11" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="AN11" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR11" s="24" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS11" s="24" t="s">
-        <v>265</v>
-      </c>
-      <c r="AT11" s="24" t="s">
-        <v>266</v>
-      </c>
-      <c r="AW11" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="AZ11" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC11" s="25" t="s">
+      <c r="AR13" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS13" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="AT13" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="AV13" s="19" t="s">
+        <v>298</v>
+      </c>
+      <c r="AY13" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="AZ13" s="19" t="s">
         <v>267</v>
       </c>
-      <c r="BD11" s="28" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="29">
-        <v>45562.17261587963</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>269</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D12" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="E12" s="30" t="s">
-        <v>271</v>
-      </c>
-      <c r="F12" s="30" t="s">
-        <v>272</v>
-      </c>
-      <c r="G12" s="31" t="s">
-        <v>273</v>
-      </c>
-      <c r="H12" s="30" t="s">
-        <v>274</v>
-      </c>
-      <c r="I12" s="30" t="s">
-        <v>275</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>276</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="L12" s="30" t="s">
-        <v>278</v>
-      </c>
-      <c r="M12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="R12" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="S12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="30" t="s">
-        <v>264</v>
-      </c>
-      <c r="V12" s="30" t="s">
-        <v>279</v>
-      </c>
-      <c r="W12" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="X12" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y12" s="33">
-        <v>1000.0</v>
-      </c>
-      <c r="Z12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM12" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN12" s="30" t="s">
-        <v>97</v>
-      </c>
-      <c r="AO12" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR12" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS12" s="30" t="s">
-        <v>280</v>
-      </c>
-      <c r="AW12" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="AX12" s="30" t="s">
-        <v>199</v>
-      </c>
-      <c r="AY12" s="30" t="s">
-        <v>281</v>
-      </c>
-      <c r="AZ12" s="30" t="s">
-        <v>100</v>
-      </c>
-      <c r="BC12" s="31" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="34">
-        <v>45562.248555115744</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>283</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>285</v>
-      </c>
-      <c r="E13" s="35" t="s">
-        <v>286</v>
-      </c>
-      <c r="F13" s="35" t="s">
-        <v>287</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>288</v>
-      </c>
-      <c r="H13" s="35" t="s">
-        <v>289</v>
-      </c>
-      <c r="I13" s="35" t="s">
-        <v>290</v>
-      </c>
-      <c r="J13" s="35" t="s">
-        <v>291</v>
-      </c>
-      <c r="K13" s="35" t="s">
-        <v>292</v>
-      </c>
-      <c r="L13" s="35" t="s">
-        <v>293</v>
-      </c>
-      <c r="M13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="35" t="s">
-        <v>264</v>
-      </c>
-      <c r="O13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="37">
-        <v>1.0</v>
-      </c>
-      <c r="R13" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="S13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="35" t="s">
-        <v>294</v>
-      </c>
-      <c r="U13" s="35">
-        <v>1.0</v>
-      </c>
-      <c r="V13" s="35">
-        <v>400.0</v>
-      </c>
-      <c r="W13" s="35">
-        <v>2000.0</v>
-      </c>
-      <c r="Y13" s="35" t="s">
-        <v>295</v>
-      </c>
-      <c r="Z13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="36" t="s">
-        <v>296</v>
-      </c>
-      <c r="AI13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM13" s="35" t="s">
-        <v>119</v>
-      </c>
-      <c r="AN13" s="35" t="s">
-        <v>159</v>
-      </c>
-      <c r="AO13" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ13" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR13" s="35" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS13" s="35" t="s">
-        <v>297</v>
-      </c>
-      <c r="AT13" s="35" t="s">
-        <v>298</v>
-      </c>
-      <c r="AV13" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="AY13" s="35" t="s">
+      <c r="BA13" s="19" t="s">
         <v>300</v>
       </c>
-      <c r="AZ13" s="35" t="s">
-        <v>268</v>
-      </c>
-      <c r="BA13" s="35" t="s">
+      <c r="BC13" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="BC13" s="35" t="s">
+      <c r="BD13" s="22" t="s">
         <v>302</v>
-      </c>
-      <c r="BD13" s="38" t="s">
-        <v>303</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="G3"/>
-    <hyperlink r:id="rId3" ref="AC3"/>
-    <hyperlink r:id="rId4" ref="G4"/>
-    <hyperlink r:id="rId5" ref="G5"/>
-    <hyperlink r:id="rId6" ref="G6"/>
-    <hyperlink r:id="rId7" ref="AC6"/>
-    <hyperlink r:id="rId8" ref="AG6"/>
-    <hyperlink r:id="rId9" ref="G7"/>
-    <hyperlink r:id="rId10" ref="AA7"/>
-    <hyperlink r:id="rId11" ref="AG7"/>
-    <hyperlink r:id="rId12" ref="G8"/>
-    <hyperlink r:id="rId13" ref="AG8"/>
-    <hyperlink r:id="rId14" ref="G9"/>
-    <hyperlink r:id="rId15" ref="AA9"/>
-    <hyperlink r:id="rId16" ref="AC9"/>
-    <hyperlink r:id="rId17" ref="AG9"/>
-    <hyperlink r:id="rId18" ref="G10"/>
-    <hyperlink r:id="rId19" ref="AG10"/>
-    <hyperlink r:id="rId20" ref="AH10"/>
-    <hyperlink r:id="rId21" ref="AP10"/>
-    <hyperlink r:id="rId22" ref="G11"/>
-    <hyperlink r:id="rId23" ref="BC11"/>
-    <hyperlink r:id="rId24" ref="G12"/>
-    <hyperlink r:id="rId25" ref="BC12"/>
-    <hyperlink r:id="rId26" ref="G13"/>
-    <hyperlink r:id="rId27" ref="AC13"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="AC3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="G4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="AC6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AG6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="G7" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="AA7" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="AG7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="G8" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AG8" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G9" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AA9" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="AC9" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="AG9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AG10" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AH10" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="AP10" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G11" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="BC11" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="G12" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="BC12" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="G13" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="AC13" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
   </hyperlinks>
-  <drawing r:id="rId28"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId30"/>
+    <tablePart r:id="rId28"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="390">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1054,6 +1054,353 @@
   </si>
   <si>
     <t>Customizable data collection forms</t>
+  </si>
+  <si>
+    <t>Gozie Udemba</t>
+  </si>
+  <si>
+    <t>gudemba@gmail.com</t>
+  </si>
+  <si>
+    <t>Norrig Wellness Solutions</t>
+  </si>
+  <si>
+    <t>Norrig Wellness Solutions is an all-in-one Software-as-a-Service platform for modern healthcare management to streamline workflows, empower staff, and deliver exceptional patient care.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Fx57EqYq-vnoffprWr7vsuOL9pUWMPYL</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, National and Community Health, Analytics and Data Aggregation, AI for Health, Virtual Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How Norrig Wellness Solutions Improves African Health Outcomes
+Norrig Wellness Solutions' hospital-management-as-a-service platform offers a comprehensive suite of features designed to address the unique challenges facing the African healthcare sector. By integrating solutions like a learning management system, procurement management, team collaboration, telehealth, customer relationship management, and data analytics, Norrig aims to enhance health outcomes through:
+1.Enhanced Healthcare Education and Training:
+Learning Management System: Provides a centralized platform for healthcare professionals to access training materials, participate in online courses, and earn certifications. This ensures that healthcare providers are equipped with the latest knowledge and skills to deliver quality care.
+Skill Development: Tailored training programs can be developed to address specific healthcare needs in African communities, such as disease prevention, maternal and child health, and chronic disease management.
+2. Efficient Resource Management and Procurement:
+Procurement Management: Streamlines the procurement process for medical supplies, equipment, and pharmaceuticals, ensuring timely delivery and cost-effective sourcing.
+Inventory Management: Helps hospitals maintain optimal inventory levels, reducing waste and minimizing stockouts.
+3. Improved Collaboration and Communication:
+Team Collaboration: Facilitates seamless communication and collaboration among healthcare providers, improving patient care coordination and reducing medical errors.
+Knowledge Sharing: A centralized platform for sharing best practices and clinical guidelines can enhance the quality of care provided.
+4. Increased Access to Healthcare:
+Telehealth: Enables remote consultations with healthcare providers, expanding access to care for patients in rural or underserved areas.
+Mobile Health: Integration with mobile health technologies can facilitate patient education, appointment scheduling, and medication reminders.
+5. Data-Driven Decision Making:
+Data Analytics: Provides valuable insights into patient demographics, disease trends, and healthcare utilization patterns. This data can be used to inform evidence-based decision-making and improve resource allocation.
+Quality Improvement: Identifies areas for improvement in healthcare delivery and helps implement targeted interventions to enhance patient outcomes.
+6. Strengthened Healthcare Systems:
+Capacity Building: Supports the development of sustainable healthcare systems by providing the necessary tools and infrastructure.
+Policy Development: Contributes to evidence-based healthcare policy formulation and implementation.
+</t>
+  </si>
+  <si>
+    <t>Norrig Wellness Solutions is currently in development. When it goes live the platform will address several critical gaps in the African healthcare landscape such as; 
+1. Digital Infrastructure: Many African healthcare facilities need robust digital infrastructure, hindering efficient operations and access to essential services.
+2. Limited Access to Quality Education: Healthcare professionals often need more opportunities for continuous learning and skill development.
+3. Supply Chain Challenges: Procurement and management of medical supplies can be inefficient, leading to shortages and increased costs.
+4. Communication and Collaboration: Effective communication and collaboration among healthcare teams are essential for providing quality care, but this can be hampered by distance and infrastructure limitations.
+5. Limited Access to Healthcare: Telehealth services can help bridge the gap between urban and rural areas, improving access to care for underserved populations.
+The platform will have the following impact on the African health ecosystem; 
+1. Improved Efficiency: The platform's integrated features can streamline operations, reducing administrative burdens and allowing healthcare professionals to focus on patient care.
+2. Enhanced Education: The learning management system can provide access to high-quality training and development opportunities, improving the skills and knowledge of healthcare workers.
+3. Strengthened Supply Chain: Efficient procurement management can help ensure healthcare facilities have the necessary supplies and equipment for effective care.
+Improved Communication and Collaboration: The team collaboration features can facilitate communication and knowledge sharing among healthcare teams, leading to better patient outcomes.
+4. Increased Access to Care: Telehealth services can expand access to healthcare, particularly in remote or underserved areas.
+5. Data-Driven Decision-Making: The data analytics feature can provide valuable insights into healthcare operations, enabling evidence-based decision-making and continuous improvement.</t>
+  </si>
+  <si>
+    <t>Not yet deployed</t>
+  </si>
+  <si>
+    <t>100 percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The solution is in development. </t>
+  </si>
+  <si>
+    <t>Not yet</t>
+  </si>
+  <si>
+    <t>Startup bootstrapping</t>
+  </si>
+  <si>
+    <t>The solution is in development</t>
+  </si>
+  <si>
+    <t>Adherence to HIPAA and GDPR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The solution in development </t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Clinical data dashboards, Business Intelligence, Data processing (extract, transform, load - ETL)</t>
+  </si>
+  <si>
+    <t>Guided self help, Telemedicine appointments, Interactive services/chatbots, Remote patient (or person) monitoring</t>
+  </si>
+  <si>
+    <t>Integration and data exchange with local health facility (EMR), Integration with national health systems (DHIS2 or other)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A description of the Minimum Viable Product of the solution has been provided. As more funding becomes available, and based on feedback, even as received from filling this form, we will continue to iterate and build more features.  </t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/company/norrigwellnesssolutions</t>
+  </si>
+  <si>
+    <t>Mkata Nyoni</t>
+  </si>
+  <si>
+    <t>mnyoni@tanzmed.africa</t>
+  </si>
+  <si>
+    <t>Africa Healthtech Limited</t>
+  </si>
+  <si>
+    <t>TanzMED</t>
+  </si>
+  <si>
+    <t>TanzMED is transforming the healthcare landscape across Tanzania and East Africa by making high-quality, affordable, and personalized healthcare services accessible to everyone, regardless of their location or socioeconomic status. We harness the power of AI and data analytics to deliver efficient and effective care tailored to the unique needs of our users.
+Our comprehensive platform offers a range of services, including:
+-- Telemedicine: Seamless virtual consultations with healthcare providers.
+-- Mental Health Resources: Counseling and support to address mental health needs.
+-- Maternal &amp; Neonatal Care: Expert guidance during pregnancy and early childhood.
+-- Women's Health: Reproductive health, family planning, and menstrual cycle tracking.
+-- ePharmacy &amp; eLab: Convenient access to medications and laboratory services.
+-- Pediatric Care: Growth and development monitoring for children.
+-- HIV/AIDS Resources: Prevention, testing, and treatment information.
+-- Reproductive Health: Fertility tracking and sexual health education.
+-- BMI &amp; Weight Control: Tools for managing healthy weight.
+-- Vaccines &amp; Medication Reminders: Automated healthcare reminders.
+Available in both English and Swahili, TanzMED’s user-friendly platform is designed to meet the needs of diverse users, from mothers to community health workers. Through strategic partnerships, we aim to break down the barriers to healthcare access and make quality care a reality for everyone.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1FUFfismyc0C6ceMx6H9cSvWwVdFOS5lf</t>
+  </si>
+  <si>
+    <t>hello@tanzmed.africa</t>
+  </si>
+  <si>
+    <t>AI for Health, Virtual Health, Vaccination</t>
+  </si>
+  <si>
+    <t>TanzMED is specifically designed to address the unique healthcare challenges faced in African countries, particularly in underserved areas where access to quality healthcare is limited. By leveraging digital innovations and AI-driven technologies, TanzMED aims to improve health outcomes across the continent through several key approaches:
+1. Bridging the Healthcare Access Gap
+In many parts of Africa, healthcare infrastructure is limited, with many people living in rural areas far from healthcare facilities. TanzMED’s telemedicine platform enables patients to connect with healthcare providers from the comfort of their homes, regardless of geographic location. This solution reduces travel time and costs associated with seeking care, especially in regions with a shortage of healthcare professionals.
+2. Improving Mental Health Support
+Mental health services in Africa are often under-resourced, stigmatized, or inaccessible. TanzMED’s mental health resources, including AI-powered chatbots and access to licensed therapists, provide a safe and private way for individuals to seek help. By offering services in local languages (English and Swahili), TanzMED is breaking down barriers to mental health care, especially for youth, where stigma is a significant deterrent.
+3. Maternal &amp; Child Health Improvement
+Africa faces high rates of maternal and neonatal mortality due to inadequate healthcare access. TanzMED addresses this by providing maternal and neonatal care services, allowing pregnant women and new mothers to receive timely expert advice and guidance. This helps monitor pregnancies, ensures safe deliveries, and supports the healthy development of newborns.
+4. Preventive Care and Disease Management
+Many African countries face high burdens of preventable diseases such as HIV/AIDS and non-communicable diseases (NCDs). TanzMED’s reproductive health tools offer essential services such as fertility tracking, family planning, and sexual health education, while also providing HIV/AIDS resources for testing, prevention, and treatment. Additionally, the platform offers BMI &amp; weight control tools to promote healthy lifestyles and combat rising cases of obesity and diabetes.
+5. Enhancing Treatment Compliance
+In Africa, medication non-compliance is a major issue leading to poor health outcomes. TanzMED’s vaccine and medication reminders send automated alerts to users, ensuring they don’t miss vital treatments or vaccinations, ultimately improving adherence and reducing the burden of preventable diseases.
+6. Affordability &amp; Scalability
+Cost is a significant barrier to healthcare access in Africa. TanzMED provides affordable healthcare services, ensuring that users can access consultations, medications, and health education without financial strain. By using a digital platform, TanzMED is also highly scalable, with the ability to reach large populations across Africa quickly and effectively, particularly through strategic partnerships and mobile technology integration.
+7. Localized Solutions with a User-Centric Approach
+TanzMED’s platform is built with a deep understanding of the African context. By providing services in local languages and tailoring content to specific health needs across different regions, the platform ensures that users can access culturally relevant and actionable health information. TanzMED’s data-driven approach further enables targeted health interventions, improving user engagement and health outcomes.</t>
+  </si>
+  <si>
+    <t>TanzMED addresses a significant market need in Africa, where healthcare systems are often overburdened, and access to quality healthcare remains limited, particularly in rural and underserved areas. Here's how TanzMED fills this gap and its impact on the African health ecosystem:
+Market Need
+Limited Access to Healthcare: Many people in Africa, especially in rural areas, struggle to access quality healthcare due to long distances, high costs, and a shortage of healthcare professionals.
+Mental Health Support: Mental health services are scarce, and stigma prevents many people from seeking help, particularly youth.
+Maternal &amp; Child Health: High rates of maternal and child mortality highlight the need for accessible healthcare during pregnancy and early childhood.
+Preventive Health: There is a lack of accessible health education and tools for managing preventable diseases like HIV and non-communicable diseases (NCDs).
+Digital Solutions: Despite high mobile phone usage, there are few digital health platforms that offer accessible healthcare services in local languages.
+TanzMED’s Impact
+Reaching 4.3 Million Users: TanzMED has expanded to four countries—Tanzania, Kenya, Congo, and Uganda providing healthcare services to millions.
+Health Education: Over 600 health articles have been read more than 21 million times, helping people make informed health decisions.
+Maternal Health: TanzMED supports 1,000 maternal clinics, improving care for pregnant women and mothers.
+Symptom Assessment: Over 3,000 users have benefited from the tool, which helps people understand their health symptoms and seek care.
+Mental Health for Youth: More than 2,000 young people are using TanzMED’s mental health tools to manage their well-being.
+Empowering Health Workers: TanzMED has trained 300 Community Health Workers (CHWs), improving healthcare delivery at the community level.</t>
+  </si>
+  <si>
+    <t>Tanzania</t>
+  </si>
+  <si>
+    <t>Kenya, Congo (DRC), Uganda and USA</t>
+  </si>
+  <si>
+    <t>https://tanzmed.co.tz/privacy-policy.html</t>
+  </si>
+  <si>
+    <t>TanzMED ensures the privacy and protection of Personal Health Information (PHI) through the following measures:
+Encryption: All user data is encrypted both in transit and at rest, ensuring secure communication and storage of sensitive health information.
+Compliance with Data Protection Laws: TanzMED follows international and local data protection regulations.
+Access Controls: Only authorized personnel have access to user data, with strict authentication measures in place.
+Anonymization: User data is anonymized for reporting and analytics to prevent the identification of individuals, even Doctors can not see previous chat records.
+Regular Security Audits: TanzMED conducts regular security audits and updates to protect against data breaches and vulnerabilities.</t>
+  </si>
+  <si>
+    <t>Activity Logs: Tracks all user actions on the platform.
+Immutable Logs: Logs are stored securely and cannot be altered.
+Access Control: Only authorized personnel can access logs.
+Automated Alerts: Alerts for any suspicious activity or login to backend Doctor portal.
+Log Retention: Logs are stored based on policy for compliance.</t>
+  </si>
+  <si>
+    <t>Users need username and Password, SMS/WhatsApp OTP is used as Double Authentication method (TFA)</t>
+  </si>
+  <si>
+    <t>Online medicine ordering</t>
+  </si>
+  <si>
+    <t>Home/Office lab test booking</t>
+  </si>
+  <si>
+    <t>Track and trace, Case reporting, Case Investigation, Vaccine-related adverse events monitoring</t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Clinical data dashboards, Business Intelligence</t>
+  </si>
+  <si>
+    <t>Vaccine-related adverse events monitoring, Maternal Vaccination Reminders</t>
+  </si>
+  <si>
+    <t>In addition to the features listed earlier, TanzMED offers several other key functionalities:
+Mental Health Tools:
+Mental Health Assessment: Users can assess their mental well-being using AI-driven tools.
+Mood Tracker: Allows users to log and track their moods over time for better mental health management.
+Goal Tracking: Helps users set and monitor personal health and wellness goals.
+HIV/AIDS Support:
+CTC Tracker: Monitors HIV treatment progress for users attending Care and Treatment Clinics (CTC).
+CTC Appointment Booking: Allows users to schedule and manage their clinic appointments.
+Youth HIV/AIDS Risk Factor Assessment: Offers tools to assess and educate youth on HIV risk factors.
+Women Health:
+Pregnancy Tracker: Helps expecting mothers track their pregnancy milestones.
+Clinic Day &amp; Service Reminders: Sends automated reminders for important clinic visits and services.
+SRH: Allow Girls and Young Women to track their period, reminded on period cycle and get direct Support form specialists.
+Virtual Doctor Chats: Users can consult healthcare professionals through virtual chat or call, ensuring easy access to medical advice and consultations.</t>
+  </si>
+  <si>
+    <t>https://tanzmed.africa</t>
+  </si>
+  <si>
+    <t>Henry Mathayo</t>
+  </si>
+  <si>
+    <t>henry@medpack.co.tz</t>
+  </si>
+  <si>
+    <t>MedPack Inc.</t>
+  </si>
+  <si>
+    <t>MedPack Business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedPack Business  is a digital platform that revolutionizes the pharmaceutical supply chain by providing an efficient, technology-driven solution for healthcare facilities to procure and manage essential medicines. Designed for pharmacies, hospitals, clinics, and health centers, MedPack streamlines the procurement process by offering real-time access to a vast network of suppliers. It not only enables healthcare providers to order medications, but also integrates features like inventory management, digital payments, and microfinancing, allowing facilities to buy medicines on credit, improving cash flow.
+MedPack offers unique value by guaranteeing delivery of medications within three hours in urban areas, while also serving rural and underserved regions. The platform helps healthcare providers maintain stock levels, avoid shortages, and provide patients with timely, life-saving treatments.
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1dmbhRI8mPSowZVpnzXw_dgqehXwjS18Z</t>
+  </si>
+  <si>
+    <t>Pharmacy, Analytics and Data Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedPack is a digital health platform designed to improve the pharmaceutical supply chain, specifically in Africa. By addressing the chronic issue of stockouts and inefficient distribution, MedPack ensures that healthcare facilities across the continent have timely access to essential medicines. The platform offers an integrated system for real-time procurement, inventory management, and microfinancing, which allows health centers to maintain optimal stock levels and reduce shortages. With a unique focus on rural and underserved areas, MedPack ensures that critical medications reach those who need them the most, offering 3-hour delivery within urban centers and efficient distribution to remote areas. This innovation directly enhances healthcare outcomes by ensuring patients receive timely treatment, improving overall public health and reducing mortality rates.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania boasts over 25,000 healthcare facilities, including pharmacies, clinics, health centers, and hospitals, serving a population of more than 60 million people. Currently, MedPack services 1,012 facilities, representing around 4% of the market. Given the widespread need for reliable, digital procurement systems, the Wezesha Project seeks to expand to 2,000 facilities within the next six months. With the healthcare sector in Tanzania growing steadily, there is significant room for MedPack to scale its operations, potentially reaching 20-30% market penetration in the coming years as demand for digital health solutions rises.
+Currently operational in Tanzania, MedPack plans to expand to the Southern African Development Community (SADC), serving millions of patients. With more facilities gaining access to MedPack, we are on track to significantly enhance healthcare outcomes across Africa by ensuring faster deliveries and affordable financing for health centers, especially in rural areas.
+</t>
+  </si>
+  <si>
+    <t>Dar es salaam, Tanzania</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tanzania </t>
+  </si>
+  <si>
+    <t>100% Africans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100% local developed </t>
+  </si>
+  <si>
+    <t>1012 health facilities (Customers)</t>
+  </si>
+  <si>
+    <t>1 country - Tanzania</t>
+  </si>
+  <si>
+    <t>1012 users</t>
+  </si>
+  <si>
+    <t>350+ completed orders  worth $22,000+/Month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MedPack is deeply committed to ensuring the privacy and protection of Personal Health Information (PHI) in compliance with global standards such as the Health Insurance Portability and Accountability Act (HIPAA) and local data protection laws. Our platform employs multiple layers of security to safeguard sensitive data at every stage.
+Data Encryption: All PHI is encrypted both at rest and in transit using industry-standard encryption methods. This ensures that data is unreadable if intercepted.
+Access Control: We enforce strict access controls, ensuring that only authorized personnel can view or manage patient data. User permissions are role-based, minimizing unnecessary exposure to PHI.
+Secure Authentication: MedPack utilizes multi-factor authentication (MFA) for users accessing the platform, adding an extra layer of security to prevent unauthorized logins.
+Data Minimization: We collect only the necessary information for the provision of healthcare services, ensuring that no unnecessary personal data is stored or shared.
+Compliance and Auditing: MedPack regularly audits its data handling processes and undergoes compliance checks to ensure adherence to privacy regulations.
+</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, Decision Support</t>
+  </si>
+  <si>
+    <t>https://www.medpack.co.tz</t>
+  </si>
+  <si>
+    <t>Mostafa Dawoud</t>
+  </si>
+  <si>
+    <t>md@dentolize.com</t>
+  </si>
+  <si>
+    <t>Dentolize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dentolize </t>
+  </si>
+  <si>
+    <t>Dentolize offers an all-in-one clinic management software that automates administrative tasks such as appointment scheduling, patient records, billing, and communication. Through our mobile app, patients can easily book appointments, receive reminders, and access their prescriptions. Clinics benefit from a streamlined workflow that enhances efficiency, improves patient care, and reduces operational overhead, allowing them to focus more on delivering quality healthcare.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1JK44kt--96mfUOM1d7_k3RNmDYu-KKw2</t>
+  </si>
+  <si>
+    <t>info@dentolize.com</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Analytics and Data Aggregation, AI for Health</t>
+  </si>
+  <si>
+    <t>Dentolize enhances healthcare in Africa by streamlining clinic management, improving patient care, and reducing administrative burdens. Our platform supports digital appointment scheduling, patient record management, and automated billing, making healthcare more accessible. We also integrate telemedicine and digital invoicing, catering to underserved areas with limited access to traditional healthcare. By improving clinic efficiency, Dentolize contributes to better health outcomes across Africa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cairo, Egypt </t>
+  </si>
+  <si>
+    <t>Egypt, Libya, Tunisia, Morocco, South Africa, Sudan and Nigeria</t>
+  </si>
+  <si>
+    <t>1000+ Unique customers</t>
+  </si>
+  <si>
+    <t>19 countries</t>
+  </si>
+  <si>
+    <t>https://dentolize.com/privacy-policy/</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Clinical decision support, CPOE/Order Management, Patient Billing, Patient Data Import/Export, X-Ray and Imaging, Patient care templates, Encounter Data Import/Export, Surgical Management, Virtual care, Encounter Workflow Support</t>
+  </si>
+  <si>
+    <t>Inventory Management, Electronic prescribing, EHR Integration</t>
+  </si>
+  <si>
+    <t>Inventory Management, EHR Integration</t>
   </si>
 </sst>
 </file>
@@ -1120,7 +1467,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -1276,20 +1623,6 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
@@ -1403,6 +1736,9 @@
     <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1413,9 +1749,6 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1476,7 +1809,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD13" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD17" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="56">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Your name" id="2"/>
@@ -3446,131 +3779,664 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="36">
+      <c r="A13" s="25">
         <v>45562.248555115744</v>
       </c>
-      <c r="B13" s="37" t="s">
+      <c r="B13" s="26" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="26" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="26" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="37" t="s">
+      <c r="E13" s="26" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="37" t="s">
+      <c r="F13" s="26" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="38" t="s">
+      <c r="G13" s="27" t="s">
         <v>293</v>
       </c>
-      <c r="H13" s="37" t="s">
+      <c r="H13" s="26" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="37" t="s">
+      <c r="I13" s="26" t="s">
         <v>295</v>
       </c>
-      <c r="J13" s="37" t="s">
+      <c r="J13" s="26" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="37" t="s">
+      <c r="K13" s="26" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="37" t="s">
+      <c r="L13" s="26" t="s">
         <v>298</v>
       </c>
-      <c r="M13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="37" t="s">
+      <c r="M13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="26" t="s">
         <v>269</v>
       </c>
-      <c r="O13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="39">
+      <c r="O13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="28">
         <v>1.0</v>
       </c>
-      <c r="Q13" s="39">
+      <c r="Q13" s="28">
         <v>1.0</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="R13" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="37" t="s">
+      <c r="S13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="26" t="s">
         <v>299</v>
       </c>
-      <c r="U13" s="37">
+      <c r="U13" s="26">
         <v>1.0</v>
       </c>
-      <c r="V13" s="37">
+      <c r="V13" s="26">
         <v>400.0</v>
       </c>
-      <c r="W13" s="37">
+      <c r="W13" s="26">
         <v>2000.0</v>
       </c>
-      <c r="Y13" s="37" t="s">
+      <c r="Y13" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="Z13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="38" t="s">
+      <c r="Z13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="27" t="s">
         <v>301</v>
       </c>
-      <c r="AI13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM13" s="37" t="s">
+      <c r="AI13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM13" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AN13" s="37" t="s">
+      <c r="AN13" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="AO13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ13" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR13" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS13" s="37" t="s">
+      <c r="AO13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ13" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS13" s="26" t="s">
         <v>302</v>
       </c>
-      <c r="AT13" s="37" t="s">
+      <c r="AT13" s="26" t="s">
         <v>303</v>
       </c>
-      <c r="AV13" s="37" t="s">
+      <c r="AV13" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="AY13" s="37" t="s">
+      <c r="AY13" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="AZ13" s="37" t="s">
+      <c r="AZ13" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="BA13" s="37" t="s">
+      <c r="BA13" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="BC13" s="37" t="s">
+      <c r="BC13" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="BD13" s="40" t="s">
+      <c r="BD13" s="30" t="s">
         <v>308</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="31">
+        <v>45564.18480020833</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="D14" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>311</v>
+      </c>
+      <c r="F14" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="H14" s="32" t="s">
+        <v>310</v>
+      </c>
+      <c r="I14" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="J14" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="K14" s="32" t="s">
+        <v>316</v>
+      </c>
+      <c r="L14" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="O14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="Q14" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="R14" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="S14" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="U14" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="V14" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="W14" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="X14" s="32" t="s">
+        <v>321</v>
+      </c>
+      <c r="Y14" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="Z14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AD14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AF14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="32" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH14" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="AI14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM14" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN14" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP14" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="AQ14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY14" s="32" t="s">
+        <v>326</v>
+      </c>
+      <c r="AZ14" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="BB14" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="BC14" s="33" t="s">
+        <v>329</v>
+      </c>
+      <c r="BD14" s="36" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="25">
+        <v>45565.538122025464</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>331</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>332</v>
+      </c>
+      <c r="E15" s="26" t="s">
+        <v>333</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>334</v>
+      </c>
+      <c r="G15" s="27" t="s">
+        <v>335</v>
+      </c>
+      <c r="H15" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="I15" s="26" t="s">
+        <v>337</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>338</v>
+      </c>
+      <c r="K15" s="26" t="s">
+        <v>339</v>
+      </c>
+      <c r="L15" s="26" t="s">
+        <v>340</v>
+      </c>
+      <c r="M15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="26" t="s">
+        <v>341</v>
+      </c>
+      <c r="O15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q15" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="R15" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="26">
+        <v>31260.0</v>
+      </c>
+      <c r="U15" s="26">
+        <v>5.0</v>
+      </c>
+      <c r="V15" s="26">
+        <v>6000.0</v>
+      </c>
+      <c r="W15" s="29">
+        <v>11399.0</v>
+      </c>
+      <c r="X15" s="29">
+        <v>96543.0</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>45000.0</v>
+      </c>
+      <c r="Z15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG15" s="27" t="s">
+        <v>342</v>
+      </c>
+      <c r="AH15" s="26" t="s">
+        <v>343</v>
+      </c>
+      <c r="AI15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="26" t="s">
+        <v>344</v>
+      </c>
+      <c r="AL15" s="26" t="s">
+        <v>345</v>
+      </c>
+      <c r="AM15" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN15" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO15" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR15" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT15" s="26" t="s">
+        <v>346</v>
+      </c>
+      <c r="AU15" s="26" t="s">
+        <v>347</v>
+      </c>
+      <c r="AV15" s="26" t="s">
+        <v>348</v>
+      </c>
+      <c r="AX15" s="26" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY15" s="26" t="s">
+        <v>326</v>
+      </c>
+      <c r="BA15" s="26" t="s">
+        <v>350</v>
+      </c>
+      <c r="BB15" s="26" t="s">
+        <v>351</v>
+      </c>
+      <c r="BC15" s="27" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="31">
+        <v>45565.5513366088</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>353</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="D16" s="32" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>356</v>
+      </c>
+      <c r="F16" s="32" t="s">
+        <v>357</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="H16" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="I16" s="32" t="s">
+        <v>359</v>
+      </c>
+      <c r="J16" s="32" t="s">
+        <v>360</v>
+      </c>
+      <c r="K16" s="32" t="s">
+        <v>361</v>
+      </c>
+      <c r="L16" s="32" t="s">
+        <v>362</v>
+      </c>
+      <c r="M16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="32" t="s">
+        <v>363</v>
+      </c>
+      <c r="O16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="32" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q16" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="R16" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="32" t="s">
+        <v>366</v>
+      </c>
+      <c r="U16" s="32" t="s">
+        <v>367</v>
+      </c>
+      <c r="V16" s="32" t="s">
+        <v>368</v>
+      </c>
+      <c r="W16" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="X16" s="35">
+        <v>267643.0</v>
+      </c>
+      <c r="Y16" s="35">
+        <v>25000.0</v>
+      </c>
+      <c r="Z16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH16" s="32" t="s">
+        <v>370</v>
+      </c>
+      <c r="AI16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM16" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN16" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO16" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR16" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT16" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AX16" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC16" s="33" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="37">
+        <v>45565.592789525464</v>
+      </c>
+      <c r="B17" s="38" t="s">
+        <v>373</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>374</v>
+      </c>
+      <c r="D17" s="38" t="s">
+        <v>375</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>376</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>377</v>
+      </c>
+      <c r="G17" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="H17" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="I17" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="L17" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="M17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="38" t="s">
+        <v>383</v>
+      </c>
+      <c r="O17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="Q17" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="R17" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="S17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="U17" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="V17" s="38">
+        <v>9000.0</v>
+      </c>
+      <c r="W17" s="38">
+        <v>800000.0</v>
+      </c>
+      <c r="X17" s="38">
+        <v>250000.0</v>
+      </c>
+      <c r="Y17" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="39" t="s">
+        <v>386</v>
+      </c>
+      <c r="AI17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM17" s="38" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN17" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO17" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR17" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS17" s="38" t="s">
+        <v>387</v>
+      </c>
+      <c r="AT17" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="AU17" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="AX17" s="38" t="s">
+        <v>349</v>
+      </c>
+      <c r="AY17" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -3607,10 +4473,19 @@
     <hyperlink r:id="rId30" ref="BC12"/>
     <hyperlink r:id="rId31" ref="G13"/>
     <hyperlink r:id="rId32" ref="AC13"/>
+    <hyperlink r:id="rId33" ref="G14"/>
+    <hyperlink r:id="rId34" ref="BC14"/>
+    <hyperlink r:id="rId35" ref="G15"/>
+    <hyperlink r:id="rId36" ref="AG15"/>
+    <hyperlink r:id="rId37" ref="BC15"/>
+    <hyperlink r:id="rId38" ref="G16"/>
+    <hyperlink r:id="rId39" ref="BC16"/>
+    <hyperlink r:id="rId40" ref="G17"/>
+    <hyperlink r:id="rId41" ref="AG17"/>
   </hyperlinks>
-  <drawing r:id="rId33"/>
+  <drawing r:id="rId42"/>
   <tableParts count="1">
-    <tablePart r:id="rId35"/>
+    <tablePart r:id="rId44"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="633" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="823">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1402,14 +1402,1626 @@
   <si>
     <t>Inventory Management, EHR Integration</t>
   </si>
+  <si>
+    <t>Ahmad Al-Kabbany</t>
+  </si>
+  <si>
+    <t>alkabbany@myvrapeutic.com</t>
+  </si>
+  <si>
+    <t>VRapeutic Inc.</t>
+  </si>
+  <si>
+    <t>Yubreevi</t>
+  </si>
+  <si>
+    <t>Yubreevi is a system that enables the delivery of remotely supervised physical rehabilitation sessions, with a major focus on children with motor disorders. The proposed system combines VR with machine learning to realize data-centered, context-rich training plans.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1f_uSSbyYVahup8Kyca3jnJhhgT5PFTYx</t>
+  </si>
+  <si>
+    <t>info@myvrapeutic.com</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, AI for Health, Virtual Health</t>
+  </si>
+  <si>
+    <t>WHO reports that around 400 million person in Africa would benefit from rehabilitation.
+Another estimate indicates that 80% of the world’s disabled population live in Africa.
+Accordingly, the societal and economic impact of providing high-quality, science-backed,
+unconventional, and effective physical healthcare is HUGE, and the need for better
+healthcare that harnesses the power of technology is significantly pressing.
+Also, providing means of effective early intervention to highly prevalent physical developmental disorders has been shown to lead to higher chances of recovery and higher
+quality of life. This would have a positive impact on the readiness of future workforces. Finally, a positive impact on a population's health, including the senior population, is supposed to promote social inclusion.
+Our proposed system empowers healthcare facilities to deliver higher quality healthcare, with higher accessibility potential, using better user-centric systems, and data-driven design that facilitates better follow-up, rehab plans development, and health insurance coverage.</t>
+  </si>
+  <si>
+    <t>Since we operate in Egypt, this response will focus on Egypt only. Nevertheless, our solution is very scalable, and it addresses challenges that are common between Egypt and the African ecosystem at large. 
+Market needs that this solution fills:
+============================
+There is a growing need for physical rehabilitation in Egypt. A rough estimate would surpass
+five million Egyptians who need physical healthcare. The need has recently expanded beyond people with disabilities to include typical adults, early seniors, and even children. This is due to several factors including modern lifestyles and daily habits which are strongly affected by electronic devices, transportation patterns, in addition to other factors. 
+The challenges of delivering high quality physical rehabilitation in Egypt is multi-fold. First,
+there is lack of patients’ commitment to physical rehabilitation plans due to low
+engagement level of traditional interventions approaches. So, it is a matter of quality.
+Second, there is a challenge in providing tele-healthcare services for physical rehabilitation,
+mainly because classical interventions don’t support this. Reducing commutes would
+result in societal as well as environmental positive impact.
+Third, there is lack of data centered, automated, real-time performance data acquisition and
+analysis, which is realized when the user is at the center of the design goals. So, it is a matter of user centrism.
+The impact this health solution has made in the African health ecosystem
+============================================================
+We are currently collaborating with the Faculty of Physical Therapy of Cairo University in Egypt, and their affiliated on-campus outpatient clinics. Our solution has been consistently used for 2 years in their therapy sessions that have targeted several conditions including cerebral palsy-related disorders such as hypertonia and deficient bilateral coordination, shoulder disorders such as Erb's palsy, and neck disorders such as faulty head posture.
+An example of a publication that documented the positive impact of our solution can be found through the following link:
+https://www.semanticscholar.org/paper/Movement-analysis-of-fully-immersive-virtual-module-Allah-Khalil/f994ca87de3d0efe6a34484b8b20103a582febd9
+The authors of the above publication are professors and researchers at the Faculty of Physical Therapy of Cairo University in Egypt.</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>We are B2B, selling to hospitals, clinics, and centers. While our current customers are 8 centers, our current end-users exceed 500 children and adult.</t>
+  </si>
+  <si>
+    <t>Egypt and Vietnam.</t>
+  </si>
+  <si>
+    <t>An average of 5 users a day.</t>
+  </si>
+  <si>
+    <t>An average of 2 transactions per month.</t>
+  </si>
+  <si>
+    <t>We make 5000 USD as a monthly recurring revenue. This sums up to 60000 USD a year.</t>
+  </si>
+  <si>
+    <t>280,000 USD including investments and grants</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1r29OY1ABIf1cDXBsbwvihAsdflGJwrhS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://myvrapeutic.com/privacy-policy/</t>
+  </si>
+  <si>
+    <t>Our solution upholds the guidelines of HIPAA compliance which can be found here:
+https://www.hhs.gov/hipaa/for-professionals/security/laws-regulations/index.html</t>
+  </si>
+  <si>
+    <t>Please, find VRapeutic’s document of Accounting Policy and Procedures through the following link:
+https://drive.google.com/file/d/1r29OY1ABIf1cDXBsbwvihAsdflGJwrhS/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>VRapeutic’s adopted mechanisms for authentication and authorization are a part of the company’s Accounting Policy and Procedures document. Please, see our response to the previous question.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Patient Data Import/Export, Virtual care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not applicable </t>
+  </si>
+  <si>
+    <t>Capture results from digital devices, EHR Integration</t>
+  </si>
+  <si>
+    <t>While we are not currently integrating our patient records with any public or governmental databases, our records and databases were designed to be ready for integration. They are now being hosted on AWS which is a HIPAA compliant cloud services provider.</t>
+  </si>
+  <si>
+    <t>https://myvrapeutic.com/</t>
+  </si>
+  <si>
+    <t>OUATTARA CORINE MAURICE</t>
+  </si>
+  <si>
+    <t>dg@mcm-ci.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCM </t>
+  </si>
+  <si>
+    <t>Pass Sante Mousso</t>
+  </si>
+  <si>
+    <t>PASS SANTÉ MOUSSO is an integrated digital health solution enabling the management of electronic medical records, telemedicine and vaccination tracking. The solution includes physical media such as a bracelet, a card and a waterproof smartwatch, promoting the mobility of medical data. Connected to the platform (digital health record), these media ensure real-time monitoring, with instant sharing of medical information to healthcare professionals, thus enabling better care and increased responsiveness in the event of an emergency, especially for chronically ill patients.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1quC2yy8zPQJGFcEt0ylIUGa78Y_14uIr</t>
+  </si>
+  <si>
+    <t>emmazebre@santemousso.net</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Disease Surveillance, National and Community Health, Front-line (CHW) tools, Vaccination</t>
+  </si>
+  <si>
+    <t>PASS SANTE MOUSSO contributes to improving health outcomes in Africa by providing a secure and easily accessible digital infrastructure for patient monitoring. It allows vulnerable populations, particularly in rural areas, to benefit from faster and more efficient health management. By integrating with public and private health systems, it improves continuity of care and allows health professionals to make more informed decisions thanks to medical information available in real time.</t>
+  </si>
+  <si>
+    <t>PASS SANTE MOUSSO addresses the critical need for centralized medical information and access to healthcare for patients in Africa. Fragmented healthcare systems, lack of chronic disease monitoring, and limited access to care in rural areas have generated a growing need for a solution like this. To date, PASS SANTE MOUSSO has enrolled over 67,000 people in Côte d’Ivoire, with a direct impact on the monitoring of 3,744 cancer patients in partnership with CNRAO. The solution helps streamline care, improve access to medical services, and reduce the cost of care for patients.</t>
+  </si>
+  <si>
+    <t>Abidjan, Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>BENIN, SENEGAL, TOGO, BURKINA FASO</t>
+  </si>
+  <si>
+    <t>100% (All members of the management team are based in Africa, specifically in Ivory Coast)</t>
+  </si>
+  <si>
+    <t>100% (All software development was carried out by African developers, specifically Ivorian)</t>
+  </si>
+  <si>
+    <t>The solution is currently deployed in 97 healthcare structures with more than 1,237 healthcare professionals using the platform, and 67,297 patients enrolled.</t>
+  </si>
+  <si>
+    <t>The solution is currently deployed in Ivory Coast and as a pilot in Benin, Senegal, Togo, and Burkina Faso</t>
+  </si>
+  <si>
+    <t>Approximately 5,000 daily active users, including patients and healthcare professionals</t>
+  </si>
+  <si>
+    <t>The solution processes approximately 10,000 monthly transactions, including access to medical records and medical consultations.</t>
+  </si>
+  <si>
+    <t>The current annual revenue of the organization for the year 2023 is 59,685,645 FCFA, which is approximately 97,050 USD</t>
+  </si>
+  <si>
+    <t>No external funding has been raised so far. The project has been entirely self-financed, and grants were obtained to support the development of the solution.</t>
+  </si>
+  <si>
+    <t>https://santemousso.net/politique-confidentialite</t>
+  </si>
+  <si>
+    <t>The PASS SANTE MOUSSO solution uses data encryption and strict protocols for accessing health information. Only authorized persons, such as healthcare professionals, can access patients' medical records. The system follows local data protection rules and international best practices in terms of security.</t>
+  </si>
+  <si>
+    <t>The solution uses audit logging tools to track all user actions and transactions in the system, ensuring complete traceability of access and changes. Errors are reported in real time and tracked using an incident management system.</t>
+  </si>
+  <si>
+    <t>Authentication for PASS SANTE MOUSSO is done via a secure role-based system with a login and password for healthcare professional users. For patient identification, an ID, PIN, and phone number are used. Patients receive a notification each time their medical record is consulted to enhance transparency and security. Two-factor authentication (2FA) can also be used for additional levels of security. Access rights are defined according to user roles (healthcare professionals, patients, administrators), ensuring that each user can only access data relevant to their role.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, Patient Billing, Patient Data Import/Export, Patient care templates, ER - Triage and Dashboard, Virtual care</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Drug interaction monitoring, Electronic prescribing</t>
+  </si>
+  <si>
+    <t>Transmit and track diagnostic orders, Send diagnostic results to providers, EHR Integration</t>
+  </si>
+  <si>
+    <t>Case reporting, Vaccine-related adverse events monitoring</t>
+  </si>
+  <si>
+    <t>National health domain-specific registries, Clinical data repository, Clinical data warehouse</t>
+  </si>
+  <si>
+    <t>Telemedicine appointments, Remote patient (or person) monitoring</t>
+  </si>
+  <si>
+    <t>Customizable data collection forms, Integration and data exchange with local health facility (EMR), Integration with national health systems (DHIS2 or other)</t>
+  </si>
+  <si>
+    <t>Patient vaccination record, Digital vaccine card, Vaccine-related adverse events monitoring</t>
+  </si>
+  <si>
+    <t>PASS SANTE MOUSSO inclut également une plateforme pour la téléconsultation, la gestion des constantes vitales des patients, ainsi que l'accès à des services de paiement flexibles via PassPay</t>
+  </si>
+  <si>
+    <t>https://santemousso.net/</t>
+  </si>
+  <si>
+    <t>Joseph Olowe</t>
+  </si>
+  <si>
+    <t>joseph@josmolgroup.com</t>
+  </si>
+  <si>
+    <t>Josmol Human Resources Ltd</t>
+  </si>
+  <si>
+    <t>Doktorconnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+DoktorConnect offers a comprehensive digital health platform that leverages personalized medical care through wellness-based assessments, genetic analysis, mental health screening, and advanced technologies. By analyzing genetic data and wellness metrics, we create evidence-based lifestyle management plans for individuals. Our platform enables virtual consultations with licensed doctors, therapists, dieticians, and health coaches, along with real-time vital signs tracking using smart medical IoT devices. We also integrate AI-driven methodologies to promote healthy behaviors, lifestyle modifications, medication management, and tailored exercise regimens.
+Doktorconnect Digital Assets
+Website 
+www.doktorconnect.com/ng
+MOBILE WELLNESS UNIT
+https://bit.ly/mobile-wellness-van
+https://bit.ly/wellness-on-the-move
+PREVENTIVE HEALTH AND WELLNESS SAMPLE RESULT
+Sample result of our wellness report
+ - https://bit.ly/wellnessreportsample 
+https://bit.ly/dna-analysis-report
+https://selfdecode.com/en/selfdecode-pro-connect/
+APP DEMO
+Doktorconnect App Demo
+- https://bit.ly/DoktorconnectAppDemo
+REMOTE MONITORING AND DIAGNOSTIC TOOLS
+LifePro Body Composition SmartScale - https://bit.ly/BodyCompositionSmartScale
+6-in-1 Health Monitor - https://bit.ly/6-in-1HealthMonitor
+Lifepro Sleep Monitor - https://bit.ly/LifeproSleepMonitor
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=17Z6LS9hW_IGAVhKO8tpTd0HTUPtCgyRY</t>
+  </si>
+  <si>
+    <t>hello@doktorconnect.com</t>
+  </si>
+  <si>
+    <t>Pharmacy, Laboratory and Diagnostics, Analytics and Data Aggregation, Virtual Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My friend Jim died at the age of 42. Jim had diabetes. This happened because of an autoimmune disease that affected his pancreas, and he was unable to produce insulin, which led to type 1 diabetes, and he didn't know it until it was too late. He found out because of a wound he sustained at work that would not heal. Jim committed suicide. At the time of his passing, he was an amputee and severely depressed. He left two daughters and his wife with exciting data about his business and finances, but Jim was not tracking any data about his health. Since that happened, l vowed that there would not be another Jim. This is the story of 1 out 4 Africans ( especially Nigeria, the most populous nation in Africa)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPACT-RELATED MEASURES
+In addition to financial metrics, Doktorconnect provides the following impact-related measures:
+1. Health outcomes: Tracking improvements in patient health outcomes and Overall well-being resulting from the services provided by Doktorconnect.
+2. Patient satisfaction and feedback: Monitoring patient satisfaction through surveys and feedback mechanisms to ensure that patients are receiving high-quality care and are happy with their experience.
+3. Access to care: Assessing the impact of Doktorconnect on increasing access to healthcare services, especially for underserved populations or those in remote areas.
+4. Health equity: Evaluating how Doktorconnect is contributing to reducing disparities in healthcare access and outcomes among different population groups.
+5. Employee well-being: Monitoring the well-being and job satisfaction of healthcare providers and staff working with Doktorconnect to ensure a positive and supportive work environment.
+6. Environmental sustainability: Considering the environmental impact of operations, such as energy usage, waste management, and carbon footprint, and implementing measures to promote sustainability.
+</t>
+  </si>
+  <si>
+    <t>LAGOS, Nigeria</t>
+  </si>
+  <si>
+    <t>One deployment /447,000 users</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SaaS-based product </t>
+  </si>
+  <si>
+    <t>Custom API available</t>
+  </si>
+  <si>
+    <t>Within the application</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HIPPA, HLR 7 compliant and housed on Azure cloud services </t>
+  </si>
+  <si>
+    <t>A dedicated team auditing the platform for complaints on many fronts</t>
+  </si>
+  <si>
+    <t>Notification and multiple-factor authentication and authorization mechanism</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Patient Data Import/Export</t>
+  </si>
+  <si>
+    <t>Dashboards, Clinical data dashboards</t>
+  </si>
+  <si>
+    <t>www.doktorconnect.com/ng</t>
+  </si>
+  <si>
+    <t>Tobias Reiter</t>
+  </si>
+  <si>
+    <t>tobias@viebeg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VIEBEG Medical </t>
+  </si>
+  <si>
+    <t>VieProcure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Viebeg offers medical equipment and products through a data-driven B2B procurement platform that de-risks and optimizes the procurement of medical equipment and supplies through Viebeg’s Health Demand Simulation Model (HDSM). 
+Our online "VieProcure" platform offers a free, data-driven procurement solution for hospitals, clinics, pharmacies and other healthcare providers. It enables a transparent and efficient procurement process, allowing healthcare providers to select from a diverse product range online, eliminating the need for time-consuming manual processes. 
+The platform is complemented by our Health Demand Simulation Model (HDSM). The HDSM, based on demographic and public health data, assesses the current availability of medical services and equipment in a specific region and then compares it to the health demand in that region, to identify healthcare infrastructure gaps. Using predictive analytics, the model also forecasts the profitability of medical equipment and the credit score of each health care provider in a specific location. Based on this data health care facilities can make informed investment decisions, address specific diseases, and enhance the efficiency of the healthcare system. 
+In addition to providing in-house equipment financing, we partner with 3rd party financing partners. For this purpose our credit scoring algorithm for equipment financing connects clients to financing partners, leveraging the HDSM for informed lending decisions.
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1v-gmnYSUARd8KtaIFEatsUR5C3-BMP6S</t>
+  </si>
+  <si>
+    <t>Pharmacy, Laboratory and Diagnostics, Analytics and Data Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our overarching impact vision is to transform the healthcare sector in our target markets by improving the quality of health services which are accessible, comprehensive, connected and affordable for all. Our venture creates impact in three main areas: 1) Accessibility, 2) Affordability, 3) Quality. 
+Accessibility: We provide medical equipment and products to a wide range of public and private healthcare facilities in urban and rural areas through our network of sales agents, supported by our procurement platform. This means Viebeg is a one-stop-shop for healthcare providers enabling them to offer better quality and/or new products &amp; services. As a result, patients get access to previously unavailable medical care, and disease burdens in the regions served are reduced.  
+Affordability: Our venture offers lower prices for higher quality products, equipment financing and flexible payment mechanisms. This means healthcare facilities get access to financing (previously unattainable for many) and/or better credit terms. Healthcare facilities are able to save costs as a result of direct procurement, better financing, and lower prices, providing the opportunity to increase profitability. Patients benefit from greater affordability as services are offered closer to their home.
+Quality: In addition to offering high-quality medical products, we support healthcare facilities to better manage patients &amp; clinic operations through our procurement platform and our HDSM. Healthcare facilities receive access to health demand data, enabling them to make more informed procurement decisions. Our Equipment Lifecycle Management approach, offers maintenance, training, and support, and thus ensures the longevity and optimal performance of medical equipment. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over the last two years, Viebeg has significantly expanded its reach and impact within the healthcare sector. To date, we have served more than 1000 unique healthcare providers, including hospitals, clinics, health posts, health centers, dispensaries, and pharmacies in Rwanda, DRC and Kenya. We have sold 400,000+ medical products with an estimated reach to 2 million people. 
+Our commitment to improving healthcare accessibility is reflected in the diverse range of institutions we collaborate with. When defining and counting end-users, we focus on healthcare providers who directly interact with our products. This includes medical professionals, administrators, and staff members at hospitals, clinics, health posts, health centers, dispensaries, and pharmacies. We consider each of these entities as a unique end-user, recognizing the pivotal role they play in delivering quality healthcare to communities. In addition, we estimate the number of patients that are diagnosed/treated with our equipment. We do this based on data derived from our CRM and regular customer surveys as well as public health data obtained from the Ministry of Health. 
+The first version of our Health Demand Simulation Model (HDSM) covers 3500+ health facilities in Rwanda, incorporates 90,000+ types of medical equipment and 225 diseases, aiding targeted infrastructure improvements and informed lending decisions through predictive analytics. The HDSM demonstrates the social and economic impact that a healthcare infrastructure investment can have on a certain community or in a certain region. </t>
+  </si>
+  <si>
+    <t>Kigali, Rwanda</t>
+  </si>
+  <si>
+    <t>Rwanda, Kenya, DRC</t>
+  </si>
+  <si>
+    <t>1000+ healthcare providers served</t>
+  </si>
+  <si>
+    <t>Rwanda, DRC, Kenya</t>
+  </si>
+  <si>
+    <t>3000+</t>
+  </si>
+  <si>
+    <t>$3M+</t>
+  </si>
+  <si>
+    <t>Rwanda HIMS</t>
+  </si>
+  <si>
+    <t>We do not collect any PHI</t>
+  </si>
+  <si>
+    <t>We have a team of support staff that is always available</t>
+  </si>
+  <si>
+    <t>Inventory Management</t>
+  </si>
+  <si>
+    <t>www.viebeg.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courtney Moxley </t>
+  </si>
+  <si>
+    <t>courtney@reachdigitalhealth.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach Digital Health </t>
+  </si>
+  <si>
+    <t>Young Africa Live</t>
+  </si>
+  <si>
+    <t>Young Africa Live (YAL) is a digital health platform designed to empower young people in Africa with comprehensive sexual and reproductive health (SRH) information. YAL combines the privacy of a WhatsApp chatbot with the community engagement of Facebook, delivering personalized content to users aged 15-24. By addressing the unique needs and challenges faced by young people in accessing SRH information and services, YAL aims to improve their overall well-being and health outcomes.
+The program utilizes a human-centered design approach, ensuring that the content and delivery are tailored to the specific cultural and social contexts of the users. YAL not only provides information but also fosters a safe and inclusive space for young people to discuss sensitive health topics, ask questions, and receive support. Through personalized interventions, smart user profiling, and advanced data analytics, YAL continuously adapts to user needs and preferences, promoting long-lasting behavior change and improved SRH outcomes.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1IbdpPtvO_AH9NLQN367rgDZ4oZqXtDy3</t>
+  </si>
+  <si>
+    <t>info@reachdigitalhealth.org</t>
+  </si>
+  <si>
+    <t>National and Community Health, Analytics and Data Aggregation, AI for Health</t>
+  </si>
+  <si>
+    <t>Young Africa Live (YAL) utilizes a multi-pronged approach to improve health outcomes among youth. By disseminating accurate SRH information and fostering open dialogue, YAL aims to increase health literacy and empower young people to make informed decisions about their health and well-being, ultimately leading to positive behavior change and a reduction in negative health outcomes.By offering personalized interventions, YAL addresses key behavioral barriers, helping individuals make informed health decisions, which leads to improved health literacy and positive behavioral shifts. These interventions are designed to reduce harmful health outcomes such as unintended pregnancies and sexually transmitted infections.
+Additionally, YAL raises awareness and creates demand for essential health services, such as family planning, HIV prevention, and mental health support, ensuring that young people have access to the care they need. The platform’s screening algorithms guide users to appropriate healthcare services, bridging the gap between awareness and action. By empowering youth to take ownership of their health decisions and providing the necessary support and guidance, YAL fosters long-term engagement with healthier practices. This comprehensive and youth-centered approach ultimately strengthens health systems, improves health outcomes, and supports the overall well-being of young people across Africa.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YAL addresses the unmet SRH needs of young people in South Africa, who often face significant barriers in accessing SRH information and services due to stigma, lack of youth-friendly services, and socio-cultural norms. YAL's digital platform overcomes these barriers by providing a safe and accessible space for young people to engage with SRH content, ask questions, and receive personalized support.
+YAL effectively leverages low-cost mobile technology, such as WhatsApp, to meet users where they are. By utilizing platforms like WhatsApp, which are already widely used and familiar to young people, YAL eliminates barriers to access and ensures that critical SRH information and services are readily available. 
+YAL's data-driven approach provides valuable insights into youth SRH needs and preferences at the national level, which contributes to health system strengthening. YAL has promising potential in improving SRH and mental health outcomes for young people in South Africa. By empowering young people with knowledge and agency, YAL has demonstrated: 
+- Improved SRH Knowledge: Statistically significant improvements were observed in SRH knowledge, particularly among highly engaged users.
+- Positive Changes in Attitudes: YAL contributed to reductions in poor body image and consent attitudes, promoting healthier perspectives.
+- Increased Condom Use: For users not planning to have children in the near future, condom usage increased, suggesting positive behavioral change.
+- Enhanced Mental Health: The platform fostered a sense of social connectedness and provided a safe space for discussing mental health issues, although further investigation is needed regarding the impact on depression and anxiety scores.
+- Greater Likelihood of Service Utilization: YAL users expressed increased intentions to visit healthcare facilities and seek counseling, suggesting potential for greater service uptake. </t>
+  </si>
+  <si>
+    <t>1 in South Africa</t>
+  </si>
+  <si>
+    <t>112,565 all time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">177,753 outbound messages per month on average (48 months) </t>
+  </si>
+  <si>
+    <t>$8 million</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/document/d/1W3qqP01XtiLT4NwyJR4Wuc3SrucJ5tkxJ40GO-m4rO8/edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach ensures the privacy and protection of Personal Health Information (PHI) in solutions like YAL to provide a safe and secure environment for young people while safeguarding their privacy. Our approach includes:
+- End-to-end encryption: YAL leverages platforms like WhatsApp, which offer end-to-end encryption, ensuring that all user interactions and data remain private and secure.
+- Anonymity and data security: YAL collects and stores data anonymously and securely, adhering to strict data protection protocols and international standards.
+- User consent and control: YAL prioritizes user consent and control over their data, allowing them to choose what information they share and how it is used.
+- Ethical guidelines and compliance: YAL operates in accordance with ethical guidelines and complies with all relevant data privacy regulations, including the Protection of Personal Information Act (POPIA) in South Africa.
+- Transparency and accountability: YAL maintains transparency about its data practices and is accountable for the responsible and ethical use of user data.
+</t>
+  </si>
+  <si>
+    <t>Audit Logs: All logs are sent to AWS Cloudtrail to ensure a record of actions taken by a user, role, or an AWS service is captured. This information can be used to determine the request that was made, the IP address from which the request was made, who made the request, when it was made, and additional details. Administrator access to critical system hardware and servers is logged
+Monitoring: A set of rules and services have been implemented to monitor for changes to services, alert administrators of any potential risks, and diagnose overly permissive security group rules.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Network segmentation: A set of rules/configurations are in place to prevent databases from being accessible from the internet, to help mitigate the possibility of a data breach.
+Public Accessibility: Disabled to ensure databases are not assigned a publicly exposed DNS hostname.
+Network Demilitarized Zone (“DMZ”) architecture is in place to restrict access to protected data from the internet. Protected data is stored in a data tier and that is not allowed access to the public internet or be publicly accessible directly. There are no direct network routes to and from the data tier, making data exfiltration more difficult from any other services that are compromised.
+Network Access Control List (“NACL”) have been implemented to restrict access between subnets and and deny unnecessary network traffic to the data tier subnets. All outbound traffic from the data tier is denied from routing. Only database servers reside within the data tier, so network communication cannot originate from the data tier.
+Security Groups and Firewall: A set of stateful software firewalls (known as security groups) are in place to configure connections between any DMZ and the internal network zone, and to ensure network communication is restricted to a specified set of ports.
+Encryption: All databases are encrypted at rest. All database backup and snapshots are also encrypted.
+User Account Review: Data Owners perform regular user reviews to determine if there are any unused/underutilized or forgotten user accounts in the system that should be removed, ensuring that only active and authorised users retain access to the system.
+Granular User Permissions: Data Owners perform regular user permission reviews to determine if there are any user accounts that have excessive permissions that do not follow the principle of least privilege.
+User action auditing and review: Data Owners perform regular user actions reviews (sample review, or spot checks) to determine if there are any users that have performed any unauthorised or unscheduled data exports.
+Server hardening: The following measures have been implemented: Configure SSL/TLS with a valid, trusted certificate; Disable older versions of TLS; Configure SSL encryption for internal traffic; Enable firewall protection; Disable unused service; Session lifetime configuration Verified; Enabled HTTP Strict Transport Security for web browser clients; Disable Guest access.
+</t>
+  </si>
+  <si>
+    <t>No current active development</t>
+  </si>
+  <si>
+    <t>Individual Registration</t>
+  </si>
+  <si>
+    <t>Addressing National Health Priorities: YAL aligns with national health strategies in South Africa and Nigeria by focusing SRH, mental health, and HIV prevention, which are key priorities for both countries. Generating Demand for SRH Services: YAL increases awareness and demand for SRH services by providing young people with information and resources, and linking them to appropriate healthcare providers, contributing to improved community health outcomes. Promoting Community Dialogue: YAL fosters open dialogue and engagement within communities by creating a safe space for young people to discuss SRH topics, challenge stigma, and share information, ultimately contributing to a more supportive and informed community environment. Supporting Community-Based Organizations: YAL partners with community-based organizations (CBOs) to leverage their expertise, networks, and resources to reach and engage young people effectively within their communities.</t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Data processing (extract, transform, load - ETL)</t>
+  </si>
+  <si>
+    <t>Guided self help, Interactive services/chatbots</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Linkage to SRH services on the ground
+- Safe Online Community: YAL provides a safe and moderated forum on Facebook for users to discuss SRH topics openly with their peers.
+- Browsable Content Library of SRH content that users can search for specific topics of interest.
+- Personalized Push Messages: YAL sends personalized push messages to users to encourage healthy behaviors and promote engagement with the platform.
+</t>
+  </si>
+  <si>
+    <t>https://www.youngafricalive.org/</t>
+  </si>
+  <si>
+    <t>Courtney Moxley</t>
+  </si>
+  <si>
+    <t>Reach Digital Health</t>
+  </si>
+  <si>
+    <t>MomConnect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach's MNCH (Maternal, Newborn, and Child Health) offering, is a digital health platform designed to support and empower pregnant women and mothers in their journey through pregnancy and early childhood (until the child’s second birthday). By leveraging mobile technology, the service delivers stage-based health information, appointment reminders, and personalized support to women, aiming to improve maternal and child health outcomes. The service offers a variety of features, including push messages, browsable content, and access to a helpdesk for questions or concerns. It also incorporates risk assessment and personalized interventions, addressing barriers such as pregnancy literacy, self-healthcare practices, mental health, connectedness, and resilience. Through its comprehensive approach, Reach’s MNCH offering strives to enhance the health and well-being of mothers and their children, while promoting informed decision-making and active engagement in their healthcare. 
+MomConnect is Reach’s first implementation of the MNCH offering in South Africa, launched in August 2014 as a partnership between the South African National Department of Health (NDOH) and various stakeholders. The official endorsement and adoption by the NDOH solidified MomConnect's position as a flagship program in maternal and child health. This collaboration ensured the alignment of MomConnect with national health priorities and facilitated its widespread implementation across the country. Since its launch, MomConnect has evolved and expanded its services, reaching millions of mothers and making a significant impact on maternal and child health outcomes in South Africa. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=131EQIoCJS_-3n9GtkpyXTew5ZqxaRWxa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">info@reachdigitalhealth.org </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach’s MNCH offering has been instrumental in improving health outcomes in Africa by tackling several challenges. By delivering vital health information directly to mothers' phones, it addresses the lack of information and access, empowering women with knowledge and enabling informed decision-making. Additionally, MomConnect's stage-based health messages and automated responses alleviate the burden on healthcare workers, allowing them to focus on critical cases. Moreover, the platform promotes healthy behaviors and encourages timely healthcare utilization through features like appointment reminders and symptom checkers. By addressing these challenges and promoting preventive care, MomConnect contributes to reducing maternal and infant mortality rates, ultimately enhancing the health and well-being of mothers and children across Africa. </t>
+  </si>
+  <si>
+    <t>Reach’s MNCH offering tackles the challenges of limited access to maternal and child health information, overburdened health systems, and poor health-seeking behaviors in the African health ecosystem. With high maternal and infant mortality rates, the continent urgently requires scalable and effective solutions. MomConnect's impact has been significant, reaching millions of users with vital health information, improving antenatal care attendance, promoting healthy practices, and empowering women to make informed decisions about their health and their children's well-being. By leveraging mobile technology and evidence-based content, MomConnect has proven to be a valuable tool in strengthening health systems and improving maternal and child health outcomes in Africa. 
+Specifically, MomConnect has demonstrated positive impacts on several MNCH behaviors, including:
+- Increased uptake of family planning: MomConnect users, especially non-first-time moms, showed a greater likelihood of using family planning.
+- Improved breastfeeding practices: First-time moms and younger moms were more likely to breastfeed with MomConnect's support.
+- Improved ANC and PNC attendance: Evidence suggests that MomConnect users are more likely to attend ANC and PNC visits, leading to better maternal and child health outcomes.</t>
+  </si>
+  <si>
+    <t>4,820,950 all time users</t>
+  </si>
+  <si>
+    <t>403,277 outbound messages per month on average (108 months)</t>
+  </si>
+  <si>
+    <t>MomConnect has been designed to be compliant with South Africa’s Health Normative Standards Framework and leverages an HIE architecture and Interoperability Layer. The Patient Identifier Cross-Reference/Patient Demographic Query standards profile of Integrating the Healthcare Enterprise was initially considered for demographic data and the Mobile Health Document profile for clinic data, with a Clinical Document Architecture (Health Level Seven (HL7)) document for clinical data. However, a custom Javascript Object Notation (JSON) message was developed as there was no existing messaging profile catering for client enrolment and notification as well as HL7 Fast Health Interoperability Resourcesiv (FHIR) messages for specific clinical messaging, such as referral requests and clinical encounters (See MomConnect: an exemplar implementation of the Health Normative Standards Framework in South Africa - https://www.hst.org.za/publications/South%20African%20Health%20Reviews/11%20MomConnect%20An%20exemplar%20implementation%20of%20the%20Health%20Normative%20Standards%20Framework%20in%20SA.pdf  and Designing for scale: optimising the health information system architecture for mobile maternal health messaging in South Africa (MomConnect) - https://gh.bmj.com/content/3/Suppl_2/e000563)</t>
+  </si>
+  <si>
+    <t>MomConnect has been designed to integrate with DHIS2, South Africa’s national data reporting warehouse (See MomConnect: an exemplar implementation of the Health Normative Standards Framework in South Africa - https://www.hst.org.za/publications/South%20African%20Health%20Reviews/11%20MomConnect%20An%20exemplar%20implementation%20of%20the%20Health%20Normative%20Standards%20Framework%20in%20SA.pdf and Designing for scale: optimising the health information system architecture for mobile maternal health messaging in South Africa (MomConnect) - https://gh.bmj.com/content/3/Suppl_2/e000563 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1a4LK24xHWqjiD3OxtrMuhunUlfjAVpskIw61j-POCII/edit?usp=drive_link </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MomConnect ensures the privacy and protection of PHI through:
+- Compliance with Regulations: MomConnect adheres to South Africa's Protection of Personal Information Act (POPIA) and other relevant data privacy laws and regulations.
+- Informed Consent: MomConnect obtains informed consent from users before collecting, processing, or sharing their PHI. Users are informed about the purpose of data collection, how their data will be used, and who will have access to it.
+- Data Minimization: MomConnect collects only the minimum necessary PHI required to provide the service and achieve its public health objectives.
+- Secure Data Storage and Transmission: MomConnect employs robust security measures to protect PHI from unauthorized access, use, or disclosure.
+- Data Retention and Deletion: MomConnect has clear policies for data retention and deletion, ensuring that PHI is not kept longer than necessary and is securely deleted or anonymized when no longer needed.
+- User Control: MomConnect provides users with control over their PHI, allowing them to access, update, correct, and delete their information as needed.
+- Transparency: MomConnect maintains transparency about its data practices, providing users with clear and accessible information about how their PHI is handled.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit Logs: All logs are sent to AWS Cloudtrail to ensure a record of actions taken by a user, role, or an AWS service is captured. This information can be used to determine the request that was made, the IP address from which the request was made, who made the request, when it was made, and additional details. Administrator access to critical system hardware and servers is logged.
+Monitoring: A set of rules and services have been implemented to monitor for changes to services, alert administrators of any potential risks, and diagnose overly permissive security group rules.
+</t>
+  </si>
+  <si>
+    <t>Electronic pregnancy registration: MomConnect allows for early and comprehensive registration of pregnancies within the public health system, aiding in better tracking and management of maternal health at a national level. Targeted health promotion messages: MomConnect sends stage-based health messages to pregnant women and new mothers, promoting healthy behaviors and timely healthcare utilization, contributing to improved MNCH outcomes at both community and national levels. Interactive feedback mechanism: MomConnect provides a platform for women to provide feedback on the quality of care received at public health facilities, enabling the Department of Health to monitor and improve service delivery, impacting community health directly. Helpdesk and Chatbot Support: MomConnect offers a helpdesk for users to ask questions or report concerns, providing personalized support and guidance, contributing to positive health outcomes in the community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browsable Content Library of MNCH content that users can search for specific topics of interest.
+Personalized Push Messages: MomConnect sends personalized push messages to users to encourage healthy behaviors and promote engagement with the platform.
+</t>
+  </si>
+  <si>
+    <t>https://www.health.gov.za/momconnect/</t>
+  </si>
+  <si>
+    <t>Neal Bazirake</t>
+  </si>
+  <si>
+    <t>info@marascientific.org</t>
+  </si>
+  <si>
+    <t>Mara scientific</t>
+  </si>
+  <si>
+    <t>Mpeke HMIS</t>
+  </si>
+  <si>
+    <t>Mpeke HMIS is an advanced hospital enterprise resource planning tool designed to optimize healthcare operations and enhance patient outcomes by addressing critical inefficiencies such as manual processes and lack of real-time visibility. This comprehensive system includes specialized modules for patient and doctor management, laboratory services, pharmacy, billing, inventory ,surgery ,antenatal and even X-ray and scan capabilities. It also offers robust features like asset tracking, accounting , and extractable data analysis. Mpeke HMIS improves decision-making and care coordination by providing intuitive workflows and comprehensive analytics, making it an essential solution for healthcare organizations.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1yfS0MlnG53Srq5NmJFhvZN0aDHw5lPnu</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics, Analytics and Data Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mpeke HMIS is designed to tackle the unique challenges faced by African healthcare systems, where limited resources, infrastructure, and accessibility often hinder the delivery of effective care. By transitioning from manual, paper-based processes to a fully digitized platform, Mpeke HMIS reduces errors, minimizes delays, and eases administrative workloads. This enables healthcare providers to focus more on patient care, improving efficiency and outcomes in resource-constrained environments.
+The system's ability to generate real-time data insights empowers hospitals to make informed decisions that directly affect patient outcomes. In regions with limited health resources, Mpeke HMIS enhances the visibility of hospital operations, optimizing the use of essential medications and improving care coordination. Additionally, the platform streamlines patient care management by tracking medical histories, diagnoses, and treatments, improving overall care continuity, especially in settings where patients frequently visit multiple providers.
+Mpeke HMIS is also tailored to local health use cases, such as maternal health management, aligning with the pressing needs of African healthcare systems. Its ability to generate detailed reports supports healthcare organizations in identifying areas for improvement, adapting to changing healthcare landscapes, and ultimately reducing mortality rates. By providing critical tools and insights, Mpeke HMIS enables healthcare providers to deliver better-quality care, driving improvements in health outcomes across Africa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Market Need:The African healthcare system faces numerous challenges, including inadequate infrastructure, under-resourced hospitals, and reliance on manual processes that hinder the delivery of efficient care. Many facilities still operate with paper-based record keeping, leading to delays, errors, and inefficiencies in managing patient data, medications, and resources. There is also a significant gap in real-time data access, making it difficult for healthcare providers to make informed decisions or respond quickly to patient needs. Additionally, limited coordination between healthcare providers often leads to fragmented care, especially in rural areas. Furthermore, hospitals often struggle to generate accurate reports or use data for decision-making, limiting their ability to identify areas for improvement and respond to public health needs. Mpeke HMIS addresses these challenges by providing a digital platform that automates hospital operations, streamlines patient care management, and enhances coordination across the healthcare ecosystem.
+Impact in the African Health Ecosystem: Mpeke HMIS has significantly impacted the African healthcare landscape by enhancing the quality and efficiency of healthcare delivery. The hospital using the system has reported reductions in medical errors, faster access to large  patient data of about 13759 patients and improved operational efficiency. By eliminating manual processes, healthcare providers focus more on patient care and less on administrative tasks. Mpeke HMIS also promotes better coordination between healthcare providers, which is crucial in regions where patients often seek treatment from multiple facilities, ensuring continuity of care and reducing duplication of tests and treatments.
+Additionally, the system's ability to generate comprehensive reports and analytics has empowered healthcare organizations to make data-driven decisions, improving their response to public health issues such as maternal health and infectious diseases. This has led to better health outcomes, including reduced mortality rates and improved disease management. As a scalable and adaptable solution, Mpeke HMIS continues to meet the evolving needs of healthcare organizations across Africa, ultimately driving improvements in the quality of care and contributing to the modernization of the continent's healthcare infrastructure.
+</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Mature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The link cant be provided because it is private </t>
+  </si>
+  <si>
+    <t>Mpeke HMIS ensures the privacy and protection of Personal Health Information (PHI) through a comprehensive approach that includes multiple layers of security, strict access controls, and adherence to regulatory standards.
+First, the system employs encryption to protect PHI both at rest and in transit. This means that sensitive data is encoded when stored in databases and when transmitted over networks, making it unreadable to unauthorized users. Additionally, Mpeke HMIS utilizes secure communication protocols, such as HTTPS, to safeguard data exchanges between users and the system, further mitigating the risk of interception.
+To enforce access controls, the system uses Role-Based Access Control (RBAC), which ensures that only authorized personnel can access PHI based on their roles and responsibilities. Each user’s permissions are carefully defined, limiting access to sensitive information to those who require it for their job functions. Furthermore, the solution includes audit logging features that track and record all access to PHI, enabling the identification of any unauthorized access attempts and promoting accountability.</t>
+  </si>
+  <si>
+    <t>Mpeke HMIS employs robust mechanisms for authentication and authorization to ensure secure access to the system and protect sensitive patient data. The authentication process requires users to create strong passwords that meet specific complexity requirements, which are stored using encryption techniques to safeguard them against unauthorized access. Secure communication protocols, such as HTTPS, are utilized during the login process to encrypt data transmitted between the user's device and the server. For authorization, the system implements Role-Based Access Control (RBAC), granting access based on assigned roles, which define permissions for actions and data access. Additionally, Mpeke HMIS includes session management features that monitor user activity and automatically log users out after periods of inactivity, further preventing unauthorized access. Together, these mechanisms establish a secure environment within Mpeke HMIS, ensuring that only verified users can access the system and that they have appropriate permissions based on their roles, thereby protecting patient data and maintaining compliance with healthcare regulations.</t>
+  </si>
+  <si>
+    <t>Mpeke HMIS incorporates robust mechanisms for audit logging and error reporting to enhance accountability, security, and system performance. The system features an inbuilt logging functionality that captures detailed records of all user transactions within the platform. This includes information on what actions were performed, when they occurred, and any changes made to patient records or administrative settings. Each log entry is timestamped and associated with the user’s identity, allowing for precise tracking of actions taken within the system. Mpeke HMIS provides an intuitive feature that records error logs and access logs automatically and sends them for review by the technical support team. This process ensures that issues are addressed promptly, minimizing disruptions in healthcare delivery.  These mechanisms ensure that Mpeke HMIS maintains high standards of security and operational integrity, critical in a healthcare environment.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, CPOE/Order Management, Patient Billing, Patient Data Import/Export, X-Ray and Imaging, ER - Triage and Dashboard, Surgical Management</t>
+  </si>
+  <si>
+    <t>Capture biological specimens, Transmit and track diagnostic orders, Send diagnostic results to providers, Capture results from digital devices, Inventory Management</t>
+  </si>
+  <si>
+    <t>everything that the system offers has been listed</t>
+  </si>
+  <si>
+    <t>https://marascientific.org</t>
+  </si>
+  <si>
+    <t>Jean Damascene Bigirimana</t>
+  </si>
+  <si>
+    <t>jdamascene@gmail.com</t>
+  </si>
+  <si>
+    <t>HealthEdu Ltd</t>
+  </si>
+  <si>
+    <t>HealthEdu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthEdu provides customized, accredited courses for healthcare professionals, available online and in-person. We offer 250+ tailored courses led by experts across Africa and empower health professionals and community healthcare workers. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Iv3p8gLu_E7QF-ockCvknEwJpWWRgmbg</t>
+  </si>
+  <si>
+    <t>healthedultd@gmail.com</t>
+  </si>
+  <si>
+    <t>Pharmacy, Laboratory and Diagnostics, Front-line (CHW) tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our solution is to empower health professionals with real time information and courses that help empower them together with community health workers with vital information that help save lives and improve health as per Universal Health Coverage and SDGs 3. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In East Africa alone, more than 300,000 health professionals struggle to access evidence-based information that help them improve their knowledge base and disseminate it to their patients for general improved health, in Africa the need is beyond that. </t>
+  </si>
+  <si>
+    <t>Kigali Rwanda</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>90% is in Africa</t>
+  </si>
+  <si>
+    <t>100% was done in Africa</t>
+  </si>
+  <si>
+    <t>https://www.rahpc.org.rw/cpds</t>
+  </si>
+  <si>
+    <t>https://www.healthedu.rw/terms_condition</t>
+  </si>
+  <si>
+    <t>We abide to the Law for data protection in Rwanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have developers that does this technically. </t>
+  </si>
+  <si>
+    <t>Clinical decision support, Virtual care</t>
+  </si>
+  <si>
+    <t>Decision Support</t>
+  </si>
+  <si>
+    <t>Provide necessary information for the healthcare professionals and layman on the diseases for prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are thinking of integrating AI for more knowledge sharing and customization. </t>
+  </si>
+  <si>
+    <t>Support dissemination of conditions that people can request for virtual care for</t>
+  </si>
+  <si>
+    <t>Inform the public on the information sharing tips for vaccination an warn the public about dangers and this can more supporting the prevention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have been able to support 7,000 Health care professionals and we are developing contents for community health workers; we have trained 20 public hospitals on digital literacy, and we have network of 65 clinical experts across the world. </t>
+  </si>
+  <si>
+    <t>www.healthedu.rw</t>
+  </si>
+  <si>
+    <t>Katrina A Prentice</t>
+  </si>
+  <si>
+    <t>katrina@zakhealth.com</t>
+  </si>
+  <si>
+    <t>Zak Health Ltd</t>
+  </si>
+  <si>
+    <t>Zak Health</t>
+  </si>
+  <si>
+    <t>Zak Health's AI Telemedicine solution provides advanced health assessments using 8 key biomarkers. Tailored for Africa, this comprehensive platform integrates virtual consultations with AI-driven insights, improving access to healthcare, diagnostics, and treatment, even in remote areas. The solution empowers patients and healthcare providers with real-time health data, ensuring proactive management of individual health outcomes.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1q0iR77X_Bn7EX8UBwS0ufwsMvlYfzFCL</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Analytics and Data Aggregation, AI for Health, Virtual Health</t>
+  </si>
+  <si>
+    <t>How Zak Health’s AI Telemedicine Solution Improves Health Outcomes in Africa
+Zak Health's AI Telemedicine solution is specifically designed to address the unique healthcare challenges in Africa by leveraging digital innovation to improve health outcomes. The platform integrates advanced AI health assessments using 8 key biomarkers, tailored to the needs of African healthcare systems. Key benefits include:
+Increased Accessibility to Healthcare: Africa faces a significant shortage of healthcare providers, particularly in rural areas. Our solution bridges this gap by offering remote consultations and AI-driven diagnostics, enabling patients in remote locations to receive timely medical care without the need for physical travel.
+Personalized Health Assessments: Using 8 biomarkers, our AI Health Assessments provide personalized health insights, helping identify early signs of chronic diseases such as diabetes, hypertension, and cardiovascular conditions. This enables earlier interventions, reducing the severity of conditions and improving long-term health outcomes.
+Cost-Effective Healthcare: By reducing the need for in-person visits and streamlining diagnostics, our platform lowers healthcare costs for both patients and providers. This affordability makes healthcare more accessible to underserved populations, contributing to improved health outcomes.
+Data-Driven Decision Making: The platform collects and analyzes health data in real time, allowing healthcare providers and governments to monitor health trends, allocate resources more efficiently, and develop targeted public health strategies.
+Scalability and Adaptability: Our solution is designed to scale across different regions in Africa, adapting to the specific needs of local healthcare systems. This flexibility allows for the delivery of relevant, culturally-sensitive healthcare services that address the diverse health challenges across the continent.
+By integrating AI health assessments with telemedicine, Zak Health’s solution enhances patient outcomes, improves resource efficiency, and delivers high-quality healthcare to areas that need it most.</t>
+  </si>
+  <si>
+    <t>Market Need for Zak Health’s AI Telemedicine Solution in Africa
+Africa faces several significant healthcare challenges, including inadequate healthcare infrastructure, a shortage of healthcare professionals, and limited access to healthcare services, particularly in rural and remote regions. The continent’s growing population, increasing burden of chronic diseases, and economic disparities further exacerbate these issues. There is a pressing need for innovative solutions that can provide accessible, cost-effective, and quality healthcare to millions of underserved people.
+Zak Health’s AI Telemedicine Solution: Addressing Market Needs
+Zak Health’s AI Telemedicine platform directly addresses these challenges by providing remote, AI-powered health assessments and consultations that are scalable and adaptable to the unique needs of the African continent. This solution fills critical gaps in the healthcare system by:
+Enhancing Access to Care: With healthcare facilities often concentrated in urban areas, many Africans in rural regions lack access to essential medical services. Zak Health’s telemedicine platform offers a solution by enabling virtual consultations and AI-driven health assessments, eliminating geographic barriers to care.
+Improving Early Detection and Prevention: The AI health assessments analyze 8 key biomarkers, facilitating early detection of conditions such as hypertension, diabetes, and cardiovascular disease. This enables timely interventions and helps shift the focus from reactive to preventive care, ultimately reducing the burden on overstretched healthcare systems.
+Providing Affordable Healthcare: In many African countries, healthcare costs can be prohibitive for low-income populations. By reducing the need for in-person visits, the solution lowers healthcare costs, making quality care more affordable and accessible to underserved communities.
+Impact on the African Health Ecosystem
+Zak Health’s solution has already begun making a tangible impact on the African health ecosystem by:
+Expanding Access to Healthcare Services: The platform has facilitated thousands of virtual consultations, particularly in regions where healthcare infrastructure is limited. By providing consistent and reliable access to healthcare, Zak Health has improved health outcomes in areas that previously had limited medical support.
+Empowering Patients and Providers with Data: Through AI-driven health assessments, both patients and healthcare providers have access to actionable health insights that guide treatment decisions and enhance preventive care strategies. This data-driven approach is helping reduce the prevalence of chronic diseases and improve patient outcomes.
+Building Health Equity: By leveraging digital tools, Zak Health is helping to close the healthcare gap between urban and rural populations. The solution promotes health equity by providing equal access to quality care, irrespective of location or socioeconomic status.
+Supporting Public Health Efforts: The platform’s ability to aggregate health data allows governments and public health organizations to identify emerging health trends and target interventions more effectively, contributing to stronger public health systems and more efficient resource allocation.
+Conclusion
+Zak Health’s AI Telemedicine solution is revolutionizing healthcare delivery in Africa by addressing critical market needs, improving access to care, and making a measurable impact on the health ecosystem. Through scalable, data-driven, and cost-effective innovations, Zak Health is contributing to the transformation of healthcare in Africa and advancing the goal of health equity across the continent.</t>
+  </si>
+  <si>
+    <t>London and Lagos</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Zero at present but that is not my intension</t>
+  </si>
+  <si>
+    <t>100% in India</t>
+  </si>
+  <si>
+    <t>None yet - just about to sign a government and an oil company</t>
+  </si>
+  <si>
+    <t>Nigeria and soon to be Kenya</t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>CE Medical Device, ISO 27001, GDPR</t>
+  </si>
+  <si>
+    <t>To follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ensuring Privacy and Protection of Personal Health Information (PHI)
+Zak Health takes the privacy and protection of Personal Health Information (PHI) seriously and has implemented robust measures to ensure that all patient data is handled securely and in compliance with international standards, such as HIPAA and GDPR. Our AI Telemedicine platform employs a multi-layered approach to safeguarding PHI, ensuring that data is kept confidential, secure, and protected from unauthorized access.
+Key Security Measures:
+Data Encryption:
+At Rest: All PHI stored in our system is encrypted using advanced encryption standards (AES-256) to prevent unauthorized access to data.
+In Transit: We use Transport Layer Security (TLS) to ensure that all data transmitted between patients, healthcare providers, and our servers is encrypted and secure from interception.
+Access Control:
+Role-Based Access: Access to PHI is restricted to authorized personnel based on their role within the healthcare ecosystem. This ensures that only healthcare providers and individuals directly involved in patient care can access sensitive information.
+Multi-Factor Authentication (MFA): Our platform implements multi-factor authentication for all users, adding an extra layer of security to prevent unauthorized access to accounts.
+Data Anonymization:
+Where appropriate, patient data is anonymized before it is used for analytics or research purposes. This ensures that individuals cannot be identified from aggregated health data.
+Audit Trails:
+Our system maintains comprehensive audit trails, tracking all access to PHI and any modifications made to patient records. This allows for real-time monitoring of data access and ensures transparency in how information is handled.
+Compliance with Regulatory Standards:
+HIPAA Compliance: Zak Health’s platform adheres to the Health Insurance Portability and Accountability Act (HIPAA), ensuring the confidentiality, integrity, and availability of patient health information for patients and healthcare providers.
+GDPR Compliance: For regions requiring GDPR compliance, Zak Health ensures that patients have control over their data, including rights to access, correct, or delete their information, as well as the right to data portability.
+Regular Security Audits and Penetration Testing:
+Our platform undergoes regular security audits and penetration testing by third-party cybersecurity experts to identify and resolve any vulnerabilities. This proactive approach ensures that our systems remain secure against evolving threats.
+Data Retention and Deletion Policies:
+We have strict data retention policies that ensure PHI is stored only for the necessary duration required for patient care or legal obligations. Upon request or when no longer required, PHI is securely deleted from our systems.
+Conclusion
+Zak Health is committed to the highest standards of privacy and data protection. Through encryption, access controls, compliance with regulatory frameworks, and continuous security monitoring, we ensure that Personal Health Information (PHI) remains secure and protected at all times. Our dedication to maintaining these rigorous standards ensures trust and confidence in our AI telemedicine platform from both healthcare providers and patients.
+</t>
+  </si>
+  <si>
+    <t>Audit Logging and Error Reporting Mechanisms in Zak Health’s AI Telemedicine Solution
+Zak Health employs robust audit logging and error reporting mechanisms to ensure transparency, security, and system reliability across the platform. These mechanisms play a critical role in tracking user activities, monitoring system performance, and identifying issues in real-time, ensuring that the platform operates efficiently and securely.
+Audit Logging Mechanisms
+Comprehensive Activity Tracking:
+Our platform maintains detailed audit logs of all user actions, including access to patient data, modifications made to health records, and system interactions (e.g., logins, logouts, and data transfers).
+Each log entry contains essential information such as user identity, timestamp, type of action performed, and the data or resource affected.
+Role-Based Audit Trails:
+Audit logs are role-based, meaning actions performed by different types of users (e.g., administrators, healthcare providers, or patients) are recorded and tracked based on their access privileges. This ensures that only authorized personnel are interacting with sensitive information.
+Tamper-Proof Logs:
+To ensure the integrity of the logs, all audit entries are stored in tamper-proof storage, where they cannot be modified or deleted by unauthorized users. This protects the integrity of the data for regulatory and security purposes.
+Real-Time Monitoring:
+The platform supports real-time monitoring of audit logs, allowing administrators to quickly detect and respond to unauthorized access attempts, suspicious activities, or policy violations.
+Compliance Reporting:
+The audit logs are designed to meet compliance requirements for HIPAA, GDPR, and other relevant data protection regulations. This ensures that we can provide accurate records of system activity during security audits and investigations.
+Error Reporting Mechanisms
+Automated Error Detection:
+The platform continuously monitors system performance through automated tools that detect and capture errors as they occur. These tools are integrated into the application and infrastructure, tracking issues such as system failures, latency spikes, and service disruptions.
+Real-Time Error Logging:
+Errors are logged in real-time and stored in centralized logging systems, ensuring that details such as error type, timestamp, affected components, and contextual information are recorded for immediate or later analysis.
+Alerts and Notifications:
+When an error occurs, our error reporting system automatically generates alerts and sends notifications to the appropriate technical teams. These alerts are triggered based on predefined thresholds or critical failures and are delivered via email, messaging services, or dedicated monitoring dashboards.
+Detailed Error Reports:
+Each error report includes stack traces, contextual logs, and impact assessments to help the development and operations teams diagnose the issue quickly and efficiently. The reports provide actionable insights into the root cause of the problem.
+User-Friendly Error Handling:
+For the end-users, the platform provides user-friendly error messages that help them understand the issue without exposing technical details. At the same time, detailed error logs are kept on the backend for the technical teams to resolve the problem without disrupting the user experience.
+Continuous Monitoring &amp; Feedback Loop:
+The platform utilizes continuous monitoring systems such as Prometheus and ELK (Elasticsearch, Logstash, Kibana) to track system performance and error occurrences. This feedback loop allows us to proactively address issues and improve system stability over time.
+Conclusion
+Zak Health’s audit logging and error reporting mechanisms ensure comprehensive oversight of all user activities and system operations. With real-time tracking, tamper-proof logs, automated error detection, and proactive alerts, we ensure the highest standards of security, compliance, and system performance. These mechanisms are vital in maintaining trust, improving system reliability, and enabling quick response to any operational issues that arise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Authentication and Authorization Mechanisms in Zak Health’s AI Telemedicine Solution
+Zak Health’s AI Telemedicine platform prioritizes security and privacy, especially in handling sensitive healthcare data. To ensure that only authorized individuals can access the system and that data remains secure, we have implemented robust authentication and authorization mechanisms. These mechanisms are designed to safeguard patient information and ensure that healthcare providers and users can only access the data they are permitted to view or interact with.
+Authentication Mechanisms
+Multi-Factor Authentication (MFA):
+MFA is used to provide an additional layer of security beyond just usernames and passwords. Users must provide at least two forms of authentication (e.g., a password and a one-time code sent to their phone or email) before they can access the system.
+This significantly reduces the risk of unauthorized access, even if login credentials are compromised.
+OAuth/OpenID Connect:
+OAuth 2.0 and OpenID Connect are employed for secure authentication, enabling users to log in via trusted identity providers (e.g., Google, Microsoft). This eliminates the need for storing sensitive credentials on our platform and leverages secure, well-established external authentication services.
+OAuth ensures that third-party services can securely interact with the system without exposing user credentials.
+Biometric Authentication (Optional):
+For heightened security, we offer biometric authentication options for mobile app users. This can include fingerprint scanning or facial recognition, ensuring secure access to the platform without needing passwords.
+Biometrics offer an additional layer of protection and ease of use for healthcare providers and patients.
+Password Policies:
+Our platform enforces strong password policies, requiring users to create complex passwords that meet specific criteria (e.g., minimum length, inclusion of numbers and symbols). Users are prompted to regularly update their passwords to maintain security.
+Passwords are stored using salted and hashed encryption, ensuring that they cannot be deciphered even if the database is compromised.
+Session Management:
+The platform implements session expiration and automatic logout features after periods of inactivity. This prevents unauthorized access through forgotten active sessions and ensures that users must reauthenticate after a certain time.
+Secure tokens are used to manage sessions, ensuring that authentication data is encrypted during user interactions.
+Authorization Mechanisms
+Role-Based Access Control (RBAC):
+Role-Based Access Control ensures that users are granted access only to the information and features necessary for their roles. Different user types (e.g., doctors, patients, administrators) have distinct roles, each with specific access permissions.
+For instance, a doctor might have access to detailed patient records, whereas a patient can only access their personal health data. This prevents unauthorized viewing or editing of sensitive data.
+Attribute-Based Access Control (ABAC):
+ABAC provides more granular control, allowing access based on user attributes such as location, department, or specific security clearance. This dynamic authorization model ensures that users are only permitted access based on real-time conditions and specific data attributes.
+For example, only users with the attribute of "clinical staff" might be granted access to diagnostic tools, and only users within a specific region might access certain healthcare records.
+Fine-Grained Permissions:
+Permissions can be set at a highly detailed level, including restricting access to specific functions or datasets within the system. These permissions ensure that even within certain roles, access is granted on a need-to-know basis.
+For instance, administrative staff may be able to view patient demographics but may not have permission to access detailed medical histories or diagnostic reports.
+Audit-Based Authorization:
+Every access request is logged in an audit trail, allowing the system to review and verify authorized access in real-time. If unauthorized attempts are detected, the system can revoke access immediately or alert system administrators.
+Token-Based Authorization:
+The platform uses JSON Web Tokens (JWT) for secure authorization. After authentication, users receive encrypted tokens that allow them access to specific areas of the platform. These tokens are time-limited and contain encoded permissions that the system verifies before granting access to sensitive data.
+Tokens are automatically refreshed to avoid session hijacking and can be revoked if security risks are identified.
+Dynamic Policy Management:
+Authorization policies can be dynamically adjusted based on changes in the user environment, role changes, or evolving security requirements. This ensures that the platform can adapt to new threats or organizational changes quickly, without the need for extensive reconfiguration.
+Conclusion
+Zak Health’s platform ensures the highest standards of security through rigorous authentication and authorization mechanisms. Multi-factor authentication, biometric options, role-based access control, and token-based authorization are just some of the ways we safeguard access to sensitive health data. These mechanisms not only protect personal health information but also ensure that users have the correct access needed to perform their roles efficiently and securely.
+</t>
+  </si>
+  <si>
+    <t>Patient Record Management</t>
+  </si>
+  <si>
+    <t>AI Health Assessments</t>
+  </si>
+  <si>
+    <t>Data processing (extract, transform, load - ETL)</t>
+  </si>
+  <si>
+    <t>Guided self help, Telemedicine appointments, AI Health Assessments</t>
+  </si>
+  <si>
+    <t>Digital vaccine card</t>
+  </si>
+  <si>
+    <t>www.zakhealth.com</t>
+  </si>
+  <si>
+    <t>David Chen</t>
+  </si>
+  <si>
+    <t>david@kapsuletech.com</t>
+  </si>
+  <si>
+    <t>Kapsule</t>
+  </si>
+  <si>
+    <t>Kapsule aggregates data from pharmacies, hospitals, insurers, and healthtech across Africa to give our customers insights into disease, treatment, and spend habits across African Healthcare.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1YP7YxKrReYHD0WyJGbicv6xTr1D-_Ewh</t>
+  </si>
+  <si>
+    <t>info@kapsuletech.com</t>
+  </si>
+  <si>
+    <t>Analytics and Data Aggregation</t>
+  </si>
+  <si>
+    <t>Kapsule makes it easy for multinationals and large organizations to understand the health needs, and spend across Africa by making it easily accessible and digestible.</t>
+  </si>
+  <si>
+    <t>Investment into African healthcare has been limited by a lack of data, Kapsule's solution makes it easy for organizations to get the information that they need to make more informed, and data driven decisions.</t>
+  </si>
+  <si>
+    <t>South Africa, Zimbabwe, Kenya, Uganda, Ghana, Nigeria, Ethiopia, Egypt</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>230k</t>
+  </si>
+  <si>
+    <t>500k</t>
+  </si>
+  <si>
+    <t>will share separately</t>
+  </si>
+  <si>
+    <t>We do not collect Personally Identifiable Information (PII) we also have strict encryption and multiple factor authentication</t>
+  </si>
+  <si>
+    <t>Longitudinal health records, Clinical data repository, Clinical data warehouse</t>
+  </si>
+  <si>
+    <t>www.kapsuletech.com</t>
+  </si>
+  <si>
+    <t>Siraaj Adams</t>
+  </si>
+  <si>
+    <t>Siraaj.adams2003@gmail.com</t>
+  </si>
+  <si>
+    <t>Strategic Health Solutions</t>
+  </si>
+  <si>
+    <t>Prep Club</t>
+  </si>
+  <si>
+    <t>Online Prep E commerce platform to improve access to online telemedicine and PrEp medication</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=16CJcANhSMUynpXRCTqQoAYkEQdii2iaa</t>
+  </si>
+  <si>
+    <t>info@prepclub.co.za</t>
+  </si>
+  <si>
+    <t>Virtual Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategic Health Solutions aims to revolutionize healthcare delivery through its integrated e-prescription and delivery process. The focus is on partnering with healthcare providers and professionals to enhance access to health products and services.
+The project aims to scale operations within South Africa and eventually expand into the rest of Africa.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adherence Issues: 
+Only 34% of healthseekers remain adherent after 12 months. PrEP Club offers ongoing digital support, reminders, Telemedicine counselling and peer engagement to improve adherence.
+Impact:
+With over 50% of at-risk individuals unaware of PrEP, PrEP Club aims to bridge this gap through technology, ensuring prevention is accessible, private, and effective.
+</t>
+  </si>
+  <si>
+    <t>Cape Town South Africa</t>
+  </si>
+  <si>
+    <t>One</t>
+  </si>
+  <si>
+    <t>We use Microsoft Azure FHIR</t>
+  </si>
+  <si>
+    <t>We do have a API</t>
+  </si>
+  <si>
+    <t>We apply the interoperable standards with the National Department of Health</t>
+  </si>
+  <si>
+    <t>https://prepclub.co.za/privacy-policy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We encrypt the data </t>
+  </si>
+  <si>
+    <t>Azure Monitor:
+A comprehensive monitoring service that tracks the performance and health of your applications and infrastructure. It can be used to collect logs from various Azure resources.
+Activity Logs: Track all operations at the subscription level, such as resource creation, modification, or deletion.
+Diagnostic Logs: Provide detailed, resource-level logs that you can configure for Azure</t>
+  </si>
+  <si>
+    <t>Single Sign-On (SSO): Azure AD supports SSO, allowing users to log in once and access multiple Azure applications or external SaaS applications without needing to log in again.
+Multi-Factor Authentication (MFA): To increase security, Azure AD can require MFA, adding an extra layer of protection through phone verification, text codes, or mobile app authentication.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, CPOE/Order Management, Encounter Coding, ER - Triage and Dashboard, Virtual care</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, Drug interaction monitoring, Decision Support, Electronic prescribing, EHR Integration</t>
+  </si>
+  <si>
+    <t>Capture biological specimens, Transmit and track diagnostic orders, Send diagnostic results to providers, Capture results from digital devices, Inventory Management, EHR Integration</t>
+  </si>
+  <si>
+    <t>Vaccine-related adverse events monitoring</t>
+  </si>
+  <si>
+    <t>Longitudinal health records, National health domain-specific registries, Clinical data repository, Clinical data warehouse</t>
+  </si>
+  <si>
+    <t>Telemedicine appointments</t>
+  </si>
+  <si>
+    <t>Diagnosis support, Integration and data exchange with local health facility (EMR), Integration with national health systems (DHIS2 or other)</t>
+  </si>
+  <si>
+    <t>https://prepclub.co.za</t>
+  </si>
+  <si>
+    <t>Roy Bore</t>
+  </si>
+  <si>
+    <t>roy.bore@healthxafrica.com</t>
+  </si>
+  <si>
+    <t>HealthX Africa</t>
+  </si>
+  <si>
+    <t>HealthX</t>
+  </si>
+  <si>
+    <t>HealthX is a healthcare innovator that leverages technology to provide high quality, affordable primary care to all Kenyans, regardless of where they live. Through a combination of mobile and telehealth technology, HealthX enables consumers to access a team of licensed and trained primary care doctors, nutritionists &amp; psychologists 24 hours a day, 365 days a year</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1Dr_L8F2R371X2GQzEVCzYecrTlJagE8p</t>
+  </si>
+  <si>
+    <t>support@healthxafrica.com</t>
+  </si>
+  <si>
+    <t>Pharmacy, National and Community Health, AI for Health, Virtual Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HealthX Africa is a subscription-based, data-driven, primary health care provider offering hybrid digital and physical touch points spread strategically across the patient life cycle.
+Our unique phydigital model targeting the un and under-insured in the most vulnerable communities is tailored for Africa. 80% of our encounters are via toll-free indicating the relevance of tailoring digital health solutions for the African context.
+We have successfully integrated into community and national health systems in our service delivery model thus proving that innovative digital health solutions are the answer to Africa's healthcare needs </t>
+  </si>
+  <si>
+    <t>There are significant deficiencies in the African health ecosystem including:
+1. Access; very few doctors as well as very few facilities serving the population
+2. Affordability; very low insurance penetration in LMIC's
+3. Quality; Very few qualified doctors in rural populations
+4. Inequity; 80% of the doctors serve 20% of the population
+Africa's population is growing exponentially and without any interventions, these gaps will result in dire consequences</t>
+  </si>
+  <si>
+    <t>Currently serving over 12 thousand members in 40/47 counties of Kenya</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> On average 90</t>
+  </si>
+  <si>
+    <t>On average 2,800</t>
+  </si>
+  <si>
+    <t>Targeting $1m in 2024</t>
+  </si>
+  <si>
+    <t>$1.2m</t>
+  </si>
+  <si>
+    <t>To be provided at the next stage</t>
+  </si>
+  <si>
+    <t>https://www.healthxafrica.com/privacy-policy/</t>
+  </si>
+  <si>
+    <t>Encryption of at rest and in transit data, two factor authentication for log into the application, role based access to information.</t>
+  </si>
+  <si>
+    <t>database audit trail</t>
+  </si>
+  <si>
+    <t>Set of email, password and OTP for mobile application access, 2FA for users accessing the web application.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, Encounter Coding, Patient Billing, Patient Data Import/Export, ER - Triage and Dashboard, Encounter Data Import/Export, Virtual care</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, Drug interaction monitoring, Electronic prescribing, EHR Integration</t>
+  </si>
+  <si>
+    <t>Database plugs into analytics platforms</t>
+  </si>
+  <si>
+    <t>Integration and data exchange with local health facility (EMR)</t>
+  </si>
+  <si>
+    <t>https://www.healthxafrica.com/</t>
+  </si>
+  <si>
+    <t>Stephen Ogweno</t>
+  </si>
+  <si>
+    <t>lifesten.health@gmail.com</t>
+  </si>
+  <si>
+    <t>Lifesten Health</t>
+  </si>
+  <si>
+    <t>We provide a personalized healthcare platform that combines AI-driven health screenings with tailored wellness programs. Our innovative app uses transdermal optical imaging to deliver quick, accurate health assessments. It offers incentive-based gamified health challenges, community support, and tools for wellness, all designed to enhance physical, mental, and nutritional well-being. Our mission is to help users proactively manage their health and prevent lifestyle-related diseases.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1nIvcqquJRqH_CLwhT8kT25jTnrn9Myg9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesten Health leverages advanced AI, gamification principles  and machine learning algorithms to offer a comprehensive health and wellness platform tailored to individual and corporate needs. The core technology integrates real-time health data from the users devices, wearables, user inputs, and their health records on the app to provide personalized and gamified health challenges, insights and recommendations. Our app through the transdermal optical imaging AI analyzes patterns of blood flow on users face and in 30-seconds provides users with diagnostics for 13 key health indicators including blood pressure, stress index and others enabling early detection and proactive intervention. </t>
+  </si>
+  <si>
+    <t>We aim to address the growing burden of lifestyle diseases such as heart disease, diabetes, and hypertension, which affect millions across Africa. Limited access to preventive healthcare and early diagnostics exacerbates these conditions. Through our AI-powered platform, we provide personalized health assessments and wellness programs, empowering users to take control of their health.  Compared to existing solutions, Lifesten's competitive edge lies in its instant health screening capabilities, which led to screening and education for 1.6 million people in a 1-year pilot project with the Government of Rwanda. This technology not only enhances individual health outcomes but also supports organizations in fostering more productive workforce.</t>
+  </si>
+  <si>
+    <t>Kigali - Rwanda</t>
+  </si>
+  <si>
+    <t>Rwanda and Kenya</t>
+  </si>
+  <si>
+    <t>The Lifesten Application has had 3 deployments with the lattest version being Version 2.37 and has reached over 10,000 users.</t>
+  </si>
+  <si>
+    <t>Lifesten has users in more than 70 countries.</t>
+  </si>
+  <si>
+    <t>2300 to 3000</t>
+  </si>
+  <si>
+    <t>This is set to be released in the third major update , however , we provide data to our different users for intergration via customized dashboards and private API conections.</t>
+  </si>
+  <si>
+    <t>https://lifestenhealth.com/data-privacy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lifesten data is double encypted and hashed and Lifesten has gone through rigoros local and international data compliance checks becoming the first fully AI based data privacy compliant company registered in Rwanda. </t>
+  </si>
+  <si>
+    <t>We do audit logging and get error reporting via a combination of internal debugging and testing and leveraging on Supabase, Firebase and Playstore console which provides logging and error reporting for the platform.</t>
+  </si>
+  <si>
+    <t>We currently use Twilio for verification and OTP.</t>
+  </si>
+  <si>
+    <t>However in the new resease coming up in November we will be using Powersync to provide full offlie support. This is work in progress</t>
+  </si>
+  <si>
+    <t>AI BP Diagnosis  using Transdermal Optical Imaging AI</t>
+  </si>
+  <si>
+    <t>Lifesten app provides end users ability to create and engagein health challenges and plans earn points for improvement and redeem those points for rewards.
+Lifesten App Users and community health workers have access to health screening and diagnostics tools including  mannual health diagnostics forms for blood pressure, blood sugar, BMI  and mental health screenings. Lifesten also includes transdermal optical imaging AI for both users.
+Lifesten provides customized dashboards for companies, health insurances and community health workers/ organizations that use lifesten app for the various use cases befitting their contexts including for productivity enhancement, for health and wellness tracking and for health education and screening campaigns.</t>
+  </si>
+  <si>
+    <t>https://lifestenhealth.com/</t>
+  </si>
+  <si>
+    <t>Jelle Schuitemaker</t>
+  </si>
+  <si>
+    <t>jelle@goal3.org</t>
+  </si>
+  <si>
+    <t>GOAL 3</t>
+  </si>
+  <si>
+    <t>IMPALA System</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To address challenges of shortage of staff and lack of suitable equipment in many LMIC hospitals, GOAL 3 developed the IMPALA system: a comprehensive patient monitoring solution to support health workers who are working in resource-constrained settings. It consists of:
+- The IMPALA monitoring device: an easy-to-use multiparameter vital sign monitoring device designed for African settings. It provides ECG, pulse-oximetry, respiratory rate, non-invasive blood pressure and temperature. It has a touch screen, was designed to resist dust, heat and moisture and has an extended battery life.
+- The IMPALA server: Robust and fit-for-context communication and data infrastructure with backup power that provides a local network to connect the IMPALA devices and ensures safe data storage without the need for the Internet.
+- The IMPALA clinical application is a tablet-based central patient overview that is connected to the monitors and gives healthcare workers ultimate control over their ward. It has alarms for when patients go outside expected vital sign ranges and 
+IMPALA enables health workers to manage and monitor their patients better in a resource-constrained environment, allowing them to prioritize scarce time and resources and intervene at an early stage when treatments are more effective and low-cost. This improves patient outcomes but also allows them to recover faster. By reducing the time patients are admitted to the hospital, IMPALA contributes to saving costs as well as reducing workload.  Additionally, IMPALA reduces workload by automating the monitoring of vital signs and facilitating task redistribution.  
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1l3WuuIR3mwYo4XHQ3heO-Yg4LbE4M0Bc</t>
+  </si>
+  <si>
+    <t>info@goal3.org</t>
+  </si>
+  <si>
+    <t>The IMPALA system is co-designed with healthcare workers from Malawi and Rwanda, ensuring it directly meets the needs of health professionals in these countries and across the broader region.
+Key features of this innovation include:
+Tailored to Local Needs: The system addresses challenges faced by public hospitals, with a strong emphasis on affordability, sensor availability, and prolonged battery life—critical in resource-limited environments.
+Collaborative Development: Through partnerships with major NGOs and funders, the system has been successfully rolled out in Malawi, Rwanda, and Tanzania, with expansion planned for Uganda and Kenya.
+Durability and Usability: Designed for robustness, the system includes training materials specifically adapted to the needs of healthcare workers in African settings, ensuring both effective use and sustainable impact.</t>
+  </si>
+  <si>
+    <t>Lack of skilled staff and equipment in low-resource settings causes a downward spiral. Because the healthcare facilities are under-resourced, healthcare workers are unable to properly monitor and assess patients, resulting in delays in treatment. This delay increases the need for emergency care for patients and often results in worse patient outcomes. Because of the deterioration of patients, treating them becomes more resource-intensive, causing a vicious cycle, as staff then become more overburdened responding to resource-intensive care.
+In order to break the cycle in low-resource settings, proper risk assessment and monitoring is needed. With the implementation of IMPALA, hospitals are able to properly assess and monitor all patients, reducing delays in treatment. The result being a significant reduction in emergency care – which improves patient outcomes and reduces the burden on the staff. 
+Early pilot results from a district hospital in Malawi demonstrated a 42% reduction in pediatric mortality, translating to an internal cost-effectiveness estimate of approximately $208 per life saved. If these results hold up on further research, IMPALA is a potentially game-changing intervention, with cost-effectiveness competitive with the most effective standard of care interventions such as treatments for malaria.
+With 167 IMPALA systems incorporated in 11 hospitals, we are making a significant impact every day. If we translate these results into our growth projections, in the recommended five years we will train and relieve more than 150,000 doctors and nurses and make their work more bearable, 40 million people will receive the better care they deserve and we can prevent more than 120,000 deaths.</t>
+  </si>
+  <si>
+    <t>Rwanda, Malawi, Tanzania</t>
+  </si>
+  <si>
+    <t>11 hospitals are using in total 167 IMPALA systems</t>
+  </si>
+  <si>
+    <t>3 countries: Malawi, Tanzania, Rwanda</t>
+  </si>
+  <si>
+    <t>About 15 health workers per hospital x 11 hospitals = 165 daily active users, monitoring over 200 patients daily</t>
+  </si>
+  <si>
+    <t>On average 12 patients a month per monitor x 167 monitors = 2004 patients monitored per month</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Around $500,000 </t>
+  </si>
+  <si>
+    <t>Around $4,5 million</t>
+  </si>
+  <si>
+    <t>https://eu1.hubs.ly/H0cNzrL0</t>
+  </si>
+  <si>
+    <t>Available after NDA</t>
+  </si>
+  <si>
+    <t>In the roadmap for 2025</t>
+  </si>
+  <si>
+    <t>Yes, the solution is developed using GDPR standards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOAL 3 has set-up direct communication channels with hospitals for error reporting. </t>
+  </si>
+  <si>
+    <t>Patients are admitted using the patient ID's used by the national system and patient files</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/drive/folders/1qB1Nbo7eXgrbF9dk80C4_uZNG6whRBm5?usp=sharing</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, Patient Data Import/Export, Encounter Data Import/Export, Encounter Workflow Support</t>
+  </si>
+  <si>
+    <t>EHR Integration</t>
+  </si>
+  <si>
+    <t>Longitudinal health records</t>
+  </si>
+  <si>
+    <t>Guided self help, Remote patient (or person) monitoring</t>
+  </si>
+  <si>
+    <t>www.goal3.org</t>
+  </si>
+  <si>
+    <t>Yaw Asamoah</t>
+  </si>
+  <si>
+    <t>yaw@medpharma.care</t>
+  </si>
+  <si>
+    <t>Medpharma Alliance International Limited</t>
+  </si>
+  <si>
+    <t>Medpharma</t>
+  </si>
+  <si>
+    <t>Medpharma Alliance International Limited is a healthcare platform. Our aim is to build a community of partners (practitioners, service providers, big pharma) that provide healthcare to the patient. Our primary services are e-consultation, e-prescription, diagnostics, storage of medical records and delivery of medicines and devices.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XgrD20NQJLstL8TAXREV3akMFUoJtBaz</t>
+  </si>
+  <si>
+    <t>customer@medpharma.care</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics, National and Community Health, Analytics and Data Aggregation, AI for Health, Virtual Health</t>
+  </si>
+  <si>
+    <t>We have built a platform that allows patients to put their medical requests on our mobile, web, or chatbot. Our intuitive platform provides services in the areas of e-consultation, e-prescription, delivery of medicines, diagnostics, and storage of medical records. We have also creatively bundled products like the Chronic Disease Management Product to cater to specific demographic groups. Other products we will be introducing in the future are a subscription model, PregCare, and WestCare for healthcare remittances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After almost three and a half years in operations, we have exceeded GHS 25M in sales. Had over 1.5M medicines served, 400K customer touchpoints, 80K consultations and 70K unique customers served. We have also opened a pipeline to over 15M customers with MTN. </t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Over 50,000 Unique customers</t>
+  </si>
+  <si>
+    <t>about 50+</t>
+  </si>
+  <si>
+    <t>700+</t>
+  </si>
+  <si>
+    <t>$290k</t>
+  </si>
+  <si>
+    <t>1 - grant through the Gates Foundation</t>
+  </si>
+  <si>
+    <t>Records are encrypted</t>
+  </si>
+  <si>
+    <t>Email / txt OTP</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, Patient Billing, Patient Data Import/Export, Virtual care</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Electronic prescribing</t>
+  </si>
+  <si>
+    <t>Send diagnostic results to providers, Inventory Management</t>
+  </si>
+  <si>
+    <t>Telemedicine appointments, Interactive services/chatbots</t>
+  </si>
+  <si>
+    <t>Patient vaccination record, Digital vaccine card</t>
+  </si>
+  <si>
+    <t>www.medpharma.care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">courtney@reachdigitalhealth.org </t>
+  </si>
+  <si>
+    <t>Alô Vida+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alô Vida originated as a nationwide hotline in Mozambique, offering health-related guidance in Portuguese, English, and eight other local languages. It was originally launched as a health hotline that provides personalized health information on sexual and reproductive health (SRH), HIV, COVID-19, and immunizations through real-time interactions with healthcare professionals. With a dedicated call center, Alô Vida enables direct communication between users and trained health professionals, offering a trusted source of medical advice and guidance.
+Alô Vida+ builds on this foundation by incorporating Interactive Voice Recording (IVR) and WhatsApp-based services, enhancing accessibility and engagement. Reach Digital Health is developing the WhatsApp chatbot component that complements the hotline service, allowing users to receive personalized health information and engage in interactive health assessments through a widely used and cost-effective platform.
+Alô Vida+ is designed as a scalable and sustainable digital health solution under the ownership of Mozambique’s Ministry of Health (MISAU). By engaging both caregivers and healthcare professionals through mobile and voice technology, it aims to improve health outcomes for vulnerable populations, with a special focus on immunization and HIV prevention. The platform is fully adaptable for nationwide scale-up, ensuring continued support across Mozambique’s health system.
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ztGJqJ_XaWNh5byPOqdpNv7IAtM9iUBn</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, National and Community Health, Analytics and Data Aggregation, AI for Health, Vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Alô Vida+ service is designed to improve health outcomes by leveraging widely accessible mobile technology, like WhatsApp, to engage citizens and provide them with vital healthcare information and services. By offering personalized support and guidance, Alô Vida+ empowers individuals to take control of their health and make informed decisions, specifically around childhood vaccination. The aim is to bolster the persistence of childhood inoculations by empowering users and fostering informed decision-making. This involves helping users overcome contextual barriers, promoting equitable access to health information and services, leveraging real-time data for learning and decision-making, thus benefiting both the health system and its constituents. 
+The specific aims of Alô Vida+ are to improve maternal and child health outcomes. The desired outcomes include:
+- Increased antenatal care attendance
+- Improved childhood vaccination rates
+- Increased knowledge and self-efficacy regarding contraceptive use, family planning services, and breastfeeding
+- Improved birth outcomes
+- Improved adherence to PMTCT protocols among HIV-positive mothers
+- Reduced maternal and neonatal mortality rates
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In Mozambique, Alô Vida+ fits into a landscape of MNCH and immunization challenges, including low childhood vaccination rates, leaving many children unprotected from preventable diseases like measles, polio, and pneumonia, which can lead to severe complications or death. Barriers to accessing healthcare information and services, such as limited health literacy, misinformation about vaccines, geographical isolation, poverty, and cultural beliefs, further exacerbate the problem, particularly in areas with limited healthcare infrastructure and resources. Remote communities often lack access to healthcare facilities, while socioeconomic challenges and cultural practices discourage vaccination and healthcare-seeking behaviors. These issues contribute to high rates of preventable diseases and mortality among mothers and children. 
+By leveraging mobile technology and a user-centered design, Alô Vida+ addresses barriers such as low health literacy, misinformation, and missed appointments, ultimately improving health outcomes. Alô Vida+ is currently scheduled for a general programmatic evaluation of outcomes in October 2024. In addition, a Danger Signs study will capture evidence on the number of people seeking care for pregnancy or neonatal emergencies (expected by the end of the calendar year).
+</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>1 in Mozambique</t>
+  </si>
+  <si>
+    <t>30,494 all time users in 3 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total interactions not available, but we have 7,730 push messages sent out and 3,010 messages received in the last 3 months. 1,226 users have also searched for health information, and 1,985 informational messages have been viewed in the last 3 months. </t>
+  </si>
+  <si>
+    <t>The WhatsApp service is integrated with the MISAU’s national health hotline service, Alô Vida, which offers personalised information on sexual and reproductive health, HIV, COVID-19, and vaccinations.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docs.google.com/document/d/1JKBB-UTxE8Ctb7LFkKarPX6Z6j_92DTQu91UJe8tVjQ/edit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alô Vida+ ensures the privacy and protection of PHI through:
+- Compliance with Regulations: Alô Vida+ adheres to Article 71 of the Constitution of the Republic of Mozambique, the EU General Data Protection Regulations and the Protection of Personal Information Act, 4 of 2013 (SA) and other relevant data privacy laws and regulations.
+- Informed Consent: Alô Vida+ obtains informed consent from users before collecting, processing, or sharing their PHI. Users are informed about the purpose of data collection, how their data will be used, and who will have access to it.
+- Data Minimization: Alô Vida+ collects only the minimum necessary PHI required to provide the service and achieve its public health objectives.
+- Secure Data Storage and Transmission: Alô Vida+ employs robust security measures to protect PHI from unauthorized access, use, or disclosure.
+- Data Retention and Deletion: Alô Vida+ has clear policies for data retention and deletion, ensuring that PHI is not kept longer than necessary and is securely deleted or anonymized when no longer needed.
+- User Control: Alô Vida+ provides users with control over their PHI, allowing them to access, update, correct, and delete their information as needed.
+- Transparency: Alô Vida+ maintains transparency about its data practices, providing users with clear and accessible information about how their PHI is handled.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit Logs: All logs are sent to AWS Cloudtrail to ensure a record of actions taken by a user, role, or an AWS service is captured. This information can be used to determine the request that was made, the IP address from which the request was made, who made the request, when it was made, and additional details. Administrator access to critical system hardware and servers is logged
+Monitoring: A set of rules and services have been implemented to monitor for changes to services, alert administrators of any potential risks, and diagnose overly permissive security group rules.
+</t>
+  </si>
+  <si>
+    <t>Targeted health promotion messages: Alô Vida+ sends stage-based health messages to pregnant women and new mothers, promoting healthy behaviors and timely healthcare utilization, contributing to improved MNCH and immunization outcomes at both community and national levels. Interactive feedback mechanism: Alô Vida+ provides a platform for women to provide feedback on the quality of care received at public health facilities, enabling the Department of Health to monitor and improve service delivery, impacting community health directly. Helpdesk and Chatbot Support: Alô Vida+ offers a helpdesk for users to ask questions or report concerns, providing personalized support and guidance, contributing to positive health outcomes in the community.</t>
+  </si>
+  <si>
+    <t>Patient vaccination record, Digital vaccine card, Vaccination reminders and follow-ups</t>
+  </si>
+  <si>
+    <t>https://www.reachdigitalhealth.org/projects/alovidaplus</t>
+  </si>
+  <si>
+    <t>Victoria Mabel Sackey</t>
+  </si>
+  <si>
+    <t>victoria@medtrack.africa</t>
+  </si>
+  <si>
+    <t>MedTrack Technologies Limited</t>
+  </si>
+  <si>
+    <t>MedTrack</t>
+  </si>
+  <si>
+    <t>An interoperable, comprehensive and secure cloud-based health information management system that links patient health data to national biometric IDs.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1i1dyED1IkSCdmFryHCCKqBYcKjvqnzix</t>
+  </si>
+  <si>
+    <t>info@medtrack.africa</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics</t>
+  </si>
+  <si>
+    <t>MedTrack is addressing key challenges in the African healthcare landscape by leveraging national biometric IDs in its platform to create unified, portable health records, enhancing continuity of care across different providers and facilities.
+The system's data aggregation capabilities are designed to enable public health officials to identify trends and predict outbreaks, informing crucial policy decisions. The design considers unique local challenges, offering offline functionality for areas with limited connectivity, as well as partnerships with telecom providers and tech companies for accessibility in low-resource settings.
+By digitizing records and automating processes, MedTrack reduces errors and improves efficiency in healthcare delivery. The platform's interoperability with existing systems, combined with patient engagement features like SMS reminders, enhances overall care quality. Additionally, its support for telemedicine expands access to specialized care in remote regions.
+Through this comprehensive approach, MedTrack is addressing the systemic inefficiencies to improve health outcomes.</t>
+  </si>
+  <si>
+    <t>MedTrack addresses a critical market need in the African healthcare ecosystem by tackling the challenge of fragmented and inefficient health record management. This need is particularly acute in Africa, where the healthcare system struggles with disjointed records across multiple facilities, leading to inefficiencies, duplicated efforts, and compromised patient care.
+The platform has linked over 210,000 health records to national biometric IDs, benefiting over 16,000 registered patients. It has been tested and piloted in select facilities in rural and suburban settings, enhancing efficiency for health workers. MedTrack is improving healthcare access in low-resource settings through strategic partnerships. Its data aggregation capabilities are enabling more informed public health decision-making.</t>
+  </si>
+  <si>
+    <t>Accra - Ghana</t>
+  </si>
+  <si>
+    <t>Over 11,000 unique patients</t>
+  </si>
+  <si>
+    <t>https://icd.who.int/docs/icd-api/APIDoc-Version2/</t>
+  </si>
+  <si>
+    <t>MedTrack integrates with several national health systems in Ghana:
+1. District Health Information System 2 (DHIS2): MedTrack's platform is designed to integrate with Ghana's DHIS2, which is the national health management information system used by the Ghana Health Service. This integration allows for seamless reporting and data sharing between MedTrack and the national health information system.
+2. National Health Insurance Scheme (NHIS): MedTrack's solution is built to interoperate with the NHIS, enabling healthcare providers to easily verify patient insurance status and process claims within the MedTrack platform.
+3. Ghana Card (National Biometric ID System): MedTrack leverages Ghana's national biometric digital ID system to provide portable Electronic Health Records to every citizen. This integration ensures secure data storage and sharing across healthcare facilities, linking health records to patients' unique national ID numbers.</t>
+  </si>
+  <si>
+    <t>https://medtrack.africa/privacy-policy</t>
+  </si>
+  <si>
+    <t>We maintain application, security and user audit logs. All user actions are time stamped and associated with the user that performed the action. This information is persisted to the database. In addition we also maintain related application logs in log files that are persisted to our s3 buckets. These also contains relevant information about user and application making the request such as IP, browser, etc.
+For the system we leverage both our application and cloud provider to keep logs of system wide activities such as deployments, restarts, shutdowns, etc.
+Our error reporting mechanism involves both system and user reports.
+We also leverage log files for system error reporting. For user error reporting, we have a customer support form/document for collecting error reports from our users.
+We continue to evaluate external logging and reporting systems that meet HIPPA standards for integration in the future.</t>
+  </si>
+  <si>
+    <t>We leverage industry standards for  Identity and Access Management (IAM) on our platform while also considering accessibility for our target market.
+Authentication:
+We leverage JWT tokens for user authentication. All requests to our authenticated Graphql and REST endpoints must have authentication token in the headers. We also allow users to leverage 2FA for our web based login.
+In order to verify the identity of our users we validate phone numbers during registration by sending an SMS code for the user to verify that they own that number.
+Authorization:
+We use Role Based Access Control (RBAC) to ensure users in a facility have access to only the information they are authorized to. For instance, a nurse in a facility has different access from a physician based on their roles.
+We also use SMS code authorization when a facility wants to access a patient's information. In this case, we send a code to the patient that the patient must provide to the facility before access is granted. Once authorized, the facility will have access to the patient information. We also provide a mechanism for the patient to revoke a facility’s access to their information at any time.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, CPOE/Order Management, Encounter Coding, Patient Data Import/Export, Patient care templates, ER - Triage and Dashboard, Encounter Data Import/Export, Encounter Workflow Support</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Decision Support, Electronic prescribing, EHR Integration</t>
+  </si>
+  <si>
+    <t>Longitudinal health records, Clinical data repository</t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Clinical data dashboards</t>
+  </si>
+  <si>
+    <t>www.medtrack.africa</t>
+  </si>
+  <si>
+    <t>Bryan Plummer</t>
+  </si>
+  <si>
+    <t>bryan.plummer@signalytic.ca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Signalytic </t>
+  </si>
+  <si>
+    <t>The S+ Platform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The S+ Platform is a solar-powered network of computing devices focused on the outcome of ‘digital uptime’ and ‘data accessibility’. This approach enables improved visibility of health data such as health supply chain data, through a commitment to ensuring power, connectivity, hardware and software offerings are adequately integrated and performing, all the time.
+Each Unit of the S+ Platform consists of an S+ Box (containing a processor, IoT SIM card, batteries, and antennas), a solar panel, and tablet. The platform runs on a first-of-its-kind off-grid Distributed Ledger Technology (DLT) with decentralized data storage and accessibility, and hosts 3rd party softwares, like EMRs, lab systems, etc. 
+This approach to Decentralized Physical Infrastructure will provide the technical foundation for the inclusive and equitable digital health system of the future - through tokenized data governance and smart contract based Universal Health schemes. 
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1ZXXHT5lVC7Mxhymawml5ro45Vtoj7dAM</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics, Disease Surveillance, National and Community Health, Analytics and Data Aggregation, Front-line (CHW) tools, Vaccination</t>
+  </si>
+  <si>
+    <t>In order to improve health outcomes, all access points to the health system need to be equipped with the context appropriate infrastructure to ensure data events, transactions and resources can be digitized from the onset. This data needs to be stored and made available in a format that can be accessible and usable by other stakeholders that need to or can benefit from that data. In doing so, the infrastructure is able to ensure that all work flows and decision making is digital and data-driven.  The S+ Platform is a fit-for-purpose infrastructure, for all access points, that can bring digital tools and devices like EMRs, eLMISs, lab systems, biometric devices, and more, to the places they need to be to ensure the high quality provision of care.</t>
+  </si>
+  <si>
+    <t>Billions of dollars are spent every year by ministries and international organizations to provide access to medicines and quality care in LMICs, however the infrastructure, systems and financing structures are not designed properly, resulting in poor health outcomes and wasted resources. 
+The market need is around having integrated digital infrastructure that works. Too often, the current digital paradigm fails patients and health care providers because one or more of hardware, connectivity, power, data accessibility or access to financial resources prevents digital from being possible and resulting in analog and paper based processes. Digital systems are only as good as the weakest of these factors. 
+By providing an always-on infrastructure platform, our S+ Platform clients (heath center staff, software providers, development partners and Ministry of Health) are finally all connected to the same, equitable infrastructure and critical data. This results in better health outcomes, resource allocation and a health system that works for everyone.</t>
+  </si>
+  <si>
+    <t>Vancouver, Canada</t>
+  </si>
+  <si>
+    <t>Uganda, Kenya, Nigeria, Burundi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our solution is hardware and firmware. We support 3rd party softwares that often times are entirely or mostly done by African developers. </t>
+  </si>
+  <si>
+    <t>6 active deployments; across them there are 100+ private health facilities, 3 software providers, 1 medicine distributor, 2 NGO's, 1 data aggregator</t>
+  </si>
+  <si>
+    <t>150+</t>
+  </si>
+  <si>
+    <t>100,000+</t>
+  </si>
+  <si>
+    <t>$450,000 USD</t>
+  </si>
+  <si>
+    <t>$2m USD</t>
+  </si>
+  <si>
+    <t>We implement the standards that are tied to the solutions and softwares that we support and work with.  In 2025, our S+ DLT database will be FHIR-native.</t>
+  </si>
+  <si>
+    <t>By request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We can integrate to any national or regional health systems that our clients already connect to, or want to connect to, including ERPs, DHIS2 and existing dashboards they use. When we onboard a new client or tool, we take these integrations as requirements and implement in the best mutually agreed upon way. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Safety - Locked, steel enclosures, bolted to a wall without possibility of unbolting externally. Malware access points eliminated through locked down tablets and selective
+restriction of connecting devices.
+Data Security - mTLS 1.3. Private root certificate and intermediate certification authorities for key creation and rotation. Data encryption and key management options of 3rd Party Client applications. Data locally hosted in-country.
+Access Control - Role-based access control system manages the
+association between user accounts and access to edge server locations and applications. Access management performed via the S+ Console. Local accounts creation and assignment by a designated local administrator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All S+ system data is stored on an immutable Distributed Ledger Technology (DLT).  Error reporting (on all hardware and infrastructure performance) is automated and is presented in a web-based dashboard for remote visibility and response.    End-users can also report errors via the S+ tablet and kiosk interface where they access digital tools. </t>
+  </si>
+  <si>
+    <t>Hosted client softwares are responsible for their own user access handling. Accounts that access Signalytic functions use a traditional username and password. Passwords are stored and transmitted in hashed form. Engineering access to systems is protected with short duration encryption key pairs.</t>
+  </si>
+  <si>
+    <t>The S+ Platform allows for the offline support of the S+ Platform (infrastructure), while also enabling offline support for our software clients (if and as available)</t>
+  </si>
+  <si>
+    <t>Patient Record Management, All EHR/EMR modules and functionalities that our software partners have or want to use, are possible on the S+ Platform.</t>
+  </si>
+  <si>
+    <t>Inventory Management, The S+ Platform does have a native (optional) open-source Stock Management tool.</t>
+  </si>
+  <si>
+    <t>All that are currently available within our partners/clients solutions.</t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Data processing (extract, transform, load - ETL), The S+ DLT transmits data to existing client analytics and tools.</t>
+  </si>
+  <si>
+    <t>The S+ DLT creates data sources that could be leveraged by 3rd party AI capabilities.</t>
+  </si>
+  <si>
+    <t>All that are currently available within our partners/clients solutions, however offline or intermittent forms of Virtual Health might be preferred.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The S+ Platform has a value proposition for all stakeholders that contribute to the creation, utilisation and consumption of critical health data.  As such, Signalytic strives to unlock a value-based marketplace where incentives are aligned by all parties, and both costs and benefits of this digital infrastructure can be shared.  Signalytic is already piloting unique cost-sharing models where facilities, software providers and medicine distributor are all paying a nominal amount into a shared and mutually beneficial, S+ data ecosystem. 
+The S+ DLT, over time, will be used to implement data ownership and access modalities, while also enabling smart contracts and more automated forms of Results Based Financing.
+</t>
+  </si>
+  <si>
+    <t>www.signalytic.ca</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -1467,7 +3079,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -1623,11 +3235,25 @@
         <color rgb="FF442F65"/>
       </bottom>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1739,6 +3365,12 @@
     <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
     <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -1749,6 +3381,9 @@
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    </xf>
+    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
   </cellXfs>
@@ -1809,7 +3444,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD17" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD35" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="56">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Your name" id="2"/>
@@ -4315,128 +5950,2819 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="37">
+      <c r="A17" s="25">
         <v>45565.592789525464</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="26" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="26" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="26" t="s">
         <v>375</v>
       </c>
-      <c r="E17" s="38" t="s">
+      <c r="E17" s="26" t="s">
         <v>376</v>
       </c>
-      <c r="F17" s="38" t="s">
+      <c r="F17" s="26" t="s">
         <v>377</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="27" t="s">
         <v>378</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="H17" s="26" t="s">
         <v>379</v>
       </c>
-      <c r="I17" s="38" t="s">
+      <c r="I17" s="26" t="s">
         <v>380</v>
       </c>
-      <c r="J17" s="38" t="s">
+      <c r="J17" s="26" t="s">
         <v>381</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="26" t="s">
         <v>382</v>
       </c>
-      <c r="M17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="38" t="s">
+      <c r="M17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="26" t="s">
         <v>383</v>
       </c>
-      <c r="O17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="40">
+      <c r="O17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="28">
         <v>1.0</v>
       </c>
-      <c r="Q17" s="40">
+      <c r="Q17" s="28">
         <v>1.0</v>
       </c>
-      <c r="R17" s="38" t="s">
+      <c r="R17" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="T17" s="38" t="s">
+      <c r="S17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="26" t="s">
         <v>384</v>
       </c>
-      <c r="U17" s="38" t="s">
+      <c r="U17" s="26" t="s">
         <v>385</v>
       </c>
-      <c r="V17" s="38">
+      <c r="V17" s="26">
         <v>9000.0</v>
       </c>
-      <c r="W17" s="38">
+      <c r="W17" s="26">
         <v>800000.0</v>
       </c>
-      <c r="X17" s="38">
+      <c r="X17" s="26">
         <v>250000.0</v>
       </c>
-      <c r="Y17" s="38" t="s">
+      <c r="Y17" s="26" t="s">
         <v>142</v>
       </c>
-      <c r="Z17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG17" s="39" t="s">
+      <c r="Z17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="27" t="s">
         <v>386</v>
       </c>
-      <c r="AI17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM17" s="38" t="s">
+      <c r="AI17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM17" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="AN17" s="38" t="s">
+      <c r="AN17" s="26" t="s">
         <v>160</v>
       </c>
-      <c r="AO17" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR17" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS17" s="38" t="s">
+      <c r="AO17" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR17" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS17" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="AT17" s="38" t="s">
+      <c r="AT17" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="AU17" s="38" t="s">
+      <c r="AU17" s="26" t="s">
         <v>389</v>
       </c>
-      <c r="AX17" s="38" t="s">
+      <c r="AX17" s="26" t="s">
         <v>349</v>
       </c>
-      <c r="AY17" s="38" t="s">
+      <c r="AY17" s="26" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="31">
+        <v>45565.83219244213</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>390</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>391</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>392</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>393</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>394</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>395</v>
+      </c>
+      <c r="H18" s="32" t="s">
+        <v>396</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>397</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>398</v>
+      </c>
+      <c r="K18" s="32" t="s">
+        <v>399</v>
+      </c>
+      <c r="L18" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="M18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="32" t="s">
+        <v>400</v>
+      </c>
+      <c r="O18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R18" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>401</v>
+      </c>
+      <c r="U18" s="32" t="s">
+        <v>402</v>
+      </c>
+      <c r="V18" s="32" t="s">
+        <v>403</v>
+      </c>
+      <c r="W18" s="32" t="s">
+        <v>404</v>
+      </c>
+      <c r="X18" s="32" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y18" s="32" t="s">
+        <v>406</v>
+      </c>
+      <c r="Z18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="33" t="s">
+        <v>407</v>
+      </c>
+      <c r="AB18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="33" t="s">
+        <v>408</v>
+      </c>
+      <c r="AH18" s="32" t="s">
+        <v>409</v>
+      </c>
+      <c r="AI18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK18" s="32" t="s">
+        <v>410</v>
+      </c>
+      <c r="AL18" s="32" t="s">
+        <v>411</v>
+      </c>
+      <c r="AM18" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN18" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO18" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR18" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS18" s="32" t="s">
+        <v>412</v>
+      </c>
+      <c r="AT18" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AU18" s="32" t="s">
+        <v>414</v>
+      </c>
+      <c r="AV18" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AW18" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="AX18" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY18" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ18" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA18" s="32" t="s">
+        <v>413</v>
+      </c>
+      <c r="BB18" s="32" t="s">
+        <v>415</v>
+      </c>
+      <c r="BC18" s="33" t="s">
+        <v>416</v>
+      </c>
+      <c r="BD18" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="25">
+        <v>45566.00334708333</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>418</v>
+      </c>
+      <c r="D19" s="26" t="s">
+        <v>419</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>420</v>
+      </c>
+      <c r="F19" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="G19" s="27" t="s">
+        <v>422</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>423</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>424</v>
+      </c>
+      <c r="J19" s="26" t="s">
+        <v>425</v>
+      </c>
+      <c r="K19" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="L19" s="26" t="s">
+        <v>427</v>
+      </c>
+      <c r="M19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="26" t="s">
+        <v>428</v>
+      </c>
+      <c r="O19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="26" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q19" s="26" t="s">
+        <v>430</v>
+      </c>
+      <c r="R19" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="U19" s="26" t="s">
+        <v>432</v>
+      </c>
+      <c r="V19" s="26" t="s">
+        <v>433</v>
+      </c>
+      <c r="W19" s="26" t="s">
+        <v>434</v>
+      </c>
+      <c r="X19" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y19" s="26" t="s">
+        <v>436</v>
+      </c>
+      <c r="Z19" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="27" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH19" s="26" t="s">
+        <v>438</v>
+      </c>
+      <c r="AI19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK19" s="26" t="s">
+        <v>439</v>
+      </c>
+      <c r="AL19" s="26" t="s">
+        <v>440</v>
+      </c>
+      <c r="AM19" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN19" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR19" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS19" s="26" t="s">
+        <v>441</v>
+      </c>
+      <c r="AT19" s="26" t="s">
+        <v>442</v>
+      </c>
+      <c r="AU19" s="26" t="s">
+        <v>443</v>
+      </c>
+      <c r="AV19" s="26" t="s">
+        <v>444</v>
+      </c>
+      <c r="AW19" s="26" t="s">
+        <v>445</v>
+      </c>
+      <c r="AX19" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY19" s="26" t="s">
+        <v>446</v>
+      </c>
+      <c r="AZ19" s="26" t="s">
+        <v>447</v>
+      </c>
+      <c r="BA19" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="BB19" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="BC19" s="27" t="s">
+        <v>450</v>
+      </c>
+      <c r="BD19" s="30" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="31">
+        <v>45566.09739380787</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>452</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>453</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>454</v>
+      </c>
+      <c r="F20" s="32" t="s">
+        <v>455</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>457</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>458</v>
+      </c>
+      <c r="J20" s="32" t="s">
+        <v>459</v>
+      </c>
+      <c r="K20" s="32" t="s">
+        <v>460</v>
+      </c>
+      <c r="L20" s="32" t="s">
+        <v>461</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="O20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q20" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>462</v>
+      </c>
+      <c r="U20" s="32" t="s">
+        <v>269</v>
+      </c>
+      <c r="V20" s="37">
+        <v>447000.0</v>
+      </c>
+      <c r="W20" s="32" t="s">
+        <v>463</v>
+      </c>
+      <c r="X20" s="35">
+        <v>200000.0</v>
+      </c>
+      <c r="Y20" s="35">
+        <v>650000.0</v>
+      </c>
+      <c r="Z20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="32" t="s">
+        <v>464</v>
+      </c>
+      <c r="AD20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG20" s="32" t="s">
+        <v>465</v>
+      </c>
+      <c r="AH20" s="32" t="s">
+        <v>466</v>
+      </c>
+      <c r="AI20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK20" s="32" t="s">
+        <v>467</v>
+      </c>
+      <c r="AL20" s="32" t="s">
+        <v>468</v>
+      </c>
+      <c r="AM20" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN20" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO20" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS20" s="32" t="s">
+        <v>469</v>
+      </c>
+      <c r="AX20" s="32" t="s">
+        <v>470</v>
+      </c>
+      <c r="AY20" s="32" t="s">
+        <v>446</v>
+      </c>
+      <c r="AZ20" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC20" s="33" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="25">
+        <v>45566.125998055555</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="C21" s="26" t="s">
+        <v>473</v>
+      </c>
+      <c r="D21" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>475</v>
+      </c>
+      <c r="F21" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>477</v>
+      </c>
+      <c r="I21" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="J21" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="K21" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="L21" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="M21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="O21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q21" s="28">
+        <v>0.9</v>
+      </c>
+      <c r="R21" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="26" t="s">
+        <v>483</v>
+      </c>
+      <c r="U21" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="V21" s="26">
+        <v>200.0</v>
+      </c>
+      <c r="W21" s="26" t="s">
+        <v>485</v>
+      </c>
+      <c r="X21" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y21" s="29">
+        <v>5000000.0</v>
+      </c>
+      <c r="Z21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="26" t="s">
+        <v>487</v>
+      </c>
+      <c r="AF21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH21" s="26" t="s">
+        <v>488</v>
+      </c>
+      <c r="AI21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM21" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN21" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP21" s="26" t="s">
+        <v>489</v>
+      </c>
+      <c r="AQ21" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR21" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT21" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="AU21" s="26" t="s">
+        <v>490</v>
+      </c>
+      <c r="AV21" s="26" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX21" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="BC21" s="27" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="31">
+        <v>45566.16559164352</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>492</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>493</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>494</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>495</v>
+      </c>
+      <c r="F22" s="32" t="s">
+        <v>496</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>497</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>498</v>
+      </c>
+      <c r="I22" s="32" t="s">
+        <v>499</v>
+      </c>
+      <c r="J22" s="32" t="s">
+        <v>500</v>
+      </c>
+      <c r="K22" s="32" t="s">
+        <v>501</v>
+      </c>
+      <c r="L22" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="O22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q22" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="U22" s="32" t="s">
+        <v>502</v>
+      </c>
+      <c r="V22" s="32" t="s">
+        <v>503</v>
+      </c>
+      <c r="W22" s="32" t="s">
+        <v>504</v>
+      </c>
+      <c r="X22" s="32" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y22" s="35">
+        <v>1700000.0</v>
+      </c>
+      <c r="Z22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE22" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="AF22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG22" s="33" t="s">
+        <v>507</v>
+      </c>
+      <c r="AH22" s="32" t="s">
+        <v>508</v>
+      </c>
+      <c r="AI22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK22" s="32" t="s">
+        <v>509</v>
+      </c>
+      <c r="AL22" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM22" s="32" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN22" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="AO22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP22" s="32" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ22" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR22" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS22" s="32" t="s">
+        <v>512</v>
+      </c>
+      <c r="AW22" s="32" t="s">
+        <v>513</v>
+      </c>
+      <c r="AX22" s="32" t="s">
+        <v>514</v>
+      </c>
+      <c r="AY22" s="32" t="s">
+        <v>515</v>
+      </c>
+      <c r="BB22" s="32" t="s">
+        <v>516</v>
+      </c>
+      <c r="BC22" s="33" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="25">
+        <v>45566.17615865741</v>
+      </c>
+      <c r="B23" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>493</v>
+      </c>
+      <c r="D23" s="26" t="s">
+        <v>519</v>
+      </c>
+      <c r="E23" s="26" t="s">
+        <v>520</v>
+      </c>
+      <c r="F23" s="26" t="s">
+        <v>521</v>
+      </c>
+      <c r="G23" s="27" t="s">
+        <v>522</v>
+      </c>
+      <c r="H23" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="I23" s="26" t="s">
+        <v>499</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="K23" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="L23" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="O23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q23" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="R23" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U23" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="V23" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="W23" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="X23" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y23" s="29">
+        <v>1860000.0</v>
+      </c>
+      <c r="Z23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA23" s="26" t="s">
+        <v>528</v>
+      </c>
+      <c r="AB23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC23" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE23" s="26" t="s">
+        <v>529</v>
+      </c>
+      <c r="AF23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG23" s="27" t="s">
+        <v>530</v>
+      </c>
+      <c r="AH23" s="26" t="s">
+        <v>531</v>
+      </c>
+      <c r="AI23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK23" s="26" t="s">
+        <v>532</v>
+      </c>
+      <c r="AL23" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM23" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN23" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO23" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP23" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR23" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS23" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AW23" s="26" t="s">
+        <v>533</v>
+      </c>
+      <c r="AX23" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY23" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="BB23" s="26" t="s">
+        <v>534</v>
+      </c>
+      <c r="BC23" s="27" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="31">
+        <v>45566.18747153935</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>536</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>538</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>539</v>
+      </c>
+      <c r="F24" s="32" t="s">
+        <v>540</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>537</v>
+      </c>
+      <c r="I24" s="32" t="s">
+        <v>542</v>
+      </c>
+      <c r="J24" s="32" t="s">
+        <v>543</v>
+      </c>
+      <c r="K24" s="32" t="s">
+        <v>544</v>
+      </c>
+      <c r="L24" s="32" t="s">
+        <v>545</v>
+      </c>
+      <c r="M24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="32" t="s">
+        <v>546</v>
+      </c>
+      <c r="O24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="34">
+        <v>0.9</v>
+      </c>
+      <c r="Q24" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>547</v>
+      </c>
+      <c r="S24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="U24" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="V24" s="32">
+        <v>41.0</v>
+      </c>
+      <c r="W24" s="32">
+        <v>77954.0</v>
+      </c>
+      <c r="X24" s="38">
+        <v>1483.86</v>
+      </c>
+      <c r="Y24" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="Z24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC24" s="32" t="s">
+        <v>548</v>
+      </c>
+      <c r="AD24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH24" s="32" t="s">
+        <v>549</v>
+      </c>
+      <c r="AI24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL24" s="32" t="s">
+        <v>550</v>
+      </c>
+      <c r="AM24" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN24" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP24" s="32" t="s">
+        <v>551</v>
+      </c>
+      <c r="AQ24" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR24" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS24" s="32" t="s">
+        <v>552</v>
+      </c>
+      <c r="AT24" s="32" t="s">
+        <v>371</v>
+      </c>
+      <c r="AU24" s="32" t="s">
+        <v>553</v>
+      </c>
+      <c r="AX24" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="BB24" s="32" t="s">
+        <v>554</v>
+      </c>
+      <c r="BC24" s="33" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="25">
+        <v>45566.3002931713</v>
+      </c>
+      <c r="B25" s="26" t="s">
+        <v>556</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>557</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>558</v>
+      </c>
+      <c r="E25" s="26" t="s">
+        <v>559</v>
+      </c>
+      <c r="F25" s="26" t="s">
+        <v>560</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>561</v>
+      </c>
+      <c r="H25" s="26" t="s">
+        <v>562</v>
+      </c>
+      <c r="I25" s="26" t="s">
+        <v>563</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>564</v>
+      </c>
+      <c r="K25" s="26" t="s">
+        <v>565</v>
+      </c>
+      <c r="L25" s="26" t="s">
+        <v>566</v>
+      </c>
+      <c r="M25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="O25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="26" t="s">
+        <v>568</v>
+      </c>
+      <c r="Q25" s="26" t="s">
+        <v>569</v>
+      </c>
+      <c r="R25" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" s="26">
+        <v>6000.0</v>
+      </c>
+      <c r="U25" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="V25" s="26">
+        <v>25.0</v>
+      </c>
+      <c r="W25" s="26">
+        <v>250.0</v>
+      </c>
+      <c r="X25" s="29">
+        <v>3000.0</v>
+      </c>
+      <c r="Y25" s="29">
+        <v>40000.0</v>
+      </c>
+      <c r="Z25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AB25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="27" t="s">
+        <v>570</v>
+      </c>
+      <c r="AF25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25" s="27" t="s">
+        <v>571</v>
+      </c>
+      <c r="AH25" s="26" t="s">
+        <v>572</v>
+      </c>
+      <c r="AI25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK25" s="26" t="s">
+        <v>573</v>
+      </c>
+      <c r="AM25" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN25" s="26" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP25" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="AQ25" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR25" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS25" s="26" t="s">
+        <v>574</v>
+      </c>
+      <c r="AT25" s="26" t="s">
+        <v>575</v>
+      </c>
+      <c r="AV25" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="AW25" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="AX25" s="26" t="s">
+        <v>576</v>
+      </c>
+      <c r="AY25" s="26" t="s">
+        <v>577</v>
+      </c>
+      <c r="AZ25" s="26" t="s">
+        <v>578</v>
+      </c>
+      <c r="BA25" s="26" t="s">
+        <v>579</v>
+      </c>
+      <c r="BB25" s="26" t="s">
+        <v>580</v>
+      </c>
+      <c r="BC25" s="27" t="s">
+        <v>581</v>
+      </c>
+      <c r="BD25" s="30" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="31">
+        <v>45566.3383565625</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>582</v>
+      </c>
+      <c r="C26" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="D26" s="32" t="s">
+        <v>584</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>585</v>
+      </c>
+      <c r="F26" s="32" t="s">
+        <v>586</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>587</v>
+      </c>
+      <c r="H26" s="32" t="s">
+        <v>583</v>
+      </c>
+      <c r="I26" s="32" t="s">
+        <v>588</v>
+      </c>
+      <c r="J26" s="32" t="s">
+        <v>589</v>
+      </c>
+      <c r="K26" s="32" t="s">
+        <v>590</v>
+      </c>
+      <c r="L26" s="32" t="s">
+        <v>591</v>
+      </c>
+      <c r="M26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="32" t="s">
+        <v>592</v>
+      </c>
+      <c r="O26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="32" t="s">
+        <v>593</v>
+      </c>
+      <c r="Q26" s="32" t="s">
+        <v>594</v>
+      </c>
+      <c r="R26" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="S26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="32" t="s">
+        <v>595</v>
+      </c>
+      <c r="U26" s="32" t="s">
+        <v>596</v>
+      </c>
+      <c r="V26" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="W26" s="32" t="s">
+        <v>597</v>
+      </c>
+      <c r="X26" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="Z26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA26" s="32" t="s">
+        <v>598</v>
+      </c>
+      <c r="AB26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="AD26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG26" s="32" t="s">
+        <v>599</v>
+      </c>
+      <c r="AH26" s="32" t="s">
+        <v>600</v>
+      </c>
+      <c r="AI26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK26" s="32" t="s">
+        <v>601</v>
+      </c>
+      <c r="AL26" s="32" t="s">
+        <v>602</v>
+      </c>
+      <c r="AM26" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN26" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO26" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS26" s="32" t="s">
+        <v>603</v>
+      </c>
+      <c r="AT26" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="AU26" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AV26" s="32" t="s">
+        <v>604</v>
+      </c>
+      <c r="AX26" s="32" t="s">
+        <v>605</v>
+      </c>
+      <c r="AY26" s="32" t="s">
+        <v>606</v>
+      </c>
+      <c r="AZ26" s="32" t="s">
+        <v>230</v>
+      </c>
+      <c r="BA26" s="32" t="s">
+        <v>607</v>
+      </c>
+      <c r="BC26" s="33" t="s">
+        <v>608</v>
+      </c>
+      <c r="BD26" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="25">
+        <v>45566.46754570602</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>609</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>610</v>
+      </c>
+      <c r="D27" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>611</v>
+      </c>
+      <c r="F27" s="26" t="s">
+        <v>612</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>613</v>
+      </c>
+      <c r="H27" s="26" t="s">
+        <v>614</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>615</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>616</v>
+      </c>
+      <c r="K27" s="26" t="s">
+        <v>617</v>
+      </c>
+      <c r="L27" s="26" t="s">
+        <v>567</v>
+      </c>
+      <c r="M27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="26" t="s">
+        <v>618</v>
+      </c>
+      <c r="O27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="26">
+        <v>100.0</v>
+      </c>
+      <c r="Q27" s="28">
+        <v>0.8</v>
+      </c>
+      <c r="R27" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T27" s="26">
+        <v>6.0</v>
+      </c>
+      <c r="U27" s="26">
+        <v>3.0</v>
+      </c>
+      <c r="V27" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="W27" s="26" t="s">
+        <v>619</v>
+      </c>
+      <c r="X27" s="26" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y27" s="26" t="s">
+        <v>621</v>
+      </c>
+      <c r="Z27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AB27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AD27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG27" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AH27" s="26" t="s">
+        <v>623</v>
+      </c>
+      <c r="AI27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ27" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK27" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AL27" s="26" t="s">
+        <v>622</v>
+      </c>
+      <c r="AM27" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN27" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR27" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW27" s="26" t="s">
+        <v>624</v>
+      </c>
+      <c r="AX27" s="26" t="s">
+        <v>325</v>
+      </c>
+      <c r="BC27" s="27" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="31">
+        <v>45566.668890057874</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>626</v>
+      </c>
+      <c r="C28" s="32" t="s">
+        <v>627</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>628</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>629</v>
+      </c>
+      <c r="F28" s="32" t="s">
+        <v>630</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>631</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>632</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>633</v>
+      </c>
+      <c r="J28" s="32" t="s">
+        <v>634</v>
+      </c>
+      <c r="K28" s="32" t="s">
+        <v>635</v>
+      </c>
+      <c r="L28" s="32" t="s">
+        <v>636</v>
+      </c>
+      <c r="M28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="O28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q28" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R28" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" s="32">
+        <v>8843.0</v>
+      </c>
+      <c r="U28" s="32" t="s">
+        <v>637</v>
+      </c>
+      <c r="V28" s="32">
+        <v>20.0</v>
+      </c>
+      <c r="W28" s="32">
+        <v>600.0</v>
+      </c>
+      <c r="X28" s="35">
+        <v>200000.0</v>
+      </c>
+      <c r="Y28" s="32">
+        <v>0.0</v>
+      </c>
+      <c r="Z28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA28" s="32" t="s">
+        <v>638</v>
+      </c>
+      <c r="AB28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="32" t="s">
+        <v>639</v>
+      </c>
+      <c r="AD28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="32" t="s">
+        <v>640</v>
+      </c>
+      <c r="AF28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG28" s="33" t="s">
+        <v>641</v>
+      </c>
+      <c r="AH28" s="32" t="s">
+        <v>642</v>
+      </c>
+      <c r="AI28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK28" s="32" t="s">
+        <v>643</v>
+      </c>
+      <c r="AL28" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="AM28" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN28" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ28" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR28" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS28" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="AT28" s="32" t="s">
+        <v>646</v>
+      </c>
+      <c r="AU28" s="32" t="s">
+        <v>647</v>
+      </c>
+      <c r="AV28" s="32" t="s">
+        <v>648</v>
+      </c>
+      <c r="AW28" s="32" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX28" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY28" s="32" t="s">
+        <v>650</v>
+      </c>
+      <c r="AZ28" s="32" t="s">
+        <v>651</v>
+      </c>
+      <c r="BC28" s="33" t="s">
+        <v>652</v>
+      </c>
+      <c r="BD28" s="36" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="25">
+        <v>45567.1347021875</v>
+      </c>
+      <c r="B29" s="26" t="s">
+        <v>653</v>
+      </c>
+      <c r="C29" s="26" t="s">
+        <v>654</v>
+      </c>
+      <c r="D29" s="26" t="s">
+        <v>655</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>656</v>
+      </c>
+      <c r="F29" s="26" t="s">
+        <v>657</v>
+      </c>
+      <c r="G29" s="27" t="s">
+        <v>658</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>659</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>661</v>
+      </c>
+      <c r="K29" s="26" t="s">
+        <v>662</v>
+      </c>
+      <c r="L29" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="M29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="26" t="s">
+        <v>592</v>
+      </c>
+      <c r="O29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q29" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="R29" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" s="26" t="s">
+        <v>663</v>
+      </c>
+      <c r="U29" s="26">
+        <v>2.0</v>
+      </c>
+      <c r="V29" s="26" t="s">
+        <v>664</v>
+      </c>
+      <c r="W29" s="26" t="s">
+        <v>665</v>
+      </c>
+      <c r="X29" s="26" t="s">
+        <v>666</v>
+      </c>
+      <c r="Y29" s="26" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="AB29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="AD29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="26" t="s">
+        <v>668</v>
+      </c>
+      <c r="AF29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG29" s="27" t="s">
+        <v>669</v>
+      </c>
+      <c r="AH29" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="AI29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK29" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="AL29" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="AM29" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN29" s="26" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO29" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR29" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS29" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="AT29" s="26" t="s">
+        <v>674</v>
+      </c>
+      <c r="AX29" s="26" t="s">
+        <v>675</v>
+      </c>
+      <c r="AY29" s="26" t="s">
+        <v>650</v>
+      </c>
+      <c r="AZ29" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="BC29" s="27" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="31">
+        <v>45567.153902094906</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>678</v>
+      </c>
+      <c r="C30" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="D30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>680</v>
+      </c>
+      <c r="F30" s="32" t="s">
+        <v>681</v>
+      </c>
+      <c r="G30" s="33" t="s">
+        <v>682</v>
+      </c>
+      <c r="H30" s="32" t="s">
+        <v>679</v>
+      </c>
+      <c r="I30" s="32" t="s">
+        <v>280</v>
+      </c>
+      <c r="J30" s="32" t="s">
+        <v>683</v>
+      </c>
+      <c r="K30" s="32" t="s">
+        <v>684</v>
+      </c>
+      <c r="L30" s="32" t="s">
+        <v>685</v>
+      </c>
+      <c r="M30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="32" t="s">
+        <v>686</v>
+      </c>
+      <c r="O30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q30" s="34">
+        <v>0.75</v>
+      </c>
+      <c r="R30" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T30" s="32" t="s">
+        <v>687</v>
+      </c>
+      <c r="U30" s="32" t="s">
+        <v>688</v>
+      </c>
+      <c r="V30" s="32" t="s">
+        <v>689</v>
+      </c>
+      <c r="W30" s="37">
+        <v>21000.0</v>
+      </c>
+      <c r="X30" s="35">
+        <v>18000.0</v>
+      </c>
+      <c r="Y30" s="35">
+        <v>350000.0</v>
+      </c>
+      <c r="Z30" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB30" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC30" s="32" t="s">
+        <v>690</v>
+      </c>
+      <c r="AD30" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG30" s="33" t="s">
+        <v>691</v>
+      </c>
+      <c r="AH30" s="32" t="s">
+        <v>692</v>
+      </c>
+      <c r="AI30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK30" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="AL30" s="32" t="s">
+        <v>694</v>
+      </c>
+      <c r="AM30" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN30" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO30" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP30" s="32" t="s">
+        <v>695</v>
+      </c>
+      <c r="AQ30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR30" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY30" s="32" t="s">
+        <v>696</v>
+      </c>
+      <c r="AZ30" s="32" t="s">
+        <v>273</v>
+      </c>
+      <c r="BB30" s="32" t="s">
+        <v>697</v>
+      </c>
+      <c r="BC30" s="33" t="s">
+        <v>698</v>
+      </c>
+      <c r="BD30" s="36" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="25">
+        <v>45567.29273365741</v>
+      </c>
+      <c r="B31" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>700</v>
+      </c>
+      <c r="D31" s="26" t="s">
+        <v>701</v>
+      </c>
+      <c r="E31" s="26" t="s">
+        <v>702</v>
+      </c>
+      <c r="F31" s="26" t="s">
+        <v>703</v>
+      </c>
+      <c r="G31" s="27" t="s">
+        <v>704</v>
+      </c>
+      <c r="H31" s="26" t="s">
+        <v>705</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>706</v>
+      </c>
+      <c r="K31" s="26" t="s">
+        <v>707</v>
+      </c>
+      <c r="L31" s="26" t="s">
+        <v>685</v>
+      </c>
+      <c r="M31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="26" t="s">
+        <v>708</v>
+      </c>
+      <c r="O31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="28">
+        <v>0.4</v>
+      </c>
+      <c r="Q31" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="R31" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T31" s="26" t="s">
+        <v>709</v>
+      </c>
+      <c r="U31" s="26" t="s">
+        <v>710</v>
+      </c>
+      <c r="V31" s="26" t="s">
+        <v>711</v>
+      </c>
+      <c r="W31" s="26" t="s">
+        <v>712</v>
+      </c>
+      <c r="X31" s="26" t="s">
+        <v>713</v>
+      </c>
+      <c r="Y31" s="26" t="s">
+        <v>714</v>
+      </c>
+      <c r="Z31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA31" s="27" t="s">
+        <v>715</v>
+      </c>
+      <c r="AB31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC31" s="26" t="s">
+        <v>716</v>
+      </c>
+      <c r="AD31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE31" s="26" t="s">
+        <v>717</v>
+      </c>
+      <c r="AF31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH31" s="26" t="s">
+        <v>718</v>
+      </c>
+      <c r="AI31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK31" s="26" t="s">
+        <v>719</v>
+      </c>
+      <c r="AL31" s="26" t="s">
+        <v>720</v>
+      </c>
+      <c r="AM31" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN31" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP31" s="27" t="s">
+        <v>721</v>
+      </c>
+      <c r="AQ31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR31" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS31" s="26" t="s">
+        <v>722</v>
+      </c>
+      <c r="AU31" s="26" t="s">
+        <v>723</v>
+      </c>
+      <c r="AW31" s="26" t="s">
+        <v>724</v>
+      </c>
+      <c r="AX31" s="26" t="s">
+        <v>201</v>
+      </c>
+      <c r="AY31" s="26" t="s">
+        <v>725</v>
+      </c>
+      <c r="BC31" s="27" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="31">
+        <v>45567.32146018519</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>727</v>
+      </c>
+      <c r="C32" s="32" t="s">
+        <v>728</v>
+      </c>
+      <c r="D32" s="32" t="s">
+        <v>729</v>
+      </c>
+      <c r="E32" s="32" t="s">
+        <v>730</v>
+      </c>
+      <c r="F32" s="32" t="s">
+        <v>731</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>732</v>
+      </c>
+      <c r="H32" s="32" t="s">
+        <v>733</v>
+      </c>
+      <c r="I32" s="32" t="s">
+        <v>734</v>
+      </c>
+      <c r="J32" s="32" t="s">
+        <v>735</v>
+      </c>
+      <c r="K32" s="32" t="s">
+        <v>736</v>
+      </c>
+      <c r="L32" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="O32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="Q32" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R32" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="S32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="32" t="s">
+        <v>738</v>
+      </c>
+      <c r="U32" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="V32" s="32" t="s">
+        <v>739</v>
+      </c>
+      <c r="W32" s="32" t="s">
+        <v>740</v>
+      </c>
+      <c r="X32" s="32" t="s">
+        <v>741</v>
+      </c>
+      <c r="Y32" s="32" t="s">
+        <v>742</v>
+      </c>
+      <c r="Z32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH32" s="32" t="s">
+        <v>743</v>
+      </c>
+      <c r="AI32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL32" s="32" t="s">
+        <v>744</v>
+      </c>
+      <c r="AM32" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN32" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ32" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR32" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS32" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="AT32" s="32" t="s">
+        <v>746</v>
+      </c>
+      <c r="AU32" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="AX32" s="32" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY32" s="32" t="s">
+        <v>748</v>
+      </c>
+      <c r="AZ32" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA32" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="BC32" s="32" t="s">
+        <v>750</v>
+      </c>
+      <c r="BD32" s="36" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="25">
+        <v>45567.34257298611</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>518</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>751</v>
+      </c>
+      <c r="D33" s="26" t="s">
+        <v>494</v>
+      </c>
+      <c r="E33" s="26" t="s">
+        <v>752</v>
+      </c>
+      <c r="F33" s="26" t="s">
+        <v>753</v>
+      </c>
+      <c r="G33" s="27" t="s">
+        <v>754</v>
+      </c>
+      <c r="H33" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="I33" s="26" t="s">
+        <v>755</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="K33" s="26" t="s">
+        <v>757</v>
+      </c>
+      <c r="L33" s="26" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="O33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="Q33" s="28">
+        <v>1.0</v>
+      </c>
+      <c r="R33" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="S33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T33" s="26">
+        <v>1.0</v>
+      </c>
+      <c r="U33" s="26" t="s">
+        <v>759</v>
+      </c>
+      <c r="V33" s="26" t="s">
+        <v>760</v>
+      </c>
+      <c r="W33" s="26" t="s">
+        <v>761</v>
+      </c>
+      <c r="X33" s="26" t="s">
+        <v>505</v>
+      </c>
+      <c r="Y33" s="29">
+        <v>1470000.0</v>
+      </c>
+      <c r="Z33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC33" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="AD33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE33" s="26" t="s">
+        <v>762</v>
+      </c>
+      <c r="AF33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG33" s="27" t="s">
+        <v>763</v>
+      </c>
+      <c r="AH33" s="26" t="s">
+        <v>764</v>
+      </c>
+      <c r="AI33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK33" s="26" t="s">
+        <v>765</v>
+      </c>
+      <c r="AL33" s="26" t="s">
+        <v>510</v>
+      </c>
+      <c r="AM33" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN33" s="26" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO33" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP33" s="26" t="s">
+        <v>506</v>
+      </c>
+      <c r="AQ33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR33" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS33" s="26" t="s">
+        <v>512</v>
+      </c>
+      <c r="AW33" s="26" t="s">
+        <v>766</v>
+      </c>
+      <c r="AX33" s="26" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY33" s="26" t="s">
+        <v>515</v>
+      </c>
+      <c r="BA33" s="26" t="s">
+        <v>767</v>
+      </c>
+      <c r="BC33" s="27" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="31">
+        <v>45567.40895445602</v>
+      </c>
+      <c r="B34" s="32" t="s">
+        <v>769</v>
+      </c>
+      <c r="C34" s="32" t="s">
+        <v>770</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>771</v>
+      </c>
+      <c r="E34" s="32" t="s">
+        <v>772</v>
+      </c>
+      <c r="F34" s="32" t="s">
+        <v>773</v>
+      </c>
+      <c r="G34" s="33" t="s">
+        <v>774</v>
+      </c>
+      <c r="H34" s="32" t="s">
+        <v>775</v>
+      </c>
+      <c r="I34" s="32" t="s">
+        <v>776</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>777</v>
+      </c>
+      <c r="K34" s="32" t="s">
+        <v>778</v>
+      </c>
+      <c r="L34" s="32" t="s">
+        <v>779</v>
+      </c>
+      <c r="M34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>737</v>
+      </c>
+      <c r="O34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="34">
+        <v>0.6</v>
+      </c>
+      <c r="Q34" s="34">
+        <v>1.0</v>
+      </c>
+      <c r="R34" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" s="32" t="s">
+        <v>780</v>
+      </c>
+      <c r="U34" s="32">
+        <v>1.0</v>
+      </c>
+      <c r="V34" s="32">
+        <v>250.0</v>
+      </c>
+      <c r="W34" s="32">
+        <v>14000.0</v>
+      </c>
+      <c r="X34" s="35">
+        <v>60000.0</v>
+      </c>
+      <c r="Y34" s="35">
+        <v>400000.0</v>
+      </c>
+      <c r="Z34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA34" s="33" t="s">
+        <v>781</v>
+      </c>
+      <c r="AD34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="32" t="s">
+        <v>782</v>
+      </c>
+      <c r="AF34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG34" s="33" t="s">
+        <v>783</v>
+      </c>
+      <c r="AI34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK34" s="32" t="s">
+        <v>784</v>
+      </c>
+      <c r="AL34" s="32" t="s">
+        <v>785</v>
+      </c>
+      <c r="AM34" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN34" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="AR34" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS34" s="32" t="s">
+        <v>786</v>
+      </c>
+      <c r="AT34" s="32" t="s">
+        <v>787</v>
+      </c>
+      <c r="AU34" s="32" t="s">
+        <v>443</v>
+      </c>
+      <c r="AW34" s="32" t="s">
+        <v>788</v>
+      </c>
+      <c r="AX34" s="32" t="s">
+        <v>789</v>
+      </c>
+      <c r="AZ34" s="32" t="s">
+        <v>327</v>
+      </c>
+      <c r="BC34" s="32" t="s">
+        <v>790</v>
+      </c>
+      <c r="BD34" s="36" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="39">
+        <v>45567.54524048611</v>
+      </c>
+      <c r="B35" s="40" t="s">
+        <v>791</v>
+      </c>
+      <c r="C35" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="D35" s="40" t="s">
+        <v>793</v>
+      </c>
+      <c r="E35" s="40" t="s">
+        <v>794</v>
+      </c>
+      <c r="F35" s="40" t="s">
+        <v>795</v>
+      </c>
+      <c r="G35" s="41" t="s">
+        <v>796</v>
+      </c>
+      <c r="H35" s="40" t="s">
+        <v>792</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>797</v>
+      </c>
+      <c r="J35" s="40" t="s">
+        <v>798</v>
+      </c>
+      <c r="K35" s="40" t="s">
+        <v>799</v>
+      </c>
+      <c r="L35" s="40" t="s">
+        <v>800</v>
+      </c>
+      <c r="M35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="40" t="s">
+        <v>801</v>
+      </c>
+      <c r="O35" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="42">
+        <v>0.25</v>
+      </c>
+      <c r="Q35" s="40" t="s">
+        <v>802</v>
+      </c>
+      <c r="R35" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="S35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="T35" s="40" t="s">
+        <v>803</v>
+      </c>
+      <c r="U35" s="40">
+        <v>4.0</v>
+      </c>
+      <c r="V35" s="40" t="s">
+        <v>804</v>
+      </c>
+      <c r="W35" s="40" t="s">
+        <v>805</v>
+      </c>
+      <c r="X35" s="40" t="s">
+        <v>806</v>
+      </c>
+      <c r="Y35" s="40" t="s">
+        <v>807</v>
+      </c>
+      <c r="Z35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="40" t="s">
+        <v>808</v>
+      </c>
+      <c r="AB35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC35" s="40" t="s">
+        <v>809</v>
+      </c>
+      <c r="AD35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="40" t="s">
+        <v>810</v>
+      </c>
+      <c r="AF35" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="40" t="s">
+        <v>811</v>
+      </c>
+      <c r="AI35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK35" s="40" t="s">
+        <v>812</v>
+      </c>
+      <c r="AL35" s="40" t="s">
+        <v>813</v>
+      </c>
+      <c r="AM35" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN35" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP35" s="40" t="s">
+        <v>814</v>
+      </c>
+      <c r="AQ35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR35" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS35" s="40" t="s">
+        <v>815</v>
+      </c>
+      <c r="AT35" s="40" t="s">
+        <v>816</v>
+      </c>
+      <c r="AU35" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="AV35" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="AW35" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="AX35" s="40" t="s">
+        <v>818</v>
+      </c>
+      <c r="AY35" s="40" t="s">
+        <v>819</v>
+      </c>
+      <c r="AZ35" s="40" t="s">
+        <v>820</v>
+      </c>
+      <c r="BA35" s="40" t="s">
+        <v>817</v>
+      </c>
+      <c r="BB35" s="40" t="s">
+        <v>821</v>
+      </c>
+      <c r="BC35" s="41" t="s">
+        <v>822</v>
+      </c>
+      <c r="BD35" s="43" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -4482,10 +8808,59 @@
     <hyperlink r:id="rId39" ref="BC16"/>
     <hyperlink r:id="rId40" ref="G17"/>
     <hyperlink r:id="rId41" ref="AG17"/>
+    <hyperlink r:id="rId42" ref="G18"/>
+    <hyperlink r:id="rId43" ref="AA18"/>
+    <hyperlink r:id="rId44" ref="AG18"/>
+    <hyperlink r:id="rId45" ref="BC18"/>
+    <hyperlink r:id="rId46" ref="G19"/>
+    <hyperlink r:id="rId47" ref="AG19"/>
+    <hyperlink r:id="rId48" ref="BC19"/>
+    <hyperlink r:id="rId49" ref="G20"/>
+    <hyperlink r:id="rId50" ref="BC20"/>
+    <hyperlink r:id="rId51" ref="G21"/>
+    <hyperlink r:id="rId52" ref="BC21"/>
+    <hyperlink r:id="rId53" ref="G22"/>
+    <hyperlink r:id="rId54" ref="AG22"/>
+    <hyperlink r:id="rId55" ref="BC22"/>
+    <hyperlink r:id="rId56" ref="G23"/>
+    <hyperlink r:id="rId57" ref="AG23"/>
+    <hyperlink r:id="rId58" ref="BC23"/>
+    <hyperlink r:id="rId59" ref="G24"/>
+    <hyperlink r:id="rId60" ref="BC24"/>
+    <hyperlink r:id="rId61" ref="G25"/>
+    <hyperlink r:id="rId62" ref="AE25"/>
+    <hyperlink r:id="rId63" ref="AG25"/>
+    <hyperlink r:id="rId64" ref="BC25"/>
+    <hyperlink r:id="rId65" ref="G26"/>
+    <hyperlink r:id="rId66" ref="BC26"/>
+    <hyperlink r:id="rId67" ref="G27"/>
+    <hyperlink r:id="rId68" ref="BC27"/>
+    <hyperlink r:id="rId69" ref="G28"/>
+    <hyperlink r:id="rId70" ref="AG28"/>
+    <hyperlink r:id="rId71" ref="BC28"/>
+    <hyperlink r:id="rId72" ref="G29"/>
+    <hyperlink r:id="rId73" ref="AG29"/>
+    <hyperlink r:id="rId74" ref="BC29"/>
+    <hyperlink r:id="rId75" ref="G30"/>
+    <hyperlink r:id="rId76" ref="AG30"/>
+    <hyperlink r:id="rId77" ref="BC30"/>
+    <hyperlink r:id="rId78" ref="G31"/>
+    <hyperlink r:id="rId79" ref="AA31"/>
+    <hyperlink r:id="rId80" ref="AP31"/>
+    <hyperlink r:id="rId81" ref="BC31"/>
+    <hyperlink r:id="rId82" ref="G32"/>
+    <hyperlink r:id="rId83" ref="G33"/>
+    <hyperlink r:id="rId84" ref="AG33"/>
+    <hyperlink r:id="rId85" ref="BC33"/>
+    <hyperlink r:id="rId86" ref="G34"/>
+    <hyperlink r:id="rId87" ref="AA34"/>
+    <hyperlink r:id="rId88" ref="AG34"/>
+    <hyperlink r:id="rId89" ref="G35"/>
+    <hyperlink r:id="rId90" ref="BC35"/>
   </hyperlinks>
-  <drawing r:id="rId42"/>
+  <drawing r:id="rId91"/>
   <tableParts count="1">
-    <tablePart r:id="rId44"/>
+    <tablePart r:id="rId93"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="840">
   <si>
     <t>Timestamp</t>
   </si>
@@ -1223,7 +1223,7 @@
     <t>Tanzania</t>
   </si>
   <si>
-    <t>Kenya, Congo (DRC), Uganda and USA</t>
+    <t>Kenya, Democratic Republic of the Congo, Uganda, USA</t>
   </si>
   <si>
     <t>https://tanzmed.co.tz/privacy-policy.html</t>
@@ -1544,7 +1544,7 @@
     <t>Abidjan, Côte d'Ivoire</t>
   </si>
   <si>
-    <t>BENIN, SENEGAL, TOGO, BURKINA FASO</t>
+    <t>Benin, Senega, Togo, Burkina Faso</t>
   </si>
   <si>
     <t>100% (All members of the management team are based in Africa, specifically in Ivory Coast)</t>
@@ -1745,7 +1745,7 @@
     <t>Kigali, Rwanda</t>
   </si>
   <si>
-    <t>Rwanda, Kenya, DRC</t>
+    <t>Rwanda, Kenya, Democratic Republic of the Congo</t>
   </si>
   <si>
     <t>1000+ healthcare providers served</t>
@@ -2537,7 +2537,7 @@
     <t>Kigali - Rwanda</t>
   </si>
   <si>
-    <t>Rwanda and Kenya</t>
+    <t>Rwanda, Kenya</t>
   </si>
   <si>
     <t>The Lifesten Application has had 3 deployments with the lattest version being Version 2.37 and has reached over 10,000 users.</t>
@@ -3012,6 +3012,65 @@
   </si>
   <si>
     <t>www.signalytic.ca</t>
+  </si>
+  <si>
+    <t>Michelle Mumbi</t>
+  </si>
+  <si>
+    <t>mmumbi@tpn.africa</t>
+  </si>
+  <si>
+    <t>The Pathology Network Limited</t>
+  </si>
+  <si>
+    <t>Spes 360</t>
+  </si>
+  <si>
+    <t>The Spes360  is a diagnostic platform designed to enhance workflows across multiple laboratories within a healthcare network. It facilitates inter-laboratory coordination through real-time sample tracking and standardized protocols, ensuring efficient handling and consistent quality. By automating routine tasks and managing resources, the platform improves processing times and overall efficiency.
+A key feature of Spes360 is its collaboration with network pathologists, who provide expert consultation and insights, enhancing diagnostic accuracy and patient care. The platform also includes logistics coordination and sample tracking, ensuring timely and secure transportation of samples while maintaining their integrity. Real-time updates on sample status further enhance reliability.
+Centralizing data from various labs allows seamless access to patient information and interoperability with existing systems. Improved communication is supported through collaboration tools and automated alerts that foster interaction among labs, pathologists, and healthcare providers. Additionally, Spes360 offers data analytics capabilities for performance analysis and quality control, optimizing resource allocation and compliance.
+With its flexible architecture, Spes360 adapts to the needs of both small clusters and larger healthcare networks. In summary, it streamlines laboratory diagnostics, enhances collaboration with pathologists, improves logistics coordination, and ultimately supports better patient outcomes.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1cDxvN_GEHPi46iGMgmK4Onb9pMwLTCb4</t>
+  </si>
+  <si>
+    <t>info@tpn.africa</t>
+  </si>
+  <si>
+    <t>Laboratory and Diagnostics</t>
+  </si>
+  <si>
+    <t>The Spes360 L-DMS is designed to improve health outcomes in Africa by leveraging digital innovations tailored to the continent's specific healthcare challenges. By connecting multiple laboratories, the platform enhances access to diagnostic services in remote and underserved areas, ensuring timely diagnoses that can significantly impact patient management. Its real-time sample tracking reduces turnaround times, while collaboration with network pathologists provides healthcare providers in these regions with expert insights, enhancing diagnostic accuracy.
+Spes360’s flexible architecture allows it to adapt to diverse health needs, while its analytics capabilities help identify health trends, enabling proactive public health responses. Additionally, the platform supports training programs for healthcare professionals, fostering skill development and community engagement to raise awareness about the importance of timely diagnostics. .</t>
+  </si>
+  <si>
+    <t>1 active deployments. 150 hospitals, with 200-300 users.</t>
+  </si>
+  <si>
+    <t>$100,000 USD</t>
+  </si>
+  <si>
+    <t>$1,000,000 USD</t>
+  </si>
+  <si>
+    <t>Currently, we are logging a comprehensive range of application data, including application logs that capture errors and exceptions, API access logs, and front-end user activity logs. This multi-faceted approach enables us to monitor system performance, troubleshoot issues effectively, and gain insights into user interactions.
+For front-end user activity, we are utilizing Google Analytics alongside our logging practices. Google Analytics provides valuable data on user behavior, including page views, session duration, and user demographics, allowing us to understand how users engage with our application. This insight helps us identify trends, optimize user experience, and tailor content to meet user needs more effectively.
+Additionally, we are leveraging New Relic for Application Performance Monitoring (APM) and alerting. New Relic offers real-time visibility into application performance, helping us identify bottlenecks and optimize resource allocation. Its alerting capabilities ensure that we are promptly notified of any performance issues or anomalies, allowing us to respond quickly and maintain a seamless user experience.</t>
+  </si>
+  <si>
+    <t>For authentication, we are utilizing OAuth2 provided by Keycloak as our Identity Provider (IDP). This integration allows us to manage user identities and permissions securely, facilitating a robust authentication process.
+In addition to OAuth2, we have implemented a custom authorization system based on CASL (Code Access Security Language) and Attribute-Based Access Control (ABAC). This combination enables fine-grained control over user permissions, allowing us to define and enforce access rules based on user attributes and roles. By leveraging CASL, we can specify complex access conditions in a clear and manageable way, ensuring that users have the appropriate level of access to resources based on their attributes.
+Together, this approach to authentication and authorization enhances security and provides a flexible framework for managing user access across our application, ensuring that sensitive data and functionalities are adequately protected while still being user-friendly.</t>
+  </si>
+  <si>
+    <t>Transmit and track diagnostic orders, Send diagnostic results to providers</t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Business Intelligence, Data processing (extract, transform, load - ETL)</t>
+  </si>
+  <si>
+    <t>https://spes360.com</t>
   </si>
 </sst>
 </file>
@@ -3079,7 +3138,7 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -3212,10 +3271,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3223,27 +3282,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF442F65"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFF8F9FA"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF442F65"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3253,7 +3298,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3383,9 +3428,6 @@
     <xf borderId="11" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -3444,7 +3486,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD35" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD36" displayName="Form_Responses1" name="Form_Responses1" id="1">
   <tableColumns count="56">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Your name" id="2"/>
@@ -8599,170 +8641,292 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="39">
+      <c r="A35" s="25">
         <v>45567.54524048611</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="26" t="s">
         <v>791</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="D35" s="40" t="s">
+      <c r="D35" s="26" t="s">
         <v>793</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="26" t="s">
         <v>794</v>
       </c>
-      <c r="F35" s="40" t="s">
+      <c r="F35" s="26" t="s">
         <v>795</v>
       </c>
-      <c r="G35" s="41" t="s">
+      <c r="G35" s="27" t="s">
         <v>796</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="26" t="s">
         <v>792</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="26" t="s">
         <v>797</v>
       </c>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="26" t="s">
         <v>798</v>
       </c>
-      <c r="K35" s="40" t="s">
+      <c r="K35" s="26" t="s">
         <v>799</v>
       </c>
-      <c r="L35" s="40" t="s">
+      <c r="L35" s="26" t="s">
         <v>800</v>
       </c>
-      <c r="M35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" s="40" t="s">
+      <c r="M35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="26" t="s">
         <v>801</v>
       </c>
-      <c r="O35" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" s="42">
+      <c r="O35" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="28">
         <v>0.25</v>
       </c>
-      <c r="Q35" s="40" t="s">
+      <c r="Q35" s="26" t="s">
         <v>802</v>
       </c>
-      <c r="R35" s="40" t="s">
+      <c r="R35" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="S35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="T35" s="40" t="s">
+      <c r="S35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="T35" s="26" t="s">
         <v>803</v>
       </c>
-      <c r="U35" s="40">
+      <c r="U35" s="26">
         <v>4.0</v>
       </c>
-      <c r="V35" s="40" t="s">
+      <c r="V35" s="26" t="s">
         <v>804</v>
       </c>
-      <c r="W35" s="40" t="s">
+      <c r="W35" s="26" t="s">
         <v>805</v>
       </c>
-      <c r="X35" s="40" t="s">
+      <c r="X35" s="26" t="s">
         <v>806</v>
       </c>
-      <c r="Y35" s="40" t="s">
+      <c r="Y35" s="26" t="s">
         <v>807</v>
       </c>
-      <c r="Z35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" s="40" t="s">
+      <c r="Z35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="26" t="s">
         <v>808</v>
       </c>
-      <c r="AB35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC35" s="40" t="s">
+      <c r="AB35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC35" s="26" t="s">
         <v>809</v>
       </c>
-      <c r="AD35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE35" s="40" t="s">
+      <c r="AD35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="26" t="s">
         <v>810</v>
       </c>
-      <c r="AF35" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH35" s="40" t="s">
+      <c r="AF35" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="26" t="s">
         <v>811</v>
       </c>
-      <c r="AI35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK35" s="40" t="s">
+      <c r="AI35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK35" s="26" t="s">
         <v>812</v>
       </c>
-      <c r="AL35" s="40" t="s">
+      <c r="AL35" s="26" t="s">
         <v>813</v>
       </c>
-      <c r="AM35" s="40" t="s">
+      <c r="AM35" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="AN35" s="40" t="s">
+      <c r="AN35" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="AO35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP35" s="40" t="s">
+      <c r="AO35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP35" s="26" t="s">
         <v>814</v>
       </c>
-      <c r="AQ35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR35" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS35" s="40" t="s">
+      <c r="AQ35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR35" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS35" s="26" t="s">
         <v>815</v>
       </c>
-      <c r="AT35" s="40" t="s">
+      <c r="AT35" s="26" t="s">
         <v>816</v>
       </c>
-      <c r="AU35" s="40" t="s">
+      <c r="AU35" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="AV35" s="40" t="s">
+      <c r="AV35" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="AW35" s="40" t="s">
+      <c r="AW35" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="AX35" s="40" t="s">
+      <c r="AX35" s="26" t="s">
         <v>818</v>
       </c>
-      <c r="AY35" s="40" t="s">
+      <c r="AY35" s="26" t="s">
         <v>819</v>
       </c>
-      <c r="AZ35" s="40" t="s">
+      <c r="AZ35" s="26" t="s">
         <v>820</v>
       </c>
-      <c r="BA35" s="40" t="s">
+      <c r="BA35" s="26" t="s">
         <v>817</v>
       </c>
-      <c r="BB35" s="40" t="s">
+      <c r="BB35" s="26" t="s">
         <v>821</v>
       </c>
-      <c r="BC35" s="41" t="s">
+      <c r="BC35" s="27" t="s">
         <v>822</v>
       </c>
-      <c r="BD35" s="43" t="s">
+      <c r="BD35" s="30" t="s">
         <v>327</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="39">
+        <v>45568.29184928241</v>
+      </c>
+      <c r="B36" s="40" t="s">
+        <v>823</v>
+      </c>
+      <c r="C36" s="40" t="s">
+        <v>824</v>
+      </c>
+      <c r="D36" s="40" t="s">
+        <v>825</v>
+      </c>
+      <c r="E36" s="40" t="s">
+        <v>826</v>
+      </c>
+      <c r="F36" s="40" t="s">
+        <v>827</v>
+      </c>
+      <c r="G36" s="41" t="s">
+        <v>828</v>
+      </c>
+      <c r="H36" s="40" t="s">
+        <v>829</v>
+      </c>
+      <c r="I36" s="40" t="s">
+        <v>830</v>
+      </c>
+      <c r="J36" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="L36" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="M36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="Q36" s="42">
+        <v>1.0</v>
+      </c>
+      <c r="R36" s="40" t="s">
+        <v>68</v>
+      </c>
+      <c r="S36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="T36" s="40" t="s">
+        <v>832</v>
+      </c>
+      <c r="U36" s="40">
+        <v>1.0</v>
+      </c>
+      <c r="V36" s="40">
+        <v>100.0</v>
+      </c>
+      <c r="W36" s="40">
+        <v>500.0</v>
+      </c>
+      <c r="X36" s="40" t="s">
+        <v>833</v>
+      </c>
+      <c r="Y36" s="40" t="s">
+        <v>834</v>
+      </c>
+      <c r="Z36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ36" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK36" s="40" t="s">
+        <v>835</v>
+      </c>
+      <c r="AL36" s="40" t="s">
+        <v>836</v>
+      </c>
+      <c r="AM36" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN36" s="40" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR36" s="40" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU36" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="AV36" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="AX36" s="40" t="s">
+        <v>838</v>
+      </c>
+      <c r="BC36" s="41" t="s">
+        <v>839</v>
       </c>
     </row>
   </sheetData>
@@ -8857,10 +9021,12 @@
     <hyperlink r:id="rId88" ref="AG34"/>
     <hyperlink r:id="rId89" ref="G35"/>
     <hyperlink r:id="rId90" ref="BC35"/>
+    <hyperlink r:id="rId91" ref="G36"/>
+    <hyperlink r:id="rId92" ref="BC36"/>
   </hyperlinks>
-  <drawing r:id="rId91"/>
+  <drawing r:id="rId93"/>
   <tableParts count="1">
-    <tablePart r:id="rId93"/>
+    <tablePart r:id="rId95"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/DIAL/exchange-backend/utils/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589E794-1784-6944-AFD9-914DB0503CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Form Responses 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1462" uniqueCount="840">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="934">
   <si>
     <t>Timestamp</t>
   </si>
@@ -3072,62 +3081,373 @@
   <si>
     <t>https://spes360.com</t>
   </si>
+  <si>
+    <t>Naggayi Daphne Pearl</t>
+  </si>
+  <si>
+    <t>daphnepearl101@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MobiKlinic </t>
+  </si>
+  <si>
+    <t>Mobiklinic CHP Tool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+MobiKlinic's CHP Tool is a mobile application designed to empower community health providers in delivering essential healthcare services. The app includes features for vaccination, diagnosis, antenatal care, and most recently, renal health care. At MobiKlinic, we train and equip community health providers to effectively use our tool, with the mission of ensuring that underserved, last-mile communities have access to quality healthcare.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=13ZFI3ZdiiIQHn0nyemDeX2hFq8ORQ_jg</t>
+  </si>
+  <si>
+    <t>andrewddembe@mobiklinic.com</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, National and Community Health, AI for Health, Virtual Health, Front-line (CHW) tools</t>
+  </si>
+  <si>
+    <t>This marketplace focuses on digital innovations tailored to address African healthcare challenges. MobiKlinic's digital solution is designed to improve health outcomes by offering a range of features that empower community health workers (CHPs) in delivering care more effectively. The solution includes a "Chat with a Doctor" feature, which allows CHPs to consult with doctors in real time, enhancing decision-making and patient outcomes. Additionally, the app offers offline functionality, enabling CHPs to work in remote areas without internet connectivity. Once internet access is restored, the app syncs data automatically, ensuring seamless continuity. To further support CHPs, an AI-powered chatbot powered by GPT is integrated into the app, providing instant guidance when they face challenges. The app's user-friendly design makes it accessible to CHPs with varying levels of technical skills, ensuring it can be adopted easily in underserved communities. MobiKlinic's solution bridges healthcare gaps in these areas by delivering essential digital tools that enhance healthcare services.</t>
+  </si>
+  <si>
+    <t>Mawanda Road, Kampala Uganda.</t>
+  </si>
+  <si>
+    <t>Kenya, Uganda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All countries </t>
+  </si>
+  <si>
+    <t>https://mobiklinic.com/privacy/</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Patient Billing, Patient Data Import/Export, Virtual care</t>
+  </si>
+  <si>
+    <t>Dashboards</t>
+  </si>
+  <si>
+    <t>Telemedicine appointments, Interactive services/chatbots, Remote patient (or person) monitoring</t>
+  </si>
+  <si>
+    <t>https://www.mobiklinic.com/</t>
+  </si>
+  <si>
+    <t>Luke Shankland</t>
+  </si>
+  <si>
+    <t>luke@avirohealth.com</t>
+  </si>
+  <si>
+    <t>Aviro Health</t>
+  </si>
+  <si>
+    <t>Aviro Pocket Clinic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Aviro Pocket Clinic is a proven digital platform that helps health workers better support marginalized patients by providing personalized medical counseling and navigation assistance. It combines patient feedback with outcome data to derive insights that help refine and improve programs and research/trials. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1e6qRK5kmpUPJg90bjtEQJhP8KBDXgE8E</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Laboratory and Diagnostics, National and Community Health, Analytics and Data Aggregation, Virtual Health, Front-line (CHW) tools</t>
+  </si>
+  <si>
+    <t>The Pocket Clinic uses data, design and behavioural science to deliver a semi-automated but holistic experience that guides patients and providers along care pathways while collecting robust data and patient feedback. Our platform has been proven to enable tailored medical content and user flows, managed and delivered through a multi-channel and multi-language platform, to reduce the barriers and costs of providing effective patient engagement for diverse populations and low income contexts in Africa, and to empower providers to improve outcomes with patients from marginalised backgrounds. 
+Pocket Clinic is provided to patients by health workers using a custom interface built for busy health workers (with different roles and in both high- and low-income contexts), and Aviro supports its technical and process integration into care settings. The secure, compliant, and flexible platform provides key support to patients and providers along the care pathway (registration, learning and counselling, reminders and appointment booking, decision support, results reporting, referrals, feedback). In the process, it collects robust patient-reported data and feedback, along with health worker verified health outcomes, and combines these into insights and data that is used by providers to improve protocols.</t>
+  </si>
+  <si>
+    <t>Existing patient engagement tools, built for healthcare workers and researchers to manage patients and data with, are from overseas and not built for economic or social diversity; or are bespoke and expensive (e.g. those made by custom development houses). Pocket Clinic is built in AWS and made to be scalable across customers, health protocols, and languages; and integrates into other data and workflow management tools. At the same time its offline/low-data options, and multiple channels and content types, allow us to serve geographic, linguistic, and socio-economic diversity. This means that we can provide a scalable and cost-effective platform to rapidly deploy patient engagement programs without custom builds, that can really engage patients (and support health workers) in different contexts, and with diverse populations, where traditional patient engagement platforms run aground.</t>
+  </si>
+  <si>
+    <t>Cape Town</t>
+  </si>
+  <si>
+    <t>South Africa, Kenya, eSwatini, Senegal, Cameroon, Nigeria</t>
+  </si>
+  <si>
+    <t>~300k USD</t>
+  </si>
+  <si>
+    <t>2.5M $</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, Patient care templates, Encounter Workflow Support</t>
+  </si>
+  <si>
+    <t>Transmit and track diagnostic orders, Capture results from digital devices</t>
+  </si>
+  <si>
+    <t>Contact tracing</t>
+  </si>
+  <si>
+    <t>https://www.avirohealth.com/</t>
+  </si>
+  <si>
+    <t>Angelo Igitego</t>
+  </si>
+  <si>
+    <t>Angelo@karisimbitech.rw</t>
+  </si>
+  <si>
+    <t>Karisimbi Technology Solutions Ltd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XanaHealth </t>
+  </si>
+  <si>
+    <t>XanaHealth is a web-based patient and hospital management system, which is used in managing electronic health records of patients, and to manage medical insurance claims.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1gwaylysNcpANlosSrrh8q-EORlVx4yCg</t>
+  </si>
+  <si>
+    <t>angelo@karisimbitech.rw</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics, Analytics and Data Aggregation, Virtual Health, Front-line (CHW) tools</t>
+  </si>
+  <si>
+    <t>This solution improves efficiency, data reliability and availability for providers (hospitals, clinics, pharmacies), patients, payers (insurance companies), and policy makers.</t>
+  </si>
+  <si>
+    <t>XanaHealth is an end-to-end data clinical and insurance data management, primarily for healthcare providers and payers (insurance companies), but also for policy makers.</t>
+  </si>
+  <si>
+    <t>Rwanda, Uganda</t>
+  </si>
+  <si>
+    <t>40 hospitals</t>
+  </si>
+  <si>
+    <t>350 medical doctors and nurses</t>
+  </si>
+  <si>
+    <t>35,000 patients visits every month</t>
+  </si>
+  <si>
+    <t>35,000 USD</t>
+  </si>
+  <si>
+    <t>200,000 USD</t>
+  </si>
+  <si>
+    <t>ICD11</t>
+  </si>
+  <si>
+    <t>https://www.xanahealth.io</t>
+  </si>
+  <si>
+    <t>HMIS - Rwanda</t>
+  </si>
+  <si>
+    <t>By complying to the Rwanda data protection and privacy law</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, CPOE/Order Management, Encounter Coding, Patient Billing, Patient Data Import/Export, X-Ray and Imaging, Patient care templates, ER - Triage and Dashboard, Encounter Data Import/Export, Surgical Management, Virtual care, Encounter Workflow Support, Prescription management</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, Decision Support, Electronic prescribing, EHR Integration, EBM Integration</t>
+  </si>
+  <si>
+    <t>Capture biological specimens, Transmit and track diagnostic orders, Send diagnostic results to providers, Inventory Management, EHR Integration</t>
+  </si>
+  <si>
+    <t>Integration with national health systems (DHIS2 or other)</t>
+  </si>
+  <si>
+    <t>Mubarak Ayanniyi</t>
+  </si>
+  <si>
+    <t>betalifehealthservice@gmail.com</t>
+  </si>
+  <si>
+    <t>BetaLife Health</t>
+  </si>
+  <si>
+    <t>BetaLife</t>
+  </si>
+  <si>
+    <t>I’m excited to introduce you to BetaLife Health, an innovative healthcare technology startup transforming the delivery of life-saving products across Africa, with a focus on blood, a resource that cannot be manufactured but is in constant demand. Every two seconds, someone requires blood to survive, making an efficient supply system crucial.
+At BetaLife, we leverage cutting-edge Artificial Intelligence (AI) as our core technology to revolutionize blood donation, storage, and distribution. Our AI-powered platform connects blood banks, hospitals, and donors in real time, ensuring that blood supply and demand are efficiently matched to save both time and lives.
+Our AI algorithms enable us to predict blood shortages, automate inventory management, and provide real-time insights into blood availability. We also ensure safe, timely deliveries through temperature-monitoring cold boxes, maintaining optimal conditions to minimize wastage during transportation.
+Our mission is to build a sustainable, tech-driven solution that not only saves lives but also fosters healthier communities across the continent.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1hIn-xMO8QPsFMKSGpewGCoaCSVtRa1Yd</t>
+  </si>
+  <si>
+    <t>Disease Surveillance, National and Community Health, Analytics and Data Aggregation, AI for Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+BetaLife Health is designed specifically to address critical health challenges across Africa, focusing on the shortage of safe and accessible blood supplies, which directly impacts maternal and child health, trauma cases, and surgeries. In many African countries, the lack of an efficient blood supply system leads to thousands of preventable deaths, particularly among women and children.
+Our AI-powered platform optimizes the entire blood donation, storage, and distribution process. By connecting blood banks, hospitals, and donors in real-time, BetaLife ensures that blood is always available where and when it is needed. The platform uses predictive AI algorithms to anticipate shortages, ensuring that stock levels are maintained across healthcare facilities, thereby preventing critical gaps in supply that can lead to life-threatening delays.
+Additionally, our system incorporates temperature monitoring cold boxes for safe transport, preventing blood spoilage and waste. This improves the overall efficiency of the blood supply chain and increases the chances of life-saving blood reaching patients in time.
+By addressing these pain points, BetaLife contributes to reducing maternal and child mortality, improving emergency response times, and supporting better health outcomes across African communities. The solution creates a sustainable impact on healthcare systems, ultimately saving lives and enhancing health security across the continent.</t>
+  </si>
+  <si>
+    <t>BetaLife Health addresses a critical market need in Africa’s healthcare ecosystem—safe, reliable, and timely access to blood. In Africa, particularly in regions like Nigeria, there is a significant deficit in blood supply. Nigeria alone requires 1.5 million pints of blood annually but faces a 73.3% shortfall, while Africa as a whole needs 50 million pints yearly. This shortage has devastating effects, leading to preventable deaths from childbirth complications, surgeries, accidents, and medical emergencies.
+BetaLife fills this gap by leveraging Artificial Intelligence (AI) to streamline the entire blood donation and distribution system. Through real-time data, the platform efficiently connects hospitals, blood banks, and donors, ensuring that blood is available when and where it's needed most. Our predictive algorithms forecast blood shortages and manage inventory to prevent stock-outs, thus improving hospital efficiency and response times.
+The impact of this solution has been profound. Partnered with the National Blood Service Commission (NBSC), BetaLife has successfully onboarded several hospitals and is improving access to safe blood across healthcare facilities. This has led to better health outcomes by reducing maternal and child mortality and improving emergency medical care.
+By addressing this critical need, BetaLife not only saves lives but also enhances the resilience and efficiency of healthcare systems across Africa.</t>
+  </si>
+  <si>
+    <t>NIGERIA</t>
+  </si>
+  <si>
+    <t>Contact tracing, Track and trace, Case reporting</t>
+  </si>
+  <si>
+    <t>Guided self help, Interactive services/chatbots, Blood demand Predictive algorithm and forecasting</t>
+  </si>
+  <si>
+    <t>https://betalifehealth.com</t>
+  </si>
+  <si>
+    <t>Innocent Menyo</t>
+  </si>
+  <si>
+    <t>imenyo25@gmail.com</t>
+  </si>
+  <si>
+    <t>Mobile Scan Solutions Uganda</t>
+  </si>
+  <si>
+    <t>M-SCAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We develop portable, affordable and power efficient ultrasound devices that work on laptops, tablets and mobile phones for use in low resource settings. </t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1HSOtBpsx691d3zuqveRQ3kiCtkDi4Ea7</t>
+  </si>
+  <si>
+    <t>innocentmenyo@mscanug.com</t>
+  </si>
+  <si>
+    <t>Laboratory and Diagnostics, Front-line (CHW) tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We have developed our devices to fit into remote areas that have limited power access. The devices are very power efficient, portable and 10x cheaper than traditional machines. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We address the urgent need of access to affordable, power efficient ultrasound devices in rural areas where many mothers go the course of pregnancy without a single ultrasound scan done, increasing the rate of undetected complications some of which end up fatal to both the mother and the fetus. </t>
+  </si>
+  <si>
+    <t>Kampala - Uganda</t>
+  </si>
+  <si>
+    <t>Uganda, Democratic Republic of the Congo, Kenya</t>
+  </si>
+  <si>
+    <t>Over 70 deployments</t>
+  </si>
+  <si>
+    <t>At-least 70</t>
+  </si>
+  <si>
+    <t>At-least US$5,000 in Monthly Recurring Revenue</t>
+  </si>
+  <si>
+    <t>US$100,000</t>
+  </si>
+  <si>
+    <t>US$400,000</t>
+  </si>
+  <si>
+    <t>SDK files need a hardware as well to make sense of the documentation. This is an embedded system.</t>
+  </si>
+  <si>
+    <t>We typically partner with district health office to deploy our devices</t>
+  </si>
+  <si>
+    <t>Not developed one yet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All patients have a unique patient ID and storage is through patient IDs. </t>
+  </si>
+  <si>
+    <t>Need a hardware to make sense of the software</t>
+  </si>
+  <si>
+    <t>https://mscanug.com/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3135,11 +3455,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="12">
-    <border/>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
@@ -3153,6 +3479,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3167,6 +3494,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3181,6 +3509,7 @@
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3195,6 +3524,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3209,6 +3539,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3223,6 +3554,7 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3237,6 +3569,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3251,6 +3584,7 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -3265,292 +3599,256 @@
       <bottom style="thin">
         <color rgb="FFF8F9FA"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </left>
       <right style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </right>
       <top style="thin">
-        <color rgb="FFFFFFFF"/>
+        <color rgb="FFF8F9FA"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF8F9FA"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF442F65"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF8F9FA"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF442F65"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="28">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
-    </xf>
-    <xf borderId="11" fillId="0" fontId="1" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF8F9FA"/>
+          <bgColor rgb="FFF8F9FA"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF5B3F86"/>
           <bgColor rgb="FF5B3F86"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF8F9FA"/>
-          <bgColor rgb="FFF8F9FA"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="Form Responses 1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="Form Responses 1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:BD36" displayName="Form_Responses1" name="Form_Responses1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BD41">
   <tableColumns count="56">
-    <tableColumn name="Timestamp" id="1"/>
-    <tableColumn name="Your name" id="2"/>
-    <tableColumn name="Your email address" id="3"/>
-    <tableColumn name="Organization Name" id="4"/>
-    <tableColumn name="Name of Digital Health Solution" id="5"/>
-    <tableColumn name="Description of Solution" id="6"/>
-    <tableColumn name="Please upload the solution or organization logo" id="7"/>
-    <tableColumn name="(Optional) Provide an email address that users of the Marketplace would be able to see in order to reach out for more information about your solution" id="8"/>
-    <tableColumn name="Solution Categories (may select multiple categories)" id="9"/>
-    <tableColumn name="This marketplace is focused on digital innovations that address African health use cases. Please provide detail on how this solution is designed to improve health outcomes in African health" id="10"/>
-    <tableColumn name="Please provide information about the market need that this solution fills, and what impact this health solution has made in the African health ecosystem" id="11"/>
-    <tableColumn name="Where is the headquarters of the organization developing/maintaining this solution? (Note: organizations headquartered outside of Africa may still be considered for inclusion)" id="12"/>
-    <tableColumn name="Has this solution been deployed in one or more African locations?" id="13"/>
-    <tableColumn name="If yes, please list African countries where the solution has been deployed" id="14"/>
-    <tableColumn name="Are the founders of the organization based in Africa? (Note that founders outside of Africa may still be considered for inclusion in the Marketplace)" id="15"/>
-    <tableColumn name="What percentage of the leadership team is based in Africa? (If the leadership team is based outside of Africa, the solution still may be listed in the Marketplace)" id="16"/>
-    <tableColumn name="What percentage of the software development work on this solution was done by African developers? (If the software development team is based outside of Africa, the solution still may be listed in the Marketplace)" id="17"/>
-    <tableColumn name="How would you categorize your solution?" id="18"/>
-    <tableColumn name="Is the solution currently live in production in one or more contexts?" id="19"/>
-    <tableColumn name="If yes, how many active production deployments? For a cloud services provider, how many unique customers?" id="20"/>
-    <tableColumn name="How many countries is the solution currently being used in (in a live production environment)" id="21"/>
-    <tableColumn name="How many daily active users of this solution?" id="22"/>
-    <tableColumn name="How many transactions per month are processed by the solution in all production environments?" id="23"/>
-    <tableColumn name="What is the current annual revenue of the organization building/maintaining the solution?" id="24"/>
-    <tableColumn name="How much external funding has been raised for development of the solution?" id="25"/>
-    <tableColumn name="Does this solution use FHIR or other applicable health standards (ICD10, etc)?" id="26"/>
-    <tableColumn name="If yes, please provide a link to relevant documentation showing use of these standards" id="27"/>
-    <tableColumn name="Does the solution have an API that other platforms can access?" id="28"/>
-    <tableColumn name="If yes, please provide link to API or API documentation" id="29"/>
-    <tableColumn name="Does the solution integrate with any national or regional health systems?" id="30"/>
-    <tableColumn name="If yes, please provide a link to documentation or information about these integrations" id="31"/>
-    <tableColumn name="Does the solution have a privacy policy?" id="32"/>
-    <tableColumn name="If yes, please provide a link to the privacy policy" id="33"/>
-    <tableColumn name="Please describe how the solution ensures the privacy and protection of Personal Health Information (PHI)" id="34"/>
-    <tableColumn name="Can the solution be deployed on cloud providers (AWS, Azure, GCP)? " id="35"/>
-    <tableColumn name="Does the solution use Docker, Kubernetes or similar technologies for deployment?" id="36"/>
-    <tableColumn name="Please describe mechanisms used for audit logging and error reporting" id="37"/>
-    <tableColumn name="Please describe the mechanisms used for authentication and authorization" id="38"/>
-    <tableColumn name="How many software developers are currently working on the solution?" id="39"/>
-    <tableColumn name="How many releases of the product in the past 12 months?" id="40"/>
-    <tableColumn name="Does the software provide offline support?" id="41"/>
-    <tableColumn name="If yes, please provide a link to documentation about offline support" id="42"/>
-    <tableColumn name="Does the solution offer multiple languages or ability to be translated?" id="43"/>
-    <tableColumn name="Does the solution offer customization of fields or forms for different users and use cases?" id="44"/>
-    <tableColumn name="Electronic Health Record_x000a_If the solution provides EHR/EMR capabilities, please select which features are offered" id="45"/>
-    <tableColumn name="Pharmacy_x000a_If the solution provides Pharmacy capabilities, please select which features are offered" id="46"/>
-    <tableColumn name="Laboratory and Diagnostics_x000a_If the solution provides Lab and Diagnostic capabilities, please select which features are offered" id="47"/>
-    <tableColumn name="Disease Surveillance_x000a_If the solution provides Disease Surveillance capabilities, please select which features are offered" id="48"/>
-    <tableColumn name="National and Community Health_x000a_If the solution provides capabilities related to National and Community Health, please select which features are offered" id="49"/>
-    <tableColumn name="Analytics and Data Aggregation_x000a_If the solution provides Analytics/Data Aggregation capabilities, please select which features are offered" id="50"/>
-    <tableColumn name="AI for Health_x000a_If the solution provides AI capabilities, please select which features are offered" id="51"/>
-    <tableColumn name="Virtual Health_x000a_If the solution provides Virtual Health capabilities, please select which features are offered" id="52"/>
-    <tableColumn name="Vaccination_x000a_If the solution provides capabilities related to Vaccination, please select which features are offered" id="53"/>
-    <tableColumn name="Please provide any comments or other features that your solution provides that are not listed above" id="54"/>
-    <tableColumn name="Solution website" id="55"/>
-    <tableColumn name="Front-line (CHW) tools_x000a_What functionalities does the solution provide for Community Health Workers" id="56"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Your name"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Your email address"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Organization Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Name of Digital Health Solution"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description of Solution"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Please upload the solution or organization logo"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="(Optional) Provide an email address that users of the Marketplace would be able to see in order to reach out for more information about your solution"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Solution Categories (may select multiple categories)"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="This marketplace is focused on digital innovations that address African health use cases. Please provide detail on how this solution is designed to improve health outcomes in African health"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Please provide information about the market need that this solution fills, and what impact this health solution has made in the African health ecosystem"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Where is the headquarters of the organization developing/maintaining this solution? (Note: organizations headquartered outside of Africa may still be considered for inclusion)"/>
+    <tableColumn id="13" xr3:uid="{00000000-0010-0000-0000-00000D000000}" name="Has this solution been deployed in one or more African locations?"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="If yes, please list African countries where the solution has been deployed"/>
+    <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="Are the founders of the organization based in Africa? (Note that founders outside of Africa may still be considered for inclusion in the Marketplace)"/>
+    <tableColumn id="16" xr3:uid="{00000000-0010-0000-0000-000010000000}" name="What percentage of the leadership team is based in Africa? (If the leadership team is based outside of Africa, the solution still may be listed in the Marketplace)"/>
+    <tableColumn id="17" xr3:uid="{00000000-0010-0000-0000-000011000000}" name="What percentage of the software development work on this solution was done by African developers? (If the software development team is based outside of Africa, the solution still may be listed in the Marketplace)"/>
+    <tableColumn id="18" xr3:uid="{00000000-0010-0000-0000-000012000000}" name="How would you categorize your solution?"/>
+    <tableColumn id="19" xr3:uid="{00000000-0010-0000-0000-000013000000}" name="Is the solution currently live in production in one or more contexts?"/>
+    <tableColumn id="20" xr3:uid="{00000000-0010-0000-0000-000014000000}" name="If yes, how many active production deployments? For a cloud services provider, how many unique customers?"/>
+    <tableColumn id="21" xr3:uid="{00000000-0010-0000-0000-000015000000}" name="How many countries is the solution currently being used in (in a live production environment)"/>
+    <tableColumn id="22" xr3:uid="{00000000-0010-0000-0000-000016000000}" name="How many daily active users of this solution?"/>
+    <tableColumn id="23" xr3:uid="{00000000-0010-0000-0000-000017000000}" name="How many transactions per month are processed by the solution in all production environments?"/>
+    <tableColumn id="24" xr3:uid="{00000000-0010-0000-0000-000018000000}" name="What is the current annual revenue of the organization building/maintaining the solution?"/>
+    <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="How much external funding has been raised for development of the solution?"/>
+    <tableColumn id="26" xr3:uid="{00000000-0010-0000-0000-00001A000000}" name="Does this solution use FHIR or other applicable health standards (ICD10, etc)?"/>
+    <tableColumn id="27" xr3:uid="{00000000-0010-0000-0000-00001B000000}" name="If yes, please provide a link to relevant documentation showing use of these standards"/>
+    <tableColumn id="28" xr3:uid="{00000000-0010-0000-0000-00001C000000}" name="Does the solution have an API that other platforms can access?"/>
+    <tableColumn id="29" xr3:uid="{00000000-0010-0000-0000-00001D000000}" name="If yes, please provide link to API or API documentation"/>
+    <tableColumn id="30" xr3:uid="{00000000-0010-0000-0000-00001E000000}" name="Does the solution integrate with any national or regional health systems?"/>
+    <tableColumn id="31" xr3:uid="{00000000-0010-0000-0000-00001F000000}" name="If yes, please provide a link to documentation or information about these integrations"/>
+    <tableColumn id="32" xr3:uid="{00000000-0010-0000-0000-000020000000}" name="Does the solution have a privacy policy?"/>
+    <tableColumn id="33" xr3:uid="{00000000-0010-0000-0000-000021000000}" name="If yes, please provide a link to the privacy policy"/>
+    <tableColumn id="34" xr3:uid="{00000000-0010-0000-0000-000022000000}" name="Please describe how the solution ensures the privacy and protection of Personal Health Information (PHI)"/>
+    <tableColumn id="35" xr3:uid="{00000000-0010-0000-0000-000023000000}" name="Can the solution be deployed on cloud providers (AWS, Azure, GCP)? "/>
+    <tableColumn id="36" xr3:uid="{00000000-0010-0000-0000-000024000000}" name="Does the solution use Docker, Kubernetes or similar technologies for deployment?"/>
+    <tableColumn id="37" xr3:uid="{00000000-0010-0000-0000-000025000000}" name="Please describe mechanisms used for audit logging and error reporting"/>
+    <tableColumn id="38" xr3:uid="{00000000-0010-0000-0000-000026000000}" name="Please describe the mechanisms used for authentication and authorization"/>
+    <tableColumn id="39" xr3:uid="{00000000-0010-0000-0000-000027000000}" name="How many software developers are currently working on the solution?"/>
+    <tableColumn id="40" xr3:uid="{00000000-0010-0000-0000-000028000000}" name="How many releases of the product in the past 12 months?"/>
+    <tableColumn id="41" xr3:uid="{00000000-0010-0000-0000-000029000000}" name="Does the software provide offline support?"/>
+    <tableColumn id="42" xr3:uid="{00000000-0010-0000-0000-00002A000000}" name="If yes, please provide a link to documentation about offline support"/>
+    <tableColumn id="43" xr3:uid="{00000000-0010-0000-0000-00002B000000}" name="Does the solution offer multiple languages or ability to be translated?"/>
+    <tableColumn id="44" xr3:uid="{00000000-0010-0000-0000-00002C000000}" name="Does the solution offer customization of fields or forms for different users and use cases?"/>
+    <tableColumn id="45" xr3:uid="{00000000-0010-0000-0000-00002D000000}" name="Electronic Health Record_x000a_If the solution provides EHR/EMR capabilities, please select which features are offered"/>
+    <tableColumn id="46" xr3:uid="{00000000-0010-0000-0000-00002E000000}" name="Pharmacy_x000a_If the solution provides Pharmacy capabilities, please select which features are offered"/>
+    <tableColumn id="47" xr3:uid="{00000000-0010-0000-0000-00002F000000}" name="Laboratory and Diagnostics_x000a_If the solution provides Lab and Diagnostic capabilities, please select which features are offered"/>
+    <tableColumn id="48" xr3:uid="{00000000-0010-0000-0000-000030000000}" name="Disease Surveillance_x000a_If the solution provides Disease Surveillance capabilities, please select which features are offered"/>
+    <tableColumn id="49" xr3:uid="{00000000-0010-0000-0000-000031000000}" name="National and Community Health_x000a_If the solution provides capabilities related to National and Community Health, please select which features are offered"/>
+    <tableColumn id="50" xr3:uid="{00000000-0010-0000-0000-000032000000}" name="Analytics and Data Aggregation_x000a_If the solution provides Analytics/Data Aggregation capabilities, please select which features are offered"/>
+    <tableColumn id="51" xr3:uid="{00000000-0010-0000-0000-000033000000}" name="AI for Health_x000a_If the solution provides AI capabilities, please select which features are offered"/>
+    <tableColumn id="52" xr3:uid="{00000000-0010-0000-0000-000034000000}" name="Virtual Health_x000a_If the solution provides Virtual Health capabilities, please select which features are offered"/>
+    <tableColumn id="53" xr3:uid="{00000000-0010-0000-0000-000035000000}" name="Vaccination_x000a_If the solution provides capabilities related to Vaccination, please select which features are offered"/>
+    <tableColumn id="54" xr3:uid="{00000000-0010-0000-0000-000036000000}" name="Please provide any comments or other features that your solution provides that are not listed above"/>
+    <tableColumn id="55" xr3:uid="{00000000-0010-0000-0000-000037000000}" name="Solution website"/>
+    <tableColumn id="56" xr3:uid="{00000000-0010-0000-0000-000038000000}" name="Front-line (CHW) tools_x000a_What functionalities does the solution provide for Community Health Workers"/>
   </tableColumns>
-  <tableStyleInfo name="Form Responses 1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="Form Responses 1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -3740,38 +4038,41 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BD41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1.0" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B3" sqref="B3" pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="18.88"/>
-    <col customWidth="1" min="3" max="3" width="19.25"/>
-    <col customWidth="1" min="4" max="4" width="19.38"/>
-    <col customWidth="1" min="5" max="5" width="28.13"/>
-    <col customWidth="1" min="6" max="6" width="21.88"/>
-    <col customWidth="1" min="7" max="17" width="37.63"/>
-    <col customWidth="1" min="18" max="18" width="35.0"/>
-    <col customWidth="1" min="19" max="31" width="37.63"/>
-    <col customWidth="1" min="32" max="32" width="34.13"/>
-    <col customWidth="1" min="33" max="40" width="37.63"/>
-    <col customWidth="1" min="41" max="41" width="36.13"/>
-    <col customWidth="1" min="42" max="54" width="37.63"/>
-    <col customWidth="1" min="55" max="62" width="18.88"/>
+    <col min="1" max="2" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="17" width="37.6640625" customWidth="1"/>
+    <col min="18" max="18" width="35" customWidth="1"/>
+    <col min="19" max="31" width="37.6640625" customWidth="1"/>
+    <col min="32" max="32" width="34.1640625" customWidth="1"/>
+    <col min="33" max="40" width="37.6640625" customWidth="1"/>
+    <col min="41" max="41" width="36.1640625" customWidth="1"/>
+    <col min="42" max="54" width="37.6640625" customWidth="1"/>
+    <col min="55" max="62" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3934,5099 +4235,5740 @@
       <c r="BB1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="3" t="s">
+      <c r="BC1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="4" t="s">
+      <c r="BD1" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="5">
-        <v>45548.1980730787</v>
-      </c>
-      <c r="B2" s="6" t="s">
+    <row r="2" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4">
+        <v>45548.198073078704</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6" t="s">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="M2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2" s="6" t="s">
+      <c r="M2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="O2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P2" s="9">
+      <c r="O2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P2" s="7">
         <v>0.66</v>
       </c>
-      <c r="Q2" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="7">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T2" s="6">
-        <v>4.0</v>
-      </c>
-      <c r="U2" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="V2" s="6">
-        <v>70.0</v>
-      </c>
-      <c r="W2" s="6" t="s">
+      <c r="S2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T2" s="5">
+        <v>4</v>
+      </c>
+      <c r="U2" s="5">
+        <v>3</v>
+      </c>
+      <c r="V2" s="5">
+        <v>70</v>
+      </c>
+      <c r="W2" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="X2" s="10">
-        <v>150000.0</v>
-      </c>
-      <c r="Y2" s="10">
-        <v>250000.0</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA2" s="8"/>
-      <c r="AB2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC2" s="8"/>
-      <c r="AD2" s="8"/>
-      <c r="AE2" s="8"/>
-      <c r="AF2" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="8"/>
-      <c r="AH2" s="8"/>
-      <c r="AI2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK2" s="8"/>
-      <c r="AL2" s="8"/>
-      <c r="AM2" s="6" t="s">
+      <c r="X2" s="8">
+        <v>150000</v>
+      </c>
+      <c r="Y2" s="8">
+        <v>250000</v>
+      </c>
+      <c r="Z2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="5"/>
+      <c r="AM2" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN2" s="6" t="s">
+      <c r="AN2" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO2" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP2" s="8"/>
-      <c r="AQ2" s="8"/>
-      <c r="AR2" s="8"/>
-      <c r="AS2" s="6" t="s">
+      <c r="AO2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="AT2" s="6" t="s">
+      <c r="AT2" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AU2" s="6" t="s">
+      <c r="AU2" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="AV2" s="6" t="s">
+      <c r="AV2" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="AW2" s="6" t="s">
+      <c r="AW2" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="AX2" s="6" t="s">
+      <c r="AX2" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="AY2" s="6" t="s">
+      <c r="AY2" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AZ2" s="6" t="s">
+      <c r="AZ2" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="BA2" s="6" t="s">
+      <c r="BA2" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="BB2" s="6" t="s">
+      <c r="BB2" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="BC2" s="7" t="s">
+      <c r="BC2" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="BD2" s="11"/>
+      <c r="BD2" s="9"/>
     </row>
-    <row r="3">
-      <c r="A3" s="12">
-        <v>45548.41711325232</v>
-      </c>
-      <c r="B3" s="13" t="s">
+    <row r="3" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="10">
+        <v>45548.417113252319</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="H3" s="15"/>
-      <c r="I3" s="13" t="s">
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P3" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="Q3" s="16">
+      <c r="M3" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P3" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="13">
         <v>0.8</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="S3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T3" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="U3" s="13">
-        <v>3.0</v>
-      </c>
-      <c r="V3" s="13">
-        <v>10.0</v>
-      </c>
-      <c r="W3" s="13">
-        <v>150.0</v>
-      </c>
-      <c r="X3" s="17">
-        <v>28800.0</v>
-      </c>
-      <c r="Y3" s="17">
-        <v>200000.0</v>
-      </c>
-      <c r="Z3" s="15"/>
-      <c r="AA3" s="15"/>
-      <c r="AB3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC3" s="14" t="s">
+      <c r="S3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T3" s="11">
+        <v>3</v>
+      </c>
+      <c r="U3" s="11">
+        <v>3</v>
+      </c>
+      <c r="V3" s="11">
+        <v>10</v>
+      </c>
+      <c r="W3" s="11">
+        <v>150</v>
+      </c>
+      <c r="X3" s="14">
+        <v>28800</v>
+      </c>
+      <c r="Y3" s="14">
+        <v>200000</v>
+      </c>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+      <c r="AB3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC3" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="AD3" s="15"/>
-      <c r="AE3" s="15"/>
-      <c r="AF3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG3" s="15"/>
-      <c r="AH3" s="13" t="s">
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11"/>
+      <c r="AF3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11" t="s">
         <v>96</v>
       </c>
-      <c r="AI3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK3" s="13" t="s">
+      <c r="AI3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK3" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="AL3" s="15"/>
-      <c r="AM3" s="13" t="s">
+      <c r="AL3" s="11"/>
+      <c r="AM3" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN3" s="13" t="s">
+      <c r="AN3" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AO3" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP3" s="15"/>
-      <c r="AQ3" s="15"/>
-      <c r="AR3" s="15"/>
-      <c r="AS3" s="13" t="s">
+      <c r="AO3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP3" s="11"/>
+      <c r="AQ3" s="11"/>
+      <c r="AR3" s="11"/>
+      <c r="AS3" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="AT3" s="15"/>
-      <c r="AU3" s="13" t="s">
+      <c r="AT3" s="11"/>
+      <c r="AU3" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AV3" s="15"/>
-      <c r="AW3" s="15"/>
-      <c r="AX3" s="15"/>
-      <c r="AY3" s="15"/>
-      <c r="AZ3" s="13" t="s">
+      <c r="AV3" s="11"/>
+      <c r="AW3" s="11"/>
+      <c r="AX3" s="11"/>
+      <c r="AY3" s="11"/>
+      <c r="AZ3" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BA3" s="15"/>
-      <c r="BB3" s="15"/>
-      <c r="BC3" s="15"/>
-      <c r="BD3" s="18"/>
+      <c r="BA3" s="11"/>
+      <c r="BB3" s="11"/>
+      <c r="BC3" s="11"/>
+      <c r="BD3" s="15"/>
     </row>
-    <row r="4">
-      <c r="A4" s="5">
-        <v>45548.56660546296</v>
-      </c>
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4">
+        <v>45548.566605462962</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="6" t="s">
+      <c r="M4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P4" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="S4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="T4" s="6" t="s">
+      <c r="S4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="U4" s="6" t="s">
+      <c r="U4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="W4" s="6" t="s">
+      <c r="W4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="X4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Y4" s="6" t="s">
+      <c r="Y4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="Z4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA4" s="6" t="s">
+      <c r="Z4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AB4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC4" s="6" t="s">
+      <c r="AB4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC4" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG4" s="6" t="s">
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG4" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="AH4" s="6" t="s">
+      <c r="AH4" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="AI4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK4" s="6" t="s">
+      <c r="AI4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AL4" s="6" t="s">
+      <c r="AL4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AM4" s="6" t="s">
+      <c r="AM4" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN4" s="6" t="s">
+      <c r="AN4" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO4" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP4" s="6" t="s">
+      <c r="AO4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP4" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="6" t="s">
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
+      <c r="AS4" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="6" t="s">
+      <c r="AT4" s="5"/>
+      <c r="AU4" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="AV4" s="6" t="s">
+      <c r="AV4" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AW4" s="6" t="s">
+      <c r="AW4" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AX4" s="6" t="s">
+      <c r="AX4" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AY4" s="6" t="s">
+      <c r="AY4" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="AZ4" s="6" t="s">
+      <c r="AZ4" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="6" t="s">
+      <c r="BA4" s="5"/>
+      <c r="BB4" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="BC4" s="20"/>
-      <c r="BD4" s="11"/>
+      <c r="BC4" s="5"/>
+      <c r="BD4" s="9"/>
     </row>
-    <row r="5">
-      <c r="A5" s="12">
-        <v>45548.72340398148</v>
-      </c>
-      <c r="B5" s="13" t="s">
+    <row r="5" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="10">
+        <v>45548.723403981479</v>
+      </c>
+      <c r="B5" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="13" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
         <v>134</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="K5" s="13" t="s">
+      <c r="K5" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="L5" s="13" t="s">
+      <c r="L5" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="M5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P5" s="13">
-        <v>100.0</v>
-      </c>
-      <c r="Q5" s="13">
-        <v>100.0</v>
-      </c>
-      <c r="R5" s="13" t="s">
+      <c r="M5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P5" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>100</v>
+      </c>
+      <c r="R5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="S5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="T5" s="15"/>
-      <c r="U5" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="V5" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="W5" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="X5" s="13">
-        <v>0.0</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>10000.0</v>
-      </c>
-      <c r="Z5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA5" s="15"/>
-      <c r="AB5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC5" s="13" t="s">
+      <c r="S5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11">
+        <v>0</v>
+      </c>
+      <c r="V5" s="11">
+        <v>0</v>
+      </c>
+      <c r="W5" s="11">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="11">
+        <v>10000</v>
+      </c>
+      <c r="Z5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA5" s="11"/>
+      <c r="AB5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC5" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG5" s="15"/>
-      <c r="AH5" s="13" t="s">
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="11"/>
+      <c r="AF5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG5" s="11"/>
+      <c r="AH5" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="AI5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK5" s="13" t="s">
+      <c r="AI5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK5" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="AL5" s="13" t="s">
+      <c r="AL5" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="AM5" s="13" t="s">
+      <c r="AM5" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN5" s="13" t="s">
+      <c r="AN5" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AO5" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP5" s="13" t="s">
+      <c r="AO5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP5" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="AQ5" s="15"/>
-      <c r="AR5" s="15"/>
-      <c r="AS5" s="15"/>
-      <c r="AT5" s="15"/>
-      <c r="AU5" s="13" t="s">
+      <c r="AQ5" s="11"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="11"/>
+      <c r="AT5" s="11"/>
+      <c r="AU5" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AV5" s="15"/>
-      <c r="AW5" s="15"/>
-      <c r="AX5" s="15"/>
-      <c r="AY5" s="13" t="s">
+      <c r="AV5" s="11"/>
+      <c r="AW5" s="11"/>
+      <c r="AX5" s="11"/>
+      <c r="AY5" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="AZ5" s="15"/>
-      <c r="BA5" s="15"/>
-      <c r="BB5" s="13" t="s">
+      <c r="AZ5" s="11"/>
+      <c r="BA5" s="11"/>
+      <c r="BB5" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="BC5" s="21"/>
-      <c r="BD5" s="22"/>
+      <c r="BC5" s="11"/>
+      <c r="BD5" s="15"/>
     </row>
-    <row r="6">
-      <c r="A6" s="5">
-        <v>45549.09881271991</v>
-      </c>
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4">
+        <v>45549.098812719909</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="G6" s="19" t="s">
+      <c r="G6" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="K6" s="8"/>
-      <c r="L6" s="6" t="s">
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="N6" s="8"/>
-      <c r="O6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="Q6" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="7">
+        <v>1</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T6" s="6">
-        <v>4000.0</v>
-      </c>
-      <c r="U6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="V6" s="6">
-        <v>400.0</v>
-      </c>
-      <c r="W6" s="6">
-        <v>0.0</v>
-      </c>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="10">
-        <v>35000.0</v>
-      </c>
-      <c r="Z6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA6" s="8"/>
-      <c r="AB6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC6" s="19" t="s">
+      <c r="S6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T6" s="5">
+        <v>4000</v>
+      </c>
+      <c r="U6" s="5">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5">
+        <v>400</v>
+      </c>
+      <c r="W6" s="5">
+        <v>0</v>
+      </c>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="8">
+        <v>35000</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC6" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8"/>
-      <c r="AF6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG6" s="19" t="s">
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG6" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="AH6" s="6" t="s">
+      <c r="AH6" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="AI6" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK6" s="6" t="s">
+      <c r="AI6" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK6" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="AL6" s="6" t="s">
+      <c r="AL6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="AM6" s="6" t="s">
+      <c r="AM6" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN6" s="6" t="s">
+      <c r="AN6" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AO6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="8"/>
-      <c r="AW6" s="8"/>
-      <c r="AX6" s="8"/>
-      <c r="AY6" s="6" t="s">
+      <c r="AO6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
+      <c r="AS6" s="5"/>
+      <c r="AT6" s="5"/>
+      <c r="AU6" s="5"/>
+      <c r="AV6" s="5"/>
+      <c r="AW6" s="5"/>
+      <c r="AX6" s="5"/>
+      <c r="AY6" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AZ6" s="8"/>
-      <c r="BA6" s="8"/>
-      <c r="BB6" s="8"/>
-      <c r="BC6" s="7" t="s">
+      <c r="AZ6" s="5"/>
+      <c r="BA6" s="5"/>
+      <c r="BB6" s="5"/>
+      <c r="BC6" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="BD6" s="23"/>
+      <c r="BD6" s="9"/>
     </row>
-    <row r="7">
-      <c r="A7" s="12">
-        <v>45549.18534884259</v>
-      </c>
-      <c r="B7" s="13" t="s">
+    <row r="7" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="10">
+        <v>45549.185348842591</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>163</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="D7" s="13" t="s">
+      <c r="D7" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="11" t="s">
         <v>167</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="13" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="J7" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="K7" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="L7" s="13" t="s">
+      <c r="L7" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="M7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="13" t="s">
+      <c r="M7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="O7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P7" s="16">
+      <c r="O7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="13">
         <v>0.67</v>
       </c>
-      <c r="Q7" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="R7" s="13" t="s">
+      <c r="Q7" s="13">
+        <v>1</v>
+      </c>
+      <c r="R7" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="S7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T7" s="13" t="s">
+      <c r="S7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="U7" s="13">
-        <v>1.0</v>
-      </c>
-      <c r="V7" s="13" t="s">
+      <c r="U7" s="11">
+        <v>1</v>
+      </c>
+      <c r="V7" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="W7" s="13" t="s">
+      <c r="W7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="X7" s="13" t="s">
+      <c r="X7" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="Y7" s="17">
-        <v>77000.0</v>
-      </c>
-      <c r="Z7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA7" s="14" t="s">
+      <c r="Y7" s="14">
+        <v>77000</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA7" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="AB7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC7" s="15"/>
-      <c r="AD7" s="15"/>
-      <c r="AE7" s="15"/>
-      <c r="AF7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG7" s="14" t="s">
+      <c r="AB7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC7" s="11"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="11"/>
+      <c r="AF7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG7" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="AH7" s="13" t="s">
+      <c r="AH7" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="AI7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ7" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK7" s="13" t="s">
+      <c r="AI7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK7" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="AL7" s="13" t="s">
+      <c r="AL7" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="AM7" s="13" t="s">
+      <c r="AM7" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN7" s="13" t="s">
+      <c r="AN7" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="AO7" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP7" s="15"/>
-      <c r="AQ7" s="15"/>
-      <c r="AR7" s="15"/>
-      <c r="AS7" s="13" t="s">
+      <c r="AO7" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="11"/>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="11" t="s">
         <v>181</v>
       </c>
-      <c r="AT7" s="15"/>
-      <c r="AU7" s="13" t="s">
+      <c r="AT7" s="11"/>
+      <c r="AU7" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="AV7" s="15"/>
-      <c r="AW7" s="15"/>
-      <c r="AX7" s="13" t="s">
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AY7" s="13" t="s">
+      <c r="AY7" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="AZ7" s="15"/>
-      <c r="BA7" s="15"/>
-      <c r="BB7" s="15"/>
-      <c r="BC7" s="15"/>
-      <c r="BD7" s="18"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="11"/>
+      <c r="BB7" s="11"/>
+      <c r="BC7" s="11"/>
+      <c r="BD7" s="15"/>
     </row>
-    <row r="8">
-      <c r="A8" s="5">
-        <v>45550.20285260417</v>
-      </c>
-      <c r="B8" s="6" t="s">
+    <row r="8" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4">
+        <v>45550.202852604169</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="19" t="s">
+      <c r="G8" s="16" t="s">
         <v>188</v>
       </c>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="J8" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="K8" s="8"/>
-      <c r="L8" s="6" t="s">
+      <c r="K8" s="5"/>
+      <c r="L8" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="O8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="P8" s="9">
+      <c r="O8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P8" s="7">
         <v>0.5</v>
       </c>
-      <c r="Q8" s="9">
+      <c r="Q8" s="7">
         <v>0.33</v>
       </c>
-      <c r="R8" s="6" t="s">
+      <c r="R8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="6" t="s">
+      <c r="S8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="U8" s="6" t="s">
+      <c r="U8" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="V8" s="6">
-        <v>18.0</v>
-      </c>
-      <c r="W8" s="6">
-        <v>4000.0</v>
-      </c>
-      <c r="X8" s="10">
-        <v>40000.0</v>
-      </c>
-      <c r="Y8" s="6" t="s">
+      <c r="V8" s="5">
+        <v>18</v>
+      </c>
+      <c r="W8" s="5">
+        <v>4000</v>
+      </c>
+      <c r="X8" s="8">
+        <v>40000</v>
+      </c>
+      <c r="Y8" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="Z8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA8" s="8"/>
-      <c r="AB8" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC8" s="8"/>
-      <c r="AD8" s="8"/>
-      <c r="AE8" s="8"/>
-      <c r="AF8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG8" s="19" t="s">
+      <c r="Z8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG8" s="16" t="s">
         <v>195</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AH8" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="AI8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK8" s="6" t="s">
+      <c r="AI8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK8" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AL8" s="6" t="s">
+      <c r="AL8" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="AM8" s="6" t="s">
+      <c r="AM8" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN8" s="6" t="s">
+      <c r="AN8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP8" s="6" t="s">
+      <c r="AO8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP8" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="AQ8" s="8"/>
-      <c r="AR8" s="8"/>
-      <c r="AS8" s="8"/>
-      <c r="AT8" s="8"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="6" t="s">
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
+      <c r="AS8" s="5"/>
+      <c r="AT8" s="5"/>
+      <c r="AU8" s="5"/>
+      <c r="AV8" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="AW8" s="8"/>
-      <c r="AX8" s="6" t="s">
+      <c r="AW8" s="5"/>
+      <c r="AX8" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AY8" s="6" t="s">
+      <c r="AY8" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AZ8" s="8"/>
-      <c r="BA8" s="8"/>
-      <c r="BB8" s="8"/>
-      <c r="BC8" s="7" t="s">
+      <c r="AZ8" s="5"/>
+      <c r="BA8" s="5"/>
+      <c r="BB8" s="5"/>
+      <c r="BC8" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="BD8" s="23"/>
+      <c r="BD8" s="9"/>
     </row>
-    <row r="9">
-      <c r="A9" s="12">
+    <row r="9" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>45550.367459953704</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="11" t="s">
         <v>204</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="13" t="s">
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="J9" s="13" t="s">
+      <c r="J9" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="K9" s="13" t="s">
+      <c r="K9" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="N9" s="13" t="s">
+      <c r="M9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N9" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="O9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="P9" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="R9" s="13" t="s">
+      <c r="O9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P9" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>1</v>
+      </c>
+      <c r="R9" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="T9" s="13" t="s">
+      <c r="S9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T9" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="U9" s="13">
-        <v>9.0</v>
-      </c>
-      <c r="V9" s="13" t="s">
+      <c r="U9" s="11">
+        <v>9</v>
+      </c>
+      <c r="V9" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="W9" s="13" t="s">
+      <c r="W9" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="X9" s="13" t="s">
+      <c r="X9" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="Y9" s="17">
-        <v>3000000.0</v>
-      </c>
-      <c r="Z9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA9" s="14" t="s">
+      <c r="Y9" s="14">
+        <v>3000000</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA9" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="AB9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC9" s="14" t="s">
+      <c r="AB9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC9" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="AD9" s="15"/>
-      <c r="AE9" s="15"/>
-      <c r="AF9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG9" s="14" t="s">
+      <c r="AD9" s="11"/>
+      <c r="AE9" s="11"/>
+      <c r="AF9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG9" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="AH9" s="13" t="s">
+      <c r="AH9" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="AI9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK9" s="13" t="s">
+      <c r="AI9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK9" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="AL9" s="13" t="s">
+      <c r="AL9" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="AM9" s="13" t="s">
+      <c r="AM9" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN9" s="13" t="s">
+      <c r="AN9" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO9" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP9" s="13" t="s">
+      <c r="AO9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP9" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="AQ9" s="15"/>
-      <c r="AR9" s="15"/>
-      <c r="AS9" s="15"/>
-      <c r="AT9" s="15"/>
-      <c r="AU9" s="13" t="s">
+      <c r="AQ9" s="11"/>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="11"/>
+      <c r="AT9" s="11"/>
+      <c r="AU9" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="AV9" s="13" t="s">
+      <c r="AV9" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="AW9" s="13" t="s">
+      <c r="AW9" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AX9" s="13" t="s">
+      <c r="AX9" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="AY9" s="13" t="s">
+      <c r="AY9" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="AZ9" s="13" t="s">
+      <c r="AZ9" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="BA9" s="15"/>
-      <c r="BB9" s="15"/>
-      <c r="BC9" s="24" t="s">
+      <c r="BA9" s="11"/>
+      <c r="BB9" s="11"/>
+      <c r="BC9" s="17" t="s">
         <v>231</v>
       </c>
-      <c r="BD9" s="18"/>
+      <c r="BD9" s="15"/>
     </row>
-    <row r="10">
-      <c r="A10" s="5">
-        <v>45551.29596322917</v>
-      </c>
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4">
+        <v>45551.295963229168</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="G10" s="19" t="s">
+      <c r="G10" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="J10" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="K10" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="L10" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="M10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N10" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="O10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="P10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="Q10" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="R10" s="6" t="s">
+      <c r="O10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P10" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>1</v>
+      </c>
+      <c r="R10" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="T10" s="6" t="s">
+      <c r="S10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T10" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="U10" s="6">
-        <v>5.0</v>
-      </c>
-      <c r="V10" s="6" t="s">
+      <c r="U10" s="5">
+        <v>5</v>
+      </c>
+      <c r="V10" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="W10" s="6" t="s">
+      <c r="W10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="X10" s="6" t="s">
+      <c r="X10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="Y10" s="6" t="s">
+      <c r="Y10" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="Z10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="6" t="s">
+      <c r="Z10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="AB10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC10" s="8"/>
-      <c r="AD10" s="8"/>
-      <c r="AE10" s="8"/>
-      <c r="AF10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG10" s="19" t="s">
+      <c r="AB10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG10" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="19" t="s">
+      <c r="AH10" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="AI10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK10" s="6" t="s">
+      <c r="AI10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="AL10" s="6" t="s">
+      <c r="AL10" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="AM10" s="6" t="s">
+      <c r="AM10" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN10" s="6" t="s">
+      <c r="AN10" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO10" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP10" s="19" t="s">
+      <c r="AO10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP10" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="AQ10" s="8"/>
-      <c r="AR10" s="8"/>
-      <c r="AS10" s="6" t="s">
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
+      <c r="AS10" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="AT10" s="8"/>
-      <c r="AU10" s="8"/>
-      <c r="AV10" s="6" t="s">
+      <c r="AT10" s="5"/>
+      <c r="AU10" s="5"/>
+      <c r="AV10" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="AW10" s="6" t="s">
+      <c r="AW10" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="AX10" s="6" t="s">
+      <c r="AX10" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="AY10" s="8"/>
-      <c r="AZ10" s="6" t="s">
+      <c r="AY10" s="5"/>
+      <c r="AZ10" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="BA10" s="8"/>
-      <c r="BB10" s="8"/>
-      <c r="BC10" s="7" t="s">
+      <c r="BA10" s="5"/>
+      <c r="BB10" s="5"/>
+      <c r="BC10" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="BD10" s="23"/>
+      <c r="BD10" s="9"/>
     </row>
-    <row r="11">
-      <c r="A11" s="25">
-        <v>45562.11182585648</v>
-      </c>
-      <c r="B11" s="26" t="s">
+    <row r="11" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="10">
+        <v>45562.111825856482</v>
+      </c>
+      <c r="B11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="26" t="s">
+      <c r="F11" s="11" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="27" t="s">
+      <c r="G11" s="18" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="26" t="s">
+      <c r="H11" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="I11" s="26" t="s">
+      <c r="I11" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="26" t="s">
+      <c r="J11" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="L11" s="26" t="s">
+      <c r="L11" s="11" t="s">
         <v>268</v>
       </c>
-      <c r="M11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="26" t="s">
+      <c r="M11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="O11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P11" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q11" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="R11" s="26" t="s">
+      <c r="O11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P11" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>1</v>
+      </c>
+      <c r="R11" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T11" s="26">
-        <v>200.0</v>
-      </c>
-      <c r="U11" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V11" s="26">
-        <v>42.0</v>
-      </c>
-      <c r="W11" s="26">
-        <v>501.0</v>
-      </c>
-      <c r="X11" s="29">
-        <v>1000.0</v>
-      </c>
-      <c r="Y11" s="29">
-        <v>0.0</v>
-      </c>
-      <c r="Z11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD11" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AI11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM11" s="26" t="s">
+      <c r="S11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T11" s="11">
+        <v>200</v>
+      </c>
+      <c r="U11" s="11">
+        <v>1</v>
+      </c>
+      <c r="V11" s="11">
+        <v>42</v>
+      </c>
+      <c r="W11" s="11">
+        <v>501</v>
+      </c>
+      <c r="X11" s="14">
+        <v>1000</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD11" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM11" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN11" s="26" t="s">
+      <c r="AN11" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR11" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS11" s="26" t="s">
+      <c r="AO11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS11" s="11" t="s">
         <v>270</v>
       </c>
-      <c r="AT11" s="26" t="s">
+      <c r="AT11" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="AW11" s="26" t="s">
+      <c r="AW11" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="AZ11" s="26" t="s">
+      <c r="AZ11" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="BC11" s="27" t="s">
+      <c r="BC11" s="18" t="s">
         <v>272</v>
       </c>
-      <c r="BD11" s="30" t="s">
+      <c r="BD11" s="15" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="31">
+    <row r="12" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4">
         <v>45562.17261587963</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="F12" s="32" t="s">
+      <c r="F12" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="19" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="32" t="s">
+      <c r="H12" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K12" s="32" t="s">
+      <c r="K12" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="L12" s="32" t="s">
+      <c r="L12" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="M12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="O12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P12" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q12" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R12" s="32" t="s">
+      <c r="M12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="7">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="U12" s="32" t="s">
+      <c r="S12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U12" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="W12" s="32" t="s">
+      <c r="W12" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="X12" s="32" t="s">
+      <c r="X12" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="Y12" s="35">
-        <v>1000.0</v>
-      </c>
-      <c r="Z12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM12" s="32" t="s">
+      <c r="Y12" s="8">
+        <v>1000</v>
+      </c>
+      <c r="Z12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM12" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN12" s="32" t="s">
+      <c r="AN12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO12" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR12" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS12" s="32" t="s">
+      <c r="AO12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS12" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="AW12" s="32" t="s">
+      <c r="AW12" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="AX12" s="32" t="s">
+      <c r="AX12" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AY12" s="32" t="s">
+      <c r="AY12" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="AZ12" s="32" t="s">
+      <c r="AZ12" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BC12" s="33" t="s">
+      <c r="BC12" s="19" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="25">
+    <row r="13" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="10">
         <v>45562.248555115744</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="26" t="s">
+      <c r="F13" s="11" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="18" t="s">
         <v>293</v>
       </c>
-      <c r="H13" s="26" t="s">
+      <c r="H13" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="26" t="s">
+      <c r="I13" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J13" s="26" t="s">
+      <c r="J13" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="26" t="s">
+      <c r="K13" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="26" t="s">
+      <c r="L13" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="M13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N13" s="26" t="s">
+      <c r="M13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="11" t="s">
         <v>269</v>
       </c>
-      <c r="O13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P13" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q13" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="R13" s="26" t="s">
+      <c r="O13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P13" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>1</v>
+      </c>
+      <c r="R13" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T13" s="26" t="s">
+      <c r="S13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T13" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="U13" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V13" s="26">
-        <v>400.0</v>
-      </c>
-      <c r="W13" s="26">
-        <v>2000.0</v>
-      </c>
-      <c r="Y13" s="26" t="s">
+      <c r="U13" s="11">
+        <v>1</v>
+      </c>
+      <c r="V13" s="11">
+        <v>400</v>
+      </c>
+      <c r="W13" s="11">
+        <v>2000</v>
+      </c>
+      <c r="Y13" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="Z13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="27" t="s">
+      <c r="Z13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="18" t="s">
         <v>301</v>
       </c>
-      <c r="AI13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM13" s="26" t="s">
+      <c r="AI13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM13" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN13" s="26" t="s">
+      <c r="AN13" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO13" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ13" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS13" s="26" t="s">
+      <c r="AO13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ13" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS13" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="AT13" s="26" t="s">
+      <c r="AT13" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AV13" s="26" t="s">
+      <c r="AV13" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AY13" s="26" t="s">
+      <c r="AY13" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="AZ13" s="26" t="s">
+      <c r="AZ13" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="BA13" s="26" t="s">
+      <c r="BA13" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="BC13" s="26" t="s">
+      <c r="BC13" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="BD13" s="30" t="s">
+      <c r="BD13" s="15" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="31">
-        <v>45564.18480020833</v>
-      </c>
-      <c r="B14" s="32" t="s">
+    <row r="14" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="4">
+        <v>45564.184800208328</v>
+      </c>
+      <c r="B14" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="32" t="s">
+      <c r="E14" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="32" t="s">
+      <c r="F14" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="19" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="H14" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="I14" s="32" t="s">
+      <c r="I14" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K14" s="32" t="s">
+      <c r="K14" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L14" s="32" t="s">
+      <c r="L14" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="M14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="32" t="s">
+      <c r="M14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="O14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="32" t="s">
+      <c r="O14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="Q14" s="32" t="s">
+      <c r="Q14" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="R14" s="32" t="s">
+      <c r="R14" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="S14" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="T14" s="32" t="s">
+      <c r="S14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T14" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="U14" s="32" t="s">
+      <c r="U14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="W14" s="32" t="s">
+      <c r="W14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="X14" s="32" t="s">
+      <c r="X14" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="Y14" s="32" t="s">
+      <c r="Y14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="Z14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" s="32" t="s">
+      <c r="Z14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AB14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC14" s="32" t="s">
+      <c r="AB14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AD14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" s="32" t="s">
+      <c r="AD14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AF14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" s="32" t="s">
+      <c r="AF14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="AH14" s="32" t="s">
+      <c r="AH14" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="AI14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM14" s="32" t="s">
+      <c r="AI14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM14" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN14" s="32" t="s">
+      <c r="AN14" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AO14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP14" s="32" t="s">
+      <c r="AO14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP14" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="AQ14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR14" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX14" s="32" t="s">
+      <c r="AQ14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="AY14" s="32" t="s">
+      <c r="AY14" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AZ14" s="32" t="s">
+      <c r="AZ14" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="BB14" s="32" t="s">
+      <c r="BB14" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="BC14" s="33" t="s">
+      <c r="BC14" s="19" t="s">
         <v>329</v>
       </c>
-      <c r="BD14" s="36" t="s">
+      <c r="BD14" s="9" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="25">
+    <row r="15" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10">
         <v>45565.538122025464</v>
       </c>
-      <c r="B15" s="26" t="s">
+      <c r="B15" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="26" t="s">
+      <c r="F15" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="G15" s="27" t="s">
+      <c r="G15" s="18" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="26" t="s">
+      <c r="H15" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="I15" s="26" t="s">
+      <c r="I15" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="J15" s="26" t="s">
+      <c r="J15" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K15" s="26" t="s">
+      <c r="K15" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="L15" s="26" t="s">
+      <c r="L15" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="M15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="26" t="s">
+      <c r="M15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="O15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P15" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q15" s="28">
+      <c r="O15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P15" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="13">
         <v>0.9</v>
       </c>
-      <c r="R15" s="26" t="s">
+      <c r="R15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T15" s="26">
-        <v>31260.0</v>
-      </c>
-      <c r="U15" s="26">
-        <v>5.0</v>
-      </c>
-      <c r="V15" s="26">
-        <v>6000.0</v>
-      </c>
-      <c r="W15" s="29">
-        <v>11399.0</v>
-      </c>
-      <c r="X15" s="29">
-        <v>96543.0</v>
-      </c>
-      <c r="Y15" s="29">
-        <v>45000.0</v>
-      </c>
-      <c r="Z15" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB15" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD15" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG15" s="27" t="s">
+      <c r="S15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="11">
+        <v>31260</v>
+      </c>
+      <c r="U15" s="11">
+        <v>5</v>
+      </c>
+      <c r="V15" s="11">
+        <v>6000</v>
+      </c>
+      <c r="W15" s="14">
+        <v>11399</v>
+      </c>
+      <c r="X15" s="14">
+        <v>96543</v>
+      </c>
+      <c r="Y15" s="14">
+        <v>45000</v>
+      </c>
+      <c r="Z15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG15" s="18" t="s">
         <v>342</v>
       </c>
-      <c r="AH15" s="26" t="s">
+      <c r="AH15" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="AI15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK15" s="26" t="s">
+      <c r="AI15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="AL15" s="26" t="s">
+      <c r="AL15" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="AM15" s="26" t="s">
+      <c r="AM15" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN15" s="26" t="s">
+      <c r="AN15" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO15" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR15" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT15" s="26" t="s">
+      <c r="AO15" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT15" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AU15" s="26" t="s">
+      <c r="AU15" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AV15" s="26" t="s">
+      <c r="AV15" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="AX15" s="26" t="s">
+      <c r="AX15" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AY15" s="26" t="s">
+      <c r="AY15" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="BA15" s="26" t="s">
+      <c r="BA15" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="BB15" s="26" t="s">
+      <c r="BB15" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="BC15" s="27" t="s">
+      <c r="BC15" s="18" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="31">
-        <v>45565.5513366088</v>
-      </c>
-      <c r="B16" s="32" t="s">
+    <row r="16" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4">
+        <v>45565.551336608798</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E16" s="32" t="s">
+      <c r="E16" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="32" t="s">
+      <c r="F16" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="H16" s="32" t="s">
+      <c r="H16" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="I16" s="32" t="s">
+      <c r="I16" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="K16" s="32" t="s">
+      <c r="K16" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L16" s="32" t="s">
+      <c r="L16" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="M16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="32" t="s">
+      <c r="M16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="O16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="32" t="s">
+      <c r="O16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="Q16" s="32" t="s">
+      <c r="Q16" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="R16" s="32" t="s">
+      <c r="R16" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T16" s="32" t="s">
+      <c r="S16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T16" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="V16" s="32" t="s">
+      <c r="V16" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="W16" s="32" t="s">
+      <c r="W16" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="X16" s="35">
-        <v>267643.0</v>
-      </c>
-      <c r="Y16" s="35">
-        <v>25000.0</v>
-      </c>
-      <c r="Z16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH16" s="32" t="s">
+      <c r="X16" s="8">
+        <v>267643</v>
+      </c>
+      <c r="Y16" s="8">
+        <v>25000</v>
+      </c>
+      <c r="Z16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH16" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="AI16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM16" s="32" t="s">
+      <c r="AI16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM16" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN16" s="32" t="s">
+      <c r="AN16" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO16" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR16" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT16" s="32" t="s">
+      <c r="AO16" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT16" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AX16" s="32" t="s">
+      <c r="AX16" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="BC16" s="33" t="s">
+      <c r="BC16" s="19" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="25">
+    <row r="17" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10">
         <v>45565.592789525464</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="26" t="s">
+      <c r="D17" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E17" s="26" t="s">
+      <c r="E17" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F17" s="26" t="s">
+      <c r="F17" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="18" t="s">
         <v>378</v>
       </c>
-      <c r="H17" s="26" t="s">
+      <c r="H17" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="I17" s="26" t="s">
+      <c r="I17" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="J17" s="26" t="s">
+      <c r="J17" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="L17" s="26" t="s">
+      <c r="L17" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="M17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N17" s="26" t="s">
+      <c r="M17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N17" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="O17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q17" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="R17" s="26" t="s">
+      <c r="O17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P17" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>1</v>
+      </c>
+      <c r="R17" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T17" s="26" t="s">
+      <c r="S17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T17" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="U17" s="26" t="s">
+      <c r="U17" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="V17" s="26">
-        <v>9000.0</v>
-      </c>
-      <c r="W17" s="26">
-        <v>800000.0</v>
-      </c>
-      <c r="X17" s="26">
-        <v>250000.0</v>
-      </c>
-      <c r="Y17" s="26" t="s">
+      <c r="V17" s="11">
+        <v>9000</v>
+      </c>
+      <c r="W17" s="11">
+        <v>800000</v>
+      </c>
+      <c r="X17" s="11">
+        <v>250000</v>
+      </c>
+      <c r="Y17" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="Z17" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB17" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD17" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG17" s="27" t="s">
+      <c r="Z17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG17" s="18" t="s">
         <v>386</v>
       </c>
-      <c r="AI17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM17" s="26" t="s">
+      <c r="AI17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM17" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN17" s="26" t="s">
+      <c r="AN17" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO17" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR17" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS17" s="26" t="s">
+      <c r="AO17" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR17" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS17" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="AT17" s="26" t="s">
+      <c r="AT17" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="AU17" s="26" t="s">
+      <c r="AU17" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="AX17" s="26" t="s">
+      <c r="AX17" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AY17" s="26" t="s">
+      <c r="AY17" s="11" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="31">
-        <v>45565.83219244213</v>
-      </c>
-      <c r="B18" s="32" t="s">
+    <row r="18" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4">
+        <v>45565.832192442133</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="32" t="s">
+      <c r="C18" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E18" s="32" t="s">
+      <c r="E18" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="F18" s="32" t="s">
+      <c r="F18" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="19" t="s">
         <v>395</v>
       </c>
-      <c r="H18" s="32" t="s">
+      <c r="H18" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="32" t="s">
+      <c r="I18" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K18" s="32" t="s">
+      <c r="K18" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="L18" s="32" t="s">
+      <c r="L18" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="M18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N18" s="32" t="s">
+      <c r="M18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N18" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="O18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P18" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q18" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R18" s="32" t="s">
+      <c r="O18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T18" s="32" t="s">
+      <c r="S18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T18" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="U18" s="32" t="s">
+      <c r="U18" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="V18" s="32" t="s">
+      <c r="V18" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="W18" s="32" t="s">
+      <c r="W18" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="X18" s="32" t="s">
+      <c r="X18" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="Y18" s="32" t="s">
+      <c r="Y18" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="Z18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA18" s="33" t="s">
+      <c r="Z18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="19" t="s">
         <v>407</v>
       </c>
-      <c r="AB18" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD18" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="33" t="s">
+      <c r="AB18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="19" t="s">
         <v>408</v>
       </c>
-      <c r="AH18" s="32" t="s">
+      <c r="AH18" s="5" t="s">
         <v>409</v>
       </c>
-      <c r="AI18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK18" s="32" t="s">
+      <c r="AI18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK18" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="AL18" s="32" t="s">
+      <c r="AL18" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="AM18" s="32" t="s">
+      <c r="AM18" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN18" s="32" t="s">
+      <c r="AN18" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO18" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR18" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS18" s="32" t="s">
+      <c r="AO18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS18" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AT18" s="32" t="s">
+      <c r="AT18" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="AU18" s="32" t="s">
+      <c r="AU18" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="AV18" s="32" t="s">
+      <c r="AV18" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="AW18" s="32" t="s">
+      <c r="AW18" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="AX18" s="32" t="s">
+      <c r="AX18" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="AY18" s="32" t="s">
+      <c r="AY18" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="AZ18" s="32" t="s">
+      <c r="AZ18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BA18" s="32" t="s">
+      <c r="BA18" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="BB18" s="32" t="s">
+      <c r="BB18" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="BC18" s="33" t="s">
+      <c r="BC18" s="19" t="s">
         <v>416</v>
       </c>
-      <c r="BD18" s="36" t="s">
+      <c r="BD18" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="25">
+    <row r="19" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="10">
         <v>45566.00334708333</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="F19" s="26" t="s">
+      <c r="F19" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="18" t="s">
         <v>422</v>
       </c>
-      <c r="H19" s="26" t="s">
+      <c r="H19" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="I19" s="26" t="s">
+      <c r="I19" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J19" s="26" t="s">
+      <c r="J19" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="K19" s="26" t="s">
+      <c r="K19" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="L19" s="26" t="s">
+      <c r="L19" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="M19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="26" t="s">
+      <c r="M19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="O19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="26" t="s">
+      <c r="O19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="Q19" s="26" t="s">
+      <c r="Q19" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="R19" s="26" t="s">
+      <c r="R19" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T19" s="26" t="s">
+      <c r="S19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T19" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="U19" s="26" t="s">
+      <c r="U19" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="V19" s="26" t="s">
+      <c r="V19" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="W19" s="26" t="s">
+      <c r="W19" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="X19" s="26" t="s">
+      <c r="X19" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="Y19" s="26" t="s">
+      <c r="Y19" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="Z19" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="27" t="s">
+      <c r="Z19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="18" t="s">
         <v>437</v>
       </c>
-      <c r="AH19" s="26" t="s">
+      <c r="AH19" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="AI19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK19" s="26" t="s">
+      <c r="AI19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK19" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="AL19" s="26" t="s">
+      <c r="AL19" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="AM19" s="26" t="s">
+      <c r="AM19" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN19" s="26" t="s">
+      <c r="AN19" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AQ19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR19" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS19" s="26" t="s">
+      <c r="AO19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS19" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="AT19" s="26" t="s">
+      <c r="AT19" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="AU19" s="26" t="s">
+      <c r="AU19" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="AV19" s="26" t="s">
+      <c r="AV19" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="AW19" s="26" t="s">
+      <c r="AW19" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="AX19" s="26" t="s">
+      <c r="AX19" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AY19" s="26" t="s">
+      <c r="AY19" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AZ19" s="26" t="s">
+      <c r="AZ19" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BA19" s="26" t="s">
+      <c r="BA19" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="BB19" s="26" t="s">
+      <c r="BB19" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="BC19" s="27" t="s">
+      <c r="BC19" s="18" t="s">
         <v>450</v>
       </c>
-      <c r="BD19" s="30" t="s">
+      <c r="BD19" s="15" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="31">
-        <v>45566.09739380787</v>
-      </c>
-      <c r="B20" s="32" t="s">
+    <row r="20" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="4">
+        <v>45566.097393807868</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="C20" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="F20" s="32" t="s">
+      <c r="F20" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="19" t="s">
         <v>456</v>
       </c>
-      <c r="H20" s="32" t="s">
+      <c r="H20" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="I20" s="32" t="s">
+      <c r="I20" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J20" s="32" t="s">
+      <c r="J20" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="K20" s="32" t="s">
+      <c r="K20" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="L20" s="32" t="s">
+      <c r="L20" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="M20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N20" s="32" t="s">
+      <c r="M20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N20" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="O20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P20" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q20" s="34">
+      <c r="O20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q20" s="7">
         <v>0.6</v>
       </c>
-      <c r="R20" s="32" t="s">
+      <c r="R20" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T20" s="32" t="s">
+      <c r="S20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T20" s="5" t="s">
         <v>462</v>
       </c>
-      <c r="U20" s="32" t="s">
+      <c r="U20" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="V20" s="37">
-        <v>447000.0</v>
-      </c>
-      <c r="W20" s="32" t="s">
+      <c r="V20" s="20">
+        <v>447000</v>
+      </c>
+      <c r="W20" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="X20" s="35">
-        <v>200000.0</v>
-      </c>
-      <c r="Y20" s="35">
-        <v>650000.0</v>
-      </c>
-      <c r="Z20" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC20" s="32" t="s">
+      <c r="X20" s="8">
+        <v>200000</v>
+      </c>
+      <c r="Y20" s="8">
+        <v>650000</v>
+      </c>
+      <c r="Z20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC20" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AD20" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG20" s="32" t="s">
+      <c r="AD20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG20" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="AH20" s="32" t="s">
+      <c r="AH20" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="AI20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK20" s="32" t="s">
+      <c r="AI20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK20" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="AL20" s="32" t="s">
+      <c r="AL20" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="AM20" s="32" t="s">
+      <c r="AM20" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN20" s="32" t="s">
+      <c r="AN20" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AO20" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS20" s="32" t="s">
+      <c r="AO20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS20" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="AX20" s="32" t="s">
+      <c r="AX20" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="AY20" s="32" t="s">
+      <c r="AY20" s="5" t="s">
         <v>446</v>
       </c>
-      <c r="AZ20" s="32" t="s">
+      <c r="AZ20" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BC20" s="33" t="s">
+      <c r="BC20" s="19" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="25">
+    <row r="21" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="10">
         <v>45566.125998055555</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="26" t="s">
+      <c r="E21" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="F21" s="26" t="s">
+      <c r="F21" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="G21" s="27" t="s">
+      <c r="G21" s="18" t="s">
         <v>477</v>
       </c>
-      <c r="I21" s="26" t="s">
+      <c r="I21" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="J21" s="26" t="s">
+      <c r="J21" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="K21" s="26" t="s">
+      <c r="K21" s="11" t="s">
         <v>480</v>
       </c>
-      <c r="L21" s="26" t="s">
+      <c r="L21" s="11" t="s">
         <v>481</v>
       </c>
-      <c r="M21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="26" t="s">
+      <c r="M21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>482</v>
       </c>
-      <c r="O21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P21" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q21" s="28">
+      <c r="O21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P21" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q21" s="13">
         <v>0.9</v>
       </c>
-      <c r="R21" s="26" t="s">
+      <c r="R21" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T21" s="26" t="s">
+      <c r="S21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T21" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="U21" s="26" t="s">
+      <c r="U21" s="11" t="s">
         <v>484</v>
       </c>
-      <c r="V21" s="26">
-        <v>200.0</v>
-      </c>
-      <c r="W21" s="26" t="s">
+      <c r="V21" s="11">
+        <v>200</v>
+      </c>
+      <c r="W21" s="11" t="s">
         <v>485</v>
       </c>
-      <c r="X21" s="26" t="s">
+      <c r="X21" s="11" t="s">
         <v>486</v>
       </c>
-      <c r="Y21" s="29">
-        <v>5000000.0</v>
-      </c>
-      <c r="Z21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE21" s="26" t="s">
+      <c r="Y21" s="14">
+        <v>5000000</v>
+      </c>
+      <c r="Z21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE21" s="11" t="s">
         <v>487</v>
       </c>
-      <c r="AF21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH21" s="26" t="s">
+      <c r="AF21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH21" s="11" t="s">
         <v>488</v>
       </c>
-      <c r="AI21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AM21" s="26" t="s">
+      <c r="AI21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM21" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN21" s="26" t="s">
+      <c r="AN21" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AO21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP21" s="26" t="s">
+      <c r="AO21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP21" s="11" t="s">
         <v>489</v>
       </c>
-      <c r="AQ21" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR21" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AT21" s="26" t="s">
+      <c r="AQ21" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT21" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="AU21" s="26" t="s">
+      <c r="AU21" s="11" t="s">
         <v>490</v>
       </c>
-      <c r="AV21" s="26" t="s">
+      <c r="AV21" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="AX21" s="26" t="s">
+      <c r="AX21" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BC21" s="27" t="s">
+      <c r="BC21" s="18" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="31">
-        <v>45566.16559164352</v>
-      </c>
-      <c r="B22" s="32" t="s">
+    <row r="22" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="4">
+        <v>45566.165591643519</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C22" s="32" t="s">
+      <c r="C22" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E22" s="32" t="s">
+      <c r="E22" s="5" t="s">
         <v>495</v>
       </c>
-      <c r="F22" s="32" t="s">
+      <c r="F22" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="19" t="s">
         <v>497</v>
       </c>
-      <c r="H22" s="32" t="s">
+      <c r="H22" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="I22" s="32" t="s">
+      <c r="I22" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="K22" s="32" t="s">
+      <c r="K22" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="L22" s="32" t="s">
+      <c r="L22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="M22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N22" s="32" t="s">
+      <c r="M22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P22" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q22" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R22" s="32" t="s">
+      <c r="O22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P22" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q22" s="7">
+        <v>1</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T22" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="U22" s="32" t="s">
+      <c r="S22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T22" s="5">
+        <v>1</v>
+      </c>
+      <c r="U22" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="V22" s="32" t="s">
+      <c r="V22" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="W22" s="32" t="s">
+      <c r="W22" s="5" t="s">
         <v>504</v>
       </c>
-      <c r="X22" s="32" t="s">
+      <c r="X22" s="5" t="s">
         <v>505</v>
       </c>
-      <c r="Y22" s="35">
-        <v>1700000.0</v>
-      </c>
-      <c r="Z22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA22" s="32" t="s">
+      <c r="Y22" s="8">
+        <v>1700000</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA22" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AB22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC22" s="32" t="s">
+      <c r="AB22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AD22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE22" s="32" t="s">
+      <c r="AD22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE22" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AF22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG22" s="33" t="s">
+      <c r="AF22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG22" s="19" t="s">
         <v>507</v>
       </c>
-      <c r="AH22" s="32" t="s">
+      <c r="AH22" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="AI22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK22" s="32" t="s">
+      <c r="AI22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK22" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="AL22" s="32" t="s">
+      <c r="AL22" s="5" t="s">
         <v>510</v>
       </c>
-      <c r="AM22" s="32" t="s">
+      <c r="AM22" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="AN22" s="32" t="s">
+      <c r="AN22" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="AO22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP22" s="32" t="s">
+      <c r="AO22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP22" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AQ22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR22" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS22" s="32" t="s">
+      <c r="AQ22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS22" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AW22" s="32" t="s">
+      <c r="AW22" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AX22" s="32" t="s">
+      <c r="AX22" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AY22" s="32" t="s">
+      <c r="AY22" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="BB22" s="32" t="s">
+      <c r="BB22" s="5" t="s">
         <v>516</v>
       </c>
-      <c r="BC22" s="33" t="s">
+      <c r="BC22" s="19" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="25">
-        <v>45566.17615865741</v>
-      </c>
-      <c r="B23" s="26" t="s">
+    <row r="23" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="10">
+        <v>45566.176158657407</v>
+      </c>
+      <c r="B23" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="11" t="s">
         <v>493</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="11" t="s">
         <v>520</v>
       </c>
-      <c r="F23" s="26" t="s">
+      <c r="F23" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G23" s="27" t="s">
+      <c r="G23" s="18" t="s">
         <v>522</v>
       </c>
-      <c r="H23" s="26" t="s">
+      <c r="H23" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="I23" s="26" t="s">
+      <c r="I23" s="11" t="s">
         <v>499</v>
       </c>
-      <c r="J23" s="26" t="s">
+      <c r="J23" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="K23" s="26" t="s">
+      <c r="K23" s="11" t="s">
         <v>525</v>
       </c>
-      <c r="L23" s="26" t="s">
+      <c r="L23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N23" s="26" t="s">
+      <c r="M23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="O23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P23" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q23" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="R23" s="26" t="s">
+      <c r="O23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>1</v>
+      </c>
+      <c r="R23" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T23" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U23" s="26" t="s">
+      <c r="S23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T23" s="11">
+        <v>1</v>
+      </c>
+      <c r="U23" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="V23" s="26" t="s">
+      <c r="V23" s="11" t="s">
         <v>526</v>
       </c>
-      <c r="W23" s="26" t="s">
+      <c r="W23" s="11" t="s">
         <v>527</v>
       </c>
-      <c r="X23" s="26" t="s">
+      <c r="X23" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="Y23" s="29">
-        <v>1860000.0</v>
-      </c>
-      <c r="Z23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA23" s="26" t="s">
+      <c r="Y23" s="14">
+        <v>1860000</v>
+      </c>
+      <c r="Z23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA23" s="11" t="s">
         <v>528</v>
       </c>
-      <c r="AB23" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC23" s="26" t="s">
+      <c r="AB23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC23" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="AD23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE23" s="26" t="s">
+      <c r="AD23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE23" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="AF23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG23" s="27" t="s">
+      <c r="AF23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG23" s="18" t="s">
         <v>530</v>
       </c>
-      <c r="AH23" s="26" t="s">
+      <c r="AH23" s="11" t="s">
         <v>531</v>
       </c>
-      <c r="AI23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK23" s="26" t="s">
+      <c r="AI23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK23" s="11" t="s">
         <v>532</v>
       </c>
-      <c r="AL23" s="26" t="s">
+      <c r="AL23" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="AM23" s="26" t="s">
+      <c r="AM23" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN23" s="26" t="s">
+      <c r="AN23" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO23" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP23" s="26" t="s">
+      <c r="AO23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP23" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="AQ23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR23" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS23" s="26" t="s">
+      <c r="AQ23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS23" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="AW23" s="26" t="s">
+      <c r="AW23" s="11" t="s">
         <v>533</v>
       </c>
-      <c r="AX23" s="26" t="s">
+      <c r="AX23" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AY23" s="26" t="s">
+      <c r="AY23" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="BB23" s="26" t="s">
+      <c r="BB23" s="11" t="s">
         <v>534</v>
       </c>
-      <c r="BC23" s="27" t="s">
+      <c r="BC23" s="18" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="31">
+    <row r="24" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="4">
         <v>45566.18747153935</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="32" t="s">
+      <c r="C24" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E24" s="32" t="s">
+      <c r="E24" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="F24" s="32" t="s">
+      <c r="F24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="19" t="s">
         <v>541</v>
       </c>
-      <c r="H24" s="32" t="s">
+      <c r="H24" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="I24" s="32" t="s">
+      <c r="I24" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="J24" s="32" t="s">
+      <c r="J24" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K24" s="32" t="s">
+      <c r="K24" s="5" t="s">
         <v>544</v>
       </c>
-      <c r="L24" s="32" t="s">
+      <c r="L24" s="5" t="s">
         <v>545</v>
       </c>
-      <c r="M24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="32" t="s">
+      <c r="M24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="O24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P24" s="34">
+      <c r="O24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P24" s="7">
         <v>0.9</v>
       </c>
-      <c r="Q24" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R24" s="32" t="s">
+      <c r="Q24" s="7">
+        <v>1</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="S24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T24" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="U24" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="V24" s="32">
-        <v>41.0</v>
-      </c>
-      <c r="W24" s="32">
-        <v>77954.0</v>
-      </c>
-      <c r="X24" s="38">
+      <c r="S24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T24" s="5">
+        <v>1</v>
+      </c>
+      <c r="U24" s="5">
+        <v>1</v>
+      </c>
+      <c r="V24" s="5">
+        <v>41</v>
+      </c>
+      <c r="W24" s="5">
+        <v>77954</v>
+      </c>
+      <c r="X24" s="21">
         <v>1483.86</v>
       </c>
-      <c r="Y24" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="Z24" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC24" s="32" t="s">
+      <c r="Y24" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC24" s="5" t="s">
         <v>548</v>
       </c>
-      <c r="AD24" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF24" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH24" s="32" t="s">
+      <c r="AD24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH24" s="5" t="s">
         <v>549</v>
       </c>
-      <c r="AI24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL24" s="32" t="s">
+      <c r="AI24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL24" s="5" t="s">
         <v>550</v>
       </c>
-      <c r="AM24" s="32" t="s">
+      <c r="AM24" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN24" s="32" t="s">
+      <c r="AN24" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AO24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP24" s="32" t="s">
+      <c r="AO24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP24" s="5" t="s">
         <v>551</v>
       </c>
-      <c r="AQ24" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS24" s="32" t="s">
+      <c r="AQ24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS24" s="5" t="s">
         <v>552</v>
       </c>
-      <c r="AT24" s="32" t="s">
+      <c r="AT24" s="5" t="s">
         <v>371</v>
       </c>
-      <c r="AU24" s="32" t="s">
+      <c r="AU24" s="5" t="s">
         <v>553</v>
       </c>
-      <c r="AX24" s="32" t="s">
+      <c r="AX24" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="BB24" s="32" t="s">
+      <c r="BB24" s="5" t="s">
         <v>554</v>
       </c>
-      <c r="BC24" s="33" t="s">
+      <c r="BC24" s="19" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="25">
-        <v>45566.3002931713</v>
-      </c>
-      <c r="B25" s="26" t="s">
+    <row r="25" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="10">
+        <v>45566.300293171298</v>
+      </c>
+      <c r="B25" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="E25" s="26" t="s">
+      <c r="E25" s="11" t="s">
         <v>559</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="27" t="s">
+      <c r="G25" s="18" t="s">
         <v>561</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="I25" s="26" t="s">
+      <c r="I25" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="J25" s="26" t="s">
+      <c r="J25" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="K25" s="26" t="s">
+      <c r="K25" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="L25" s="26" t="s">
+      <c r="L25" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="M25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="26" t="s">
+      <c r="M25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="O25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="26" t="s">
+      <c r="O25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="11" t="s">
         <v>568</v>
       </c>
-      <c r="Q25" s="26" t="s">
+      <c r="Q25" s="11" t="s">
         <v>569</v>
       </c>
-      <c r="R25" s="26" t="s">
+      <c r="R25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T25" s="26">
-        <v>6000.0</v>
-      </c>
-      <c r="U25" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="V25" s="26">
-        <v>25.0</v>
-      </c>
-      <c r="W25" s="26">
-        <v>250.0</v>
-      </c>
-      <c r="X25" s="29">
-        <v>3000.0</v>
-      </c>
-      <c r="Y25" s="29">
-        <v>40000.0</v>
-      </c>
-      <c r="Z25" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA25" s="26" t="s">
+      <c r="S25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T25" s="11">
+        <v>6000</v>
+      </c>
+      <c r="U25" s="11">
+        <v>1</v>
+      </c>
+      <c r="V25" s="11">
+        <v>25</v>
+      </c>
+      <c r="W25" s="11">
+        <v>250</v>
+      </c>
+      <c r="X25" s="14">
+        <v>3000</v>
+      </c>
+      <c r="Y25" s="14">
+        <v>40000</v>
+      </c>
+      <c r="Z25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AB25" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC25" s="26" t="s">
+      <c r="AB25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AD25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE25" s="27" t="s">
+      <c r="AD25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE25" s="18" t="s">
         <v>570</v>
       </c>
-      <c r="AF25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG25" s="27" t="s">
+      <c r="AF25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25" s="18" t="s">
         <v>571</v>
       </c>
-      <c r="AH25" s="26" t="s">
+      <c r="AH25" s="11" t="s">
         <v>572</v>
       </c>
-      <c r="AI25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ25" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK25" s="26" t="s">
+      <c r="AI25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK25" s="11" t="s">
         <v>573</v>
       </c>
-      <c r="AM25" s="26" t="s">
+      <c r="AM25" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN25" s="26" t="s">
+      <c r="AN25" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AO25" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP25" s="26" t="s">
+      <c r="AO25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP25" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="AQ25" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS25" s="26" t="s">
+      <c r="AQ25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS25" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="AT25" s="26" t="s">
+      <c r="AT25" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="AV25" s="26" t="s">
+      <c r="AV25" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="AW25" s="26" t="s">
+      <c r="AW25" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="AX25" s="26" t="s">
+      <c r="AX25" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="AY25" s="26" t="s">
+      <c r="AY25" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="AZ25" s="26" t="s">
+      <c r="AZ25" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="BA25" s="26" t="s">
+      <c r="BA25" s="11" t="s">
         <v>579</v>
       </c>
-      <c r="BB25" s="26" t="s">
+      <c r="BB25" s="11" t="s">
         <v>580</v>
       </c>
-      <c r="BC25" s="27" t="s">
+      <c r="BC25" s="18" t="s">
         <v>581</v>
       </c>
-      <c r="BD25" s="30" t="s">
+      <c r="BD25" s="15" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="31">
-        <v>45566.3383565625</v>
-      </c>
-      <c r="B26" s="32" t="s">
+    <row r="26" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="4">
+        <v>45566.338356562497</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E26" s="32" t="s">
+      <c r="E26" s="5" t="s">
         <v>585</v>
       </c>
-      <c r="F26" s="32" t="s">
+      <c r="F26" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="19" t="s">
         <v>587</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="I26" s="32" t="s">
+      <c r="I26" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="J26" s="32" t="s">
+      <c r="J26" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K26" s="32" t="s">
+      <c r="K26" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="L26" s="32" t="s">
+      <c r="L26" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="M26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="32" t="s">
+      <c r="M26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="O26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" s="32" t="s">
+      <c r="O26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>593</v>
       </c>
-      <c r="Q26" s="32" t="s">
+      <c r="Q26" s="5" t="s">
         <v>594</v>
       </c>
-      <c r="R26" s="32" t="s">
+      <c r="R26" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T26" s="32" t="s">
+      <c r="S26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T26" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="U26" s="32" t="s">
+      <c r="U26" s="5" t="s">
         <v>596</v>
       </c>
-      <c r="V26" s="32" t="s">
+      <c r="V26" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="W26" s="32" t="s">
+      <c r="W26" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="X26" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="Y26" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="Z26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA26" s="32" t="s">
+      <c r="X26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA26" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AB26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC26" s="32" t="s">
+      <c r="AB26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="AD26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG26" s="32" t="s">
+      <c r="AD26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG26" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="AH26" s="32" t="s">
+      <c r="AH26" s="5" t="s">
         <v>600</v>
       </c>
-      <c r="AI26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK26" s="32" t="s">
+      <c r="AI26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK26" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="AL26" s="32" t="s">
+      <c r="AL26" s="5" t="s">
         <v>602</v>
       </c>
-      <c r="AM26" s="32" t="s">
+      <c r="AM26" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN26" s="32" t="s">
+      <c r="AN26" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO26" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR26" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS26" s="32" t="s">
+      <c r="AO26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS26" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="AT26" s="32" t="s">
+      <c r="AT26" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="AU26" s="32" t="s">
+      <c r="AU26" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="AV26" s="32" t="s">
+      <c r="AV26" s="5" t="s">
         <v>604</v>
       </c>
-      <c r="AX26" s="32" t="s">
+      <c r="AX26" s="5" t="s">
         <v>605</v>
       </c>
-      <c r="AY26" s="32" t="s">
+      <c r="AY26" s="5" t="s">
         <v>606</v>
       </c>
-      <c r="AZ26" s="32" t="s">
+      <c r="AZ26" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="BA26" s="32" t="s">
+      <c r="BA26" s="5" t="s">
         <v>607</v>
       </c>
-      <c r="BC26" s="33" t="s">
+      <c r="BC26" s="19" t="s">
         <v>608</v>
       </c>
-      <c r="BD26" s="36" t="s">
+      <c r="BD26" s="9" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="25">
-        <v>45566.46754570602</v>
-      </c>
-      <c r="B27" s="26" t="s">
+    <row r="27" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="10">
+        <v>45566.467545706022</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="C27" s="26" t="s">
+      <c r="C27" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="D27" s="26" t="s">
+      <c r="D27" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="E27" s="26" t="s">
+      <c r="E27" s="11" t="s">
         <v>611</v>
       </c>
-      <c r="F27" s="26" t="s">
+      <c r="F27" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="G27" s="27" t="s">
+      <c r="G27" s="18" t="s">
         <v>613</v>
       </c>
-      <c r="H27" s="26" t="s">
+      <c r="H27" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="I27" s="26" t="s">
+      <c r="I27" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="J27" s="26" t="s">
+      <c r="J27" s="11" t="s">
         <v>616</v>
       </c>
-      <c r="K27" s="26" t="s">
+      <c r="K27" s="11" t="s">
         <v>617</v>
       </c>
-      <c r="L27" s="26" t="s">
+      <c r="L27" s="11" t="s">
         <v>567</v>
       </c>
-      <c r="M27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="26" t="s">
+      <c r="M27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>618</v>
       </c>
-      <c r="O27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P27" s="26">
-        <v>100.0</v>
-      </c>
-      <c r="Q27" s="28">
+      <c r="O27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q27" s="13">
         <v>0.8</v>
       </c>
-      <c r="R27" s="26" t="s">
+      <c r="R27" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T27" s="26">
-        <v>6.0</v>
-      </c>
-      <c r="U27" s="26">
-        <v>3.0</v>
-      </c>
-      <c r="V27" s="26" t="s">
+      <c r="S27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T27" s="11">
+        <v>6</v>
+      </c>
+      <c r="U27" s="11">
+        <v>3</v>
+      </c>
+      <c r="V27" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="W27" s="26" t="s">
+      <c r="W27" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="X27" s="26" t="s">
+      <c r="X27" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y27" s="26" t="s">
+      <c r="Y27" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="Z27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" s="26" t="s">
+      <c r="Z27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="AB27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC27" s="26" t="s">
+      <c r="AB27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="AD27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG27" s="26" t="s">
+      <c r="AD27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG27" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="AH27" s="26" t="s">
+      <c r="AH27" s="11" t="s">
         <v>623</v>
       </c>
-      <c r="AI27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ27" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK27" s="26" t="s">
+      <c r="AI27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK27" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="AL27" s="26" t="s">
+      <c r="AL27" s="11" t="s">
         <v>622</v>
       </c>
-      <c r="AM27" s="26" t="s">
+      <c r="AM27" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN27" s="26" t="s">
+      <c r="AN27" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR27" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AW27" s="26" t="s">
+      <c r="AO27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AW27" s="11" t="s">
         <v>624</v>
       </c>
-      <c r="AX27" s="26" t="s">
+      <c r="AX27" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="BC27" s="27" t="s">
+      <c r="BC27" s="18" t="s">
         <v>625</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="31">
+    <row r="28" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="4">
         <v>45566.668890057874</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C28" s="32" t="s">
+      <c r="C28" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="32" t="s">
+      <c r="E28" s="5" t="s">
         <v>629</v>
       </c>
-      <c r="F28" s="32" t="s">
+      <c r="F28" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="19" t="s">
         <v>631</v>
       </c>
-      <c r="H28" s="32" t="s">
+      <c r="H28" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="I28" s="32" t="s">
+      <c r="I28" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="J28" s="32" t="s">
+      <c r="J28" s="5" t="s">
         <v>634</v>
       </c>
-      <c r="K28" s="32" t="s">
+      <c r="K28" s="5" t="s">
         <v>635</v>
       </c>
-      <c r="L28" s="32" t="s">
+      <c r="L28" s="5" t="s">
         <v>636</v>
       </c>
-      <c r="M28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N28" s="32" t="s">
+      <c r="M28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N28" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="O28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P28" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q28" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R28" s="32" t="s">
+      <c r="O28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P28" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>1</v>
+      </c>
+      <c r="R28" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T28" s="32">
-        <v>8843.0</v>
-      </c>
-      <c r="U28" s="32" t="s">
+      <c r="S28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T28" s="5">
+        <v>8843</v>
+      </c>
+      <c r="U28" s="5" t="s">
         <v>637</v>
       </c>
-      <c r="V28" s="32">
-        <v>20.0</v>
-      </c>
-      <c r="W28" s="32">
-        <v>600.0</v>
-      </c>
-      <c r="X28" s="35">
-        <v>200000.0</v>
-      </c>
-      <c r="Y28" s="32">
-        <v>0.0</v>
-      </c>
-      <c r="Z28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA28" s="32" t="s">
+      <c r="V28" s="5">
+        <v>20</v>
+      </c>
+      <c r="W28" s="5">
+        <v>600</v>
+      </c>
+      <c r="X28" s="8">
+        <v>200000</v>
+      </c>
+      <c r="Y28" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA28" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AB28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC28" s="32" t="s">
+      <c r="AB28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="5" t="s">
         <v>639</v>
       </c>
-      <c r="AD28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE28" s="32" t="s">
+      <c r="AD28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="AF28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG28" s="33" t="s">
+      <c r="AF28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG28" s="19" t="s">
         <v>641</v>
       </c>
-      <c r="AH28" s="32" t="s">
+      <c r="AH28" s="5" t="s">
         <v>642</v>
       </c>
-      <c r="AI28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK28" s="32" t="s">
+      <c r="AI28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK28" s="5" t="s">
         <v>643</v>
       </c>
-      <c r="AL28" s="32" t="s">
+      <c r="AL28" s="5" t="s">
         <v>644</v>
       </c>
-      <c r="AM28" s="32" t="s">
+      <c r="AM28" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN28" s="32" t="s">
+      <c r="AN28" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ28" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR28" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS28" s="32" t="s">
+      <c r="AO28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ28" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS28" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="AT28" s="32" t="s">
+      <c r="AT28" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="AU28" s="32" t="s">
+      <c r="AU28" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="AV28" s="32" t="s">
+      <c r="AV28" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="AW28" s="32" t="s">
+      <c r="AW28" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="AX28" s="32" t="s">
+      <c r="AX28" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="AY28" s="32" t="s">
+      <c r="AY28" s="5" t="s">
         <v>650</v>
       </c>
-      <c r="AZ28" s="32" t="s">
+      <c r="AZ28" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="BC28" s="33" t="s">
+      <c r="BC28" s="19" t="s">
         <v>652</v>
       </c>
-      <c r="BD28" s="36" t="s">
+      <c r="BD28" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="25">
-        <v>45567.1347021875</v>
-      </c>
-      <c r="B29" s="26" t="s">
+    <row r="29" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="10">
+        <v>45567.134702187497</v>
+      </c>
+      <c r="B29" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="D29" s="26" t="s">
+      <c r="D29" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="E29" s="26" t="s">
+      <c r="E29" s="11" t="s">
         <v>656</v>
       </c>
-      <c r="F29" s="26" t="s">
+      <c r="F29" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="18" t="s">
         <v>658</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="I29" s="26" t="s">
+      <c r="I29" s="11" t="s">
         <v>660</v>
       </c>
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="11" t="s">
         <v>661</v>
       </c>
-      <c r="K29" s="26" t="s">
+      <c r="K29" s="11" t="s">
         <v>662</v>
       </c>
-      <c r="L29" s="26" t="s">
+      <c r="L29" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="M29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N29" s="26" t="s">
+      <c r="M29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N29" s="11" t="s">
         <v>592</v>
       </c>
-      <c r="O29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P29" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q29" s="28">
+      <c r="O29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P29" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q29" s="13">
         <v>0.5</v>
       </c>
-      <c r="R29" s="26" t="s">
+      <c r="R29" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T29" s="26" t="s">
+      <c r="S29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T29" s="11" t="s">
         <v>663</v>
       </c>
-      <c r="U29" s="26">
-        <v>2.0</v>
-      </c>
-      <c r="V29" s="26" t="s">
+      <c r="U29" s="11">
+        <v>2</v>
+      </c>
+      <c r="V29" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="W29" s="26" t="s">
+      <c r="W29" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="X29" s="26" t="s">
+      <c r="X29" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="Y29" s="26" t="s">
+      <c r="Y29" s="11" t="s">
         <v>667</v>
       </c>
-      <c r="Z29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" s="26" t="s">
+      <c r="Z29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="AB29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC29" s="26" t="s">
+      <c r="AB29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="AD29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE29" s="26" t="s">
+      <c r="AD29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="AF29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG29" s="27" t="s">
+      <c r="AF29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG29" s="18" t="s">
         <v>669</v>
       </c>
-      <c r="AH29" s="26" t="s">
+      <c r="AH29" s="11" t="s">
         <v>670</v>
       </c>
-      <c r="AI29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ29" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK29" s="26" t="s">
+      <c r="AI29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK29" s="11" t="s">
         <v>671</v>
       </c>
-      <c r="AL29" s="26" t="s">
+      <c r="AL29" s="11" t="s">
         <v>672</v>
       </c>
-      <c r="AM29" s="26" t="s">
+      <c r="AM29" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN29" s="26" t="s">
+      <c r="AN29" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AO29" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR29" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS29" s="26" t="s">
+      <c r="AO29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS29" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="AT29" s="26" t="s">
+      <c r="AT29" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="AX29" s="26" t="s">
+      <c r="AX29" s="11" t="s">
         <v>675</v>
       </c>
-      <c r="AY29" s="26" t="s">
+      <c r="AY29" s="11" t="s">
         <v>650</v>
       </c>
-      <c r="AZ29" s="26" t="s">
+      <c r="AZ29" s="11" t="s">
         <v>676</v>
       </c>
-      <c r="BC29" s="27" t="s">
+      <c r="BC29" s="18" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="31">
+    <row r="30" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="4">
         <v>45567.153902094906</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="C30" s="32" t="s">
+      <c r="C30" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="E30" s="32" t="s">
+      <c r="E30" s="5" t="s">
         <v>680</v>
       </c>
-      <c r="F30" s="32" t="s">
+      <c r="F30" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="19" t="s">
         <v>682</v>
       </c>
-      <c r="H30" s="32" t="s">
+      <c r="H30" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="I30" s="32" t="s">
+      <c r="I30" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J30" s="32" t="s">
+      <c r="J30" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="K30" s="32" t="s">
+      <c r="K30" s="5" t="s">
         <v>684</v>
       </c>
-      <c r="L30" s="32" t="s">
+      <c r="L30" s="5" t="s">
         <v>685</v>
       </c>
-      <c r="M30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="32" t="s">
+      <c r="M30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>686</v>
       </c>
-      <c r="O30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P30" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q30" s="34">
+      <c r="O30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="7">
         <v>0.75</v>
       </c>
-      <c r="R30" s="32" t="s">
+      <c r="R30" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T30" s="32" t="s">
+      <c r="S30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T30" s="5" t="s">
         <v>687</v>
       </c>
-      <c r="U30" s="32" t="s">
+      <c r="U30" s="5" t="s">
         <v>688</v>
       </c>
-      <c r="V30" s="32" t="s">
+      <c r="V30" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="W30" s="37">
-        <v>21000.0</v>
-      </c>
-      <c r="X30" s="35">
-        <v>18000.0</v>
-      </c>
-      <c r="Y30" s="35">
-        <v>350000.0</v>
-      </c>
-      <c r="Z30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC30" s="32" t="s">
+      <c r="W30" s="20">
+        <v>21000</v>
+      </c>
+      <c r="X30" s="8">
+        <v>18000</v>
+      </c>
+      <c r="Y30" s="8">
+        <v>350000</v>
+      </c>
+      <c r="Z30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC30" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="AD30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG30" s="33" t="s">
+      <c r="AD30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG30" s="19" t="s">
         <v>691</v>
       </c>
-      <c r="AH30" s="32" t="s">
+      <c r="AH30" s="5" t="s">
         <v>692</v>
       </c>
-      <c r="AI30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK30" s="32" t="s">
+      <c r="AI30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK30" s="5" t="s">
         <v>693</v>
       </c>
-      <c r="AL30" s="32" t="s">
+      <c r="AL30" s="5" t="s">
         <v>694</v>
       </c>
-      <c r="AM30" s="32" t="s">
+      <c r="AM30" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN30" s="32" t="s">
+      <c r="AN30" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO30" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP30" s="32" t="s">
+      <c r="AO30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP30" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="AQ30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR30" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY30" s="32" t="s">
+      <c r="AQ30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY30" s="5" t="s">
         <v>696</v>
       </c>
-      <c r="AZ30" s="32" t="s">
+      <c r="AZ30" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="BB30" s="32" t="s">
+      <c r="BB30" s="5" t="s">
         <v>697</v>
       </c>
-      <c r="BC30" s="33" t="s">
+      <c r="BC30" s="19" t="s">
         <v>698</v>
       </c>
-      <c r="BD30" s="36" t="s">
+      <c r="BD30" s="9" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="25">
-        <v>45567.29273365741</v>
-      </c>
-      <c r="B31" s="26" t="s">
+    <row r="31" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="10">
+        <v>45567.292733657407</v>
+      </c>
+      <c r="B31" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="D31" s="26" t="s">
+      <c r="D31" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="E31" s="26" t="s">
+      <c r="E31" s="11" t="s">
         <v>702</v>
       </c>
-      <c r="F31" s="26" t="s">
+      <c r="F31" s="11" t="s">
         <v>703</v>
       </c>
-      <c r="G31" s="27" t="s">
+      <c r="G31" s="18" t="s">
         <v>704</v>
       </c>
-      <c r="H31" s="26" t="s">
+      <c r="H31" s="11" t="s">
         <v>705</v>
       </c>
-      <c r="I31" s="26" t="s">
+      <c r="I31" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="J31" s="26" t="s">
+      <c r="J31" s="11" t="s">
         <v>706</v>
       </c>
-      <c r="K31" s="26" t="s">
+      <c r="K31" s="11" t="s">
         <v>707</v>
       </c>
-      <c r="L31" s="26" t="s">
+      <c r="L31" s="11" t="s">
         <v>685</v>
       </c>
-      <c r="M31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="26" t="s">
+      <c r="M31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>708</v>
       </c>
-      <c r="O31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P31" s="28">
+      <c r="O31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P31" s="13">
         <v>0.4</v>
       </c>
-      <c r="Q31" s="28">
+      <c r="Q31" s="13">
         <v>0.2</v>
       </c>
-      <c r="R31" s="26" t="s">
+      <c r="R31" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T31" s="26" t="s">
+      <c r="S31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T31" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="U31" s="26" t="s">
+      <c r="U31" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="V31" s="26" t="s">
+      <c r="V31" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="W31" s="26" t="s">
+      <c r="W31" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="X31" s="26" t="s">
+      <c r="X31" s="11" t="s">
         <v>713</v>
       </c>
-      <c r="Y31" s="26" t="s">
+      <c r="Y31" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="Z31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA31" s="27" t="s">
+      <c r="Z31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA31" s="18" t="s">
         <v>715</v>
       </c>
-      <c r="AB31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC31" s="26" t="s">
+      <c r="AB31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC31" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="AD31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE31" s="26" t="s">
+      <c r="AD31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE31" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="AF31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH31" s="26" t="s">
+      <c r="AF31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH31" s="11" t="s">
         <v>718</v>
       </c>
-      <c r="AI31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ31" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK31" s="26" t="s">
+      <c r="AI31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK31" s="11" t="s">
         <v>719</v>
       </c>
-      <c r="AL31" s="26" t="s">
+      <c r="AL31" s="11" t="s">
         <v>720</v>
       </c>
-      <c r="AM31" s="26" t="s">
+      <c r="AM31" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AN31" s="26" t="s">
+      <c r="AN31" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP31" s="27" t="s">
+      <c r="AO31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP31" s="18" t="s">
         <v>721</v>
       </c>
-      <c r="AQ31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS31" s="26" t="s">
+      <c r="AQ31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS31" s="11" t="s">
         <v>722</v>
       </c>
-      <c r="AU31" s="26" t="s">
+      <c r="AU31" s="11" t="s">
         <v>723</v>
       </c>
-      <c r="AW31" s="26" t="s">
+      <c r="AW31" s="11" t="s">
         <v>724</v>
       </c>
-      <c r="AX31" s="26" t="s">
+      <c r="AX31" s="11" t="s">
         <v>201</v>
       </c>
-      <c r="AY31" s="26" t="s">
+      <c r="AY31" s="11" t="s">
         <v>725</v>
       </c>
-      <c r="BC31" s="27" t="s">
+      <c r="BC31" s="18" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="31">
-        <v>45567.32146018519</v>
-      </c>
-      <c r="B32" s="32" t="s">
+    <row r="32" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="4">
+        <v>45567.321460185187</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E32" s="32" t="s">
+      <c r="E32" s="5" t="s">
         <v>730</v>
       </c>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="19" t="s">
         <v>732</v>
       </c>
-      <c r="H32" s="32" t="s">
+      <c r="H32" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="I32" s="32" t="s">
+      <c r="I32" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="J32" s="32" t="s">
+      <c r="J32" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="K32" s="32" t="s">
+      <c r="K32" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="L32" s="32" t="s">
+      <c r="L32" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="M32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N32" s="32" t="s">
+      <c r="M32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="O32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P32" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="Q32" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R32" s="32" t="s">
+      <c r="O32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P32" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q32" s="7">
+        <v>1</v>
+      </c>
+      <c r="R32" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T32" s="32" t="s">
+      <c r="S32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T32" s="5" t="s">
         <v>738</v>
       </c>
-      <c r="U32" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="V32" s="32" t="s">
+      <c r="U32" s="5">
+        <v>1</v>
+      </c>
+      <c r="V32" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="W32" s="32" t="s">
+      <c r="W32" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="X32" s="32" t="s">
+      <c r="X32" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="Y32" s="32" t="s">
+      <c r="Y32" s="5" t="s">
         <v>742</v>
       </c>
-      <c r="Z32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH32" s="32" t="s">
+      <c r="Z32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH32" s="5" t="s">
         <v>743</v>
       </c>
-      <c r="AI32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL32" s="32" t="s">
+      <c r="AI32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL32" s="5" t="s">
         <v>744</v>
       </c>
-      <c r="AM32" s="32" t="s">
+      <c r="AM32" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN32" s="32" t="s">
+      <c r="AN32" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="AO32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ32" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR32" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS32" s="32" t="s">
+      <c r="AO32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS32" s="5" t="s">
         <v>745</v>
       </c>
-      <c r="AT32" s="32" t="s">
+      <c r="AT32" s="5" t="s">
         <v>746</v>
       </c>
-      <c r="AU32" s="32" t="s">
+      <c r="AU32" s="5" t="s">
         <v>747</v>
       </c>
-      <c r="AX32" s="32" t="s">
+      <c r="AX32" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="AY32" s="32" t="s">
+      <c r="AY32" s="5" t="s">
         <v>748</v>
       </c>
-      <c r="AZ32" s="32" t="s">
+      <c r="AZ32" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="BA32" s="32" t="s">
+      <c r="BA32" s="5" t="s">
         <v>749</v>
       </c>
-      <c r="BC32" s="32" t="s">
+      <c r="BC32" s="5" t="s">
         <v>750</v>
       </c>
-      <c r="BD32" s="36" t="s">
+      <c r="BD32" s="9" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="25">
-        <v>45567.34257298611</v>
-      </c>
-      <c r="B33" s="26" t="s">
+    <row r="33" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="10">
+        <v>45567.342572986112</v>
+      </c>
+      <c r="B33" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="C33" s="26" t="s">
+      <c r="C33" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="D33" s="26" t="s">
-        <v>494</v>
-      </c>
-      <c r="E33" s="26" t="s">
+      <c r="D33" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="E33" s="11" t="s">
         <v>752</v>
       </c>
-      <c r="F33" s="26" t="s">
+      <c r="F33" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="G33" s="27" t="s">
+      <c r="G33" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="H33" s="26" t="s">
+      <c r="H33" s="27" t="s">
         <v>523</v>
       </c>
-      <c r="I33" s="26" t="s">
+      <c r="I33" s="11" t="s">
         <v>755</v>
       </c>
-      <c r="J33" s="26" t="s">
+      <c r="J33" s="11" t="s">
         <v>756</v>
       </c>
-      <c r="K33" s="26" t="s">
+      <c r="K33" s="11" t="s">
         <v>757</v>
       </c>
-      <c r="L33" s="26" t="s">
+      <c r="L33" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="M33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N33" s="26" t="s">
+      <c r="M33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N33" s="11" t="s">
         <v>758</v>
       </c>
-      <c r="O33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="P33" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="Q33" s="28">
-        <v>1.0</v>
-      </c>
-      <c r="R33" s="26" t="s">
+      <c r="O33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P33" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>1</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T33" s="26">
-        <v>1.0</v>
-      </c>
-      <c r="U33" s="26" t="s">
+      <c r="S33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T33" s="11">
+        <v>1</v>
+      </c>
+      <c r="U33" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="V33" s="26" t="s">
+      <c r="V33" s="11" t="s">
         <v>760</v>
       </c>
-      <c r="W33" s="26" t="s">
+      <c r="W33" s="11" t="s">
         <v>761</v>
       </c>
-      <c r="X33" s="26" t="s">
+      <c r="X33" s="11" t="s">
         <v>505</v>
       </c>
-      <c r="Y33" s="29">
-        <v>1470000.0</v>
-      </c>
-      <c r="Z33" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA33" s="26" t="s">
+      <c r="Y33" s="14">
+        <v>1470000</v>
+      </c>
+      <c r="Z33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA33" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="AB33" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC33" s="26" t="s">
+      <c r="AB33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC33" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="AD33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE33" s="26" t="s">
+      <c r="AD33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE33" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="AF33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG33" s="27" t="s">
+      <c r="AF33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG33" s="18" t="s">
         <v>763</v>
       </c>
-      <c r="AH33" s="26" t="s">
+      <c r="AH33" s="11" t="s">
         <v>764</v>
       </c>
-      <c r="AI33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK33" s="26" t="s">
+      <c r="AI33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK33" s="11" t="s">
         <v>765</v>
       </c>
-      <c r="AL33" s="26" t="s">
+      <c r="AL33" s="11" t="s">
         <v>510</v>
       </c>
-      <c r="AM33" s="26" t="s">
+      <c r="AM33" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN33" s="26" t="s">
+      <c r="AN33" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="AO33" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP33" s="26" t="s">
+      <c r="AO33" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AP33" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="AQ33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR33" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS33" s="26" t="s">
+      <c r="AQ33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS33" s="11" t="s">
         <v>512</v>
       </c>
-      <c r="AW33" s="26" t="s">
+      <c r="AW33" s="11" t="s">
         <v>766</v>
       </c>
-      <c r="AX33" s="26" t="s">
+      <c r="AX33" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="AY33" s="26" t="s">
+      <c r="AY33" s="11" t="s">
         <v>515</v>
       </c>
-      <c r="BA33" s="26" t="s">
+      <c r="BA33" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="BC33" s="27" t="s">
+      <c r="BC33" s="18" t="s">
         <v>768</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="31">
-        <v>45567.40895445602</v>
-      </c>
-      <c r="B34" s="32" t="s">
+    <row r="34" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="4">
+        <v>45567.408954456019</v>
+      </c>
+      <c r="B34" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C34" s="32" t="s">
+      <c r="C34" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E34" s="32" t="s">
+      <c r="E34" s="5" t="s">
         <v>772</v>
       </c>
-      <c r="F34" s="32" t="s">
+      <c r="F34" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="G34" s="33" t="s">
+      <c r="G34" s="19" t="s">
         <v>774</v>
       </c>
-      <c r="H34" s="32" t="s">
+      <c r="H34" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="I34" s="32" t="s">
+      <c r="I34" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="J34" s="32" t="s">
+      <c r="J34" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="K34" s="32" t="s">
+      <c r="K34" s="5" t="s">
         <v>778</v>
       </c>
-      <c r="L34" s="32" t="s">
+      <c r="L34" s="5" t="s">
         <v>779</v>
       </c>
-      <c r="M34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="N34" s="32" t="s">
+      <c r="M34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N34" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="O34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="P34" s="34">
+      <c r="O34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P34" s="7">
         <v>0.6</v>
       </c>
-      <c r="Q34" s="34">
-        <v>1.0</v>
-      </c>
-      <c r="R34" s="32" t="s">
+      <c r="Q34" s="7">
+        <v>1</v>
+      </c>
+      <c r="R34" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="S34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="T34" s="32" t="s">
+      <c r="S34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T34" s="5" t="s">
         <v>780</v>
       </c>
-      <c r="U34" s="32">
-        <v>1.0</v>
-      </c>
-      <c r="V34" s="32">
-        <v>250.0</v>
-      </c>
-      <c r="W34" s="32">
-        <v>14000.0</v>
-      </c>
-      <c r="X34" s="35">
-        <v>60000.0</v>
-      </c>
-      <c r="Y34" s="35">
-        <v>400000.0</v>
-      </c>
-      <c r="Z34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA34" s="33" t="s">
+      <c r="U34" s="5">
+        <v>1</v>
+      </c>
+      <c r="V34" s="5">
+        <v>250</v>
+      </c>
+      <c r="W34" s="5">
+        <v>14000</v>
+      </c>
+      <c r="X34" s="8">
+        <v>60000</v>
+      </c>
+      <c r="Y34" s="8">
+        <v>400000</v>
+      </c>
+      <c r="Z34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA34" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="AD34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE34" s="32" t="s">
+      <c r="AD34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="AF34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG34" s="33" t="s">
+      <c r="AF34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG34" s="19" t="s">
         <v>783</v>
       </c>
-      <c r="AI34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK34" s="32" t="s">
+      <c r="AI34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK34" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="AL34" s="32" t="s">
+      <c r="AL34" s="5" t="s">
         <v>785</v>
       </c>
-      <c r="AM34" s="32" t="s">
+      <c r="AM34" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="AN34" s="32" t="s">
+      <c r="AN34" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AR34" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS34" s="32" t="s">
+      <c r="AR34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS34" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="AT34" s="32" t="s">
+      <c r="AT34" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="AU34" s="32" t="s">
+      <c r="AU34" s="5" t="s">
         <v>443</v>
       </c>
-      <c r="AW34" s="32" t="s">
+      <c r="AW34" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="AX34" s="32" t="s">
+      <c r="AX34" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="AZ34" s="32" t="s">
+      <c r="AZ34" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="BC34" s="32" t="s">
+      <c r="BC34" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="BD34" s="36" t="s">
+      <c r="BD34" s="9" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="25">
-        <v>45567.54524048611</v>
-      </c>
-      <c r="B35" s="26" t="s">
+    <row r="35" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="10">
+        <v>45567.545240486113</v>
+      </c>
+      <c r="B35" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="C35" s="26" t="s">
+      <c r="C35" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="D35" s="26" t="s">
+      <c r="D35" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E35" s="11" t="s">
         <v>794</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F35" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="G35" s="27" t="s">
+      <c r="G35" s="18" t="s">
         <v>796</v>
       </c>
-      <c r="H35" s="26" t="s">
+      <c r="H35" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="I35" s="26" t="s">
+      <c r="I35" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="J35" s="26" t="s">
+      <c r="J35" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="K35" s="26" t="s">
+      <c r="K35" s="11" t="s">
         <v>799</v>
       </c>
-      <c r="L35" s="26" t="s">
+      <c r="L35" s="11" t="s">
         <v>800</v>
       </c>
-      <c r="M35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" s="26" t="s">
+      <c r="M35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="11" t="s">
         <v>801</v>
       </c>
-      <c r="O35" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P35" s="28">
+      <c r="O35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="P35" s="13">
         <v>0.25</v>
       </c>
-      <c r="Q35" s="26" t="s">
+      <c r="Q35" s="11" t="s">
         <v>802</v>
       </c>
-      <c r="R35" s="26" t="s">
+      <c r="R35" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="S35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="T35" s="26" t="s">
+      <c r="S35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T35" s="11" t="s">
         <v>803</v>
       </c>
-      <c r="U35" s="26">
-        <v>4.0</v>
-      </c>
-      <c r="V35" s="26" t="s">
+      <c r="U35" s="11">
+        <v>4</v>
+      </c>
+      <c r="V35" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="W35" s="26" t="s">
+      <c r="W35" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="X35" s="26" t="s">
+      <c r="X35" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="Y35" s="26" t="s">
+      <c r="Y35" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="Z35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" s="26" t="s">
+      <c r="Z35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="AB35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC35" s="26" t="s">
+      <c r="AB35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC35" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="AD35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE35" s="26" t="s">
+      <c r="AD35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="AF35" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH35" s="26" t="s">
+      <c r="AF35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="11" t="s">
         <v>811</v>
       </c>
-      <c r="AI35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK35" s="26" t="s">
+      <c r="AI35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK35" s="11" t="s">
         <v>812</v>
       </c>
-      <c r="AL35" s="26" t="s">
+      <c r="AL35" s="11" t="s">
         <v>813</v>
       </c>
-      <c r="AM35" s="26" t="s">
+      <c r="AM35" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN35" s="26" t="s">
+      <c r="AN35" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="AO35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP35" s="26" t="s">
+      <c r="AO35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP35" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="AQ35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR35" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS35" s="26" t="s">
+      <c r="AQ35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS35" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="AT35" s="26" t="s">
+      <c r="AT35" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="AU35" s="26" t="s">
+      <c r="AU35" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="AV35" s="26" t="s">
+      <c r="AV35" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="AW35" s="26" t="s">
+      <c r="AW35" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="AX35" s="26" t="s">
+      <c r="AX35" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="AY35" s="26" t="s">
+      <c r="AY35" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="AZ35" s="26" t="s">
+      <c r="AZ35" s="11" t="s">
         <v>820</v>
       </c>
-      <c r="BA35" s="26" t="s">
+      <c r="BA35" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="BB35" s="26" t="s">
+      <c r="BB35" s="11" t="s">
         <v>821</v>
       </c>
-      <c r="BC35" s="27" t="s">
+      <c r="BC35" s="18" t="s">
         <v>822</v>
       </c>
-      <c r="BD35" s="30" t="s">
+      <c r="BD35" s="15" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="39">
+    <row r="36" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="4">
         <v>45568.29184928241</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="D36" s="40" t="s">
+      <c r="D36" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="E36" s="40" t="s">
+      <c r="E36" s="5" t="s">
         <v>826</v>
       </c>
-      <c r="F36" s="40" t="s">
+      <c r="F36" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="G36" s="41" t="s">
+      <c r="G36" s="19" t="s">
         <v>828</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="5" t="s">
         <v>829</v>
       </c>
-      <c r="I36" s="40" t="s">
+      <c r="I36" s="5" t="s">
         <v>830</v>
       </c>
-      <c r="J36" s="40" t="s">
+      <c r="J36" s="5" t="s">
         <v>831</v>
       </c>
-      <c r="L36" s="40" t="s">
+      <c r="L36" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="M36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="O36" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="P36" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="Q36" s="42">
-        <v>1.0</v>
-      </c>
-      <c r="R36" s="40" t="s">
+      <c r="M36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P36" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>1</v>
+      </c>
+      <c r="R36" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S36" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="T36" s="40" t="s">
+      <c r="S36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T36" s="5" t="s">
         <v>832</v>
       </c>
-      <c r="U36" s="40">
-        <v>1.0</v>
-      </c>
-      <c r="V36" s="40">
-        <v>100.0</v>
-      </c>
-      <c r="W36" s="40">
-        <v>500.0</v>
-      </c>
-      <c r="X36" s="40" t="s">
+      <c r="U36" s="5">
+        <v>1</v>
+      </c>
+      <c r="V36" s="5">
+        <v>100</v>
+      </c>
+      <c r="W36" s="5">
+        <v>500</v>
+      </c>
+      <c r="X36" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="Y36" s="40" t="s">
+      <c r="Y36" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="Z36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI36" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ36" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK36" s="40" t="s">
+      <c r="Z36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK36" s="5" t="s">
         <v>835</v>
       </c>
-      <c r="AL36" s="40" t="s">
+      <c r="AL36" s="5" t="s">
         <v>836</v>
       </c>
-      <c r="AM36" s="40" t="s">
+      <c r="AM36" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="AN36" s="40" t="s">
+      <c r="AN36" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AO36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AQ36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR36" s="40" t="s">
-        <v>70</v>
-      </c>
-      <c r="AU36" s="40" t="s">
+      <c r="AO36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AU36" s="5" t="s">
         <v>837</v>
       </c>
-      <c r="AV36" s="40" t="s">
+      <c r="AV36" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AX36" s="40" t="s">
+      <c r="AX36" s="5" t="s">
         <v>838</v>
       </c>
-      <c r="BC36" s="41" t="s">
+      <c r="BC36" s="19" t="s">
         <v>839</v>
+      </c>
+    </row>
+    <row r="37" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="10">
+        <v>45569.360684722225</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>840</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="D37" s="11" t="s">
+        <v>842</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>843</v>
+      </c>
+      <c r="F37" s="11" t="s">
+        <v>844</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>845</v>
+      </c>
+      <c r="H37" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="I37" s="11" t="s">
+        <v>847</v>
+      </c>
+      <c r="J37" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="L37" s="11" t="s">
+        <v>849</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="11" t="s">
+        <v>850</v>
+      </c>
+      <c r="O37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>1</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="V37" s="11">
+        <v>75</v>
+      </c>
+      <c r="W37" s="11">
+        <v>153</v>
+      </c>
+      <c r="Z37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG37" s="18" t="s">
+        <v>852</v>
+      </c>
+      <c r="AI37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM37" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN37" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR37" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS37" s="11" t="s">
+        <v>853</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>854</v>
+      </c>
+      <c r="AY37" s="11" t="s">
+        <v>855</v>
+      </c>
+      <c r="AZ37" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BA37" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="BC37" s="18" t="s">
+        <v>856</v>
+      </c>
+      <c r="BD37" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="4">
+        <v>45569.387020127309</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>857</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>859</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>860</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="G38" s="19" t="s">
+        <v>862</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>858</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>863</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>864</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>865</v>
+      </c>
+      <c r="L38" s="5" t="s">
+        <v>866</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>867</v>
+      </c>
+      <c r="O38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P38" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="Q38" s="7">
+        <v>1</v>
+      </c>
+      <c r="R38" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T38" s="5">
+        <v>3</v>
+      </c>
+      <c r="U38" s="5">
+        <v>2</v>
+      </c>
+      <c r="V38" s="5">
+        <v>75</v>
+      </c>
+      <c r="W38" s="5">
+        <v>0</v>
+      </c>
+      <c r="X38" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM38" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AN38" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS38" s="5" t="s">
+        <v>870</v>
+      </c>
+      <c r="AU38" s="5" t="s">
+        <v>871</v>
+      </c>
+      <c r="AV38" s="5" t="s">
+        <v>872</v>
+      </c>
+      <c r="AW38" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="AX38" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="AZ38" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="BC38" s="19" t="s">
+        <v>873</v>
+      </c>
+      <c r="BD38" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="10">
+        <v>45569.452661145835</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>875</v>
+      </c>
+      <c r="D39" s="11" t="s">
+        <v>876</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>877</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>879</v>
+      </c>
+      <c r="H39" s="11" t="s">
+        <v>880</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>881</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>882</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>883</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="O39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P39" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>1</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="U39" s="11">
+        <v>2</v>
+      </c>
+      <c r="V39" s="11" t="s">
+        <v>886</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>887</v>
+      </c>
+      <c r="X39" s="11" t="s">
+        <v>888</v>
+      </c>
+      <c r="Y39" s="11" t="s">
+        <v>889</v>
+      </c>
+      <c r="Z39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" s="11" t="s">
+        <v>890</v>
+      </c>
+      <c r="AB39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC39" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="AD39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE39" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="AF39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="AI39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM39" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN39" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS39" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="AU39" s="11" t="s">
+        <v>896</v>
+      </c>
+      <c r="AV39" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AW39" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="AX39" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA39" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="BC39" s="18" t="s">
+        <v>891</v>
+      </c>
+      <c r="BD39" s="15" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="40" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="4">
+        <v>45569.547512013887</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>898</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>900</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>901</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>902</v>
+      </c>
+      <c r="G40" s="19" t="s">
+        <v>903</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>899</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>904</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>905</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="L40" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P40" s="7">
+        <v>1</v>
+      </c>
+      <c r="Q40" s="7">
+        <v>1</v>
+      </c>
+      <c r="R40" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T40" s="5">
+        <v>15000</v>
+      </c>
+      <c r="U40" s="5">
+        <v>1</v>
+      </c>
+      <c r="V40" s="5">
+        <v>50</v>
+      </c>
+      <c r="W40" s="8">
+        <v>20000</v>
+      </c>
+      <c r="X40" s="8">
+        <v>240000</v>
+      </c>
+      <c r="Y40" s="20">
+        <v>100000</v>
+      </c>
+      <c r="AV40" s="5" t="s">
+        <v>908</v>
+      </c>
+      <c r="AW40" s="5" t="s">
+        <v>649</v>
+      </c>
+      <c r="AX40" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="AY40" s="5" t="s">
+        <v>909</v>
+      </c>
+      <c r="BC40" s="19" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="41" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="22">
+        <v>45570.652237361108</v>
+      </c>
+      <c r="B41" s="23" t="s">
+        <v>911</v>
+      </c>
+      <c r="C41" s="23" t="s">
+        <v>912</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>913</v>
+      </c>
+      <c r="E41" s="23" t="s">
+        <v>914</v>
+      </c>
+      <c r="F41" s="23" t="s">
+        <v>915</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>917</v>
+      </c>
+      <c r="I41" s="23" t="s">
+        <v>918</v>
+      </c>
+      <c r="J41" s="23" t="s">
+        <v>919</v>
+      </c>
+      <c r="K41" s="23" t="s">
+        <v>920</v>
+      </c>
+      <c r="L41" s="23" t="s">
+        <v>921</v>
+      </c>
+      <c r="M41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="23" t="s">
+        <v>922</v>
+      </c>
+      <c r="P41" s="25">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="25">
+        <v>0.7</v>
+      </c>
+      <c r="R41" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="T41" s="23" t="s">
+        <v>923</v>
+      </c>
+      <c r="U41" s="23">
+        <v>3</v>
+      </c>
+      <c r="V41" s="23" t="s">
+        <v>924</v>
+      </c>
+      <c r="W41" s="23" t="s">
+        <v>925</v>
+      </c>
+      <c r="X41" s="23" t="s">
+        <v>926</v>
+      </c>
+      <c r="Y41" s="23" t="s">
+        <v>927</v>
+      </c>
+      <c r="Z41" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA41" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="AB41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC41" s="23" t="s">
+        <v>928</v>
+      </c>
+      <c r="AD41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE41" s="23" t="s">
+        <v>929</v>
+      </c>
+      <c r="AF41" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG41" s="23" t="s">
+        <v>930</v>
+      </c>
+      <c r="AH41" s="23" t="s">
+        <v>931</v>
+      </c>
+      <c r="AI41" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ41" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM41" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN41" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP41" s="23" t="s">
+        <v>932</v>
+      </c>
+      <c r="AQ41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR41" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS41" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ41" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC41" s="24" t="s">
+        <v>933</v>
+      </c>
+      <c r="BD41" s="26" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G2"/>
-    <hyperlink r:id="rId2" ref="BC2"/>
-    <hyperlink r:id="rId3" ref="G3"/>
-    <hyperlink r:id="rId4" ref="AC3"/>
-    <hyperlink r:id="rId5" ref="G4"/>
-    <hyperlink r:id="rId6" ref="G5"/>
-    <hyperlink r:id="rId7" ref="G6"/>
-    <hyperlink r:id="rId8" ref="AC6"/>
-    <hyperlink r:id="rId9" ref="AG6"/>
-    <hyperlink r:id="rId10" ref="BC6"/>
-    <hyperlink r:id="rId11" ref="G7"/>
-    <hyperlink r:id="rId12" ref="AA7"/>
-    <hyperlink r:id="rId13" ref="AG7"/>
-    <hyperlink r:id="rId14" ref="G8"/>
-    <hyperlink r:id="rId15" ref="AG8"/>
-    <hyperlink r:id="rId16" ref="BC8"/>
-    <hyperlink r:id="rId17" ref="G9"/>
-    <hyperlink r:id="rId18" ref="AA9"/>
-    <hyperlink r:id="rId19" ref="AC9"/>
-    <hyperlink r:id="rId20" ref="AG9"/>
-    <hyperlink r:id="rId21" ref="BC9"/>
-    <hyperlink r:id="rId22" ref="G10"/>
-    <hyperlink r:id="rId23" ref="AG10"/>
-    <hyperlink r:id="rId24" ref="AH10"/>
-    <hyperlink r:id="rId25" ref="AP10"/>
-    <hyperlink r:id="rId26" ref="BC10"/>
-    <hyperlink r:id="rId27" ref="G11"/>
-    <hyperlink r:id="rId28" ref="BC11"/>
-    <hyperlink r:id="rId29" ref="G12"/>
-    <hyperlink r:id="rId30" ref="BC12"/>
-    <hyperlink r:id="rId31" ref="G13"/>
-    <hyperlink r:id="rId32" ref="AC13"/>
-    <hyperlink r:id="rId33" ref="G14"/>
-    <hyperlink r:id="rId34" ref="BC14"/>
-    <hyperlink r:id="rId35" ref="G15"/>
-    <hyperlink r:id="rId36" ref="AG15"/>
-    <hyperlink r:id="rId37" ref="BC15"/>
-    <hyperlink r:id="rId38" ref="G16"/>
-    <hyperlink r:id="rId39" ref="BC16"/>
-    <hyperlink r:id="rId40" ref="G17"/>
-    <hyperlink r:id="rId41" ref="AG17"/>
-    <hyperlink r:id="rId42" ref="G18"/>
-    <hyperlink r:id="rId43" ref="AA18"/>
-    <hyperlink r:id="rId44" ref="AG18"/>
-    <hyperlink r:id="rId45" ref="BC18"/>
-    <hyperlink r:id="rId46" ref="G19"/>
-    <hyperlink r:id="rId47" ref="AG19"/>
-    <hyperlink r:id="rId48" ref="BC19"/>
-    <hyperlink r:id="rId49" ref="G20"/>
-    <hyperlink r:id="rId50" ref="BC20"/>
-    <hyperlink r:id="rId51" ref="G21"/>
-    <hyperlink r:id="rId52" ref="BC21"/>
-    <hyperlink r:id="rId53" ref="G22"/>
-    <hyperlink r:id="rId54" ref="AG22"/>
-    <hyperlink r:id="rId55" ref="BC22"/>
-    <hyperlink r:id="rId56" ref="G23"/>
-    <hyperlink r:id="rId57" ref="AG23"/>
-    <hyperlink r:id="rId58" ref="BC23"/>
-    <hyperlink r:id="rId59" ref="G24"/>
-    <hyperlink r:id="rId60" ref="BC24"/>
-    <hyperlink r:id="rId61" ref="G25"/>
-    <hyperlink r:id="rId62" ref="AE25"/>
-    <hyperlink r:id="rId63" ref="AG25"/>
-    <hyperlink r:id="rId64" ref="BC25"/>
-    <hyperlink r:id="rId65" ref="G26"/>
-    <hyperlink r:id="rId66" ref="BC26"/>
-    <hyperlink r:id="rId67" ref="G27"/>
-    <hyperlink r:id="rId68" ref="BC27"/>
-    <hyperlink r:id="rId69" ref="G28"/>
-    <hyperlink r:id="rId70" ref="AG28"/>
-    <hyperlink r:id="rId71" ref="BC28"/>
-    <hyperlink r:id="rId72" ref="G29"/>
-    <hyperlink r:id="rId73" ref="AG29"/>
-    <hyperlink r:id="rId74" ref="BC29"/>
-    <hyperlink r:id="rId75" ref="G30"/>
-    <hyperlink r:id="rId76" ref="AG30"/>
-    <hyperlink r:id="rId77" ref="BC30"/>
-    <hyperlink r:id="rId78" ref="G31"/>
-    <hyperlink r:id="rId79" ref="AA31"/>
-    <hyperlink r:id="rId80" ref="AP31"/>
-    <hyperlink r:id="rId81" ref="BC31"/>
-    <hyperlink r:id="rId82" ref="G32"/>
-    <hyperlink r:id="rId83" ref="G33"/>
-    <hyperlink r:id="rId84" ref="AG33"/>
-    <hyperlink r:id="rId85" ref="BC33"/>
-    <hyperlink r:id="rId86" ref="G34"/>
-    <hyperlink r:id="rId87" ref="AA34"/>
-    <hyperlink r:id="rId88" ref="AG34"/>
-    <hyperlink r:id="rId89" ref="G35"/>
-    <hyperlink r:id="rId90" ref="BC35"/>
-    <hyperlink r:id="rId91" ref="G36"/>
-    <hyperlink r:id="rId92" ref="BC36"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="BC2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="G3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="AC3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="G4" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="G5" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="G6" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="AC6" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="AG6" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="BC6" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="G7" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="AA7" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="AG7" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="G8" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="AG8" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="BC8" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="G9" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="AA9" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="AC9" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="AG9" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="BC9" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="G10" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="AG10" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="AH10" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="AP10" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="BC10" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="G11" r:id="rId27" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="BC11" r:id="rId28" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="G12" r:id="rId29" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="BC12" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="G13" r:id="rId31" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="AC13" r:id="rId32" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="G14" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="BC14" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="G15" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="AG15" r:id="rId36" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="BC15" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="G16" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="BC16" r:id="rId39" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="G17" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="AG17" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="G18" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="AA18" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="AG18" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="BC18" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="G19" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="AG19" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="BC19" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="G20" r:id="rId49" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="BC20" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="G21" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="BC21" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="G22" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="AG22" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="BC22" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="G23" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="AG23" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="BC23" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="G24" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="BC24" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="G25" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="AE25" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="AG25" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="BC25" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="G26" r:id="rId65" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="BC26" r:id="rId66" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="G27" r:id="rId67" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="BC27" r:id="rId68" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="G28" r:id="rId69" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="AG28" r:id="rId70" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="BC28" r:id="rId71" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="G29" r:id="rId72" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="AG29" r:id="rId73" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="BC29" r:id="rId74" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="G30" r:id="rId75" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="AG30" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="BC30" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="G31" r:id="rId78" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="AA31" r:id="rId79" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="AP31" r:id="rId80" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="BC31" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="G32" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="G33" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="AG33" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="BC33" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="G34" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="AA34" r:id="rId87" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="AG34" r:id="rId88" xr:uid="{00000000-0004-0000-0000-000057000000}"/>
+    <hyperlink ref="G35" r:id="rId89" xr:uid="{00000000-0004-0000-0000-000058000000}"/>
+    <hyperlink ref="BC35" r:id="rId90" xr:uid="{00000000-0004-0000-0000-000059000000}"/>
+    <hyperlink ref="G36" r:id="rId91" xr:uid="{00000000-0004-0000-0000-00005A000000}"/>
+    <hyperlink ref="BC36" r:id="rId92" xr:uid="{00000000-0004-0000-0000-00005B000000}"/>
+    <hyperlink ref="G37" r:id="rId93" xr:uid="{00000000-0004-0000-0000-00005C000000}"/>
+    <hyperlink ref="AG37" r:id="rId94" xr:uid="{00000000-0004-0000-0000-00005D000000}"/>
+    <hyperlink ref="BC37" r:id="rId95" xr:uid="{00000000-0004-0000-0000-00005E000000}"/>
+    <hyperlink ref="G38" r:id="rId96" xr:uid="{00000000-0004-0000-0000-00005F000000}"/>
+    <hyperlink ref="BC38" r:id="rId97" xr:uid="{00000000-0004-0000-0000-000060000000}"/>
+    <hyperlink ref="G39" r:id="rId98" xr:uid="{00000000-0004-0000-0000-000061000000}"/>
+    <hyperlink ref="AC39" r:id="rId99" xr:uid="{00000000-0004-0000-0000-000062000000}"/>
+    <hyperlink ref="BC39" r:id="rId100" xr:uid="{00000000-0004-0000-0000-000063000000}"/>
+    <hyperlink ref="G40" r:id="rId101" xr:uid="{00000000-0004-0000-0000-000064000000}"/>
+    <hyperlink ref="BC40" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
+    <hyperlink ref="G41" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
+    <hyperlink ref="BC41" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
+    <hyperlink ref="H33" r:id="rId105" xr:uid="{F424230D-CE84-B141-A1C5-BDED2E23C654}"/>
   </hyperlinks>
-  <drawing r:id="rId93"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId95"/>
+    <tablePart r:id="rId106"/>
   </tableParts>
 </worksheet>
 </file>
--- a/utils/HealthSolutionsData.xlsx
+++ b/utils/HealthSolutionsData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/DIAL/exchange-backend/utils/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sconrad/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C589E794-1784-6944-AFD9-914DB0503CD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4375C48A-A71F-0F47-8E99-514BAAA04A7C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="900" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form Responses 1" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="N48" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>Responder updated this value.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1639" uniqueCount="934">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2043" uniqueCount="1142">
   <si>
     <t>Timestamp</t>
   </si>
@@ -851,9 +874,6 @@
   </si>
   <si>
     <t>Cape Town, South Africa</t>
-  </si>
-  <si>
-    <t>South Africa, Zambia, Lesotho, Nigeria, Ghana, Botswana and Ethiopia.</t>
   </si>
   <si>
     <t>2: 1 App , 1 Web portal</t>
@@ -1389,9 +1409,6 @@
   </si>
   <si>
     <t xml:space="preserve">Cairo, Egypt </t>
-  </si>
-  <si>
-    <t>Egypt, Libya, Tunisia, Morocco, South Africa, Sudan and Nigeria</t>
   </si>
   <si>
     <t>1000+ Unique customers</t>
@@ -3375,17 +3392,783 @@
   <si>
     <t>https://mscanug.com/</t>
   </si>
+  <si>
+    <t>GUYLAIN BADESI</t>
+  </si>
+  <si>
+    <t>guylainbadesi@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HEALTH-MALAMU </t>
+  </si>
+  <si>
+    <t>HEALTH-MALAMU</t>
+  </si>
+  <si>
+    <t>Our solution is a digital platform for health records, offering patients the convenience of storing their medical and personal data in a centralized location accessible through both web and mobile applications. The platform integrates with a card or bracelet for quick retrieval of medical information during emergencies</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1CZ28fOL23d1YcuMDah4HKsnMwqbfvjuU</t>
+  </si>
+  <si>
+    <t>healthmalamu@gmail.com</t>
+  </si>
+  <si>
+    <t>Electronic Health Record</t>
+  </si>
+  <si>
+    <t>Our solution is designed to transform the healthcare landscape in Africa by improving access to care, optimising health data management and strengthening communication between patients and healthcare professionals.</t>
+  </si>
+  <si>
+    <t>Our product meets a growing need to improve healthcare data management in Africa. In many African countries, access to healthcare is often hampered by inefficient information systems and limited infrastructure. The digital health record makes it possible to centralise and secure patients' medical information, making it easier to track treatment, vaccinations and medical history. This meets an urgent need to improve the traceability and continuity of care in a context where resources are often limited.</t>
+  </si>
+  <si>
+    <t>Democratic Republic of the Congo</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>33120 users</t>
+  </si>
+  <si>
+    <t>60 000$</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Clinical decision support, Patient Data Import/Export, Virtual care</t>
+  </si>
+  <si>
+    <t>Electronic prescribing</t>
+  </si>
+  <si>
+    <t>Send diagnostic results to providers, Capture results from digital devices</t>
+  </si>
+  <si>
+    <t>Diagnosis support, Integration with national health systems (DHIS2 or other)</t>
+  </si>
+  <si>
+    <t>https://x.com/HealthMalamu</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>Vula is software that connects healthworkers</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UQxe6S8eHBvjsHZhFF_HEQIREf9hxYeu</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, National and Community Health, Virtual Health</t>
+  </si>
+  <si>
+    <t>Vula's impact in South Africa and Ethiopia has been independently evaluated: https://www.vulamobile.com/research</t>
+  </si>
+  <si>
+    <t>Problem: access to specialist healthcare knowledge, expertise and referrals to specialist facilities. Impact to date: 1.9million patients helped, 38000 health workers on the platform. Described by the Department of Health as the "glue that holds the health system together and the oil that makes it work efficiently".</t>
+  </si>
+  <si>
+    <t>South Africa, Zambia, Nigeria, Ethiopia, Lesotho</t>
+  </si>
+  <si>
+    <t>38,000 registered health workers</t>
+  </si>
+  <si>
+    <t>Current: South Africa, Nigeria, Lesotho, Zambia. Previous pilots in Ethiopia and Botswana</t>
+  </si>
+  <si>
+    <t>40,000 patients</t>
+  </si>
+  <si>
+    <t>+/- $2,000,000</t>
+  </si>
+  <si>
+    <t>We were a producer FHIR in the past. We would need to restart on request.</t>
+  </si>
+  <si>
+    <t>This is done manually by frontline health workers. Copying and pasting from one system to the other.</t>
+  </si>
+  <si>
+    <t>We have a compliance process and incident reporting</t>
+  </si>
+  <si>
+    <t>Health workers register with their details and professional qualifications. There are some automated steps and a final manual step before final authorisation. Specialists need to be double authenticated by the head of their specialist service.</t>
+  </si>
+  <si>
+    <t>support@vulamobile.com</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Clinical decision support, Patient Data Import/Export, ER - Triage and Dashboard, Surgical Management, Virtual care</t>
+  </si>
+  <si>
+    <t>https://www.bbc.com/news/health-31877594</t>
+  </si>
+  <si>
+    <t>Dr. David Kamugundu</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> kamugundu@efiche.africa</t>
+  </si>
+  <si>
+    <t>eFiche Limited</t>
+  </si>
+  <si>
+    <t>eFiche</t>
+  </si>
+  <si>
+    <t>eFiche is an Electronic Medical Record (EMR) platform designed to revolutionize healthcare in Africa. It centralizes patient data through web and mobile applications, ensuring seamless information flow across the care continuum, connecting patients, providers, and health facilities.
+Healthcare providers use a facility-based web application to manage patient records, appointments, prescriptions, lab orders, and reports, streamlining workflows and improving efficiency. Patients benefit from a mobile portal to book appointments, access records, receive medication reminders, and communicate with providers, fostering engagement and proactive health management.
+eFiche's integrated approach captures data throughout the patient journey, from appointment booking to post-treatment follow-up, crucial for managing chronic conditions. This comprehensive data enables healthcare providers to deliver informed, personalized care.
+Beyond individual care, eFiche connects stakeholders through workforce tools, patient portals, and integration with national health systems, enhancing data sharing and reporting for better population health management. The Insights Hub uses advanced analytics to identify trends, predict outbreaks, and drive proactive planning.
+eFiche is also developing AI-powered tools to support nurses with clinical decisions, predictive care, and early trend detection, leading to more accurate diagnoses and personalized treatments.
+By integrating technology, data, and human expertise, eFiche is transforming healthcare in Africa, driving efficiency, data-driven insights, and AI-enabled diagnostic support.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=15SS4VkNbL6LKGz2yAt6PSAneXGaXmcRj</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kamudave@gmail.com </t>
+  </si>
+  <si>
+    <t>eFiche is bridging Africa's healthcare digital divide, replacing paper-based systems with an integrated Electronic Health Record (EHR) platform featuring telemedicine, AI diagnostics, and advanced analytics. Our system empowers healthcare providers by centralizing patient data, streamlining workflows, and improving decision-making. Patients gain access to their health information and active participation in their care through a patient portal.
+By leveraging AI for predictive care and personalized treatment, eFiche enhances early detection of health risks and facilitates research that informs public health interventions. Ultimately, eFiche fosters innovation, accessibility, and data-driven decision-making to improve health outcomes across Africa.</t>
+  </si>
+  <si>
+    <t>eFiche addresses a critical market need in Africa by providing a comprehensive digital solution for healthcare, particularly at primary level in remote and underserved areas across the African Continent. Our platform empowers healthcare providers and patients in areas with limited technology, focusing on health posts, centers, and district hospitals. By digitizing workflows, improving data management, and enabling access to medical records and health services, eFiche enhances care delivery and promotes patient engagement.
+Beyond direct care, eFiche leverages data to support governments, corporations, foundations, academic institutions, and NGOs with actionable insights for informed decision-making. This facilitates policy development, resource allocation, and public health interventions.
+eFiche’s impact drives systemic improvements, creating a more equitable, efficient, and accessible healthcare system across Africa.</t>
+  </si>
+  <si>
+    <t>52 health facilities expanding to 100 by year end</t>
+  </si>
+  <si>
+    <t>One Country - Rwanda Scaling to South Sudan Before Year End</t>
+  </si>
+  <si>
+    <t>30,401 Patient Visits per month</t>
+  </si>
+  <si>
+    <t>https://efiche.africa/standards</t>
+  </si>
+  <si>
+    <t>https://efiche.africa/docs/api</t>
+  </si>
+  <si>
+    <t>https://efiche.africa/integrations</t>
+  </si>
+  <si>
+    <t>https://efiche.africa/privacy</t>
+  </si>
+  <si>
+    <t>eFiche ensures the privacy and protection of Personal Health Information (PHI) through a, multi-layered security framework that complies with both national and international standards for data privacy and security. As a registered data processor with the National Cyber Security Agency (NCSA), eFiche adheres to stringent cybersecurity protocols that ensure the highest levels of protection for sensitive health information. Below are the key measures in place:
+1. Data Encryption
+In-Transit Encryption: eFiche uses Secure Socket Layer (SSL) and Transport Layer Security (TLS) protocols to encrypt PHI while it is being transmitted between users and servers. This ensures that sensitive data is protected from interception during its transmission over the internet. At-Rest Encryption: All PHI stored within eFiche’s databases is encrypted using strong encryption algorithms. This ensures that even if unauthorized parties gain access to the physical storage, they would not be able to read the information without decryption keys.
+2. Access Controls
+Role-Based Access Control (RBAC): eFiche enforces strict access controls, ensuring that only authorized users, such as healthcare professionals, can access the specific PHI necessary for their roles. This limits exposure to sensitive information.
+Multi-Factor Authentication (MFA): Users are required to verify their identity using multiple methods (e.g., passwords and one-time codes) before gaining access to sensitive health data. This significantly reduces the risk of unauthorized access.
+3. Data Anonymization and Minimization
+Anonymization: eFiche anonymizes personal data whenever possible, especially for use in research, analytics, or reporting, to ensure that no individual can be directly identified from the data.
+Minimization: eFiche collects only the necessary information needed for the specific purpose of providing healthcare services. Unnecessary data is either excluded or anonymized, ensuring minimal exposure of personal data.
+4. Audit Logs and Monitoring
+Comprehensive Logging: All access to PHI is logged, creating a detailed audit trail that tracks who accessed the data, when, and for what purpose. This ensures accountability and transparency in data handling.
+Continuous Monitoring: The system continuously monitors for suspicious activity, such as unauthorized access attempts or anomalies in usage patterns. If any potential breach is detected, alerts are triggered, and the security team initiates an investigation.
+5. Compliance with Local and International Standards
+As a registered data processor with the NCSA, eFiche complies with local Rwandan data protection regulations, including those governing the protection of Personal Health Information. eFiche also aligns with international standards like HIPAA (Health Insurance Portability and Accountability Act) and GDPR (General Data Protection Regulation), ensuring compliance with global best practices in data security.
+6. Data Storage and Retention Policies
+Data Retention: eFiche only retains PHI for as long as necessary to fulfill the purposes for which it was collected or as required by law. After that, data is securely deleted or anonymized.
+Backup Protection: eFiche ensures that all backups are encrypted and securely stored, making sure that data remains protected even in disaster recovery scenarios.
+7. User Rights and Consent Management
+Patient Control: Patients have control over their PHI through explicit consent mechanisms. eFiche allows patients to manage how their data is shared with healthcare providers and external parties, ensuring that no data is disclosed without their permission.
+User Rights: In compliance with data protection laws, patients have the right to access, correct, or delete their personal data, and can request restrictions on how their PHI is used.
+8. Regular Security Audits and Vulnerability Assessments
+eFiche undergoes regular internal and external security audits to identify and mitigate vulnerabilities. Periodic penetration testing is also conducted to ensure the system remains resilient to new and evolving threats.
+9. Incident Response and Breach Notification
+In the event of a data breach, eFiche has a well-defined incident response plan in place. This plan includes immediate containment of the breach, investigation, mitigation of any damage, and timely notification to affected individuals and regulatory bodies, as required by law.
+By implementing these comprehensive measures, eFiche ensures that Personal Health Information (PHI) is kept secure, private, and only accessible by authorized individuals. This helps build trust with healthcare providers and patients while aligning with both legal obligations and industry best practices for data protection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eFiche is designed with comprehensive audit logging and error reporting mechanisms to ensure data integrity, security, and transparency.
+Access Logs: We maintain detailed access logs for every session. This includes the time of access, user details, and IP address information to determine the location of access. These logs are critical for tracking user activity and ensuring accountability.
+Database Binlogs: All data-related events, such as read, write, update, and delete operations, are captured in binlogs. This allows us to perform exact investigations of any data modifications, making it possible to trace and audit every change at the database level.
+Error Reporting: Our system includes real-time error tracking and reporting. Any application errors or unusual activity are logged and reported for immediate resolution, ensuring minimal disruption to system performance and data integrity.
+Together, these mechanisms provide robust audit trails and error management, ensuring our EMR system is secure, transparent, and fully compliant with regulatory standards.
+</t>
+  </si>
+  <si>
+    <t>eFiche employs robust authentication and authorization mechanisms to ensure secure access and appropriate data handling:
+Authentication: We implement secure, token-based authentication using JSON Web Tokens (JWT). Each user must log in with their unique credentials, and upon successful authentication, they receive a time-bound JWT. This token is used to validate the user’s identity across all sessions without exposing sensitive information like passwords. We also support multi-factor authentication (MFA) for an additional layer of security, enhancing user verification.
+Authorization: Our system follows role-based access control (RBAC), where users are assigned specific roles and permissions. Access to various features and data is restricted based on these roles, ensuring that users can only perform actions or access data aligned with their authorization level. The system also dynamically checks permissions at every request to ensure secure and controlled access throughout the application.
+By combining token-based authentication and role-based authorization, our system ensures that only authorized users have access to sensitive medical data, maintaining both security and compliance with healthcare regulations.</t>
+  </si>
+  <si>
+    <t>https://efiche.africa/architecture</t>
+  </si>
+  <si>
+    <t>Individual Registration, Clinical decision support, CPOE/Order Management, Encounter Coding, Patient Billing, Patient Data Import/Export, X-Ray and Imaging, Patient care templates, Encounter Data Import/Export</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, Electronic prescribing, EHR Integration</t>
+  </si>
+  <si>
+    <t>https://efiche.africa/</t>
+  </si>
+  <si>
+    <t>Stephen Letchford</t>
+  </si>
+  <si>
+    <t>sletchford@bandahealth.org</t>
+  </si>
+  <si>
+    <t>Banda Health</t>
+  </si>
+  <si>
+    <t>BandaGo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BandaGo is a low-cost online clinic management system innovation specifically designed for low-resource frontline clinics in African slums and remote villages that enhances patient care and streamlining operations. The platform operates on widely available cellular internet, requiring only a basic laptop or tablet, making it accessible and affordable for clinics serving the world’s most vulnerable patients.
+BandaGo currently streamlines essential tasks such as patient record management, diagnosis and treatment tracking, cash and inventory management, and essential reporting, significantly mitigating theft, reducing the time and effort required for these processes, and eliminating lost records. Today, over 100 clinics in Kenya, Uganda, and Niger utilize BandaGo, collectively serving more than 600,000 patients annually.
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1XfnFmnZWcNQZ1t4MhHrSdRxDTUfQVcgp</t>
+  </si>
+  <si>
+    <t>info@bandahealth.org</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics, Disease Surveillance, Analytics and Data Aggregation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BandaGo's design roadmap is ambitious, empowering frontline clinics without doctors who see patients at the right time (i.e. within walking distance of their homes) to make the right diagnosis and prescribe the right treatment (i.e. long before it's they arrive at higher capacity facilities and it's too late). Our build-measure-learn innovation process focuses on achieving this social impact by delivering value to these clinics, ensuring each step of the way that what we build gets used.
+To date, our design roadmap has focused on adding value to right-time frontline clinics that meets their sustainability and workflow felt needs (e.g. affordably automating essential tasks such as patient record management, ICD-10-coded diagnosis and treatment tracking, cash and inventory management (mitigating theft), and reporting (selected external (e.g. decreasing MoH Outpatient diagnosis reporting time from 1-2 days/month to several minutes/month) and internal (e.g. finance and patient-related)). This already gives clinics more time, more information and more resources for expanding their patient care. Our upcoming design roadmap will increasingly impact these clinics ability to make the right diagnosis and initiate the right treatment as they see patients early in their illnesses.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BandaGo addresses a critical market need for the lowest-income communities in Africa, using technology to empower the small, locally owned clinics in these communities that care for patients within walking distance of their homes. These hardworking low-resource clinics are staffed by nurses, clinical officers and pharmacy technicians with limited education but a dedication to provide healthcare to people who need it. Clinic owners often accept payments as small as a few cents. They operate on razor-thin margins, providing the best patient care they can while struggling to keep their businesses afloat. Relying on basic paper-based systems, their limited cash and supplies often go missing or run out, their patient records are inadequate and time consuming to locate, and their diagnoses and treatments are frequently inappropriate.
+In the 21st century, the right technology in the right hands with the right partnerships can make a profound difference in improving access to healthcare for the poorest patients, from ensuring proper diagnosis, to streamlining referral, screening for financial vulnerability, coordinating access to financial assistance, and addressing the many interrelated social and spiritual realities these families face. But in today’s world, there are few incentives to de-risk life-saving healthcare technology innovations for clinics that serve the desperately poor, like those living in Africa’s slums and remote villages.
+Banda Health exists to de-risk these needed technology innovations, iteratively building and deploying an ambitious clinic management solution that enables clinic owners to provide better healthcare for their patients. BandaGo currently creates more clinic capacity each day by automating tasks and reports, housing electronic records, tracking supplies and money, enabling microcredit, and integrating all features of patient care in an intuitive online subscription-based technology ($4/month) that is accessed from simple laptops or tablets. A native mobile application version of the software is also in development. Banda partners provide staff development and mentoring for clinic staff, low-priced non-counterfeit essential medicines and supplies, and quality medical equipment and training. Currently 107 clinics in four countries are using BandaGo to better serve 600,000 patients annually. To date, BandaGo has been used to record more than 1.4 million patient visits and the growth rate continues to increase year over year.
+</t>
+  </si>
+  <si>
+    <t>Kenya, Niger, Uganda</t>
+  </si>
+  <si>
+    <t>107 clients</t>
+  </si>
+  <si>
+    <t>$260,000 (this does not include the value of seconded team members, which would roughly increase the value to $416,000)</t>
+  </si>
+  <si>
+    <t>https://app.openconceptlab.org/#/orgs/bandahealth/sources/BHGO/</t>
+  </si>
+  <si>
+    <t>https://www.bandahealth.org/bandahealthsolutions-privacypolicy/</t>
+  </si>
+  <si>
+    <t>Banda Heath takes a multi-pronged approach to ensure the privacy and protection of Personal Health Information (PHI):
+Understanding Relevant Laws: Banda Health works to be compliant with the GoK  Data Protection and Privacy Act, 2023.
+Employee Education: Banda Health educates their staff on data privacy procedures to ensure proper handling of PHI.
+Access Control: Banda Health employs a least privileged access strategy, limiting server access to only authorized personnel.
+Encryption: Patient data is encrypted at rest using full disk encryption and during transmission to and from BandaGo clients; Backup of all data is also created, stored and transmitted in an encrypted state.
+Client Data Access: Clients have no direct server access and are restricted by application roles.
+Data loss: Banda’s Disaster Recovery and Business Continuity process is tested regularly with failover drills to a secondary location, and recovery simulations for specific scenarios like database loss, code malfunction, and ransomware attacks</t>
+  </si>
+  <si>
+    <t>Central logging provides monitoring and alerting.</t>
+  </si>
+  <si>
+    <t>Password based authentication is used to verify the identity of users. Users are first vetted and trained prior to being granted access. During the vetting process, user’s functions are identified and thereafter assigned roles that match their responsibilities. Role-based access control (RBAC) safeguards patient health information by granting individuals access only to the data they need to perform their specific job functions.</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, CPOE/Order Management, Encounter Coding, Patient Billing, Patient Data Import/Export, Encounter Workflow Support, In addition to patient billing, easy-to-use accounts receivable functionality transforms frontline clinics ability to extend and collect microcredit to patients at the time of service</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, EHR Integration, Electronic prescribing within a facility is provided, but not between non-related business units</t>
+  </si>
+  <si>
+    <t>CD10 coding of surveillance diseases searchable with local terms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">summary aggregate reporting (e.g. all ICD10 codes used mapped and reported to Kenya MoH 705A/B categories, summary bookkeeping and financial reports, diagnosis summary reports, etc) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In addition to EHR functionality noted above, BandaGo has very robust ERP (Enterprise Resource Planning tool) functionality and capacity. At its core, BandaGo  integrates a clinic’s business and clinical management needs. In addition to basic inventory and cash management functionality noted above, BandaGo very cost-effectively streamlines other priority needs of low-resource frontline clinic owners, such as supplier management, client-focused financial reporting, expense tracking (e.g. personnel, utilities, rent, etc costs), and other income tracking (e.g. non-patient-related income). By integrating these clinical and business aspects, BandaGo empowers clinics to improve quality of care while maintaining financial stability.
+The BandaGo roadmap includes essentially all of the functionalities listed in the above sections other than: surgical management beyond basic, health-centered level surgical management; social media monitoring of disease surveillance; and national health repositories (not currently planned).
+</t>
+  </si>
+  <si>
+    <t>https://www.bandahealth.org/</t>
+  </si>
+  <si>
+    <t>Theophila Huriro Uwacu</t>
+  </si>
+  <si>
+    <t>theophila@tipglobalhealth.org</t>
+  </si>
+  <si>
+    <t>TIP Global Health</t>
+  </si>
+  <si>
+    <t>E-Heza Data Solutions</t>
+  </si>
+  <si>
+    <t>E-Heza Data Solution is the first point-of-care digital health platform designed to optimize high quality care for families across the entire ecosystem of primary health care from villages to health centers and hospitals. E-Heza was originally created to strengthen the effectiveness of Childhood Growth Monitoring Programs in rural Rwanda by promoting screening, early diagnosis, treatment, and referral for cases of childhood undernutrition, and by utilizing growth trends to provide personalized health education to mothers. Now serving the entire spectrum of maternal and child health, E-Heza utilizes data trends to provide personalized care, improve maternal engagement in care, celebrate successes and identify challenges before they become emergencies, while preventing frontline health worker burnout by decreasing workloads, supporting workflows, and maximizing opportunities for meaningful interactions with their patients. Personalized family progress reports are sent to pregnant women and mothers with young children via WhatsApp, providing tools to advocate for family health needs with other family members in the home. Additionally, by ensuring quality data collection at the point of care, national governments and international institutions have access to reliable and real-time data to effectively drive public health decisions.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1in7Ho4jn_HNqnlN0Dr3swVTs6__v1vrZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Heza improves health outcomes by equipping CHWs and nurses with a comprehensive tool for primary healthcare delivery, which is critical in addressing health challenges in Africa. It supports adherence to clinical guidelines, which improves care quality and reduces preventable deaths. E-Heza empowers healthcare workers by decreasing administrative burdens and enabling more time for patient interaction. The platform promotes sustainable health improvements by facilitating data-driven decision-making at the point of care, which aligns with national reporting requirements. In Rwanda, E-Heza has contributed to a 46% reduction in child mortality and a 42% reduction in stunting, demonstrating its significant impact on community health outcomes. Additionally, by supporting a holistic view of patient care, E-Heza fosters a continuum of care from community health workers to regional health facilities, ensuring comprehensive patient management and strengthening the health system.     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">There is a substantial market need for robust digital health solutions in Africa that can address the challenges of primary healthcare delivery in low-resource settings. E-Heza fills this gap by providing a comprehensive and user-friendly platform that integrates with national health systems, such as DHIS2 and OpenMRS, while addressing the specific needs of frontline health workers in rural and underserved communities. The platform’s impact is evident through its measurable improvements in health metrics, including a 28% increase in maternal care engagement and a 140% improvement in care quality at implementation sites. E-Heza reduces barriers to care, supports effective disease surveillance, and fosters an environment where health workers can thrive. Its success in Rwanda, Burundi, and Somalia has shown that E-Heza can significantly improve healthcare delivery and outcomes, positioning it as an essential tool for addressing health inequities across Sub-Saharan Africa.  
+</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>75% of our leadership team is based in Rwanda. This includes our co-CEO, Chief Operations Officer, and Director of E-Heza. Only the second co-CEO is based in the United States.</t>
+  </si>
+  <si>
+    <t>50% of the software development work is performed in Rwanda. The remaining 50% is performed by software developers in Israel who work in close collaboration with our Rwandan development team.</t>
+  </si>
+  <si>
+    <t>We have two active production deployments and two unique cloud service customers.</t>
+  </si>
+  <si>
+    <t>Rwanda and Burundi</t>
+  </si>
+  <si>
+    <t>An average of 200 patients per day</t>
+  </si>
+  <si>
+    <t>An average of 4000 patient encounters per month.</t>
+  </si>
+  <si>
+    <t>$1,900,000 USD</t>
+  </si>
+  <si>
+    <t>Since 2022, we have raised over 2.1 million USD in grant funding specifically for the development, testing, and implementation of E-Heza.</t>
+  </si>
+  <si>
+    <t>https://docs.google.com/spreadsheets/d/1VZT16FYDm1Re6mErCvdxI6we4UX-XYpxQfyejCCRTsQ/edit?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://tip-global-health.github.io/eheza-documentation/</t>
+  </si>
+  <si>
+    <t>We are in the process of working with the Rwanda Ministry of Health on integration with HMIS. E-Heza works through an API that connects the front and back ends of the application, making it easily integratable with any system.</t>
+  </si>
+  <si>
+    <t>https://tip-global-health.github.io/eheza-documentation/policy_docs/data-protection-policy/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIP  Global Health takes the following steps to ensure the privacy and security of data collected.
+- Healthcare workers sign and commit to a “Protected Health Information Confidentiality Agreement” and receive initial and ongoing training regarding privacy and security.
+Access to E-Heza’s backend (where private data is held) is secured with role-based permission access and only site administrators with proper need are given access to private data.
+- Transfer of data between E-Heza’s front-end client and backend storage is through SSL-encrypted channels only and performed only with authenticated devices. 
+- E-Heza maintains an access log which tracks all access and both to backend accounts and front end data collection. Weekly audits are performed on the access logs, and the  logs are maintained for one year (and then archived through the prescribed backup retention plan).
+- E-Heza’s development operation prohibits the use of non-anonymized data in the development process. No developer may hold personal information on their local system to transfer any personal information from a non-production environment outside the course of the normal backup procedure.
+E-Heza uses the following template agreements and policies in work with implementation teams and systems:
+Data Protection Policy: https://tip-global-health.github.io/eheza-documentation/policy_docs/data-protection-policy/ 
+Protected Health Information Confidentiality Agreement: https://tip-global-health.github.io/eheza-documentation/policy_docs/confidentiality-policy/
+Business Agreement Template: https://tip-global-health.github.io/eheza-documentation/policy_docs/business-agreement-template/  
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-Heza maintains an access log which tracks all access and both to backend accounts and front end data collection. Weekly audits are performed on the access logs, and the  logs are maintained for one year (and then archived through the prescribed backup retention plan).
+E-Heza engages in third-party security audits in order to procure recommendations for further privacy and security procedures.
+Preventing Errors: 
+E-Heza’s decision logic model and all aspects of clinical care are governed by a clinical review process that includes physicians, healthcare workers, and digital health specialists. This work is reviewed by the E-Heza Executive committee.
+Development work is open source and follows a peer review process in which all code is first reviewed by another developer before it is submitted to the QA process.
+E-Heza adheres to best practices  privacy and data security standards to ensure the protection of private patient information.
+</t>
+  </si>
+  <si>
+    <t>Access to E-Heza’s backend (where private data is held) is secured with role-based permission access and only site administrators with proper need are given access to private data.
+Similarly, users of E-Heza's frontend is secured through specific user pin codes with role-based assignments.</t>
+  </si>
+  <si>
+    <t>https://tip-global-health.github.io/eheza-documentation/developer_docs/upgrade-offline-sync/</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, Encounter Coding, Patient Data Import/Export, Patient care templates, Encounter Data Import/Export, Encounter Workflow Support</t>
+  </si>
+  <si>
+    <t>Dispensing and Medication Administration Record (MAR), Inventory Management, Decision Support, EHR Integration</t>
+  </si>
+  <si>
+    <t>Contact tracing, Track and trace</t>
+  </si>
+  <si>
+    <t>we are exploring predictive modelling through logistical regression analysis.</t>
+  </si>
+  <si>
+    <t>https://tipglobalhealth.org/areas/digital-health/</t>
+  </si>
+  <si>
+    <t>Harrison Mariki</t>
+  </si>
+  <si>
+    <t>hmariki@afyaintelligence.co.tz</t>
+  </si>
+  <si>
+    <t>Afya Intelligence</t>
+  </si>
+  <si>
+    <t>Afyalytics</t>
+  </si>
+  <si>
+    <t>Afyalytics is AI-assistance for early diagnosis of healthcare supply chain risks. It enables healthcare providers to pre-empt stock shortages, overstocking, and other supply chain challenges for hundreds of healthcare products by simply uploading their data. Through its quick analytics, Afyalytics helps streamline procurement, reduce wastage, and ensure continuous availability of essential medicines, improving healthcare delivery and patient outcomes across Africa.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1xgGKPNLtUcz6sdbdExQCotJ0hZodIz4S</t>
+  </si>
+  <si>
+    <t>Pharmacy, Analytics and Data Aggregation, AI for Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Afyalytics directly improves health outcomes in African healthcare systems by addressing the root causes of supply chain inefficiencies that often lead to poor access and delivery of healthcare interventions. Here’s how it impacts health outcomes:
+1.  Afyalytics minimizes stock-outs of critical healthcare products, such as medicines and medical equipment, by forecasting demand accurately. This continuous availability means patients receive the right treatments on time, avoiding gaps in care, particularly for life-saving treatments for diseases like malaria, HIV, or tuberculosis. It also ensures consistent access to essential vaccines and medical supplies necessary for ongoing care and preventive health services.
+2. Improving Treatment Adherence and Outcomes: Stock-outs of essential medicines often force patients to skip doses or delay treatment, which can worsen their condition, especially for chronic diseases like diabetes and hypertension. By preventing these disruptions, Afyalytics supports better treatment adherence, leading to improved health outcomes, such as better-managed chronic conditions and faster recovery from acute illnesses.
+3. Early diagnosis of supply chain risks ensures that healthcare providers can act quickly to prevent shortages of life-saving medications and equipment. This reduces the risk of preventable deaths from conditions like maternal complications, neonatal issues, and infectious diseases. With supplies consistently available, mortality rates for preventable conditions can be significantly lowered.
+4. Supporting Effective Disease Management and Control For conditions requiring long-term treatment, such as HIV/AIDS, tuberculosis, and non-communicable diseases (NCDs), 
+5. By forecasting the demand for vaccines and ensuring their availability, Afyalytics strengthens immunization programs. Consistent vaccine availability helps achieve higher immunization rates, which is critical for preventing outbreaks of vaccine-preventable diseases like measles, polio, and HPV. This contributes to improved public health and community-wide health outcomes.
+6. Minimizing Drug Expiries and Waste means more resources are available to invest in improving patient services, infrastructure, and care delivery, indirectly enhancing health outcomes.
+7. By automating and simplifying supply chain management, Afyalytics reduces the workload on healthcare providers, freeing up time to focus on patient care. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">While the majority (60%) of the population rely on public healthcare facilities for essential healthcare services like family planning. In many African healthcare systems, stock-outs and overstocking of essential medical supplies are common challenges, often leading to a disruption in service delivery. These issues can be best addressed through early diagnosis and planning, but healthcare facilities typically struggle with several obstacles:
+	•	Reliance on imported products with Long procurement lead times means without proper quantification, healthcare providers risk underestimating their stock needs, leading to future stock outs.
+	•	Monthly or quarterly fixed ordering and distribution schedules require accurate forecasting to ensure the right quantities of products are ordered, reducing the risk of stock-outs or excess.
+	•	Updates in treatment regimens not reflected in forecasts can result in mismatches between current treatment needs and stock levels, causing inefficiencies in supply chains.
+	•	Up to 30% overstock has been observed in public health facilities, leading to financial waste, inefficiencies, and increased logistical costs for redistribution of surplus stock.
+	•	With limited time, skills, and tools to analyze data effectively, many healthcare providers struggle to manage stock for multiple products across departments and facility types. This issue is exacerbated by staff turnover.
+Impact of Afyalytics in the African Health Ecosystem:
+Afyalytics is addressing these challenges by offering an AI-assisted solution that enables healthcare providers to upload data and identify risks in their supply chains. Its quick analytics allow for early diagnosis of potential stock issues, helping facilities make data-driven decisions about forecasting, budgeting and supply planning. Key impacts include:
+	•	Prevention of stock-outs and overstocking: By providing accurate forecasts, Afyalytics helps facilities avoid disruptions in care and reduce wastage due to expiries.
+	•	Cost savings and financial efficiency: By improving quantification and planning, Afyalytics reduces logistical costs associated with emergency orders and redistributions, while also helping facilities capture more revenue by avoiding missed opportunities to serve patients.
+	•	Support for healthcare providers: Afyalytics simplifies the data analysis process, allowing even those with minimal data skills to make informed decisions, easing the burden on healthcare staff and improving overall efficiency.
+	•	Strengthening supply chains: The solution provides a comprehensive view of stock data, ensuring that healthcare systems can respond quickly to changes in demand and treatment regimens, leading to more resilient supply chains across Africa.
+By addressing these key pain points, Afyalytics is making a significant impact on healthcare delivery and supply chain management in Africa, helping healthcare systems operate more efficiently and ensuring patients receive the care they need without interruption.
+</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>150 users Total registered users with an average of 30 active users perday</t>
+  </si>
+  <si>
+    <t>Data from 200 health facilities</t>
+  </si>
+  <si>
+    <t>Afyalytics leverages standard facility codes and product codes and nomenclature used in OpenLMIS which are FHIR compliant</t>
+  </si>
+  <si>
+    <t>Inventory Management, Decision Support, Forecasting and quantification</t>
+  </si>
+  <si>
+    <t>afyalytics.co.tz</t>
+  </si>
+  <si>
+    <t>Chris Seebregts</t>
+  </si>
+  <si>
+    <t>chris@jembi.org</t>
+  </si>
+  <si>
+    <t>Jembi Health Systems</t>
+  </si>
+  <si>
+    <t>Open Health Information Mediator (OpenHIM) Platform</t>
+  </si>
+  <si>
+    <t>The Open Health Information Mediator (OpenHIM) is a middleware component
+designed to ease interoperability between disparate information systems.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1UxiNIX1rJPBnacQ06Bd5SgIeJs62Kziz</t>
+  </si>
+  <si>
+    <t>ryan.crichton@jembi.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpenHIM operates in more than 10 countries, enhancing health data exchange. Notable deployments include South Africa's MomConnect, with millions of users, and the Western Cape Provincial Health Data Centre, with 6 million patients. It facilitates programme monitoring in Ethiopia's CDC TAP programme and serves as a middleware solution for engaging consumers and routing client information in Vietnam. The system strengthens both patient and population-level decision-making and care. African countries that have implemented OpenHIM include: Botswana, Cameroon, Ethiopia, Mozambique, Uganda and Zimbabwe. It is also implemented in South Asia (Sri Lanka and Indonesia). 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Healthcare technology is rapidly improving African healthcare services through innovative IT solutions, particularly in low-resource settings. However, limited interoperability remains a significant obstacle, hindering the transformative potential of health information systems in low and middle income countries. The OpenHIM platform is a core component and interoperability layer in the Open Health Information Exchange (OpenHIE) architecture that has been widely adopted by African countries and other LMICs as a solution to strengthen interoperability. The OpenHIE architecture has been included in the digital health strategy of many of these countries and the OpenHIM Platform is a  key technology to assist with implementation of the OpenHIE architecture. In the countries where it is implemented, it forms part of the foundational components of national health information systems and also of health digital public infrastructure. The solution assist with interoperability as well as data integration for improved individual-level patient data integration, more accurate reporting and the creation of longitudinal patient records for improved patient care.  </t>
+  </si>
+  <si>
+    <t>100% of the OpenHIM core technology</t>
+  </si>
+  <si>
+    <t>The OpenHIM is freely available open source software so we speak of confirmed known deployments = 6</t>
+  </si>
+  <si>
+    <t>Difficult to estimate - probably hundreds</t>
+  </si>
+  <si>
+    <t>Difficult to estimate - probably hundreds of thousands</t>
+  </si>
+  <si>
+    <t>$6 million USD</t>
+  </si>
+  <si>
+    <t>approximately $ 3 million USD</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/dev-guide/developing-mediators</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/api/introduction/welcome</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/introduction/about</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/introduction/privacy-disclaimer</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/installation/docker</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/configuration/authentication</t>
+  </si>
+  <si>
+    <t>https://openhim.org/docs/installation/manual</t>
+  </si>
+  <si>
+    <t>Data visualization, Dashboards, Clinical data dashboards, Business Intelligence, Data processing (extract, transform, load - ETL), Interoperability and data integration (mediation and orchestration)</t>
+  </si>
+  <si>
+    <t>https://openhim.org/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NSANZIMFURA Didier </t>
+  </si>
+  <si>
+    <t>companion.rwanda@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Companion Rwanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanionApp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanionApp is a mobile application linking young people living with HIV/AIDS patients and health care providers with mission to improve patients follow up, adherence to antiretroviral treatment and access to pre and post post exposure prophylaxis as reduce complications related to poor adherence to treatment(HIV related deaths, new HIV infections,...). The application is in the patient's phones and in the hospital server. it provides the following services in a youth friendly manner: 
+•	The reminder to take medication (Dose, time and frequency) and directly inform the system if he/she took the medication(it will help with the documentation)
+•	The reminder to go for check up of viral load and CD4 count with a GPS location of the nearest clinics
+•	Online safe ordering and confidential home delivery of antiretroviral treatment including Pre and post exposure prophylaxis.
+•	Comprehensive HIV education 
+•	 Safe and family planning services. 
+•	Directly Contact his Doctor and got response within 1 hour. 
+•	Networking with other HIV positive patients ,shares life experience 
+•	CompanionApp will alert the Doctor if the patient passes 2 days without reply on companion or missed the check up appointment
+In the next 5 years, Companion App aim to raise antiretroviral treatment adherence up to 95% , to decrease the mortality rate due to AIDS and decrease ARVS drug resistance due to poor adherence. 
+We aim to increase Comprehensive HIV and sexuality education to adolescents by providing platform with Sexual and reproductive health information and services including contraceptions. 
+we aim to provide accurate documentation( the adherence rate, drug resistance,compliance) to the RBC(Rwanda Biomedical center) for policy reforms and evidence based research. 
+Last but not least, CompanionApp  will create Jobs for youths and promote inclusivity where employed people will be people living wjth HIV . 
+here is a link to our solution demo: CompanionApp on Youtube
+</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=1kvsR_TaOcgFng5GVa42Sp45UOkPx--pz</t>
+  </si>
+  <si>
+    <t>Disease Surveillance, National and Community Health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CompanionApp will fundamentally bring sexual and reproductive health including HIV services to the forefront of women's health in particular. By addressing the root cause of poor adherence, low level of Comprehensive sexual education including HIV education, poor patient communications and follow up plan. Additionally we have a potential to impact 82% of all patients living with HIV in Rwanda with specific focus to adolescents (15-29 old ages). these strategic approaches will help to attract big donors such as UNFPA, USAID and foundation to collaborate to take CompanionApp scale up. 
+Companion App work as an online app which uses a 3G,4G broad connection, due to the fact that Rwanda is a developing country with limited connection especially in remote areas. we have upgraded our system to use SSD code for people with limited connection to cover our target populations with less minimal challenges of connectivity. 
+Markers of potential scale and sustainability include involvement of partners who can help take the proposed innovation to scale, potential to leverage or generate funding to sustain proposed innovations and alignments to the national health plan of country in which it is being implemented. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kigali, Rwanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">90% based in Africa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">70 users in our inital phase , plus 5 hospital </t>
+  </si>
+  <si>
+    <t>30-50</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1000 transactions per month </t>
+  </si>
+  <si>
+    <t xml:space="preserve">$ 4000- 5000 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Tonny Elumelu foundation </t>
+  </si>
+  <si>
+    <t>https://app.companion.rw/</t>
+  </si>
+  <si>
+    <t>Lately , CompanionApp has been granted certification as Data controller and privacy certificate that enables our company to operates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Users use username and password ,encrypted for the confidentiality . Username are usually their phone number and from there they can create their own strong password . </t>
+  </si>
+  <si>
+    <t>Patient Record Management, Patient care templates, Encounter Data Import/Export</t>
+  </si>
+  <si>
+    <t>Longitudinal health records, Clinical data warehouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatbox, Reminders notifications , customizations of medications </t>
+  </si>
+  <si>
+    <t>Jean Kyula</t>
+  </si>
+  <si>
+    <t>jean@heliumhealth.com</t>
+  </si>
+  <si>
+    <t>Helium Health</t>
+  </si>
+  <si>
+    <t>HeliumOS and HeliumDoc</t>
+  </si>
+  <si>
+    <t>Our HeliumOS solution enables end-to-end digitization of medical records and
+hospital operations &amp; provider patient interaction; crafted perfectly for low resource
+settings. It is offline first, ultra thin and easy to deploy.
+HeliumDoc is a digital health platform designed to streamline and enhance
+healthcare delivery by connecting patients with healthcare services through
+an intuitive interface via web app and mobile app. It enhances access to healthcare
+specialists through technology; Improves care coordination; Facilitates proactive health
+management and Risk stratification for pregnant women. HeliumDoc AI is evolving from a patient booking application into a comprehensive, patient-centered engagement solution. This integrates a comprehensive telehealth service, enables advanced risk stratification
+algorithms, early identification and management of diseases and is accessible via USSD.</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/open?id=19QBbgV3H1A7DUbhrVTeQSq6gMNkzkEup</t>
+  </si>
+  <si>
+    <t>jean@heliumhealth.com and team@heliumhealth.com</t>
+  </si>
+  <si>
+    <t>Electronic Health Record, Pharmacy, Laboratory and Diagnostics, Disease Surveillance, National and Community Health, Analytics and Data Aggregation, AI for Health, Virtual Health, Front-line (CHW) tools, Vaccination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Access to specialized healthcare on the continent is hindered by geographical, financial, and systemic barriers. The healthcare system suffers from poor coordination, leading to significant care gaps for patients with chronic conditions. Existing tools for risk assessment are inadequate, often resulting in missed timely interventions for high-risk patients. Our solutions look at these issues and we innovate to ensure we are able to speak to each one leading to improved health outcomes for the population. There are inefficiencies in healthcare delivery caused by inadequate resources and lack of digitization/automation. By automating process, we enhance service delivery leading to improved quality of care. There is also limited access to accurate data for critical decision-making when information is fragmented. Our interoperable solutions surface actionable insights which equip key stakeholders with the data they need. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our solutions address key priority problems within the public health system. We are able to address the issues of:
+-Access: Geo-location to connect patients with the nearest specialists and integrating telehealth services, improves access to healthcare for remote and underserved populations through the use of USSD.
+-Quality: Advanced localized risk stratification and seamless referral systems, early detection, personalized treatment plans, and better management of chronic conditions.
+-Client-centeredness: Empowers patients by involving them in their healthcare management through interactive tools that allow them to track their health, communicate with providers, and receive personalized health information, enhancing the overall patient experience.
+Through our solutions, we have seen an increase in operational efficiency, increased revenues, better quality of care and increased patient satisfaction. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are headquartered in Lagos, Nigeria. </t>
+  </si>
+  <si>
+    <t>HeliumOS- 100% , HeliumDoc- 70% and HeliumDocAI- 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeliumOS- 300+, HeliumDoc- 200+ </t>
+  </si>
+  <si>
+    <t>9 (including Qatar and UAE)</t>
+  </si>
+  <si>
+    <t>HeliumOS: 1,389 HeliumDoc: 1619</t>
+  </si>
+  <si>
+    <t>18k +</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7Billion Naira</t>
+  </si>
+  <si>
+    <t>We have raised $40M across all business lines</t>
+  </si>
+  <si>
+    <t>https://fhir-dev.onemedtest.com/api/</t>
+  </si>
+  <si>
+    <t>We can provide the documentation via email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In our pipeline and have already reviewed the documentation. </t>
+  </si>
+  <si>
+    <t>https://heliumhealth.com/privacy-notice/</t>
+  </si>
+  <si>
+    <t>At Helium Health, we prioritize the privacy and security of Personal Health Information (PHI), ensuring robust protection through end-to-end encryption (AES-256), role-based access control, regular audits, and compliance with the Nigeria Data Protection Regulation (NDPR) (GDPR requirements compliant too), ISO/IEC 27001:2013 international information security standards, and industry best practices.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audit Logging: The system is designed to record and capture actions performed by users, including clinical and practice entries such as vitals, encounter notes, prescriptions, and bills. It logs each action with a timestamp, user identification, and date range in chronological order. This functionality ensures accountability, enhances visibility, and maintains the integrity and security of electronic medical records.
+Error Reporting: The system is designed to track reported clinical entries, such as vitals, encounter notes, immunizations, and clinical investigations, that are identified as errors. It captures user identification and timestamps for these errors. Users are required to specify the reasons for reporting these entries as errors to maintain accurate audit trails.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeliumOS systems employ a variety of authentication and authorization mechanisms to ensure data security and integrity.
+Authentication:
+Email and Password: This approach, requires users to provide a unique email and password to access the application.
+Multi-factor Authentication (MFA): MFA adds an extra layer of security by requiring users to provide additional forms of verification, such as a code sent to their phone. or using the MFA app.
+Authorization:
+HeliumOS, Role-Based Access Control (RBAC): assigns different roles to medical staff or users based on their job functions and responsibilities. (Front Desk, Nurses, Doctors etc). Each role is granted specific permissions to access different parts of the application.
+HeliumOS, Attribute-Based Access Control (ABAC): ABAC allows for more granular control by assigning permissions based on attributes such as user identity, time of day, location, and device.
+HeliumOS, Context-Based Access Control (CBAC): CBAC takes into account the context of the user's interaction with the system, such as the specific task being performed or the data being accessed or submitted.
+</t>
+  </si>
+  <si>
+    <t>https://heliumhealth.com/helium-service-levels/</t>
+  </si>
+  <si>
+    <t>Patient Record Management, Individual Registration, Clinical decision support, CPOE/Order Management, Encounter Coding, Patient Billing, Patient Data Import/Export, X-Ray and Imaging, Patient care templates, ER - Triage and Dashboard, Encounter Data Import/Export, Surgical Management, Virtual care, Encounter Workflow Support, Pharmacy, Labs, Insights, ANC, Stores etc</t>
+  </si>
+  <si>
+    <t>We have a separate solution that does this that can be integrated to the EHR</t>
+  </si>
+  <si>
+    <t>Risk stratification tools</t>
+  </si>
+  <si>
+    <t>Customizable data collection forms, Integration and data exchange with local health facility (EMR)</t>
+  </si>
+  <si>
+    <t>Our solutions are designed to be customizable, interoperable and built for the markets we operate in so offline first.</t>
+  </si>
+  <si>
+    <t>https://heliumhealth.com/ https://www.heliummum.com/</t>
+  </si>
+  <si>
+    <t>South Africa, Zambia, Lesotho, Nigeria, Ghana, Botswana, Ethiopia.</t>
+  </si>
+  <si>
+    <t>Egypt, Libya, Tunisia, Morocco, South Africa, Sudan, Nigeria</t>
+  </si>
+  <si>
+    <t>Botswana, Cameroon, Eswatini, Ethiopia, Mozambique, South Africa, Tanzania, Uganda, Zimbabwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nigeria, Ghana, Liberia, Kenya, Uganda, Sierra Leone, Cameroon </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0&quot;$&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -3440,14 +4223,6 @@
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Roboto"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3606,10 +4381,10 @@
         <color rgb="FF442F65"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3618,13 +4393,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3633,13 +4408,13 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </left>
       <right style="thin">
         <color rgb="FF442F65"/>
       </right>
       <top style="thin">
-        <color rgb="FFF8F9FA"/>
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF442F65"/>
@@ -3647,11 +4422,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3716,6 +4490,12 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3731,12 +4511,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -3784,7 +4560,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BD41">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Form_Responses1" displayName="Form_Responses1" ref="A1:BD50">
   <tableColumns count="56">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Timestamp"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Your name"/>
@@ -4044,15 +4820,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:BD41"/>
+  <dimension ref="A1:BD50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H33" sqref="H33"/>
+      <selection pane="bottomLeft" activeCell="N51" sqref="N51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5399,7 +6175,7 @@
         <v>66</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>241</v>
+        <v>1138</v>
       </c>
       <c r="O10" s="5" t="s">
         <v>66</v>
@@ -5417,28 +6193,28 @@
         <v>66</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="U10" s="5">
         <v>5</v>
       </c>
       <c r="V10" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="W10" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="W10" s="5" t="s">
+      <c r="X10" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="X10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA10" s="5" t="s">
         <v>246</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>247</v>
       </c>
       <c r="AB10" s="5" t="s">
         <v>70</v>
@@ -5450,22 +6226,22 @@
         <v>66</v>
       </c>
       <c r="AG10" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="AH10" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="AH10" s="16" t="s">
+      <c r="AI10" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ10" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK10" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="AI10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK10" s="5" t="s">
+      <c r="AL10" s="5" t="s">
         <v>250</v>
-      </c>
-      <c r="AL10" s="5" t="s">
-        <v>251</v>
       </c>
       <c r="AM10" s="5" t="s">
         <v>120</v>
@@ -5477,32 +6253,32 @@
         <v>66</v>
       </c>
       <c r="AP10" s="16" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AQ10" s="5"/>
       <c r="AR10" s="5"/>
       <c r="AS10" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AT10" s="5"/>
       <c r="AU10" s="5"/>
       <c r="AV10" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW10" s="5" t="s">
         <v>254</v>
-      </c>
-      <c r="AW10" s="5" t="s">
-        <v>255</v>
       </c>
       <c r="AX10" s="5" t="s">
         <v>125</v>
       </c>
       <c r="AY10" s="5"/>
       <c r="AZ10" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="BA10" s="5"/>
       <c r="BB10" s="5"/>
       <c r="BC10" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="BD10" s="9"/>
     </row>
@@ -5511,43 +6287,43 @@
         <v>45562.111825856482</v>
       </c>
       <c r="B11" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C11" s="11" t="s">
         <v>258</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="D11" s="11" t="s">
         <v>259</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="E11" s="11" t="s">
         <v>260</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>261</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="G11" s="18" t="s">
+      <c r="H11" s="11" t="s">
         <v>263</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="I11" s="11" t="s">
         <v>264</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11" t="s">
         <v>265</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="K11" s="11" t="s">
         <v>266</v>
       </c>
-      <c r="K11" s="11" t="s">
+      <c r="L11" s="11" t="s">
         <v>267</v>
       </c>
-      <c r="L11" s="11" t="s">
+      <c r="M11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N11" s="11" t="s">
         <v>268</v>
-      </c>
-      <c r="M11" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N11" s="11" t="s">
-        <v>269</v>
       </c>
       <c r="O11" s="11" t="s">
         <v>66</v>
@@ -5616,10 +6392,10 @@
         <v>66</v>
       </c>
       <c r="AS11" s="11" t="s">
+        <v>269</v>
+      </c>
+      <c r="AT11" s="11" t="s">
         <v>270</v>
-      </c>
-      <c r="AT11" s="11" t="s">
-        <v>271</v>
       </c>
       <c r="AW11" s="11" t="s">
         <v>124</v>
@@ -5628,10 +6404,10 @@
         <v>101</v>
       </c>
       <c r="BC11" s="18" t="s">
+        <v>271</v>
+      </c>
+      <c r="BD11" s="15" t="s">
         <v>272</v>
-      </c>
-      <c r="BD11" s="15" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5639,37 +6415,37 @@
         <v>45562.17261587963</v>
       </c>
       <c r="B12" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="19" t="s">
         <v>277</v>
       </c>
-      <c r="G12" s="19" t="s">
+      <c r="H12" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="K12" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="K12" s="5" t="s">
+      <c r="L12" s="5" t="s">
         <v>282</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>283</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>70</v>
@@ -5690,10 +6466,10 @@
         <v>66</v>
       </c>
       <c r="U12" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V12" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="W12" s="5" t="s">
         <v>115</v>
@@ -5738,7 +6514,7 @@
         <v>66</v>
       </c>
       <c r="AS12" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AW12" s="5" t="s">
         <v>124</v>
@@ -5747,13 +6523,13 @@
         <v>201</v>
       </c>
       <c r="AY12" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AZ12" s="5" t="s">
         <v>101</v>
       </c>
       <c r="BC12" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="13" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5761,43 +6537,43 @@
         <v>45562.248555115744</v>
       </c>
       <c r="B13" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="D13" s="11" t="s">
         <v>289</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="E13" s="11" t="s">
         <v>290</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>291</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="18" t="s">
         <v>292</v>
       </c>
-      <c r="G13" s="18" t="s">
+      <c r="H13" s="11" t="s">
         <v>293</v>
       </c>
-      <c r="H13" s="11" t="s">
+      <c r="I13" s="11" t="s">
         <v>294</v>
       </c>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="J13" s="11" t="s">
+      <c r="K13" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="K13" s="11" t="s">
+      <c r="L13" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="L13" s="11" t="s">
-        <v>298</v>
-      </c>
       <c r="M13" s="11" t="s">
         <v>66</v>
       </c>
       <c r="N13" s="11" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O13" s="11" t="s">
         <v>66</v>
@@ -5815,7 +6591,7 @@
         <v>66</v>
       </c>
       <c r="T13" s="11" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="U13" s="11">
         <v>1</v>
@@ -5827,16 +6603,16 @@
         <v>2000</v>
       </c>
       <c r="Y13" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AB13" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC13" s="18" t="s">
         <v>300</v>
-      </c>
-      <c r="Z13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AB13" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC13" s="18" t="s">
-        <v>301</v>
       </c>
       <c r="AI13" s="11" t="s">
         <v>66</v>
@@ -5860,28 +6636,28 @@
         <v>66</v>
       </c>
       <c r="AS13" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="AT13" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="AT13" s="11" t="s">
+      <c r="AV13" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="AV13" s="11" t="s">
+      <c r="AY13" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="AY13" s="11" t="s">
+      <c r="AZ13" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="BA13" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="AZ13" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="BA13" s="11" t="s">
+      <c r="BC13" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="BC13" s="11" t="s">
+      <c r="BD13" s="15" t="s">
         <v>307</v>
-      </c>
-      <c r="BD13" s="15" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="14" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -5889,52 +6665,52 @@
         <v>45564.184800208328</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="D14" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>311</v>
-      </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="19" t="s">
         <v>312</v>
       </c>
-      <c r="G14" s="19" t="s">
+      <c r="H14" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="I14" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="I14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="K14" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="K14" s="5" t="s">
+      <c r="L14" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>269</v>
-      </c>
-      <c r="M14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="N14" s="5" t="s">
+      <c r="O14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="O14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P14" s="5" t="s">
-        <v>318</v>
-      </c>
       <c r="Q14" s="5" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="R14" s="5" t="s">
         <v>114</v>
@@ -5943,49 +6719,49 @@
         <v>70</v>
       </c>
       <c r="T14" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="U14" s="5" t="s">
         <v>319</v>
       </c>
-      <c r="U14" s="5" t="s">
+      <c r="V14" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="W14" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="X14" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="V14" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="W14" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="X14" s="5" t="s">
+      <c r="Y14" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="Z14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA14" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="Y14" s="5" t="s">
-        <v>320</v>
-      </c>
-      <c r="Z14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA14" s="5" t="s">
+      <c r="AB14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC14" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE14" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AF14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG14" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH14" s="5" t="s">
         <v>322</v>
-      </c>
-      <c r="AB14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC14" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AD14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE14" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AF14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG14" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH14" s="5" t="s">
-        <v>323</v>
       </c>
       <c r="AI14" s="5" t="s">
         <v>66</v>
@@ -6000,31 +6776,31 @@
         <v>66</v>
       </c>
       <c r="AP14" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="AQ14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AX14" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="AQ14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AX14" s="5" t="s">
+      <c r="AY14" s="5" t="s">
         <v>325</v>
       </c>
-      <c r="AY14" s="5" t="s">
+      <c r="AZ14" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="AZ14" s="5" t="s">
+      <c r="BB14" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="BB14" s="5" t="s">
+      <c r="BC14" s="19" t="s">
         <v>328</v>
       </c>
-      <c r="BC14" s="19" t="s">
-        <v>329</v>
-      </c>
       <c r="BD14" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="15" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6032,43 +6808,43 @@
         <v>45565.538122025464</v>
       </c>
       <c r="B15" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C15" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="D15" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="E15" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="18" t="s">
         <v>334</v>
       </c>
-      <c r="G15" s="18" t="s">
+      <c r="H15" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="I15" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="J15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="K15" s="11" t="s">
+      <c r="L15" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="L15" s="11" t="s">
+      <c r="M15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N15" s="11" t="s">
         <v>340</v>
-      </c>
-      <c r="M15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N15" s="11" t="s">
-        <v>341</v>
       </c>
       <c r="O15" s="11" t="s">
         <v>66</v>
@@ -6116,22 +6892,22 @@
         <v>66</v>
       </c>
       <c r="AG15" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="AH15" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="AH15" s="11" t="s">
+      <c r="AI15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ15" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK15" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="AI15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ15" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK15" s="11" t="s">
+      <c r="AL15" s="11" t="s">
         <v>344</v>
-      </c>
-      <c r="AL15" s="11" t="s">
-        <v>345</v>
       </c>
       <c r="AM15" s="11" t="s">
         <v>120</v>
@@ -6149,28 +6925,28 @@
         <v>66</v>
       </c>
       <c r="AT15" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="AU15" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="AU15" s="11" t="s">
+      <c r="AV15" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="AV15" s="11" t="s">
+      <c r="AX15" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="AX15" s="11" t="s">
+      <c r="AY15" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="BA15" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="AY15" s="11" t="s">
-        <v>326</v>
-      </c>
-      <c r="BA15" s="11" t="s">
+      <c r="BB15" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="BB15" s="11" t="s">
+      <c r="BC15" s="18" t="s">
         <v>351</v>
-      </c>
-      <c r="BC15" s="18" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6178,52 +6954,52 @@
         <v>45565.551336608798</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="D16" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="19" t="s">
         <v>357</v>
       </c>
-      <c r="G16" s="19" t="s">
+      <c r="H16" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I16" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="H16" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="I16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="K16" s="5" t="s">
+      <c r="L16" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="L16" s="5" t="s">
+      <c r="M16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="M16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N16" s="5" t="s">
+      <c r="O16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P16" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="O16" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="P16" s="5" t="s">
+      <c r="Q16" s="5" t="s">
         <v>364</v>
-      </c>
-      <c r="Q16" s="5" t="s">
-        <v>365</v>
       </c>
       <c r="R16" s="5" t="s">
         <v>68</v>
@@ -6232,16 +7008,16 @@
         <v>66</v>
       </c>
       <c r="T16" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="U16" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="U16" s="5" t="s">
+      <c r="V16" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="V16" s="5" t="s">
+      <c r="W16" s="5" t="s">
         <v>368</v>
-      </c>
-      <c r="W16" s="5" t="s">
-        <v>369</v>
       </c>
       <c r="X16" s="8">
         <v>267643</v>
@@ -6262,7 +7038,7 @@
         <v>66</v>
       </c>
       <c r="AH16" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="AI16" s="5" t="s">
         <v>66</v>
@@ -6283,13 +7059,13 @@
         <v>66</v>
       </c>
       <c r="AT16" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AX16" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="BC16" s="19" t="s">
         <v>371</v>
-      </c>
-      <c r="AX16" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="BC16" s="19" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="17" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6297,40 +7073,40 @@
         <v>45565.592789525464</v>
       </c>
       <c r="B17" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C17" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="D17" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="E17" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="18" t="s">
         <v>377</v>
       </c>
-      <c r="G17" s="18" t="s">
+      <c r="H17" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="H17" s="11" t="s">
+      <c r="I17" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="J17" s="11" t="s">
+      <c r="L17" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="L17" s="11" t="s">
-        <v>382</v>
-      </c>
       <c r="M17" s="11" t="s">
         <v>66</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>383</v>
+        <v>1139</v>
       </c>
       <c r="O17" s="11" t="s">
         <v>66</v>
@@ -6348,10 +7124,10 @@
         <v>66</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="U17" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="V17" s="11">
         <v>9000</v>
@@ -6378,7 +7154,7 @@
         <v>66</v>
       </c>
       <c r="AG17" s="18" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>66</v>
@@ -6402,16 +7178,16 @@
         <v>66</v>
       </c>
       <c r="AS17" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="AU17" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>389</v>
-      </c>
       <c r="AX17" s="11" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="AY17" s="11" t="s">
         <v>161</v>
@@ -6422,43 +7198,43 @@
         <v>45565.832192442133</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="E18" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="G18" s="19" t="s">
         <v>393</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="H18" s="5" t="s">
         <v>394</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="I18" s="5" t="s">
         <v>395</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>397</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="L18" s="5" t="s">
         <v>398</v>
       </c>
-      <c r="K18" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="M18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N18" s="5" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="O18" s="5" t="s">
         <v>66</v>
@@ -6476,55 +7252,55 @@
         <v>66</v>
       </c>
       <c r="T18" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="U18" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="V18" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="U18" s="5" t="s">
+      <c r="W18" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="V18" s="5" t="s">
+      <c r="X18" s="5" t="s">
         <v>403</v>
       </c>
-      <c r="W18" s="5" t="s">
+      <c r="Y18" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="X18" s="5" t="s">
+      <c r="Z18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA18" s="19" t="s">
         <v>405</v>
       </c>
-      <c r="Y18" s="5" t="s">
+      <c r="AB18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD18" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG18" s="19" t="s">
         <v>406</v>
       </c>
-      <c r="Z18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA18" s="19" t="s">
+      <c r="AH18" s="5" t="s">
         <v>407</v>
       </c>
-      <c r="AB18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD18" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG18" s="19" t="s">
+      <c r="AI18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK18" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="AH18" s="5" t="s">
+      <c r="AL18" s="5" t="s">
         <v>409</v>
-      </c>
-      <c r="AI18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK18" s="5" t="s">
-        <v>410</v>
-      </c>
-      <c r="AL18" s="5" t="s">
-        <v>411</v>
       </c>
       <c r="AM18" s="5" t="s">
         <v>71</v>
@@ -6542,19 +7318,19 @@
         <v>66</v>
       </c>
       <c r="AS18" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="AT18" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="AU18" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="AT18" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="AU18" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="AV18" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AW18" s="5" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AX18" s="5" t="s">
         <v>201</v>
@@ -6566,13 +7342,13 @@
         <v>101</v>
       </c>
       <c r="BA18" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="BB18" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="BB18" s="5" t="s">
-        <v>415</v>
-      </c>
       <c r="BC18" s="19" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="BD18" s="9" t="s">
         <v>101</v>
@@ -6583,52 +7359,52 @@
         <v>45566.00334708333</v>
       </c>
       <c r="B19" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>417</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="E19" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="G19" s="18" t="s">
         <v>420</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="H19" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="G19" s="18" t="s">
+      <c r="I19" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="J19" s="11" t="s">
+      <c r="L19" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="K19" s="11" t="s">
+      <c r="M19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N19" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="L19" s="11" t="s">
+      <c r="O19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P19" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="M19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N19" s="11" t="s">
+      <c r="Q19" s="11" t="s">
         <v>428</v>
-      </c>
-      <c r="O19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P19" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="Q19" s="11" t="s">
-        <v>430</v>
       </c>
       <c r="R19" s="11" t="s">
         <v>68</v>
@@ -6637,52 +7413,52 @@
         <v>66</v>
       </c>
       <c r="T19" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="U19" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="V19" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="U19" s="11" t="s">
+      <c r="W19" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="V19" s="11" t="s">
+      <c r="X19" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="W19" s="11" t="s">
+      <c r="Y19" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="X19" s="11" t="s">
+      <c r="Z19" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG19" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="Y19" s="11" t="s">
+      <c r="AH19" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AF19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG19" s="18" t="s">
+      <c r="AI19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK19" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="AH19" s="11" t="s">
+      <c r="AL19" s="11" t="s">
         <v>438</v>
-      </c>
-      <c r="AI19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ19" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK19" s="11" t="s">
-        <v>439</v>
-      </c>
-      <c r="AL19" s="11" t="s">
-        <v>440</v>
       </c>
       <c r="AM19" s="11" t="s">
         <v>71</v>
@@ -6700,40 +7476,40 @@
         <v>66</v>
       </c>
       <c r="AS19" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="AU19" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="AT19" s="11" t="s">
+      <c r="AV19" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="AU19" s="11" t="s">
+      <c r="AW19" s="11" t="s">
         <v>443</v>
-      </c>
-      <c r="AV19" s="11" t="s">
-        <v>444</v>
-      </c>
-      <c r="AW19" s="11" t="s">
-        <v>445</v>
       </c>
       <c r="AX19" s="11" t="s">
         <v>182</v>
       </c>
       <c r="AY19" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="AZ19" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="BA19" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="AZ19" s="11" t="s">
+      <c r="BB19" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="BA19" s="11" t="s">
+      <c r="BC19" s="18" t="s">
         <v>448</v>
       </c>
-      <c r="BB19" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="BC19" s="18" t="s">
-        <v>450</v>
-      </c>
       <c r="BD19" s="15" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="20" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6741,43 +7517,43 @@
         <v>45566.097393807868</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>451</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="E20" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="F20" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="G20" s="19" t="s">
         <v>454</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="H20" s="5" t="s">
         <v>455</v>
       </c>
-      <c r="G20" s="19" t="s">
+      <c r="I20" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>457</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>458</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="L20" s="5" t="s">
         <v>459</v>
       </c>
-      <c r="K20" s="5" t="s">
-        <v>460</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>461</v>
-      </c>
       <c r="M20" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N20" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O20" s="5" t="s">
         <v>66</v>
@@ -6795,16 +7571,16 @@
         <v>66</v>
       </c>
       <c r="T20" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="U20" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="V20" s="20">
         <v>447000</v>
       </c>
       <c r="W20" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="X20" s="8">
         <v>200000</v>
@@ -6819,28 +7595,28 @@
         <v>66</v>
       </c>
       <c r="AC20" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="AD20" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG20" s="5" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH20" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="AD20" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG20" s="5" t="s">
+      <c r="AI20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK20" s="5" t="s">
         <v>465</v>
       </c>
-      <c r="AH20" s="5" t="s">
+      <c r="AL20" s="5" t="s">
         <v>466</v>
-      </c>
-      <c r="AI20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK20" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>468</v>
       </c>
       <c r="AM20" s="5" t="s">
         <v>71</v>
@@ -6858,19 +7634,19 @@
         <v>66</v>
       </c>
       <c r="AS20" s="5" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="AX20" s="5" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="AY20" s="5" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="AZ20" s="5" t="s">
         <v>101</v>
       </c>
       <c r="BC20" s="19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -6878,40 +7654,40 @@
         <v>45566.125998055555</v>
       </c>
       <c r="B21" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="D21" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="E21" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>474</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="G21" s="18" t="s">
         <v>475</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="I21" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="G21" s="18" t="s">
+      <c r="J21" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>478</v>
       </c>
-      <c r="J21" s="11" t="s">
+      <c r="L21" s="11" t="s">
         <v>479</v>
       </c>
-      <c r="K21" s="11" t="s">
+      <c r="M21" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N21" s="11" t="s">
         <v>480</v>
-      </c>
-      <c r="L21" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="M21" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N21" s="11" t="s">
-        <v>482</v>
       </c>
       <c r="O21" s="11" t="s">
         <v>66</v>
@@ -6929,19 +7705,19 @@
         <v>66</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U21" s="11" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="V21" s="11">
         <v>200</v>
       </c>
       <c r="W21" s="11" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="X21" s="11" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="Y21" s="14">
         <v>5000000</v>
@@ -6956,13 +7732,13 @@
         <v>66</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="AF21" s="11" t="s">
         <v>70</v>
       </c>
       <c r="AH21" s="11" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="AI21" s="11" t="s">
         <v>66</v>
@@ -6980,7 +7756,7 @@
         <v>66</v>
       </c>
       <c r="AP21" s="11" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="AQ21" s="11" t="s">
         <v>70</v>
@@ -6989,19 +7765,19 @@
         <v>66</v>
       </c>
       <c r="AT21" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AU21" s="11" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="AV21" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AX21" s="11" t="s">
         <v>78</v>
       </c>
       <c r="BC21" s="18" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7009,34 +7785,34 @@
         <v>45566.165591643519</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>492</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>493</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>494</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="G22" s="19" t="s">
         <v>495</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="H22" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="G22" s="19" t="s">
+      <c r="I22" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="K22" s="5" t="s">
         <v>499</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>500</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>501</v>
       </c>
       <c r="L22" s="5" t="s">
         <v>111</v>
@@ -7066,16 +7842,16 @@
         <v>1</v>
       </c>
       <c r="U22" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="W22" s="5" t="s">
         <v>502</v>
       </c>
-      <c r="V22" s="5" t="s">
+      <c r="X22" s="5" t="s">
         <v>503</v>
-      </c>
-      <c r="W22" s="5" t="s">
-        <v>504</v>
-      </c>
-      <c r="X22" s="5" t="s">
-        <v>505</v>
       </c>
       <c r="Y22" s="8">
         <v>1700000</v>
@@ -7084,43 +7860,43 @@
         <v>70</v>
       </c>
       <c r="AA22" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG22" s="19" t="s">
+        <v>505</v>
+      </c>
+      <c r="AH22" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="AB22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AD22" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE22" s="5" t="s">
-        <v>506</v>
-      </c>
-      <c r="AF22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG22" s="19" t="s">
+      <c r="AI22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ22" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK22" s="5" t="s">
         <v>507</v>
       </c>
-      <c r="AH22" s="5" t="s">
+      <c r="AL22" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="AI22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ22" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK22" s="5" t="s">
+      <c r="AM22" s="5" t="s">
         <v>509</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="AM22" s="5" t="s">
-        <v>511</v>
       </c>
       <c r="AN22" s="5" t="s">
         <v>142</v>
@@ -7129,7 +7905,7 @@
         <v>70</v>
       </c>
       <c r="AP22" s="5" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AQ22" s="5" t="s">
         <v>70</v>
@@ -7138,22 +7914,22 @@
         <v>66</v>
       </c>
       <c r="AS22" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="AW22" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="AX22" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="AW22" s="5" t="s">
+      <c r="AY22" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="AX22" s="5" t="s">
+      <c r="BB22" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="AY22" s="5" t="s">
+      <c r="BC22" s="19" t="s">
         <v>515</v>
-      </c>
-      <c r="BB22" s="5" t="s">
-        <v>516</v>
-      </c>
-      <c r="BC22" s="19" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="23" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7161,34 +7937,34 @@
         <v>45566.176158657407</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E23" s="11" t="s">
         <v>518</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>493</v>
-      </c>
-      <c r="D23" s="11" t="s">
+      <c r="F23" s="11" t="s">
         <v>519</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="G23" s="18" t="s">
         <v>520</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="H23" s="11" t="s">
         <v>521</v>
       </c>
-      <c r="G23" s="18" t="s">
+      <c r="I23" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="J23" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="H23" s="11" t="s">
+      <c r="K23" s="11" t="s">
         <v>523</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>524</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="L23" s="11" t="s">
         <v>111</v>
@@ -7221,13 +7997,13 @@
         <v>111</v>
       </c>
       <c r="V23" s="11" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="W23" s="11" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="X23" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Y23" s="14">
         <v>1860000</v>
@@ -7236,40 +8012,40 @@
         <v>66</v>
       </c>
       <c r="AA23" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="AB23" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AC23" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AD23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE23" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG23" s="18" t="s">
         <v>528</v>
       </c>
-      <c r="AB23" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE23" s="11" t="s">
+      <c r="AH23" s="11" t="s">
         <v>529</v>
       </c>
-      <c r="AF23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG23" s="18" t="s">
+      <c r="AI23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ23" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK23" s="11" t="s">
         <v>530</v>
       </c>
-      <c r="AH23" s="11" t="s">
-        <v>531</v>
-      </c>
-      <c r="AI23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK23" s="11" t="s">
-        <v>532</v>
-      </c>
       <c r="AL23" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM23" s="11" t="s">
         <v>71</v>
@@ -7281,7 +8057,7 @@
         <v>70</v>
       </c>
       <c r="AP23" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AQ23" s="11" t="s">
         <v>66</v>
@@ -7290,22 +8066,22 @@
         <v>66</v>
       </c>
       <c r="AS23" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AW23" s="11" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="AX23" s="11" t="s">
         <v>182</v>
       </c>
       <c r="AY23" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="BB23" s="11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="BC23" s="18" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7313,43 +8089,43 @@
         <v>45566.18747153935</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>536</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>538</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="G24" s="19" t="s">
         <v>539</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="H24" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="I24" s="5" t="s">
         <v>540</v>
       </c>
-      <c r="G24" s="19" t="s">
+      <c r="J24" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>537</v>
-      </c>
-      <c r="I24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>542</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="L24" s="5" t="s">
         <v>543</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="M24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N24" s="5" t="s">
         <v>544</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>545</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N24" s="5" t="s">
-        <v>546</v>
       </c>
       <c r="O24" s="5" t="s">
         <v>66</v>
@@ -7361,7 +8137,7 @@
         <v>1</v>
       </c>
       <c r="R24" s="5" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="S24" s="5" t="s">
         <v>66</v>
@@ -7388,25 +8164,25 @@
         <v>70</v>
       </c>
       <c r="AC24" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="AD24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH24" s="5" t="s">
+        <v>547</v>
+      </c>
+      <c r="AI24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL24" s="5" t="s">
         <v>548</v>
-      </c>
-      <c r="AD24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH24" s="5" t="s">
-        <v>549</v>
-      </c>
-      <c r="AI24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL24" s="5" t="s">
-        <v>550</v>
       </c>
       <c r="AM24" s="5" t="s">
         <v>71</v>
@@ -7418,31 +8194,31 @@
         <v>66</v>
       </c>
       <c r="AP24" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="AQ24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR24" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS24" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="AT24" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="AU24" s="5" t="s">
         <v>551</v>
-      </c>
-      <c r="AQ24" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR24" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS24" s="5" t="s">
-        <v>552</v>
-      </c>
-      <c r="AT24" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="AU24" s="5" t="s">
-        <v>553</v>
       </c>
       <c r="AX24" s="5" t="s">
         <v>182</v>
       </c>
       <c r="BB24" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="BC24" s="19" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7450,52 +8226,52 @@
         <v>45566.300293171298</v>
       </c>
       <c r="B25" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="D25" s="11" t="s">
         <v>556</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="E25" s="11" t="s">
         <v>557</v>
       </c>
-      <c r="D25" s="11" t="s">
+      <c r="F25" s="11" t="s">
         <v>558</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="G25" s="18" t="s">
         <v>559</v>
       </c>
-      <c r="F25" s="11" t="s">
+      <c r="H25" s="11" t="s">
         <v>560</v>
       </c>
-      <c r="G25" s="18" t="s">
+      <c r="I25" s="11" t="s">
         <v>561</v>
       </c>
-      <c r="H25" s="11" t="s">
+      <c r="J25" s="11" t="s">
         <v>562</v>
       </c>
-      <c r="I25" s="11" t="s">
+      <c r="K25" s="11" t="s">
         <v>563</v>
       </c>
-      <c r="J25" s="11" t="s">
+      <c r="L25" s="11" t="s">
         <v>564</v>
       </c>
-      <c r="K25" s="11" t="s">
+      <c r="M25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N25" s="11" t="s">
         <v>565</v>
       </c>
-      <c r="L25" s="11" t="s">
+      <c r="O25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P25" s="11" t="s">
         <v>566</v>
       </c>
-      <c r="M25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N25" s="11" t="s">
+      <c r="Q25" s="11" t="s">
         <v>567</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>568</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>569</v>
       </c>
       <c r="R25" s="11" t="s">
         <v>68</v>
@@ -7537,25 +8313,25 @@
         <v>66</v>
       </c>
       <c r="AE25" s="18" t="s">
+        <v>568</v>
+      </c>
+      <c r="AF25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG25" s="18" t="s">
+        <v>569</v>
+      </c>
+      <c r="AH25" s="11" t="s">
         <v>570</v>
       </c>
-      <c r="AF25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG25" s="18" t="s">
+      <c r="AI25" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ25" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK25" s="11" t="s">
         <v>571</v>
-      </c>
-      <c r="AH25" s="11" t="s">
-        <v>572</v>
-      </c>
-      <c r="AI25" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ25" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK25" s="11" t="s">
-        <v>573</v>
       </c>
       <c r="AM25" s="11" t="s">
         <v>120</v>
@@ -7576,34 +8352,34 @@
         <v>66</v>
       </c>
       <c r="AS25" s="11" t="s">
+        <v>572</v>
+      </c>
+      <c r="AT25" s="11" t="s">
+        <v>573</v>
+      </c>
+      <c r="AV25" s="11" t="s">
         <v>574</v>
       </c>
-      <c r="AT25" s="11" t="s">
+      <c r="AW25" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AX25" s="11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AY25" s="11" t="s">
         <v>575</v>
       </c>
-      <c r="AV25" s="11" t="s">
+      <c r="AZ25" s="11" t="s">
         <v>576</v>
       </c>
-      <c r="AW25" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="AX25" s="11" t="s">
-        <v>576</v>
-      </c>
-      <c r="AY25" s="11" t="s">
+      <c r="BA25" s="11" t="s">
         <v>577</v>
       </c>
-      <c r="AZ25" s="11" t="s">
+      <c r="BB25" s="11" t="s">
         <v>578</v>
       </c>
-      <c r="BA25" s="11" t="s">
+      <c r="BC25" s="18" t="s">
         <v>579</v>
-      </c>
-      <c r="BB25" s="11" t="s">
-        <v>580</v>
-      </c>
-      <c r="BC25" s="18" t="s">
-        <v>581</v>
       </c>
       <c r="BD25" s="15" t="s">
         <v>101</v>
@@ -7614,52 +8390,52 @@
         <v>45566.338356562497</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="F26" s="5" t="s">
         <v>584</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="G26" s="19" t="s">
         <v>585</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="H26" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="I26" s="5" t="s">
         <v>586</v>
       </c>
-      <c r="G26" s="19" t="s">
+      <c r="J26" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>583</v>
-      </c>
-      <c r="I26" s="5" t="s">
+      <c r="K26" s="5" t="s">
         <v>588</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="L26" s="5" t="s">
         <v>589</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="M26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N26" s="5" t="s">
         <v>590</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="O26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="M26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N26" s="5" t="s">
+      <c r="Q26" s="5" t="s">
         <v>592</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>593</v>
-      </c>
-      <c r="Q26" s="5" t="s">
-        <v>594</v>
       </c>
       <c r="R26" s="5" t="s">
         <v>94</v>
@@ -7668,16 +8444,16 @@
         <v>66</v>
       </c>
       <c r="T26" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="U26" s="5" t="s">
+        <v>594</v>
+      </c>
+      <c r="V26" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="U26" s="5" t="s">
-        <v>596</v>
-      </c>
-      <c r="V26" s="5" t="s">
-        <v>597</v>
-      </c>
       <c r="W26" s="5" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="X26" s="5">
         <v>0</v>
@@ -7689,37 +8465,37 @@
         <v>66</v>
       </c>
       <c r="AA26" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="AB26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC26" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AD26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG26" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="AH26" s="5" t="s">
         <v>598</v>
       </c>
-      <c r="AB26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC26" s="5" t="s">
+      <c r="AI26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ26" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK26" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="AD26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG26" s="5" t="s">
-        <v>599</v>
-      </c>
-      <c r="AH26" s="5" t="s">
+      <c r="AL26" s="5" t="s">
         <v>600</v>
-      </c>
-      <c r="AI26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ26" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK26" s="5" t="s">
-        <v>601</v>
-      </c>
-      <c r="AL26" s="5" t="s">
-        <v>602</v>
       </c>
       <c r="AM26" s="5" t="s">
         <v>71</v>
@@ -7737,31 +8513,31 @@
         <v>66</v>
       </c>
       <c r="AS26" s="5" t="s">
+        <v>601</v>
+      </c>
+      <c r="AT26" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="AU26" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AV26" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="AX26" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="AT26" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="AU26" s="5" t="s">
+      <c r="AY26" s="5" t="s">
         <v>604</v>
-      </c>
-      <c r="AV26" s="5" t="s">
-        <v>604</v>
-      </c>
-      <c r="AX26" s="5" t="s">
-        <v>605</v>
-      </c>
-      <c r="AY26" s="5" t="s">
-        <v>606</v>
       </c>
       <c r="AZ26" s="5" t="s">
         <v>230</v>
       </c>
       <c r="BA26" s="5" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="BC26" s="19" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="BD26" s="9" t="s">
         <v>101</v>
@@ -7772,43 +8548,43 @@
         <v>45566.467545706022</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>607</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>608</v>
+      </c>
+      <c r="D27" s="11" t="s">
         <v>609</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="E27" s="11" t="s">
+        <v>609</v>
+      </c>
+      <c r="F27" s="11" t="s">
         <v>610</v>
       </c>
-      <c r="D27" s="11" t="s">
+      <c r="G27" s="18" t="s">
         <v>611</v>
       </c>
-      <c r="E27" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="F27" s="11" t="s">
+      <c r="H27" s="11" t="s">
         <v>612</v>
       </c>
-      <c r="G27" s="18" t="s">
+      <c r="I27" s="11" t="s">
         <v>613</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="J27" s="11" t="s">
         <v>614</v>
       </c>
-      <c r="I27" s="11" t="s">
+      <c r="K27" s="11" t="s">
         <v>615</v>
       </c>
-      <c r="J27" s="11" t="s">
+      <c r="L27" s="11" t="s">
+        <v>565</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N27" s="11" t="s">
         <v>616</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>617</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>567</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>618</v>
       </c>
       <c r="O27" s="11" t="s">
         <v>66</v>
@@ -7832,41 +8608,41 @@
         <v>3</v>
       </c>
       <c r="V27" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="W27" s="11" t="s">
+        <v>617</v>
+      </c>
+      <c r="X27" s="11" t="s">
+        <v>618</v>
+      </c>
+      <c r="Y27" s="11" t="s">
         <v>619</v>
       </c>
-      <c r="W27" s="11" t="s">
-        <v>619</v>
-      </c>
-      <c r="X27" s="11" t="s">
+      <c r="Z27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA27" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="Y27" s="11" t="s">
+      <c r="AB27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC27" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AD27" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF27" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>620</v>
+      </c>
+      <c r="AH27" s="11" t="s">
         <v>621</v>
       </c>
-      <c r="Z27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA27" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="AB27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="AD27" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF27" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG27" s="11" t="s">
-        <v>622</v>
-      </c>
-      <c r="AH27" s="11" t="s">
-        <v>623</v>
-      </c>
       <c r="AI27" s="11" t="s">
         <v>66</v>
       </c>
@@ -7874,10 +8650,10 @@
         <v>66</v>
       </c>
       <c r="AK27" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AL27" s="11" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="AM27" s="11" t="s">
         <v>71</v>
@@ -7895,13 +8671,13 @@
         <v>70</v>
       </c>
       <c r="AW27" s="11" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="AX27" s="11" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="BC27" s="18" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="28" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -7909,37 +8685,37 @@
         <v>45566.668890057874</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="E28" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="G28" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="H28" s="5" t="s">
         <v>630</v>
       </c>
-      <c r="G28" s="19" t="s">
+      <c r="I28" s="5" t="s">
         <v>631</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>632</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="K28" s="5" t="s">
         <v>633</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="L28" s="5" t="s">
         <v>634</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>635</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>636</v>
       </c>
       <c r="M28" s="5" t="s">
         <v>66</v>
@@ -7966,7 +8742,7 @@
         <v>8843</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="V28" s="5">
         <v>20</v>
@@ -7984,40 +8760,40 @@
         <v>66</v>
       </c>
       <c r="AA28" s="5" t="s">
+        <v>636</v>
+      </c>
+      <c r="AB28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC28" s="5" t="s">
+        <v>637</v>
+      </c>
+      <c r="AD28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE28" s="5" t="s">
         <v>638</v>
       </c>
-      <c r="AB28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC28" s="5" t="s">
+      <c r="AF28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG28" s="19" t="s">
         <v>639</v>
       </c>
-      <c r="AD28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE28" s="5" t="s">
+      <c r="AH28" s="5" t="s">
         <v>640</v>
       </c>
-      <c r="AF28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG28" s="19" t="s">
+      <c r="AI28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ28" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK28" s="5" t="s">
         <v>641</v>
       </c>
-      <c r="AH28" s="5" t="s">
+      <c r="AL28" s="5" t="s">
         <v>642</v>
-      </c>
-      <c r="AI28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ28" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK28" s="5" t="s">
-        <v>643</v>
-      </c>
-      <c r="AL28" s="5" t="s">
-        <v>644</v>
       </c>
       <c r="AM28" s="5" t="s">
         <v>120</v>
@@ -8035,31 +8811,31 @@
         <v>66</v>
       </c>
       <c r="AS28" s="5" t="s">
+        <v>643</v>
+      </c>
+      <c r="AT28" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="AU28" s="5" t="s">
         <v>645</v>
       </c>
-      <c r="AT28" s="5" t="s">
+      <c r="AV28" s="5" t="s">
         <v>646</v>
       </c>
-      <c r="AU28" s="5" t="s">
+      <c r="AW28" s="5" t="s">
         <v>647</v>
       </c>
-      <c r="AV28" s="5" t="s">
+      <c r="AX28" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY28" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="AW28" s="5" t="s">
+      <c r="AZ28" s="5" t="s">
         <v>649</v>
       </c>
-      <c r="AX28" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY28" s="5" t="s">
+      <c r="BC28" s="19" t="s">
         <v>650</v>
-      </c>
-      <c r="AZ28" s="5" t="s">
-        <v>651</v>
-      </c>
-      <c r="BC28" s="19" t="s">
-        <v>652</v>
       </c>
       <c r="BD28" s="9" t="s">
         <v>80</v>
@@ -8070,34 +8846,34 @@
         <v>45567.134702187497</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>651</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>652</v>
+      </c>
+      <c r="D29" s="11" t="s">
         <v>653</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>654</v>
       </c>
-      <c r="D29" s="11" t="s">
+      <c r="F29" s="11" t="s">
         <v>655</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="G29" s="18" t="s">
         <v>656</v>
       </c>
-      <c r="F29" s="11" t="s">
+      <c r="H29" s="11" t="s">
         <v>657</v>
       </c>
-      <c r="G29" s="18" t="s">
+      <c r="I29" s="11" t="s">
         <v>658</v>
       </c>
-      <c r="H29" s="11" t="s">
+      <c r="J29" s="11" t="s">
         <v>659</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>660</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>661</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>662</v>
       </c>
       <c r="L29" s="11" t="s">
         <v>93</v>
@@ -8106,7 +8882,7 @@
         <v>66</v>
       </c>
       <c r="N29" s="11" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="O29" s="11" t="s">
         <v>66</v>
@@ -8124,61 +8900,61 @@
         <v>66</v>
       </c>
       <c r="T29" s="11" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="U29" s="11">
         <v>2</v>
       </c>
       <c r="V29" s="11" t="s">
+        <v>662</v>
+      </c>
+      <c r="W29" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="X29" s="11" t="s">
         <v>664</v>
       </c>
-      <c r="W29" s="11" t="s">
+      <c r="Y29" s="11" t="s">
         <v>665</v>
       </c>
-      <c r="X29" s="11" t="s">
+      <c r="Z29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA29" s="11" t="s">
         <v>666</v>
       </c>
-      <c r="Y29" s="11" t="s">
+      <c r="AB29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC29" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="AD29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE29" s="11" t="s">
+        <v>666</v>
+      </c>
+      <c r="AF29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG29" s="18" t="s">
         <v>667</v>
       </c>
-      <c r="Z29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA29" s="11" t="s">
+      <c r="AH29" s="11" t="s">
         <v>668</v>
       </c>
-      <c r="AB29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="AD29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE29" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="AF29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG29" s="18" t="s">
+      <c r="AI29" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ29" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK29" s="11" t="s">
         <v>669</v>
       </c>
-      <c r="AH29" s="11" t="s">
+      <c r="AL29" s="11" t="s">
         <v>670</v>
-      </c>
-      <c r="AI29" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ29" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK29" s="11" t="s">
-        <v>671</v>
-      </c>
-      <c r="AL29" s="11" t="s">
-        <v>672</v>
       </c>
       <c r="AM29" s="11" t="s">
         <v>71</v>
@@ -8196,22 +8972,22 @@
         <v>66</v>
       </c>
       <c r="AS29" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="AT29" s="11" t="s">
+        <v>672</v>
+      </c>
+      <c r="AX29" s="11" t="s">
         <v>673</v>
       </c>
-      <c r="AT29" s="11" t="s">
+      <c r="AY29" s="11" t="s">
+        <v>648</v>
+      </c>
+      <c r="AZ29" s="11" t="s">
         <v>674</v>
       </c>
-      <c r="AX29" s="11" t="s">
+      <c r="BC29" s="18" t="s">
         <v>675</v>
-      </c>
-      <c r="AY29" s="11" t="s">
-        <v>650</v>
-      </c>
-      <c r="AZ29" s="11" t="s">
-        <v>676</v>
-      </c>
-      <c r="BC29" s="18" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="30" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8219,43 +8995,43 @@
         <v>45567.153902094906</v>
       </c>
       <c r="B30" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>678</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="E30" s="5" t="s">
+        <v>678</v>
+      </c>
+      <c r="F30" s="5" t="s">
         <v>679</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="G30" s="19" t="s">
         <v>680</v>
       </c>
-      <c r="E30" s="5" t="s">
-        <v>680</v>
-      </c>
-      <c r="F30" s="5" t="s">
+      <c r="H30" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>681</v>
       </c>
-      <c r="G30" s="19" t="s">
+      <c r="K30" s="5" t="s">
         <v>682</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>679</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J30" s="5" t="s">
+      <c r="L30" s="5" t="s">
         <v>683</v>
       </c>
-      <c r="K30" s="5" t="s">
+      <c r="M30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N30" s="5" t="s">
         <v>684</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>685</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>686</v>
       </c>
       <c r="O30" s="5" t="s">
         <v>66</v>
@@ -8273,13 +9049,13 @@
         <v>66</v>
       </c>
       <c r="T30" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="U30" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="V30" s="5" t="s">
         <v>687</v>
-      </c>
-      <c r="U30" s="5" t="s">
-        <v>688</v>
-      </c>
-      <c r="V30" s="5" t="s">
-        <v>689</v>
       </c>
       <c r="W30" s="20">
         <v>21000</v>
@@ -8297,31 +9073,31 @@
         <v>70</v>
       </c>
       <c r="AC30" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="AD30" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG30" s="19" t="s">
+        <v>689</v>
+      </c>
+      <c r="AH30" s="5" t="s">
         <v>690</v>
       </c>
-      <c r="AD30" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG30" s="19" t="s">
+      <c r="AI30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK30" s="5" t="s">
         <v>691</v>
       </c>
-      <c r="AH30" s="5" t="s">
+      <c r="AL30" s="5" t="s">
         <v>692</v>
-      </c>
-      <c r="AI30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK30" s="5" t="s">
-        <v>693</v>
-      </c>
-      <c r="AL30" s="5" t="s">
-        <v>694</v>
       </c>
       <c r="AM30" s="5" t="s">
         <v>120</v>
@@ -8333,28 +9109,28 @@
         <v>70</v>
       </c>
       <c r="AP30" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="AQ30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR30" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AY30" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="AZ30" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="BB30" s="5" t="s">
         <v>695</v>
       </c>
-      <c r="AQ30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR30" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AY30" s="5" t="s">
+      <c r="BC30" s="19" t="s">
         <v>696</v>
       </c>
-      <c r="AZ30" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="BB30" s="5" t="s">
-        <v>697</v>
-      </c>
-      <c r="BC30" s="19" t="s">
-        <v>698</v>
-      </c>
       <c r="BD30" s="9" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8362,43 +9138,43 @@
         <v>45567.292733657407</v>
       </c>
       <c r="B31" s="11" t="s">
+        <v>697</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="D31" s="11" t="s">
         <v>699</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="E31" s="11" t="s">
         <v>700</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="F31" s="11" t="s">
         <v>701</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="G31" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="H31" s="11" t="s">
         <v>703</v>
-      </c>
-      <c r="G31" s="18" t="s">
-        <v>704</v>
-      </c>
-      <c r="H31" s="11" t="s">
-        <v>705</v>
       </c>
       <c r="I31" s="11" t="s">
         <v>169</v>
       </c>
       <c r="J31" s="11" t="s">
+        <v>704</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>705</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N31" s="11" t="s">
         <v>706</v>
-      </c>
-      <c r="K31" s="11" t="s">
-        <v>707</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>685</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>708</v>
       </c>
       <c r="O31" s="11" t="s">
         <v>66</v>
@@ -8416,58 +9192,58 @@
         <v>66</v>
       </c>
       <c r="T31" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="U31" s="11" t="s">
+        <v>708</v>
+      </c>
+      <c r="V31" s="11" t="s">
         <v>709</v>
       </c>
-      <c r="U31" s="11" t="s">
+      <c r="W31" s="11" t="s">
         <v>710</v>
       </c>
-      <c r="V31" s="11" t="s">
+      <c r="X31" s="11" t="s">
         <v>711</v>
       </c>
-      <c r="W31" s="11" t="s">
+      <c r="Y31" s="11" t="s">
         <v>712</v>
       </c>
-      <c r="X31" s="11" t="s">
+      <c r="Z31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA31" s="18" t="s">
         <v>713</v>
       </c>
-      <c r="Y31" s="11" t="s">
+      <c r="AB31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC31" s="11" t="s">
         <v>714</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA31" s="18" t="s">
+      <c r="AD31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE31" s="11" t="s">
         <v>715</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC31" s="11" t="s">
+      <c r="AF31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH31" s="11" t="s">
         <v>716</v>
       </c>
-      <c r="AD31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AE31" s="11" t="s">
+      <c r="AI31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK31" s="11" t="s">
         <v>717</v>
       </c>
-      <c r="AF31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH31" s="11" t="s">
+      <c r="AL31" s="11" t="s">
         <v>718</v>
-      </c>
-      <c r="AI31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ31" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AK31" s="11" t="s">
-        <v>719</v>
-      </c>
-      <c r="AL31" s="11" t="s">
-        <v>720</v>
       </c>
       <c r="AM31" s="11" t="s">
         <v>71</v>
@@ -8479,31 +9255,31 @@
         <v>66</v>
       </c>
       <c r="AP31" s="18" t="s">
+        <v>719</v>
+      </c>
+      <c r="AQ31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS31" s="11" t="s">
+        <v>720</v>
+      </c>
+      <c r="AU31" s="11" t="s">
         <v>721</v>
       </c>
-      <c r="AQ31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR31" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS31" s="11" t="s">
+      <c r="AW31" s="11" t="s">
         <v>722</v>
-      </c>
-      <c r="AU31" s="11" t="s">
-        <v>723</v>
-      </c>
-      <c r="AW31" s="11" t="s">
-        <v>724</v>
       </c>
       <c r="AX31" s="11" t="s">
         <v>201</v>
       </c>
       <c r="AY31" s="11" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="BC31" s="18" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="32" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8511,43 +9287,43 @@
         <v>45567.321460185187</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>727</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="E32" s="5" t="s">
         <v>728</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="F32" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="G32" s="19" t="s">
         <v>730</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="H32" s="5" t="s">
         <v>731</v>
       </c>
-      <c r="G32" s="19" t="s">
+      <c r="I32" s="5" t="s">
         <v>732</v>
       </c>
-      <c r="H32" s="5" t="s">
+      <c r="J32" s="5" t="s">
         <v>733</v>
       </c>
-      <c r="I32" s="5" t="s">
+      <c r="K32" s="5" t="s">
         <v>734</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="L32" s="5" t="s">
         <v>735</v>
       </c>
-      <c r="K32" s="5" t="s">
-        <v>736</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>737</v>
-      </c>
       <c r="M32" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N32" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="O32" s="5" t="s">
         <v>66</v>
@@ -8565,46 +9341,46 @@
         <v>66</v>
       </c>
       <c r="T32" s="5" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="U32" s="5">
         <v>1</v>
       </c>
       <c r="V32" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="W32" s="5" t="s">
+        <v>738</v>
+      </c>
+      <c r="X32" s="5" t="s">
         <v>739</v>
       </c>
-      <c r="W32" s="5" t="s">
+      <c r="Y32" s="5" t="s">
         <v>740</v>
       </c>
-      <c r="X32" s="5" t="s">
+      <c r="Z32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH32" s="5" t="s">
         <v>741</v>
       </c>
-      <c r="Y32" s="5" t="s">
+      <c r="AI32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ32" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL32" s="5" t="s">
         <v>742</v>
-      </c>
-      <c r="Z32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AD32" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH32" s="5" t="s">
-        <v>743</v>
-      </c>
-      <c r="AI32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ32" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AL32" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="AM32" s="5" t="s">
         <v>120</v>
@@ -8622,31 +9398,31 @@
         <v>66</v>
       </c>
       <c r="AS32" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="AT32" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="AU32" s="5" t="s">
         <v>745</v>
-      </c>
-      <c r="AT32" s="5" t="s">
-        <v>746</v>
-      </c>
-      <c r="AU32" s="5" t="s">
-        <v>747</v>
       </c>
       <c r="AX32" s="5" t="s">
         <v>182</v>
       </c>
       <c r="AY32" s="5" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="AZ32" s="5" t="s">
         <v>101</v>
       </c>
       <c r="BA32" s="5" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="BC32" s="5" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="BD32" s="9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="33" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8654,34 +9430,34 @@
         <v>45567.342572986112</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C33" s="11" t="s">
+        <v>749</v>
+      </c>
+      <c r="D33" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>750</v>
+      </c>
+      <c r="F33" s="11" t="s">
         <v>751</v>
       </c>
-      <c r="D33" s="11" t="s">
-        <v>519</v>
-      </c>
-      <c r="E33" s="11" t="s">
+      <c r="G33" s="18" t="s">
         <v>752</v>
       </c>
-      <c r="F33" s="11" t="s">
+      <c r="H33" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="I33" s="11" t="s">
         <v>753</v>
       </c>
-      <c r="G33" s="18" t="s">
+      <c r="J33" s="11" t="s">
         <v>754</v>
       </c>
-      <c r="H33" s="27" t="s">
-        <v>523</v>
-      </c>
-      <c r="I33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>755</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>756</v>
-      </c>
-      <c r="K33" s="11" t="s">
-        <v>757</v>
       </c>
       <c r="L33" s="11" t="s">
         <v>111</v>
@@ -8690,7 +9466,7 @@
         <v>66</v>
       </c>
       <c r="N33" s="11" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="O33" s="11" t="s">
         <v>66</v>
@@ -8711,16 +9487,16 @@
         <v>1</v>
       </c>
       <c r="U33" s="11" t="s">
+        <v>757</v>
+      </c>
+      <c r="V33" s="11" t="s">
+        <v>758</v>
+      </c>
+      <c r="W33" s="11" t="s">
         <v>759</v>
       </c>
-      <c r="V33" s="11" t="s">
-        <v>760</v>
-      </c>
-      <c r="W33" s="11" t="s">
-        <v>761</v>
-      </c>
       <c r="X33" s="11" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="Y33" s="14">
         <v>1470000</v>
@@ -8729,40 +9505,40 @@
         <v>70</v>
       </c>
       <c r="AA33" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AB33" s="11" t="s">
         <v>70</v>
       </c>
       <c r="AC33" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AD33" s="11" t="s">
         <v>66</v>
       </c>
       <c r="AE33" s="11" t="s">
+        <v>760</v>
+      </c>
+      <c r="AF33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG33" s="18" t="s">
+        <v>761</v>
+      </c>
+      <c r="AH33" s="11" t="s">
         <v>762</v>
       </c>
-      <c r="AF33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG33" s="18" t="s">
+      <c r="AI33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ33" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK33" s="11" t="s">
         <v>763</v>
       </c>
-      <c r="AH33" s="11" t="s">
-        <v>764</v>
-      </c>
-      <c r="AI33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ33" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK33" s="11" t="s">
-        <v>765</v>
-      </c>
       <c r="AL33" s="11" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="AM33" s="11" t="s">
         <v>120</v>
@@ -8774,7 +9550,7 @@
         <v>70</v>
       </c>
       <c r="AP33" s="11" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="AQ33" s="11" t="s">
         <v>66</v>
@@ -8783,22 +9559,22 @@
         <v>66</v>
       </c>
       <c r="AS33" s="11" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="AW33" s="11" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="AX33" s="11" t="s">
         <v>182</v>
       </c>
       <c r="AY33" s="11" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="BA33" s="11" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="BC33" s="18" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="34" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8806,43 +9582,43 @@
         <v>45567.408954456019</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>768</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>769</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>770</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="F34" s="5" t="s">
         <v>771</v>
       </c>
-      <c r="E34" s="5" t="s">
+      <c r="G34" s="19" t="s">
         <v>772</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="H34" s="5" t="s">
         <v>773</v>
       </c>
-      <c r="G34" s="19" t="s">
+      <c r="I34" s="5" t="s">
         <v>774</v>
       </c>
-      <c r="H34" s="5" t="s">
+      <c r="J34" s="5" t="s">
         <v>775</v>
       </c>
-      <c r="I34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>776</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="L34" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>778</v>
-      </c>
-      <c r="L34" s="5" t="s">
-        <v>779</v>
-      </c>
       <c r="M34" s="5" t="s">
         <v>66</v>
       </c>
       <c r="N34" s="5" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="O34" s="5" t="s">
         <v>66</v>
@@ -8860,7 +9636,7 @@
         <v>66</v>
       </c>
       <c r="T34" s="5" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="U34" s="5">
         <v>1</v>
@@ -8881,31 +9657,31 @@
         <v>66</v>
       </c>
       <c r="AA34" s="19" t="s">
+        <v>779</v>
+      </c>
+      <c r="AD34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE34" s="5" t="s">
+        <v>780</v>
+      </c>
+      <c r="AF34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG34" s="19" t="s">
         <v>781</v>
       </c>
-      <c r="AD34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE34" s="5" t="s">
+      <c r="AI34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ34" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK34" s="5" t="s">
         <v>782</v>
       </c>
-      <c r="AF34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AG34" s="19" t="s">
+      <c r="AL34" s="5" t="s">
         <v>783</v>
-      </c>
-      <c r="AI34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ34" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK34" s="5" t="s">
-        <v>784</v>
-      </c>
-      <c r="AL34" s="5" t="s">
-        <v>785</v>
       </c>
       <c r="AM34" s="5" t="s">
         <v>71</v>
@@ -8917,28 +9693,28 @@
         <v>66</v>
       </c>
       <c r="AS34" s="5" t="s">
+        <v>784</v>
+      </c>
+      <c r="AT34" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="AU34" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AW34" s="5" t="s">
         <v>786</v>
       </c>
-      <c r="AT34" s="5" t="s">
+      <c r="AX34" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="AU34" s="5" t="s">
-        <v>443</v>
-      </c>
-      <c r="AW34" s="5" t="s">
+      <c r="AZ34" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC34" s="5" t="s">
         <v>788</v>
       </c>
-      <c r="AX34" s="5" t="s">
-        <v>789</v>
-      </c>
-      <c r="AZ34" s="5" t="s">
-        <v>327</v>
-      </c>
-      <c r="BC34" s="5" t="s">
-        <v>790</v>
-      </c>
       <c r="BD34" s="9" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
     </row>
     <row r="35" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -8946,43 +9722,43 @@
         <v>45567.545240486113</v>
       </c>
       <c r="B35" s="11" t="s">
+        <v>789</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>791</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="E35" s="11" t="s">
         <v>792</v>
       </c>
-      <c r="D35" s="11" t="s">
+      <c r="F35" s="11" t="s">
         <v>793</v>
       </c>
-      <c r="E35" s="11" t="s">
+      <c r="G35" s="18" t="s">
         <v>794</v>
       </c>
-      <c r="F35" s="11" t="s">
+      <c r="H35" s="11" t="s">
+        <v>790</v>
+      </c>
+      <c r="I35" s="11" t="s">
         <v>795</v>
       </c>
-      <c r="G35" s="18" t="s">
+      <c r="J35" s="11" t="s">
         <v>796</v>
       </c>
-      <c r="H35" s="11" t="s">
-        <v>792</v>
-      </c>
-      <c r="I35" s="11" t="s">
+      <c r="K35" s="11" t="s">
         <v>797</v>
       </c>
-      <c r="J35" s="11" t="s">
+      <c r="L35" s="11" t="s">
         <v>798</v>
       </c>
-      <c r="K35" s="11" t="s">
+      <c r="M35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N35" s="11" t="s">
         <v>799</v>
-      </c>
-      <c r="L35" s="11" t="s">
-        <v>800</v>
-      </c>
-      <c r="M35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N35" s="11" t="s">
-        <v>801</v>
       </c>
       <c r="O35" s="11" t="s">
         <v>70</v>
@@ -8991,7 +9767,7 @@
         <v>0.25</v>
       </c>
       <c r="Q35" s="11" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="R35" s="11" t="s">
         <v>68</v>
@@ -9000,58 +9776,58 @@
         <v>66</v>
       </c>
       <c r="T35" s="11" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="U35" s="11">
         <v>4</v>
       </c>
       <c r="V35" s="11" t="s">
+        <v>802</v>
+      </c>
+      <c r="W35" s="11" t="s">
+        <v>803</v>
+      </c>
+      <c r="X35" s="11" t="s">
         <v>804</v>
       </c>
-      <c r="W35" s="11" t="s">
+      <c r="Y35" s="11" t="s">
         <v>805</v>
       </c>
-      <c r="X35" s="11" t="s">
+      <c r="Z35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA35" s="11" t="s">
         <v>806</v>
       </c>
-      <c r="Y35" s="11" t="s">
+      <c r="AB35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC35" s="11" t="s">
         <v>807</v>
       </c>
-      <c r="Z35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA35" s="11" t="s">
+      <c r="AD35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE35" s="11" t="s">
         <v>808</v>
       </c>
-      <c r="AB35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC35" s="11" t="s">
+      <c r="AF35" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH35" s="11" t="s">
         <v>809</v>
       </c>
-      <c r="AD35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE35" s="11" t="s">
+      <c r="AI35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK35" s="11" t="s">
         <v>810</v>
       </c>
-      <c r="AF35" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH35" s="11" t="s">
+      <c r="AL35" s="11" t="s">
         <v>811</v>
-      </c>
-      <c r="AI35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK35" s="11" t="s">
-        <v>812</v>
-      </c>
-      <c r="AL35" s="11" t="s">
-        <v>813</v>
       </c>
       <c r="AM35" s="11" t="s">
         <v>120</v>
@@ -9063,49 +9839,49 @@
         <v>66</v>
       </c>
       <c r="AP35" s="11" t="s">
+        <v>812</v>
+      </c>
+      <c r="AQ35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR35" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS35" s="11" t="s">
+        <v>813</v>
+      </c>
+      <c r="AT35" s="11" t="s">
         <v>814</v>
       </c>
-      <c r="AQ35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR35" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS35" s="11" t="s">
+      <c r="AU35" s="11" t="s">
         <v>815</v>
       </c>
-      <c r="AT35" s="11" t="s">
+      <c r="AV35" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="AW35" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="AX35" s="11" t="s">
         <v>816</v>
       </c>
-      <c r="AU35" s="11" t="s">
+      <c r="AY35" s="11" t="s">
         <v>817</v>
       </c>
-      <c r="AV35" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="AW35" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="AX35" s="11" t="s">
+      <c r="AZ35" s="11" t="s">
         <v>818</v>
       </c>
-      <c r="AY35" s="11" t="s">
+      <c r="BA35" s="11" t="s">
+        <v>815</v>
+      </c>
+      <c r="BB35" s="11" t="s">
         <v>819</v>
       </c>
-      <c r="AZ35" s="11" t="s">
+      <c r="BC35" s="18" t="s">
         <v>820</v>
       </c>
-      <c r="BA35" s="11" t="s">
-        <v>817</v>
-      </c>
-      <c r="BB35" s="11" t="s">
-        <v>821</v>
-      </c>
-      <c r="BC35" s="18" t="s">
-        <v>822</v>
-      </c>
       <c r="BD35" s="15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="36" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9113,31 +9889,31 @@
         <v>45568.29184928241</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>822</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>823</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>824</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="F36" s="5" t="s">
         <v>825</v>
       </c>
-      <c r="E36" s="5" t="s">
+      <c r="G36" s="19" t="s">
         <v>826</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="H36" s="5" t="s">
         <v>827</v>
       </c>
-      <c r="G36" s="19" t="s">
+      <c r="I36" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="H36" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>829</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>830</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>831</v>
       </c>
       <c r="L36" s="5" t="s">
         <v>93</v>
@@ -9161,7 +9937,7 @@
         <v>66</v>
       </c>
       <c r="T36" s="5" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="U36" s="5">
         <v>1</v>
@@ -9173,34 +9949,34 @@
         <v>500</v>
       </c>
       <c r="X36" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="Y36" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="Z36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF36" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ36" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK36" s="5" t="s">
         <v>833</v>
       </c>
-      <c r="Y36" s="5" t="s">
+      <c r="AL36" s="5" t="s">
         <v>834</v>
-      </c>
-      <c r="Z36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF36" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="AI36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ36" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK36" s="5" t="s">
-        <v>835</v>
-      </c>
-      <c r="AL36" s="5" t="s">
-        <v>836</v>
       </c>
       <c r="AM36" s="5" t="s">
         <v>120</v>
@@ -9218,16 +9994,16 @@
         <v>70</v>
       </c>
       <c r="AU36" s="5" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="AV36" s="5" t="s">
         <v>123</v>
       </c>
       <c r="AX36" s="5" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="BC36" s="19" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="37" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9235,40 +10011,40 @@
         <v>45569.360684722225</v>
       </c>
       <c r="B37" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>839</v>
+      </c>
+      <c r="D37" s="11" t="s">
         <v>840</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="E37" s="11" t="s">
         <v>841</v>
       </c>
-      <c r="D37" s="11" t="s">
+      <c r="F37" s="11" t="s">
         <v>842</v>
       </c>
-      <c r="E37" s="11" t="s">
+      <c r="G37" s="18" t="s">
         <v>843</v>
       </c>
-      <c r="F37" s="11" t="s">
+      <c r="H37" s="11" t="s">
         <v>844</v>
       </c>
-      <c r="G37" s="18" t="s">
+      <c r="I37" s="11" t="s">
         <v>845</v>
       </c>
-      <c r="H37" s="11" t="s">
+      <c r="J37" s="11" t="s">
         <v>846</v>
       </c>
-      <c r="I37" s="11" t="s">
+      <c r="L37" s="11" t="s">
         <v>847</v>
       </c>
-      <c r="J37" s="11" t="s">
+      <c r="M37" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37" s="11" t="s">
         <v>848</v>
-      </c>
-      <c r="L37" s="11" t="s">
-        <v>849</v>
-      </c>
-      <c r="M37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="N37" s="11" t="s">
-        <v>850</v>
       </c>
       <c r="O37" s="11" t="s">
         <v>66</v>
@@ -9286,7 +10062,7 @@
         <v>66</v>
       </c>
       <c r="U37" s="11" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="V37" s="11">
         <v>75</v>
@@ -9307,7 +10083,7 @@
         <v>66</v>
       </c>
       <c r="AG37" s="18" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>66</v>
@@ -9331,25 +10107,25 @@
         <v>66</v>
       </c>
       <c r="AS37" s="11" t="s">
+        <v>851</v>
+      </c>
+      <c r="AX37" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="AY37" s="11" t="s">
         <v>853</v>
-      </c>
-      <c r="AX37" s="11" t="s">
-        <v>854</v>
-      </c>
-      <c r="AY37" s="11" t="s">
-        <v>855</v>
       </c>
       <c r="AZ37" s="11" t="s">
         <v>101</v>
       </c>
       <c r="BA37" s="11" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="BC37" s="18" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="BD37" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9357,43 +10133,43 @@
         <v>45569.387020127309</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="E38" s="5" t="s">
         <v>858</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="F38" s="5" t="s">
         <v>859</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="G38" s="19" t="s">
         <v>860</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="H38" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="I38" s="5" t="s">
         <v>861</v>
       </c>
-      <c r="G38" s="19" t="s">
+      <c r="J38" s="5" t="s">
         <v>862</v>
       </c>
-      <c r="H38" s="5" t="s">
-        <v>858</v>
-      </c>
-      <c r="I38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>863</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="L38" s="5" t="s">
         <v>864</v>
       </c>
-      <c r="K38" s="5" t="s">
+      <c r="M38" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N38" s="5" t="s">
         <v>865</v>
-      </c>
-      <c r="L38" s="5" t="s">
-        <v>866</v>
-      </c>
-      <c r="M38" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="N38" s="5" t="s">
-        <v>867</v>
       </c>
       <c r="O38" s="5" t="s">
         <v>66</v>
@@ -9423,10 +10199,10 @@
         <v>0</v>
       </c>
       <c r="X38" s="5" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="Y38" s="5" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="Z38" s="5" t="s">
         <v>66</v>
@@ -9444,7 +10220,7 @@
         <v>66</v>
       </c>
       <c r="AM38" s="5" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="AN38" s="5" t="s">
         <v>98</v>
@@ -9459,25 +10235,25 @@
         <v>66</v>
       </c>
       <c r="AS38" s="5" t="s">
+        <v>868</v>
+      </c>
+      <c r="AU38" s="5" t="s">
+        <v>869</v>
+      </c>
+      <c r="AV38" s="5" t="s">
         <v>870</v>
       </c>
-      <c r="AU38" s="5" t="s">
-        <v>871</v>
-      </c>
-      <c r="AV38" s="5" t="s">
-        <v>872</v>
-      </c>
       <c r="AW38" s="5" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="AX38" s="5" t="s">
         <v>201</v>
       </c>
       <c r="AZ38" s="5" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="BC38" s="19" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="BD38" s="9" t="s">
         <v>80</v>
@@ -9488,43 +10264,43 @@
         <v>45569.452661145835</v>
       </c>
       <c r="B39" s="11" t="s">
+        <v>872</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>873</v>
+      </c>
+      <c r="D39" s="11" t="s">
         <v>874</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="E39" s="11" t="s">
         <v>875</v>
       </c>
-      <c r="D39" s="11" t="s">
+      <c r="F39" s="11" t="s">
         <v>876</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="G39" s="18" t="s">
         <v>877</v>
       </c>
-      <c r="F39" s="11" t="s">
+      <c r="H39" s="11" t="s">
         <v>878</v>
       </c>
-      <c r="G39" s="18" t="s">
+      <c r="I39" s="11" t="s">
         <v>879</v>
       </c>
-      <c r="H39" s="11" t="s">
+      <c r="J39" s="11" t="s">
         <v>880</v>
       </c>
-      <c r="I39" s="11" t="s">
+      <c r="K39" s="11" t="s">
         <v>881</v>
       </c>
-      <c r="J39" s="11" t="s">
+      <c r="L39" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N39" s="11" t="s">
         <v>882</v>
-      </c>
-      <c r="K39" s="11" t="s">
-        <v>883</v>
-      </c>
-      <c r="L39" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="M39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="N39" s="11" t="s">
-        <v>884</v>
       </c>
       <c r="O39" s="11" t="s">
         <v>66</v>
@@ -9542,46 +10318,46 @@
         <v>66</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="U39" s="11">
         <v>2</v>
       </c>
       <c r="V39" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="W39" s="11" t="s">
+        <v>885</v>
+      </c>
+      <c r="X39" s="11" t="s">
         <v>886</v>
       </c>
-      <c r="W39" s="11" t="s">
+      <c r="Y39" s="11" t="s">
         <v>887</v>
       </c>
-      <c r="X39" s="11" t="s">
+      <c r="Z39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA39" s="11" t="s">
         <v>888</v>
       </c>
-      <c r="Y39" s="11" t="s">
+      <c r="AB39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC39" s="18" t="s">
         <v>889</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AA39" s="11" t="s">
+      <c r="AD39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE39" s="11" t="s">
         <v>890</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC39" s="18" t="s">
+      <c r="AF39" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AH39" s="11" t="s">
         <v>891</v>
-      </c>
-      <c r="AD39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>892</v>
-      </c>
-      <c r="AF39" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AH39" s="11" t="s">
-        <v>893</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>66</v>
@@ -9605,31 +10381,31 @@
         <v>66</v>
       </c>
       <c r="AS39" s="11" t="s">
+        <v>892</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>893</v>
+      </c>
+      <c r="AU39" s="11" t="s">
         <v>894</v>
       </c>
-      <c r="AT39" s="11" t="s">
+      <c r="AV39" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW39" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="AX39" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="BA39" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="BC39" s="18" t="s">
+        <v>889</v>
+      </c>
+      <c r="BD39" s="15" t="s">
         <v>895</v>
-      </c>
-      <c r="AU39" s="11" t="s">
-        <v>896</v>
-      </c>
-      <c r="AV39" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="AW39" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="AX39" s="11" t="s">
-        <v>325</v>
-      </c>
-      <c r="BA39" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="BC39" s="18" t="s">
-        <v>891</v>
-      </c>
-      <c r="BD39" s="15" t="s">
-        <v>897</v>
       </c>
     </row>
     <row r="40" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9637,37 +10413,37 @@
         <v>45569.547512013887</v>
       </c>
       <c r="B40" s="5" t="s">
+        <v>896</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="D40" s="5" t="s">
         <v>898</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="E40" s="5" t="s">
         <v>899</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="F40" s="5" t="s">
         <v>900</v>
       </c>
-      <c r="E40" s="5" t="s">
+      <c r="G40" s="19" t="s">
         <v>901</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="H40" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>902</v>
       </c>
-      <c r="G40" s="19" t="s">
+      <c r="J40" s="5" t="s">
         <v>903</v>
       </c>
-      <c r="H40" s="5" t="s">
-        <v>899</v>
-      </c>
-      <c r="I40" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>904</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="L40" s="5" t="s">
         <v>905</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>906</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>907</v>
       </c>
       <c r="M40" s="5" t="s">
         <v>70</v>
@@ -9706,156 +10482,1491 @@
         <v>100000</v>
       </c>
       <c r="AV40" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="AW40" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="AX40" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY40" s="5" t="s">
+        <v>907</v>
+      </c>
+      <c r="BC40" s="19" t="s">
         <v>908</v>
-      </c>
-      <c r="AW40" s="5" t="s">
-        <v>649</v>
-      </c>
-      <c r="AX40" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="AY40" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="BC40" s="19" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="41" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="22">
+      <c r="A41" s="10">
         <v>45570.652237361108</v>
       </c>
-      <c r="B41" s="23" t="s">
+      <c r="B41" s="11" t="s">
+        <v>909</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>910</v>
+      </c>
+      <c r="D41" s="11" t="s">
         <v>911</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="E41" s="11" t="s">
         <v>912</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="F41" s="11" t="s">
         <v>913</v>
       </c>
-      <c r="E41" s="23" t="s">
+      <c r="G41" s="18" t="s">
         <v>914</v>
       </c>
-      <c r="F41" s="23" t="s">
+      <c r="H41" s="11" t="s">
         <v>915</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="I41" s="11" t="s">
         <v>916</v>
       </c>
-      <c r="H41" s="23" t="s">
+      <c r="J41" s="11" t="s">
         <v>917</v>
       </c>
-      <c r="I41" s="23" t="s">
+      <c r="K41" s="11" t="s">
         <v>918</v>
       </c>
-      <c r="J41" s="23" t="s">
+      <c r="L41" s="11" t="s">
         <v>919</v>
       </c>
-      <c r="K41" s="23" t="s">
+      <c r="M41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N41" s="11" t="s">
         <v>920</v>
       </c>
-      <c r="L41" s="23" t="s">
+      <c r="P41" s="13">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T41" s="11" t="s">
         <v>921</v>
       </c>
-      <c r="M41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="N41" s="23" t="s">
+      <c r="U41" s="11">
+        <v>3</v>
+      </c>
+      <c r="V41" s="11" t="s">
         <v>922</v>
       </c>
-      <c r="P41" s="25">
+      <c r="W41" s="11" t="s">
+        <v>923</v>
+      </c>
+      <c r="X41" s="11" t="s">
+        <v>924</v>
+      </c>
+      <c r="Y41" s="11" t="s">
+        <v>925</v>
+      </c>
+      <c r="Z41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA41" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="AB41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC41" s="11" t="s">
+        <v>926</v>
+      </c>
+      <c r="AD41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE41" s="11" t="s">
+        <v>927</v>
+      </c>
+      <c r="AF41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AG41" s="11" t="s">
+        <v>928</v>
+      </c>
+      <c r="AH41" s="11" t="s">
+        <v>929</v>
+      </c>
+      <c r="AI41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ41" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM41" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN41" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP41" s="11" t="s">
+        <v>930</v>
+      </c>
+      <c r="AQ41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR41" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS41" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ41" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="BC41" s="18" t="s">
+        <v>931</v>
+      </c>
+      <c r="BD41" s="15" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="42" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="4">
+        <v>45573.164591956018</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>932</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>933</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>934</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>935</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>936</v>
+      </c>
+      <c r="G42" s="19" t="s">
+        <v>937</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>938</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>939</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>940</v>
+      </c>
+      <c r="K42" s="5" t="s">
+        <v>941</v>
+      </c>
+      <c r="L42" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="M42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N42" s="5" t="s">
+        <v>942</v>
+      </c>
+      <c r="O42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P42" s="7">
+        <v>0.75</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T42" s="5">
+        <v>20560</v>
+      </c>
+      <c r="U42" s="5" t="s">
+        <v>943</v>
+      </c>
+      <c r="V42" s="5" t="s">
+        <v>944</v>
+      </c>
+      <c r="W42" s="5">
+        <v>2710</v>
+      </c>
+      <c r="X42" s="5">
+        <v>34200</v>
+      </c>
+      <c r="Y42" s="5" t="s">
+        <v>945</v>
+      </c>
+      <c r="Z42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ42" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AM42" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN42" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AQ42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR42" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS42" s="5" t="s">
+        <v>946</v>
+      </c>
+      <c r="AT42" s="5" t="s">
+        <v>947</v>
+      </c>
+      <c r="AU42" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="AV42" s="5" t="s">
+        <v>906</v>
+      </c>
+      <c r="AW42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX42" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="AY42" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="AZ42" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="BA42" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="BC42" s="19" t="s">
+        <v>950</v>
+      </c>
+      <c r="BD42" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="43" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10">
+        <v>45573.326569560188</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="F43" s="11" t="s">
+        <v>952</v>
+      </c>
+      <c r="G43" s="18" t="s">
+        <v>953</v>
+      </c>
+      <c r="H43" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="I43" s="11" t="s">
+        <v>954</v>
+      </c>
+      <c r="J43" s="11" t="s">
+        <v>955</v>
+      </c>
+      <c r="K43" s="11" t="s">
+        <v>956</v>
+      </c>
+      <c r="L43" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N43" s="11" t="s">
+        <v>957</v>
+      </c>
+      <c r="O43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P43" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>100</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T43" s="11" t="s">
+        <v>958</v>
+      </c>
+      <c r="U43" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="V43" s="22">
+        <v>7000</v>
+      </c>
+      <c r="W43" s="11" t="s">
+        <v>960</v>
+      </c>
+      <c r="X43" s="14">
+        <v>500000</v>
+      </c>
+      <c r="Y43" s="11" t="s">
+        <v>961</v>
+      </c>
+      <c r="Z43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA43" s="11" t="s">
+        <v>962</v>
+      </c>
+      <c r="AB43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE43" s="11" t="s">
+        <v>963</v>
+      </c>
+      <c r="AF43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG43" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AH43" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="AI43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK43" s="11" t="s">
+        <v>964</v>
+      </c>
+      <c r="AL43" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="AM43" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN43" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP43" s="11" t="s">
+        <v>966</v>
+      </c>
+      <c r="AQ43" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR43" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>967</v>
+      </c>
+      <c r="AV43" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="AW43" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="AX43" s="11" t="s">
+        <v>787</v>
+      </c>
+      <c r="AZ43" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC43" s="18" t="s">
+        <v>968</v>
+      </c>
+      <c r="BD43" s="15" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="4">
+        <v>45574.168504525464</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>969</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>972</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>973</v>
+      </c>
+      <c r="G44" s="19" t="s">
+        <v>974</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>975</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>976</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>977</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>683</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="O44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P44" s="7">
         <v>1</v>
       </c>
-      <c r="Q41" s="25">
-        <v>0.7</v>
-      </c>
-      <c r="R41" s="23" t="s">
+      <c r="Q44" s="7">
+        <v>1</v>
+      </c>
+      <c r="R44" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="S41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="T41" s="23" t="s">
-        <v>923</v>
-      </c>
-      <c r="U41" s="23">
+      <c r="S44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="U44" s="5" t="s">
+        <v>979</v>
+      </c>
+      <c r="V44" s="5">
+        <v>311</v>
+      </c>
+      <c r="W44" s="5" t="s">
+        <v>980</v>
+      </c>
+      <c r="X44" s="8">
+        <v>450000</v>
+      </c>
+      <c r="Y44" s="8">
+        <v>150000</v>
+      </c>
+      <c r="Z44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA44" s="19" t="s">
+        <v>981</v>
+      </c>
+      <c r="AB44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC44" s="19" t="s">
+        <v>982</v>
+      </c>
+      <c r="AD44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE44" s="19" t="s">
+        <v>983</v>
+      </c>
+      <c r="AF44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG44" s="19" t="s">
+        <v>984</v>
+      </c>
+      <c r="AH44" s="5" t="s">
+        <v>985</v>
+      </c>
+      <c r="AI44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ44" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AK44" s="5" t="s">
+        <v>986</v>
+      </c>
+      <c r="AL44" s="5" t="s">
+        <v>987</v>
+      </c>
+      <c r="AM44" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN44" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP44" s="19" t="s">
+        <v>988</v>
+      </c>
+      <c r="AQ44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR44" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS44" s="5" t="s">
+        <v>989</v>
+      </c>
+      <c r="AT44" s="5" t="s">
+        <v>990</v>
+      </c>
+      <c r="AU44" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="AW44" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="AX44" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="AY44" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="AZ44" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="BC44" s="19" t="s">
+        <v>991</v>
+      </c>
+      <c r="BD44" s="9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="45" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10">
+        <v>45577.396544930554</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>992</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>993</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>994</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>995</v>
+      </c>
+      <c r="F45" s="11" t="s">
+        <v>996</v>
+      </c>
+      <c r="G45" s="18" t="s">
+        <v>997</v>
+      </c>
+      <c r="H45" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="I45" s="11" t="s">
+        <v>999</v>
+      </c>
+      <c r="J45" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="K45" s="11" t="s">
+        <v>1001</v>
+      </c>
+      <c r="L45" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="O45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P45" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="Q45" s="13">
+        <v>0.69</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="S45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T45" s="11" t="s">
+        <v>1003</v>
+      </c>
+      <c r="U45" s="11">
         <v>3</v>
       </c>
-      <c r="V41" s="23" t="s">
-        <v>924</v>
-      </c>
-      <c r="W41" s="23" t="s">
-        <v>925</v>
-      </c>
-      <c r="X41" s="23" t="s">
-        <v>926</v>
-      </c>
-      <c r="Y41" s="23" t="s">
-        <v>927</v>
-      </c>
-      <c r="Z41" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AA41" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="AB41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AC41" s="23" t="s">
-        <v>928</v>
-      </c>
-      <c r="AD41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AE41" s="23" t="s">
-        <v>929</v>
-      </c>
-      <c r="AF41" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG41" s="23" t="s">
-        <v>930</v>
-      </c>
-      <c r="AH41" s="23" t="s">
-        <v>931</v>
-      </c>
-      <c r="AI41" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ41" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="AM41" s="23" t="s">
+      <c r="V45" s="11">
+        <v>300</v>
+      </c>
+      <c r="W45" s="22">
+        <v>58000</v>
+      </c>
+      <c r="X45" s="11" t="s">
+        <v>1004</v>
+      </c>
+      <c r="Y45" s="14">
+        <v>1433000</v>
+      </c>
+      <c r="Z45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA45" s="18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="AB45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AD45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG45" s="18" t="s">
+        <v>1006</v>
+      </c>
+      <c r="AH45" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="AI45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK45" s="11" t="s">
+        <v>1008</v>
+      </c>
+      <c r="AL45" s="11" t="s">
+        <v>1009</v>
+      </c>
+      <c r="AM45" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="AN41" s="23" t="s">
+      <c r="AN45" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ45" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR45" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AS45" s="11" t="s">
+        <v>1010</v>
+      </c>
+      <c r="AT45" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="AU45" s="11" t="s">
+        <v>894</v>
+      </c>
+      <c r="AV45" s="11" t="s">
+        <v>1012</v>
+      </c>
+      <c r="AX45" s="11" t="s">
+        <v>1013</v>
+      </c>
+      <c r="BB45" s="11" t="s">
+        <v>1014</v>
+      </c>
+      <c r="BC45" s="18" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="46" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="4">
+        <v>45577.553770694445</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G46" s="19" t="s">
+        <v>1021</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="K46" s="5" t="s">
+        <v>1023</v>
+      </c>
+      <c r="L46" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="M46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>1024</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P46" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="Q46" s="5" t="s">
+        <v>1026</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T46" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="U46" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="V46" s="5" t="s">
+        <v>1029</v>
+      </c>
+      <c r="W46" s="5" t="s">
+        <v>1030</v>
+      </c>
+      <c r="X46" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="Y46" s="5" t="s">
+        <v>1032</v>
+      </c>
+      <c r="Z46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA46" s="19" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AB46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC46" s="19" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AD46" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE46" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AF46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG46" s="19" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AH46" s="5" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AI46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK46" s="5" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AL46" s="5" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AM46" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN46" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP46" s="19" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AQ46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR46" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS46" s="5" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AT46" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AU46" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="AV46" s="5" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AW46" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="AX46" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="AY46" s="5" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AZ46" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="BA46" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="BC46" s="19" t="s">
+        <v>1045</v>
+      </c>
+      <c r="BD46" s="9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="10">
+        <v>45580.131104490742</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D47" s="11" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F47" s="11" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G47" s="18" t="s">
+        <v>1051</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>1052</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>1053</v>
+      </c>
+      <c r="K47" s="11" t="s">
+        <v>1054</v>
+      </c>
+      <c r="L47" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N47" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="O47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P47" s="11">
+        <v>100</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>100</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T47" s="11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="U47" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="V47" s="11" t="s">
+        <v>1056</v>
+      </c>
+      <c r="W47" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="X47" s="23">
+        <v>100000</v>
+      </c>
+      <c r="Z47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA47" s="11" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AB47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AD47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AF47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AI47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AM47" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN47" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO47" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ47" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR47" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AT47" s="11" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AU47" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="AX47" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="AY47" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="AZ47" s="11" t="s">
+        <v>895</v>
+      </c>
+      <c r="BC47" s="18" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="48" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4">
+        <v>45582.175835798611</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>1061</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>1063</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F48" s="5" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G48" s="19" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>1067</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>1068</v>
+      </c>
+      <c r="K48" s="5" t="s">
+        <v>1069</v>
+      </c>
+      <c r="L48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="5" t="s">
+        <v>1140</v>
+      </c>
+      <c r="O48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="P48" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="Q48" s="5" t="s">
+        <v>1070</v>
+      </c>
+      <c r="R48" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="S48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T48" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="U48" s="5" t="s">
+        <v>1071</v>
+      </c>
+      <c r="V48" s="5" t="s">
+        <v>1072</v>
+      </c>
+      <c r="W48" s="5" t="s">
+        <v>1073</v>
+      </c>
+      <c r="X48" s="5" t="s">
+        <v>1074</v>
+      </c>
+      <c r="Y48" s="5" t="s">
+        <v>1075</v>
+      </c>
+      <c r="Z48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA48" s="19" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AB48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC48" s="19" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AD48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE48" s="19" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AF48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG48" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AH48" s="19" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AI48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK48" s="19" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AL48" s="19" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AM48" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN48" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="AO41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AP41" s="23" t="s">
-        <v>932</v>
-      </c>
-      <c r="AQ41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AR41" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="AS41" s="23" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ41" s="23" t="s">
-        <v>101</v>
-      </c>
-      <c r="BC41" s="24" t="s">
-        <v>933</v>
-      </c>
-      <c r="BD41" s="26" t="s">
-        <v>101</v>
+      <c r="AO48" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP48" s="19" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AQ48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR48" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AX48" s="5" t="s">
+        <v>1083</v>
+      </c>
+      <c r="BC48" s="19" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="49" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="10">
+        <v>45581.482206157409</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D49" s="11" t="s">
+        <v>1087</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F49" s="11" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G49" s="18" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H49" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I49" s="11" t="s">
+        <v>1091</v>
+      </c>
+      <c r="J49" s="11" t="s">
+        <v>1092</v>
+      </c>
+      <c r="L49" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="P49" s="11" t="s">
+        <v>1094</v>
+      </c>
+      <c r="Q49" s="13">
+        <v>1</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="S49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="T49" s="11" t="s">
+        <v>1095</v>
+      </c>
+      <c r="U49" s="11">
+        <v>1</v>
+      </c>
+      <c r="V49" s="11" t="s">
+        <v>1096</v>
+      </c>
+      <c r="W49" s="11" t="s">
+        <v>1097</v>
+      </c>
+      <c r="X49" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="Y49" s="11" t="s">
+        <v>1099</v>
+      </c>
+      <c r="Z49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AB49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC49" s="18" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AD49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AF49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH49" s="11" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AI49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL49" s="11" t="s">
+        <v>1102</v>
+      </c>
+      <c r="AM49" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN49" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AQ49" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="AR49" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS49" s="11" t="s">
+        <v>1103</v>
+      </c>
+      <c r="AW49" s="11" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AX49" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="AY49" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="AZ49" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="BB49" s="11" t="s">
+        <v>1105</v>
+      </c>
+      <c r="BC49" s="18" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:56" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="24">
+        <v>45586.04486440972</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E50" s="25" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F50" s="25" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G50" s="26" t="s">
+        <v>1111</v>
+      </c>
+      <c r="H50" s="25" t="s">
+        <v>1112</v>
+      </c>
+      <c r="I50" s="25" t="s">
+        <v>1113</v>
+      </c>
+      <c r="J50" s="25" t="s">
+        <v>1114</v>
+      </c>
+      <c r="K50" s="25" t="s">
+        <v>1115</v>
+      </c>
+      <c r="L50" s="25" t="s">
+        <v>1116</v>
+      </c>
+      <c r="M50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="N50" s="25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="O50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="P50" s="27">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="25" t="s">
+        <v>1117</v>
+      </c>
+      <c r="R50" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="S50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="T50" s="25" t="s">
+        <v>1118</v>
+      </c>
+      <c r="U50" s="25" t="s">
+        <v>1119</v>
+      </c>
+      <c r="V50" s="25" t="s">
+        <v>1120</v>
+      </c>
+      <c r="W50" s="25" t="s">
+        <v>1121</v>
+      </c>
+      <c r="X50" s="25" t="s">
+        <v>1122</v>
+      </c>
+      <c r="Y50" s="25" t="s">
+        <v>1123</v>
+      </c>
+      <c r="Z50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA50" s="26" t="s">
+        <v>1124</v>
+      </c>
+      <c r="AB50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AC50" s="25" t="s">
+        <v>1125</v>
+      </c>
+      <c r="AD50" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="AE50" s="25" t="s">
+        <v>1126</v>
+      </c>
+      <c r="AF50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AG50" s="26" t="s">
+        <v>1127</v>
+      </c>
+      <c r="AH50" s="25" t="s">
+        <v>1128</v>
+      </c>
+      <c r="AI50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK50" s="25" t="s">
+        <v>1129</v>
+      </c>
+      <c r="AL50" s="25" t="s">
+        <v>1130</v>
+      </c>
+      <c r="AM50" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="AN50" s="25" t="s">
+        <v>160</v>
+      </c>
+      <c r="AO50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AP50" s="26" t="s">
+        <v>1131</v>
+      </c>
+      <c r="AQ50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR50" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AS50" s="25" t="s">
+        <v>1132</v>
+      </c>
+      <c r="AT50" s="25" t="s">
+        <v>302</v>
+      </c>
+      <c r="AU50" s="25" t="s">
+        <v>894</v>
+      </c>
+      <c r="AV50" s="25" t="s">
+        <v>1133</v>
+      </c>
+      <c r="AW50" s="25" t="s">
+        <v>1104</v>
+      </c>
+      <c r="AX50" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AY50" s="25" t="s">
+        <v>1134</v>
+      </c>
+      <c r="AZ50" s="25" t="s">
+        <v>1135</v>
+      </c>
+      <c r="BA50" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="BB50" s="25" t="s">
+        <v>1136</v>
+      </c>
+      <c r="BC50" s="25" t="s">
+        <v>1137</v>
+      </c>
+      <c r="BD50" s="28" t="s">
+        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -9964,11 +12075,53 @@
     <hyperlink ref="BC40" r:id="rId102" xr:uid="{00000000-0004-0000-0000-000065000000}"/>
     <hyperlink ref="G41" r:id="rId103" xr:uid="{00000000-0004-0000-0000-000066000000}"/>
     <hyperlink ref="BC41" r:id="rId104" xr:uid="{00000000-0004-0000-0000-000067000000}"/>
-    <hyperlink ref="H33" r:id="rId105" xr:uid="{F424230D-CE84-B141-A1C5-BDED2E23C654}"/>
+    <hyperlink ref="G42" r:id="rId105" xr:uid="{00000000-0004-0000-0000-000068000000}"/>
+    <hyperlink ref="BC42" r:id="rId106" xr:uid="{00000000-0004-0000-0000-000069000000}"/>
+    <hyperlink ref="G43" r:id="rId107" xr:uid="{00000000-0004-0000-0000-00006A000000}"/>
+    <hyperlink ref="AG43" r:id="rId108" xr:uid="{00000000-0004-0000-0000-00006B000000}"/>
+    <hyperlink ref="AH43" r:id="rId109" xr:uid="{00000000-0004-0000-0000-00006C000000}"/>
+    <hyperlink ref="BC43" r:id="rId110" xr:uid="{00000000-0004-0000-0000-00006D000000}"/>
+    <hyperlink ref="G44" r:id="rId111" xr:uid="{00000000-0004-0000-0000-00006E000000}"/>
+    <hyperlink ref="AA44" r:id="rId112" xr:uid="{00000000-0004-0000-0000-00006F000000}"/>
+    <hyperlink ref="AC44" r:id="rId113" xr:uid="{00000000-0004-0000-0000-000070000000}"/>
+    <hyperlink ref="AE44" r:id="rId114" xr:uid="{00000000-0004-0000-0000-000071000000}"/>
+    <hyperlink ref="AG44" r:id="rId115" xr:uid="{00000000-0004-0000-0000-000072000000}"/>
+    <hyperlink ref="AP44" r:id="rId116" xr:uid="{00000000-0004-0000-0000-000073000000}"/>
+    <hyperlink ref="BC44" r:id="rId117" xr:uid="{00000000-0004-0000-0000-000074000000}"/>
+    <hyperlink ref="G45" r:id="rId118" xr:uid="{00000000-0004-0000-0000-000075000000}"/>
+    <hyperlink ref="AA45" r:id="rId119" location="/orgs/bandahealth/sources/BHGO/" xr:uid="{00000000-0004-0000-0000-000076000000}"/>
+    <hyperlink ref="AG45" r:id="rId120" xr:uid="{00000000-0004-0000-0000-000077000000}"/>
+    <hyperlink ref="BC45" r:id="rId121" xr:uid="{00000000-0004-0000-0000-000078000000}"/>
+    <hyperlink ref="G46" r:id="rId122" xr:uid="{00000000-0004-0000-0000-000079000000}"/>
+    <hyperlink ref="AA46" r:id="rId123" xr:uid="{00000000-0004-0000-0000-00007A000000}"/>
+    <hyperlink ref="AC46" r:id="rId124" xr:uid="{00000000-0004-0000-0000-00007B000000}"/>
+    <hyperlink ref="AG46" r:id="rId125" xr:uid="{00000000-0004-0000-0000-00007C000000}"/>
+    <hyperlink ref="AP46" r:id="rId126" xr:uid="{00000000-0004-0000-0000-00007D000000}"/>
+    <hyperlink ref="BC46" r:id="rId127" xr:uid="{00000000-0004-0000-0000-00007E000000}"/>
+    <hyperlink ref="G47" r:id="rId128" xr:uid="{00000000-0004-0000-0000-00007F000000}"/>
+    <hyperlink ref="BC47" r:id="rId129" xr:uid="{00000000-0004-0000-0000-000080000000}"/>
+    <hyperlink ref="G48" r:id="rId130" xr:uid="{00000000-0004-0000-0000-000081000000}"/>
+    <hyperlink ref="AA48" r:id="rId131" xr:uid="{00000000-0004-0000-0000-000082000000}"/>
+    <hyperlink ref="AC48" r:id="rId132" xr:uid="{00000000-0004-0000-0000-000083000000}"/>
+    <hyperlink ref="AE48" r:id="rId133" xr:uid="{00000000-0004-0000-0000-000084000000}"/>
+    <hyperlink ref="AG48" r:id="rId134" xr:uid="{00000000-0004-0000-0000-000085000000}"/>
+    <hyperlink ref="AH48" r:id="rId135" xr:uid="{00000000-0004-0000-0000-000086000000}"/>
+    <hyperlink ref="AK48" r:id="rId136" xr:uid="{00000000-0004-0000-0000-000087000000}"/>
+    <hyperlink ref="AL48" r:id="rId137" xr:uid="{00000000-0004-0000-0000-000088000000}"/>
+    <hyperlink ref="AP48" r:id="rId138" xr:uid="{00000000-0004-0000-0000-000089000000}"/>
+    <hyperlink ref="BC48" r:id="rId139" xr:uid="{00000000-0004-0000-0000-00008A000000}"/>
+    <hyperlink ref="G49" r:id="rId140" xr:uid="{00000000-0004-0000-0000-00008B000000}"/>
+    <hyperlink ref="AC49" r:id="rId141" xr:uid="{00000000-0004-0000-0000-00008C000000}"/>
+    <hyperlink ref="BC49" r:id="rId142" xr:uid="{00000000-0004-0000-0000-00008D000000}"/>
+    <hyperlink ref="G50" r:id="rId143" xr:uid="{00000000-0004-0000-0000-00008E000000}"/>
+    <hyperlink ref="AA50" r:id="rId144" xr:uid="{00000000-0004-0000-0000-00008F000000}"/>
+    <hyperlink ref="AG50" r:id="rId145" xr:uid="{00000000-0004-0000-0000-000090000000}"/>
+    <hyperlink ref="AP50" r:id="rId146" xr:uid="{00000000-0004-0000-0000-000091000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId147"/>
   <tableParts count="1">
-    <tablePart r:id="rId106"/>
+    <tablePart r:id="rId148"/>
   </tableParts>
 </worksheet>
 </file>